--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJeon\Documents\GitHub\PayBack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="615" windowWidth="16935" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -12,8 +17,7 @@
     <sheet name="Sprint 1" sheetId="4" r:id="rId3"/>
     <sheet name="Sprint 1 Burndown" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -23,7 +27,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +50,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +73,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1909,6 +1913,12 @@
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1959,12 +1969,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1985,6 +1989,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2104,25 +2111,25 @@
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2235,11 +2242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40264064"/>
-        <c:axId val="40265984"/>
+        <c:axId val="188679192"/>
+        <c:axId val="188678016"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="40264064"/>
+        <c:axId val="188679192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2275,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="40265984"/>
+        <c:crossAx val="188678016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2276,7 +2283,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40265984"/>
+        <c:axId val="188678016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2321,7 +2328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40264064"/>
+        <c:crossAx val="188679192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2560,7 +2567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2595,7 +2602,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2821,13 +2828,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -3789,10 +3796,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
@@ -4010,13 +4017,13 @@
       <c r="A17" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="82" t="s">
         <v>202</v>
       </c>
       <c r="C17" s="48">
         <v>4</v>
       </c>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4024,13 +4031,13 @@
       <c r="A18" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="82" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="48">
         <v>4</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4038,13 +4045,13 @@
       <c r="A19" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="82" t="s">
         <v>204</v>
       </c>
       <c r="C19" s="48">
         <v>4</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4052,13 +4059,13 @@
       <c r="A20" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="82" t="s">
         <v>205</v>
       </c>
       <c r="C20" s="48">
         <v>8</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4066,13 +4073,13 @@
       <c r="A21" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="82" t="s">
         <v>206</v>
       </c>
       <c r="C21" s="48">
         <v>4</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4080,13 +4087,13 @@
       <c r="A22" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="82" t="s">
         <v>207</v>
       </c>
       <c r="C22" s="48">
         <v>4</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4094,13 +4101,13 @@
       <c r="A23" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="82" t="s">
         <v>208</v>
       </c>
       <c r="C23" s="48">
         <v>4</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="83" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4108,13 +4115,13 @@
       <c r="A24" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="82" t="s">
         <v>209</v>
       </c>
       <c r="C24" s="48">
         <v>4</v>
       </c>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4122,13 +4129,13 @@
       <c r="A25" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="82" t="s">
         <v>210</v>
       </c>
       <c r="C25" s="48">
         <v>8</v>
       </c>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4712,8 +4719,8 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4741,21 +4748,21 @@
       <c r="G1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="88" t="s">
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="88" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="90"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -5390,19 +5397,19 @@
         <v>4</v>
       </c>
       <c r="L15" s="53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15" s="56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" s="57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O15" s="53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15" s="53">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5430,25 +5437,25 @@
         <v>4</v>
       </c>
       <c r="J16" s="56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" s="57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L16" s="53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M16" s="56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N16" s="57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O16" s="53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P16" s="53">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5482,19 +5489,19 @@
         <v>4</v>
       </c>
       <c r="L17" s="53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M17" s="54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N17" s="55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O17" s="53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P17" s="53">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5865,30 +5872,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -5974,31 +5981,31 @@
       </c>
       <c r="D5" s="34">
         <f>SUM('Sprint 1'!J3:J31)</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="12">
         <f>SUM('Sprint 1'!K3:K31)</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F5" s="17">
         <f>SUM('Sprint 1'!L3:L31)</f>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G5" s="34">
         <f>SUM('Sprint 1'!M3:M31)</f>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H5" s="12">
         <f>SUM('Sprint 1'!N3:N31)</f>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I5" s="17">
         <f>SUM('Sprint 1'!O3:O31)</f>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J5" s="34">
         <f>SUM('Sprint 1'!P3:P31)</f>
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJeon\Documents\GitHub\PayBack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="615" windowWidth="16935" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Sprint 1" sheetId="4" r:id="rId3"/>
     <sheet name="Sprint 1 Burndown" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -27,7 +22,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +45,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +68,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="213">
   <si>
     <t>User Stories</t>
   </si>
@@ -769,17 +764,27 @@
   </si>
   <si>
     <t>Total Hrs:</t>
+  </si>
+  <si>
+    <t>Figure out how to connect database to app.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="54" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="55">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1669,80 +1674,80 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1751,224 +1756,230 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="25" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="25" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="36" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="32" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="36" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1999,17 +2010,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2027,10 +2029,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
@@ -2120,16 +2119,16 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2234,19 +2233,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="188679192"/>
-        <c:axId val="188678016"/>
+        <c:dLbls/>
+        <c:axId val="237650304"/>
+        <c:axId val="237652224"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="188679192"/>
+        <c:axId val="237650304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,14 +2260,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="188678016"/>
+        <c:crossAx val="237652224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2283,11 +2273,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188678016"/>
+        <c:axId val="237652224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2306,8 +2295,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -2328,15 +2315,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188679192"/>
+        <c:crossAx val="237650304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -2344,7 +2329,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2567,7 +2552,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2599,10 +2584,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2634,7 +2618,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2810,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2818,7 +2801,7 @@
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -2827,7 +2810,7 @@
     <col min="5" max="5" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="26.25" customHeight="1">
       <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +2819,7 @@
       <c r="D1" s="84"/>
       <c r="E1" s="84"/>
     </row>
-    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2854,7 +2837,7 @@
       </c>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>34</v>
       </c>
@@ -2872,7 +2855,7 @@
       </c>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1">
       <c r="A4" s="35" t="s">
         <v>34</v>
       </c>
@@ -2890,7 +2873,7 @@
       </c>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1">
       <c r="A5" s="35" t="s">
         <v>34</v>
       </c>
@@ -2908,7 +2891,7 @@
       </c>
       <c r="F5" s="43"/>
     </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="18.75" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>34</v>
       </c>
@@ -2926,7 +2909,7 @@
       </c>
       <c r="F6" s="79"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="18.75" customHeight="1">
       <c r="A7" s="38" t="s">
         <v>34</v>
       </c>
@@ -2944,7 +2927,7 @@
       </c>
       <c r="F7" s="43"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="18.75" customHeight="1">
       <c r="A8" s="38" t="s">
         <v>34</v>
       </c>
@@ -2962,7 +2945,7 @@
       </c>
       <c r="F8" s="43"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="18.75" customHeight="1">
       <c r="A9" s="38" t="s">
         <v>34</v>
       </c>
@@ -2980,7 +2963,7 @@
       </c>
       <c r="F9" s="43"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="18.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>34</v>
       </c>
@@ -2998,7 +2981,7 @@
       </c>
       <c r="F10" s="43"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="18.75" customHeight="1">
       <c r="A11" s="38" t="s">
         <v>34</v>
       </c>
@@ -3016,7 +2999,7 @@
       </c>
       <c r="F11" s="43"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="18.75" customHeight="1">
       <c r="A12" s="35" t="s">
         <v>34</v>
       </c>
@@ -3034,7 +3017,7 @@
       </c>
       <c r="F12" s="43"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="18.75" customHeight="1">
       <c r="A13" s="39" t="s">
         <v>53</v>
       </c>
@@ -3052,7 +3035,7 @@
       </c>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="18.75" customHeight="1">
       <c r="A14" s="39" t="s">
         <v>53</v>
       </c>
@@ -3070,7 +3053,7 @@
       </c>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="18.75" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>53</v>
       </c>
@@ -3088,7 +3071,7 @@
       </c>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="18.75" customHeight="1">
       <c r="A16" s="36" t="s">
         <v>53</v>
       </c>
@@ -3106,7 +3089,7 @@
       </c>
       <c r="F16" s="43"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="39" t="s">
         <v>53</v>
       </c>
@@ -3124,7 +3107,7 @@
       </c>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="39" t="s">
         <v>53</v>
       </c>
@@ -3142,7 +3125,7 @@
       </c>
       <c r="F18" s="43"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="39" t="s">
         <v>53</v>
       </c>
@@ -3160,7 +3143,7 @@
       </c>
       <c r="F19" s="43"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1">
       <c r="A20" s="39" t="s">
         <v>53</v>
       </c>
@@ -3178,7 +3161,7 @@
       </c>
       <c r="F20" s="43"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="39" t="s">
         <v>53</v>
       </c>
@@ -3196,7 +3179,7 @@
       </c>
       <c r="F21" s="43"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="39" t="s">
         <v>53</v>
       </c>
@@ -3214,7 +3197,7 @@
       </c>
       <c r="F22" s="43"/>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1">
       <c r="A23" s="39" t="s">
         <v>53</v>
       </c>
@@ -3232,7 +3215,7 @@
       </c>
       <c r="F23" s="43"/>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="39" t="s">
         <v>53</v>
       </c>
@@ -3250,7 +3233,7 @@
       </c>
       <c r="F24" s="43"/>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25" s="39" t="s">
         <v>53</v>
       </c>
@@ -3268,7 +3251,7 @@
       </c>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
       <c r="A26" s="39" t="s">
         <v>53</v>
       </c>
@@ -3286,7 +3269,7 @@
       </c>
       <c r="F26" s="43"/>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="39" t="s">
         <v>53</v>
       </c>
@@ -3304,7 +3287,7 @@
       </c>
       <c r="F27" s="43"/>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="39" t="s">
         <v>53</v>
       </c>
@@ -3322,7 +3305,7 @@
       </c>
       <c r="F28" s="43"/>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29" s="36" t="s">
         <v>53</v>
       </c>
@@ -3340,7 +3323,7 @@
       </c>
       <c r="F29" s="43"/>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30" s="39" t="s">
         <v>53</v>
       </c>
@@ -3358,7 +3341,7 @@
       </c>
       <c r="F30" s="43"/>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31" s="39" t="s">
         <v>53</v>
       </c>
@@ -3376,7 +3359,7 @@
       </c>
       <c r="F31" s="43"/>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1">
       <c r="A32" s="39" t="s">
         <v>53</v>
       </c>
@@ -3394,7 +3377,7 @@
       </c>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1">
       <c r="A33" s="36" t="s">
         <v>53</v>
       </c>
@@ -3412,7 +3395,7 @@
       </c>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1">
       <c r="A34" s="40" t="s">
         <v>96</v>
       </c>
@@ -3429,7 +3412,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1">
       <c r="A35" s="40" t="s">
         <v>96</v>
       </c>
@@ -3446,7 +3429,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1">
       <c r="A36" s="40" t="s">
         <v>96</v>
       </c>
@@ -3463,7 +3446,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1">
       <c r="A37" s="37" t="s">
         <v>96</v>
       </c>
@@ -3480,7 +3463,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1">
       <c r="A38" s="40" t="s">
         <v>96</v>
       </c>
@@ -3497,7 +3480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="18.75" customHeight="1">
       <c r="A39" s="40" t="s">
         <v>96</v>
       </c>
@@ -3514,7 +3497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="18.75" customHeight="1">
       <c r="A40" s="40" t="s">
         <v>96</v>
       </c>
@@ -3531,7 +3514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="18.75" customHeight="1">
       <c r="A41" s="40" t="s">
         <v>96</v>
       </c>
@@ -3548,7 +3531,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="18.75" customHeight="1">
       <c r="A42" s="40" t="s">
         <v>96</v>
       </c>
@@ -3565,7 +3548,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="18.75" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>96</v>
       </c>
@@ -3582,7 +3565,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="18.75" customHeight="1">
       <c r="A44" s="37" t="s">
         <v>96</v>
       </c>
@@ -3599,7 +3582,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="18.75" customHeight="1">
       <c r="A45" s="37" t="s">
         <v>96</v>
       </c>
@@ -3616,7 +3599,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="18.75" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>96</v>
       </c>
@@ -3633,7 +3616,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="18.75" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>96</v>
       </c>
@@ -3650,7 +3633,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="18.75" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>96</v>
       </c>
@@ -3667,7 +3650,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>96</v>
       </c>
@@ -3684,7 +3667,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1">
       <c r="A50" s="40" t="s">
         <v>96</v>
       </c>
@@ -3701,7 +3684,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1">
       <c r="A51" s="40" t="s">
         <v>96</v>
       </c>
@@ -3718,7 +3701,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1">
       <c r="A52" s="40" t="s">
         <v>96</v>
       </c>
@@ -3735,7 +3718,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1">
       <c r="A53" s="40" t="s">
         <v>96</v>
       </c>
@@ -3752,7 +3735,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1">
       <c r="A54" s="40" t="s">
         <v>96</v>
       </c>
@@ -3780,7 +3763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3788,14 +3771,14 @@
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="78.140625" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="24" customHeight="1">
       <c r="A1" s="86" t="s">
         <v>11</v>
       </c>
@@ -3803,7 +3786,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -3817,7 +3800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
       <c r="A3" s="46" t="s">
         <v>34</v>
       </c>
@@ -3831,7 +3814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
       <c r="A4" s="46" t="s">
         <v>34</v>
       </c>
@@ -3845,7 +3828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
       <c r="A5" s="46" t="s">
         <v>34</v>
       </c>
@@ -3859,7 +3842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1">
       <c r="A6" s="46" t="s">
         <v>34</v>
       </c>
@@ -3873,7 +3856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1">
       <c r="A7" s="46" t="s">
         <v>34</v>
       </c>
@@ -3887,7 +3870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1">
       <c r="A8" s="46" t="s">
         <v>34</v>
       </c>
@@ -3901,7 +3884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1">
       <c r="A9" s="46" t="s">
         <v>34</v>
       </c>
@@ -3915,7 +3898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1">
       <c r="A10" s="46" t="s">
         <v>34</v>
       </c>
@@ -3929,7 +3912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1">
       <c r="A11" s="46" t="s">
         <v>34</v>
       </c>
@@ -3943,7 +3926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1">
       <c r="A12" s="46" t="s">
         <v>34</v>
       </c>
@@ -3957,7 +3940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1">
       <c r="A13" s="46" t="s">
         <v>34</v>
       </c>
@@ -3971,7 +3954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1">
       <c r="A14" s="46" t="s">
         <v>34</v>
       </c>
@@ -3985,7 +3968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1">
       <c r="A15" s="46" t="s">
         <v>34</v>
       </c>
@@ -3999,7 +3982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1">
       <c r="A16" s="46" t="s">
         <v>34</v>
       </c>
@@ -4013,7 +3996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1">
       <c r="A17" s="49" t="s">
         <v>34</v>
       </c>
@@ -4027,7 +4010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1">
       <c r="A18" s="49" t="s">
         <v>34</v>
       </c>
@@ -4041,7 +4024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1">
       <c r="A19" s="49" t="s">
         <v>34</v>
       </c>
@@ -4055,7 +4038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1">
       <c r="A20" s="49" t="s">
         <v>34</v>
       </c>
@@ -4069,7 +4052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1">
       <c r="A21" s="49" t="s">
         <v>34</v>
       </c>
@@ -4083,7 +4066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1">
       <c r="A22" s="49" t="s">
         <v>34</v>
       </c>
@@ -4097,7 +4080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1">
       <c r="A23" s="49" t="s">
         <v>34</v>
       </c>
@@ -4111,7 +4094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1">
       <c r="A24" s="49" t="s">
         <v>34</v>
       </c>
@@ -4125,7 +4108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1">
       <c r="A25" s="49" t="s">
         <v>34</v>
       </c>
@@ -4139,7 +4122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1">
       <c r="A26" s="46" t="s">
         <v>34</v>
       </c>
@@ -4153,7 +4136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1">
       <c r="A27" s="46" t="s">
         <v>34</v>
       </c>
@@ -4167,7 +4150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1">
       <c r="A28" s="44" t="s">
         <v>53</v>
       </c>
@@ -4181,7 +4164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1">
       <c r="A29" s="44" t="s">
         <v>53</v>
       </c>
@@ -4195,7 +4178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1">
       <c r="A30" s="44" t="s">
         <v>53</v>
       </c>
@@ -4209,7 +4192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1">
       <c r="A31" s="44" t="s">
         <v>53</v>
       </c>
@@ -4223,7 +4206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1">
       <c r="A32" s="44" t="s">
         <v>53</v>
       </c>
@@ -4237,7 +4220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1">
       <c r="A33" s="44" t="s">
         <v>53</v>
       </c>
@@ -4251,7 +4234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1">
       <c r="A34" s="44" t="s">
         <v>53</v>
       </c>
@@ -4265,7 +4248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1">
       <c r="A35" s="44" t="s">
         <v>53</v>
       </c>
@@ -4279,7 +4262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1">
       <c r="A36" s="44" t="s">
         <v>53</v>
       </c>
@@ -4293,7 +4276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1">
       <c r="A37" s="44" t="s">
         <v>53</v>
       </c>
@@ -4307,7 +4290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1">
       <c r="A38" s="44" t="s">
         <v>53</v>
       </c>
@@ -4321,7 +4304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1">
       <c r="A39" s="44" t="s">
         <v>53</v>
       </c>
@@ -4335,7 +4318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1">
       <c r="A40" s="44" t="s">
         <v>53</v>
       </c>
@@ -4349,7 +4332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1">
       <c r="A41" s="44" t="s">
         <v>53</v>
       </c>
@@ -4363,7 +4346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>53</v>
       </c>
@@ -4377,7 +4360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1">
       <c r="A43" s="44" t="s">
         <v>53</v>
       </c>
@@ -4391,7 +4374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1">
       <c r="A44" s="44" t="s">
         <v>53</v>
       </c>
@@ -4405,7 +4388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1">
       <c r="A45" s="44" t="s">
         <v>53</v>
       </c>
@@ -4419,7 +4402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1">
       <c r="A46" s="44" t="s">
         <v>53</v>
       </c>
@@ -4433,7 +4416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1">
       <c r="A47" s="44" t="s">
         <v>53</v>
       </c>
@@ -4447,7 +4430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1">
       <c r="A48" s="50" t="s">
         <v>96</v>
       </c>
@@ -4461,7 +4444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1">
       <c r="A49" s="50" t="s">
         <v>96</v>
       </c>
@@ -4475,7 +4458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1">
       <c r="A50" s="50" t="s">
         <v>96</v>
       </c>
@@ -4489,7 +4472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1">
       <c r="A51" s="50" t="s">
         <v>96</v>
       </c>
@@ -4503,7 +4486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1">
       <c r="A52" s="50" t="s">
         <v>96</v>
       </c>
@@ -4517,7 +4500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="18.75" customHeight="1">
       <c r="A53" s="50" t="s">
         <v>96</v>
       </c>
@@ -4531,7 +4514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="18.75" customHeight="1">
       <c r="A54" s="50" t="s">
         <v>96</v>
       </c>
@@ -4545,7 +4528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="18.75" customHeight="1">
       <c r="A55" s="50" t="s">
         <v>96</v>
       </c>
@@ -4559,7 +4542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="18.75" customHeight="1">
       <c r="A56" s="50" t="s">
         <v>96</v>
       </c>
@@ -4573,7 +4556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="18.75" customHeight="1">
       <c r="A57" s="50" t="s">
         <v>96</v>
       </c>
@@ -4587,7 +4570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="18.75" customHeight="1">
       <c r="A58" s="50" t="s">
         <v>96</v>
       </c>
@@ -4601,7 +4584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="18.75" customHeight="1">
       <c r="A59" s="50" t="s">
         <v>96</v>
       </c>
@@ -4615,7 +4598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="18.75" customHeight="1">
       <c r="A60" s="50" t="s">
         <v>96</v>
       </c>
@@ -4629,7 +4612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="18.75" customHeight="1">
       <c r="A61" s="50" t="s">
         <v>96</v>
       </c>
@@ -4643,7 +4626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="18.75" customHeight="1">
       <c r="A62" s="50" t="s">
         <v>96</v>
       </c>
@@ -4657,7 +4640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="18.75" customHeight="1">
       <c r="A63" s="50" t="s">
         <v>96</v>
       </c>
@@ -4671,7 +4654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="18.75" customHeight="1">
       <c r="A64" s="50" t="s">
         <v>96</v>
       </c>
@@ -4685,7 +4668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" ht="12.75" customHeight="1">
       <c r="C65">
         <f>SUM(C3:C64)</f>
         <v>248</v>
@@ -4699,8 +4682,8 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="81" yWindow="476" count="1">
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="validationFailedClick and enter a value from range 'User Stories'!A3:A15">
           <x14:formula1>
@@ -4715,15 +4698,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="80.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
@@ -4736,7 +4719,7 @@
     <col min="9" max="16" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="29.25" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>15</v>
       </c>
@@ -4764,7 +4747,7 @@
       <c r="O1" s="91"/>
       <c r="P1" s="92"/>
     </row>
-    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="25.5">
       <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
@@ -4814,7 +4797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="24" customHeight="1">
       <c r="A3" s="81" t="s">
         <v>201</v>
       </c>
@@ -4860,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="24" customHeight="1">
       <c r="A4" s="46" t="s">
         <v>133</v>
       </c>
@@ -4906,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="24" customHeight="1">
       <c r="A5" s="46" t="s">
         <v>134</v>
       </c>
@@ -4952,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="24" customHeight="1">
       <c r="A6" s="46" t="s">
         <v>141</v>
       </c>
@@ -4998,7 +4981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="24" customHeight="1">
       <c r="A7" s="46" t="s">
         <v>135</v>
       </c>
@@ -5044,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="24" customHeight="1">
       <c r="A8" s="46" t="s">
         <v>137</v>
       </c>
@@ -5090,7 +5073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="24" customHeight="1">
       <c r="A9" s="46" t="s">
         <v>139</v>
       </c>
@@ -5136,7 +5119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="24" customHeight="1">
       <c r="A10" s="46" t="s">
         <v>138</v>
       </c>
@@ -5182,7 +5165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="24" customHeight="1">
       <c r="A11" s="47" t="s">
         <v>140</v>
       </c>
@@ -5228,7 +5211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="24" customHeight="1">
       <c r="A12" s="47" t="s">
         <v>136</v>
       </c>
@@ -5274,7 +5257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="24" customHeight="1">
       <c r="A13" s="44" t="s">
         <v>150</v>
       </c>
@@ -5320,9 +5303,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>172</v>
+    <row r="14" spans="1:16" ht="24" customHeight="1">
+      <c r="A14" s="102" t="s">
+        <v>212</v>
       </c>
       <c r="B14" s="50">
         <v>4</v>
@@ -5333,8 +5316,8 @@
       <c r="D14" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="67" t="s">
-        <v>28</v>
+      <c r="E14" s="75" t="s">
+        <v>194</v>
       </c>
       <c r="F14" s="50"/>
       <c r="G14" s="56"/>
@@ -5366,7 +5349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="24" customHeight="1">
       <c r="A15" s="50" t="s">
         <v>173</v>
       </c>
@@ -5379,8 +5362,8 @@
       <c r="D15" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="67" t="s">
-        <v>28</v>
+      <c r="E15" s="75" t="s">
+        <v>194</v>
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="56"/>
@@ -5400,19 +5383,19 @@
         <v>2</v>
       </c>
       <c r="M15" s="56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" s="53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="24" customHeight="1">
       <c r="A16" s="50" t="s">
         <v>174</v>
       </c>
@@ -5425,8 +5408,8 @@
       <c r="D16" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="67" t="s">
-        <v>28</v>
+      <c r="E16" s="101" t="s">
+        <v>194</v>
       </c>
       <c r="F16" s="50"/>
       <c r="G16" s="56"/>
@@ -5458,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="24" customHeight="1">
       <c r="A17" s="50" t="s">
         <v>176</v>
       </c>
@@ -5504,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="24" customHeight="1">
       <c r="A18" s="50" t="s">
         <v>180</v>
       </c>
@@ -5550,7 +5533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="24" customHeight="1">
       <c r="A19" s="50" t="s">
         <v>181</v>
       </c>
@@ -5596,7 +5579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="24" customHeight="1">
       <c r="A20" s="80" t="s">
         <v>197</v>
       </c>
@@ -5642,7 +5625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="24" customHeight="1">
       <c r="A21" s="80" t="s">
         <v>199</v>
       </c>
@@ -5688,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="24" customHeight="1">
       <c r="A22" s="80" t="s">
         <v>200</v>
       </c>
@@ -5734,7 +5717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="24" customHeight="1">
       <c r="A23" s="71" t="s">
         <v>195</v>
       </c>
@@ -5780,8 +5763,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="24" customHeight="1"/>
+    <row r="25" spans="1:16" ht="24" customHeight="1">
       <c r="F25" s="43" t="s">
         <v>211</v>
       </c>
@@ -5790,13 +5773,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="24" customHeight="1"/>
+    <row r="27" spans="1:16" ht="24" customHeight="1"/>
+    <row r="28" spans="1:16" ht="24" customHeight="1"/>
+    <row r="29" spans="1:16" ht="24" customHeight="1"/>
+    <row r="30" spans="1:16" ht="24" customHeight="1"/>
+    <row r="31" spans="1:16" ht="24" customHeight="1"/>
+    <row r="32" spans="1:16" ht="24" customHeight="1">
       <c r="E32" s="24"/>
       <c r="L32" s="23"/>
       <c r="M32" s="5"/>
@@ -5804,7 +5787,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
     </row>
-    <row r="33" spans="5:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:16" ht="24" customHeight="1">
       <c r="E33" s="24"/>
       <c r="L33" s="23"/>
       <c r="M33" s="5"/>
@@ -5812,7 +5795,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
     </row>
-    <row r="34" spans="5:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:16" ht="24" customHeight="1">
       <c r="E34" s="24"/>
       <c r="L34" s="23"/>
       <c r="M34" s="5"/>
@@ -5820,7 +5803,7 @@
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
     </row>
-    <row r="35" spans="5:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:16" ht="24" customHeight="1">
       <c r="E35" s="24"/>
       <c r="L35" s="23"/>
       <c r="M35" s="5"/>
@@ -5828,7 +5811,7 @@
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
     </row>
-    <row r="36" spans="5:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:16" ht="24" customHeight="1">
       <c r="E36" s="24"/>
       <c r="L36" s="23"/>
       <c r="M36" s="5"/>
@@ -5858,7 +5841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5866,12 +5849,12 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="2" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5" customHeight="1">
       <c r="A1" s="93" t="s">
         <v>29</v>
       </c>
@@ -5885,7 +5868,7 @@
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="10"/>
       <c r="B2" s="95"/>
       <c r="C2" s="96"/>
@@ -5897,7 +5880,7 @@
       <c r="I2" s="99"/>
       <c r="J2" s="100"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -5929,7 +5912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="27" customHeight="1">
       <c r="A4" s="31"/>
       <c r="B4" s="26">
         <v>1</v>
@@ -5967,7 +5950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>31</v>
       </c>
@@ -5993,22 +5976,22 @@
       </c>
       <c r="G5" s="34">
         <f>SUM('Sprint 1'!M3:M31)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" s="12">
         <f>SUM('Sprint 1'!N3:N31)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" s="17">
         <f>SUM('Sprint 1'!O3:O31)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J5" s="34">
         <f>SUM('Sprint 1'!P3:P31)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>32</v>
       </c>
@@ -6049,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="24" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>33</v>
       </c>
@@ -6059,7 +6042,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -6067,7 +6050,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="26.25" customHeight="1">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -6075,7 +6058,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="26.25" customHeight="1">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -6083,7 +6066,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="26.25" customHeight="1">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -6091,7 +6074,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -6099,7 +6082,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="26.25" customHeight="1">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -6107,7 +6090,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="26.25" customHeight="1">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -6115,7 +6098,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="26.25" customHeight="1">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -6123,7 +6106,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="26.25" customHeight="1">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -6131,7 +6114,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -6139,7 +6122,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -6147,7 +6130,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -6155,7 +6138,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -6163,7 +6146,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -6171,7 +6154,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -6179,7 +6162,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -6187,7 +6170,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -6195,7 +6178,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -1924,6 +1924,12 @@
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1974,12 +1980,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2233,12 +2233,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="237650304"/>
-        <c:axId val="237652224"/>
+        <c:axId val="228204928"/>
+        <c:axId val="228206848"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="237650304"/>
+        <c:axId val="228204928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,7 +2264,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="237652224"/>
+        <c:crossAx val="228206848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2273,7 +2272,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237652224"/>
+        <c:axId val="228206848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237650304"/>
+        <c:crossAx val="228204928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2329,7 +2328,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2811,13 +2810,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -3779,10 +3778,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
@@ -4702,8 +4701,8 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4731,21 +4730,21 @@
       <c r="G1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90" t="s">
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="90" t="s">
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="92"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="25.5">
       <c r="A2" s="32" t="s">
@@ -5304,7 +5303,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="85" t="s">
         <v>212</v>
       </c>
       <c r="B14" s="50">
@@ -5316,8 +5315,8 @@
       <c r="D14" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="75" t="s">
-        <v>194</v>
+      <c r="E14" s="67" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="50"/>
       <c r="G14" s="56"/>
@@ -5408,7 +5407,7 @@
       <c r="D16" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="84" t="s">
         <v>194</v>
       </c>
       <c r="F16" s="50"/>
@@ -5855,30 +5854,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="1" t="s">

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="Sprint 2 Burndown" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -196,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="235">
   <si>
     <t>User Stories</t>
   </si>
@@ -898,17 +897,27 @@
   </si>
   <si>
     <t>Minor aesthetic improvements</t>
+  </si>
+  <si>
+    <t>Create "add contact" page sequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1832,411 +1841,417 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="34" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="50" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="33" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="49" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2295,7 +2310,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2521,11 +2535,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="57280000"/>
-        <c:axId val="57281920"/>
+        <c:axId val="120736000"/>
+        <c:axId val="120742272"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="57280000"/>
+        <c:axId val="120736000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,21 +2573,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="57281920"/>
+        <c:crossAx val="120742272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57281920"/>
+        <c:axId val="120742272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,7 +2609,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2618,14 +2630,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57280000"/>
+        <c:crossAx val="120736000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2748,31 +2759,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2847,30 +2858,52 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.125</c:v>
+                  <c:v>90.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.25</c:v>
+                  <c:v>77.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.375</c:v>
+                  <c:v>64.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.5</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.625</c:v>
+                  <c:v>38.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.75</c:v>
+                  <c:v>25.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.875</c:v>
+                  <c:v>12.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Id</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2 Burndown'!$L$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2896,11 +2929,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="58373632"/>
-        <c:axId val="58375552"/>
+        <c:axId val="121612544"/>
+        <c:axId val="121614720"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="58373632"/>
+        <c:axId val="121612544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2941,14 +2974,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="58375552"/>
+        <c:crossAx val="121614720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58375552"/>
+        <c:axId val="121614720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,7 +3026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58373632"/>
+        <c:crossAx val="121612544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3525,13 +3558,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4481,8 +4514,8 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4494,10 +4527,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="111"/>
+      <c r="B1" s="120"/>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
@@ -4816,11 +4849,11 @@
       <c r="A21" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="68" t="s">
-        <v>197</v>
+      <c r="B21" s="137" t="s">
+        <v>234</v>
       </c>
       <c r="C21" s="47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="79" t="s">
         <v>8</v>
@@ -4831,10 +4864,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" s="47">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D22" s="79" t="s">
         <v>8</v>
@@ -4845,10 +4878,10 @@
         <v>30</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="47">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D23" s="79" t="s">
         <v>8</v>
@@ -4859,7 +4892,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" s="47">
         <v>2</v>
@@ -4873,13 +4906,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" s="47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4887,13 +4920,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="47">
         <v>4</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4901,26 +4934,26 @@
         <v>30</v>
       </c>
       <c r="B27" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="47">
+        <v>4</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="47">
-        <v>8</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="74" t="s">
-        <v>138</v>
-      </c>
       <c r="C28" s="47">
-        <v>2</v>
-      </c>
-      <c r="D28" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="79" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4928,8 +4961,8 @@
       <c r="A29" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>139</v>
+      <c r="B29" s="74" t="s">
+        <v>138</v>
       </c>
       <c r="C29" s="47">
         <v>2</v>
@@ -4942,28 +4975,28 @@
       <c r="A30" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="135" t="s">
-        <v>233</v>
+      <c r="B30" s="40" t="s">
+        <v>139</v>
       </c>
       <c r="C30" s="47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="51">
-        <v>2</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>6</v>
+      <c r="A31" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="47">
+        <v>4</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4971,13 +5004,13 @@
         <v>49</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="51">
         <v>2</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4985,13 +5018,13 @@
         <v>49</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" s="51">
         <v>2</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4999,10 +5032,10 @@
         <v>49</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" s="51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" s="51" t="s">
         <v>6</v>
@@ -5013,13 +5046,13 @@
         <v>49</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5027,10 +5060,10 @@
         <v>49</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" s="51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" s="51" t="s">
         <v>9</v>
@@ -5041,7 +5074,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" s="51">
         <v>4</v>
@@ -5055,13 +5088,13 @@
         <v>49</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5069,13 +5102,13 @@
         <v>49</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="51">
         <v>2</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5083,13 +5116,13 @@
         <v>49</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" s="51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5097,10 +5130,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" s="51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" s="51" t="s">
         <v>6</v>
@@ -5111,13 +5144,13 @@
         <v>49</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" s="51">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5125,10 +5158,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" s="51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D43" s="51" t="s">
         <v>9</v>
@@ -5139,7 +5172,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" s="51">
         <v>4</v>
@@ -5153,13 +5186,13 @@
         <v>49</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C45" s="51">
         <v>4</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5167,13 +5200,13 @@
         <v>49</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" s="51">
         <v>4</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5181,13 +5214,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="51">
         <v>4</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5195,13 +5228,13 @@
         <v>49</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" s="51">
         <v>4</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5209,13 +5242,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C49" s="51">
         <v>4</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5223,27 +5256,27 @@
         <v>49</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" s="51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="76" t="s">
-        <v>215</v>
+      <c r="B51" s="38" t="s">
+        <v>165</v>
       </c>
       <c r="C51" s="51">
         <v>8</v>
       </c>
-      <c r="D51" s="80" t="s">
-        <v>8</v>
+      <c r="D51" s="51" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5251,10 +5284,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C52" s="51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D52" s="80" t="s">
         <v>8</v>
@@ -5265,10 +5298,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C53" s="51">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D53" s="80" t="s">
         <v>8</v>
@@ -5279,10 +5312,10 @@
         <v>49</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C54" s="51">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D54" s="80" t="s">
         <v>8</v>
@@ -5293,26 +5326,26 @@
         <v>49</v>
       </c>
       <c r="B55" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="51">
+        <v>2</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="C55" s="51">
-        <v>4</v>
-      </c>
-      <c r="D55" s="80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" s="44">
-        <v>2</v>
-      </c>
-      <c r="D56" s="44" t="s">
+      <c r="C56" s="51">
+        <v>4</v>
+      </c>
+      <c r="D56" s="80" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5321,7 +5354,7 @@
         <v>92</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C57" s="44">
         <v>2</v>
@@ -5335,13 +5368,13 @@
         <v>92</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="C58" s="44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5349,16 +5382,13 @@
         <v>92</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C59" s="44">
         <v>4</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="61" t="s">
-        <v>188</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5366,10 +5396,10 @@
         <v>92</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C60" s="44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D60" s="44" t="s">
         <v>8</v>
@@ -5383,10 +5413,10 @@
         <v>92</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C61" s="44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D61" s="44" t="s">
         <v>8</v>
@@ -5400,13 +5430,16 @@
         <v>92</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" s="44">
         <v>4</v>
       </c>
       <c r="D62" s="44" t="s">
         <v>8</v>
+      </c>
+      <c r="E62" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5414,16 +5447,13 @@
         <v>92</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C63" s="44">
         <v>4</v>
       </c>
       <c r="D63" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5431,13 +5461,16 @@
         <v>92</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C64" s="44">
         <v>4</v>
       </c>
       <c r="D64" s="44" t="s">
         <v>8</v>
+      </c>
+      <c r="E64" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5445,16 +5478,13 @@
         <v>92</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C65" s="44">
         <v>4</v>
       </c>
       <c r="D65" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="E65" s="61" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5462,13 +5492,13 @@
         <v>92</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C66" s="44">
         <v>4</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E66" s="61" t="s">
         <v>188</v>
@@ -5479,13 +5509,16 @@
         <v>92</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C67" s="44">
         <v>4</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E67" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5493,16 +5526,13 @@
         <v>92</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C68" s="44">
         <v>4</v>
       </c>
       <c r="D68" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="E68" s="61" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5510,13 +5540,16 @@
         <v>92</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C69" s="44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D69" s="44" t="s">
         <v>8</v>
+      </c>
+      <c r="E69" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5524,13 +5557,13 @@
         <v>92</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70" s="44">
         <v>8</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5538,7 +5571,7 @@
         <v>92</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C71" s="44">
         <v>8</v>
@@ -5552,10 +5585,10 @@
         <v>92</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C72" s="44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D72" s="44" t="s">
         <v>9</v>
@@ -5566,7 +5599,7 @@
         <v>92</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C73" s="44">
         <v>4</v>
@@ -5579,8 +5612,8 @@
       <c r="A74" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="77" t="s">
-        <v>221</v>
+      <c r="B74" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="C74" s="44">
         <v>4</v>
@@ -5590,31 +5623,28 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="C75" s="62">
-        <v>16</v>
-      </c>
-      <c r="D75" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="61" t="s">
-        <v>188</v>
+      <c r="A75" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="44">
+        <v>4</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B76" s="57" t="s">
-        <v>189</v>
+      <c r="B76" s="66" t="s">
+        <v>191</v>
       </c>
       <c r="C76" s="62">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D76" s="82" t="s">
         <v>8</v>
@@ -5627,11 +5657,11 @@
       <c r="A77" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="66" t="s">
-        <v>193</v>
+      <c r="B77" s="57" t="s">
+        <v>189</v>
       </c>
       <c r="C77" s="62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="82" t="s">
         <v>8</v>
@@ -5644,14 +5674,17 @@
       <c r="A78" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B78" s="73" t="s">
-        <v>211</v>
+      <c r="B78" s="66" t="s">
+        <v>193</v>
       </c>
       <c r="C78" s="62">
         <v>2</v>
       </c>
       <c r="D78" s="82" t="s">
         <v>8</v>
+      </c>
+      <c r="E78" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5659,7 +5692,7 @@
         <v>210</v>
       </c>
       <c r="B79" s="73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C79" s="62">
         <v>2</v>
@@ -5673,30 +5706,43 @@
         <v>210</v>
       </c>
       <c r="B80" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="62">
+        <v>2</v>
+      </c>
+      <c r="D80" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C80" s="62">
-        <v>2</v>
-      </c>
-      <c r="D80" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="20">
-        <f>SUM(C3:C80)</f>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C81" s="62">
+        <v>2</v>
+      </c>
+      <c r="D81" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="20">
+        <f>SUM(C3:C81)</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -5707,12 +5753,18 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="81" yWindow="476" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="81" yWindow="476" count="2">
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="validationFailedClick and enter a value from range 'User Stories'!A3:A15">
           <x14:formula1>
             <xm:f>'User Stories'!A3:A15</xm:f>
           </x14:formula1>
-          <xm:sqref>A19:A27</xm:sqref>
+          <xm:sqref>A19:A21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="validationFailedClick and enter a value from range 'User Stories'!A3:A15">
+          <x14:formula1>
+            <xm:f>'User Stories'!A5:A17</xm:f>
+          </x14:formula1>
+          <xm:sqref>A22:A28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5754,21 +5806,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="115" t="s">
+      <c r="I1" s="122"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="124" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="116"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="115" t="s">
+      <c r="L1" s="125"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="116"/>
-      <c r="P1" s="117"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -6290,7 +6342,7 @@
       <c r="C13" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="109" t="s">
         <v>186</v>
       </c>
       <c r="E13" s="61" t="s">
@@ -6336,7 +6388,7 @@
       <c r="C14" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="109" t="s">
         <v>186</v>
       </c>
       <c r="E14" s="61" t="s">
@@ -6382,7 +6434,7 @@
       <c r="C15" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="127" t="s">
+      <c r="D15" s="109" t="s">
         <v>186</v>
       </c>
       <c r="E15" s="61" t="s">
@@ -6428,7 +6480,7 @@
       <c r="C16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="127" t="s">
+      <c r="D16" s="109" t="s">
         <v>186</v>
       </c>
       <c r="E16" s="61" t="s">
@@ -6474,7 +6526,7 @@
       <c r="C17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="127" t="s">
+      <c r="D17" s="109" t="s">
         <v>186</v>
       </c>
       <c r="E17" s="61" t="s">
@@ -7214,30 +7266,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -7303,31 +7355,31 @@
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
-      <c r="B5" s="133">
+      <c r="B5" s="115">
         <v>1</v>
       </c>
-      <c r="C5" s="134">
-        <v>2</v>
-      </c>
-      <c r="D5" s="134">
+      <c r="C5" s="116">
+        <v>2</v>
+      </c>
+      <c r="D5" s="116">
         <v>3</v>
       </c>
-      <c r="E5" s="134">
-        <v>4</v>
-      </c>
-      <c r="F5" s="134">
+      <c r="E5" s="116">
+        <v>4</v>
+      </c>
+      <c r="F5" s="116">
         <v>5</v>
       </c>
-      <c r="G5" s="134">
+      <c r="G5" s="116">
         <v>6</v>
       </c>
-      <c r="H5" s="134">
+      <c r="H5" s="116">
         <v>7</v>
       </c>
-      <c r="I5" s="134">
-        <v>8</v>
-      </c>
-      <c r="J5" s="133">
+      <c r="I5" s="116">
+        <v>8</v>
+      </c>
+      <c r="J5" s="115">
         <v>9</v>
       </c>
       <c r="K5" s="10"/>
@@ -7336,39 +7388,39 @@
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="134">
+      <c r="B6" s="116">
         <f>SUM('Sprint 1'!H3:H29)</f>
         <v>95</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="116">
         <f>SUM('Sprint 1'!I3:I29)</f>
         <v>82</v>
       </c>
-      <c r="D6" s="134">
+      <c r="D6" s="116">
         <f>SUM('Sprint 1'!J3:J29)</f>
         <v>71</v>
       </c>
-      <c r="E6" s="134">
+      <c r="E6" s="116">
         <f>SUM('Sprint 1'!K3:K29)</f>
         <v>59</v>
       </c>
-      <c r="F6" s="134">
+      <c r="F6" s="116">
         <f>SUM('Sprint 1'!L3:L29)</f>
         <v>43</v>
       </c>
-      <c r="G6" s="134">
+      <c r="G6" s="116">
         <f>SUM('Sprint 1'!M3:M29)</f>
         <v>28</v>
       </c>
-      <c r="H6" s="134">
+      <c r="H6" s="116">
         <f>SUM('Sprint 1'!N3:N29)</f>
         <v>16</v>
       </c>
-      <c r="I6" s="134">
+      <c r="I6" s="116">
         <f>SUM('Sprint 1'!O3:O29)</f>
         <v>12</v>
       </c>
-      <c r="J6" s="133">
+      <c r="J6" s="115">
         <f>SUM('Sprint 1'!P3:P29)</f>
         <v>6</v>
       </c>
@@ -7378,39 +7430,39 @@
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="131">
+      <c r="B7" s="113">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((B5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>95</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C7" s="113">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((C5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>83.125</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="113">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((D5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>71.25</v>
       </c>
-      <c r="E7" s="131">
+      <c r="E7" s="113">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((E5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>59.375</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F7" s="113">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((F5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>47.5</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="113">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((G5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>35.625</v>
       </c>
-      <c r="H7" s="131">
+      <c r="H7" s="113">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((H5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>23.75</v>
       </c>
-      <c r="I7" s="131">
+      <c r="I7" s="113">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((I5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>11.875</v>
       </c>
-      <c r="J7" s="132">
+      <c r="J7" s="114">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((J5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>0</v>
       </c>
@@ -7589,9 +7641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7612,6 +7664,7 @@
     <col min="14" max="14" width="3.5703125" customWidth="1"/>
     <col min="15" max="15" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="4.7109375" customWidth="1"/>
+    <col min="18" max="26" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7626,21 +7679,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="115" t="s">
+      <c r="I1" s="125"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="124" t="s">
         <v>226</v>
       </c>
-      <c r="L1" s="116"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="115" t="s">
+      <c r="L1" s="125"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="O1" s="116"/>
-      <c r="P1" s="117"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -7702,7 +7755,7 @@
       <c r="C3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="109" t="s">
         <v>231</v>
       </c>
       <c r="E3" s="52" t="s">
@@ -7743,13 +7796,13 @@
         <v>196</v>
       </c>
       <c r="B4" s="47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="127" t="s">
-        <v>187</v>
+      <c r="D4" s="136" t="s">
+        <v>186</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>25</v>
@@ -7757,36 +7810,36 @@
       <c r="F4" s="47"/>
       <c r="G4" s="88"/>
       <c r="H4" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I4" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J4" s="49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K4" s="50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L4" s="48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M4" s="49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N4" s="50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O4" s="48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P4" s="48">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
-        <v>202</v>
+      <c r="A5" s="137" t="s">
+        <v>234</v>
       </c>
       <c r="B5" s="47">
         <v>4</v>
@@ -7794,8 +7847,8 @@
       <c r="C5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="127" t="s">
-        <v>231</v>
+      <c r="D5" s="136" t="s">
+        <v>186</v>
       </c>
       <c r="E5" s="52" t="s">
         <v>25</v>
@@ -7831,17 +7884,17 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>143</v>
+      <c r="A6" s="68" t="s">
+        <v>202</v>
       </c>
       <c r="B6" s="47">
-        <v>1</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="127" t="s">
-        <v>186</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>231</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>25</v>
@@ -7849,183 +7902,183 @@
       <c r="F6" s="47"/>
       <c r="G6" s="88"/>
       <c r="H6" s="42">
+        <v>4</v>
+      </c>
+      <c r="I6" s="42">
+        <v>4</v>
+      </c>
+      <c r="J6" s="49">
+        <v>4</v>
+      </c>
+      <c r="K6" s="50">
+        <v>4</v>
+      </c>
+      <c r="L6" s="48">
+        <v>4</v>
+      </c>
+      <c r="M6" s="49">
+        <v>4</v>
+      </c>
+      <c r="N6" s="50">
+        <v>4</v>
+      </c>
+      <c r="O6" s="48">
+        <v>4</v>
+      </c>
+      <c r="P6" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="47">
         <v>1</v>
-      </c>
-      <c r="I6" s="42">
-        <v>1</v>
-      </c>
-      <c r="J6" s="49">
-        <v>1</v>
-      </c>
-      <c r="K6" s="50">
-        <v>1</v>
-      </c>
-      <c r="L6" s="48">
-        <v>1</v>
-      </c>
-      <c r="M6" s="49">
-        <v>1</v>
-      </c>
-      <c r="N6" s="50">
-        <v>1</v>
-      </c>
-      <c r="O6" s="48">
-        <v>1</v>
-      </c>
-      <c r="P6" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="47">
-        <v>2</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="109" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>25</v>
+      <c r="E7" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="88"/>
       <c r="H7" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" s="48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
-        <v>233</v>
+      <c r="A8" s="74" t="s">
+        <v>138</v>
       </c>
       <c r="B8" s="47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="109" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>25</v>
+      <c r="E8" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="88"/>
       <c r="H8" s="42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" s="42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" s="49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8" s="50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" s="48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O8" s="48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P8" s="48">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="51">
-        <v>16</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="128" t="s">
-        <v>229</v>
+      <c r="A9" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="47">
+        <v>4</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>186</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="39">
-        <v>16</v>
-      </c>
-      <c r="I9" s="39">
-        <v>16</v>
-      </c>
-      <c r="J9" s="55">
-        <v>16</v>
-      </c>
-      <c r="K9" s="56">
-        <v>16</v>
-      </c>
-      <c r="L9" s="54">
-        <v>16</v>
-      </c>
-      <c r="M9" s="55">
-        <v>16</v>
-      </c>
-      <c r="N9" s="56">
-        <v>16</v>
-      </c>
-      <c r="O9" s="54">
-        <v>16</v>
-      </c>
-      <c r="P9" s="54">
-        <v>16</v>
+      <c r="F9" s="47"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="42">
+        <v>4</v>
+      </c>
+      <c r="I9" s="42">
+        <v>4</v>
+      </c>
+      <c r="J9" s="49">
+        <v>4</v>
+      </c>
+      <c r="K9" s="50">
+        <v>3</v>
+      </c>
+      <c r="L9" s="48">
+        <v>3</v>
+      </c>
+      <c r="M9" s="49">
+        <v>3</v>
+      </c>
+      <c r="N9" s="50">
+        <v>3</v>
+      </c>
+      <c r="O9" s="48">
+        <v>3</v>
+      </c>
+      <c r="P9" s="48">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B10" s="51">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="128" t="s">
-        <v>183</v>
+      <c r="D10" s="110" t="s">
+        <v>229</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>25</v>
@@ -8033,44 +8086,44 @@
       <c r="F10" s="51"/>
       <c r="G10" s="94"/>
       <c r="H10" s="39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I10" s="39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J10" s="55">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K10" s="56">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L10" s="54">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M10" s="55">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N10" s="56">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O10" s="54">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P10" s="54">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="110" t="s">
         <v>183</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -8079,36 +8132,36 @@
       <c r="F11" s="51"/>
       <c r="G11" s="94"/>
       <c r="H11" s="39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I11" s="39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" s="55">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K11" s="56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L11" s="54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" s="55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N11" s="56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O11" s="54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P11" s="54">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B12" s="51">
         <v>4</v>
@@ -8116,8 +8169,8 @@
       <c r="C12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="128" t="s">
-        <v>229</v>
+      <c r="D12" s="110" t="s">
+        <v>183</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>25</v>
@@ -8128,41 +8181,41 @@
         <v>4</v>
       </c>
       <c r="I12" s="39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" s="56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" s="55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>153</v>
+      <c r="A13" s="76" t="s">
+        <v>219</v>
       </c>
       <c r="B13" s="51">
-        <v>2</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="110" t="s">
         <v>229</v>
       </c>
       <c r="E13" s="52" t="s">
@@ -8171,44 +8224,44 @@
       <c r="F13" s="51"/>
       <c r="G13" s="94"/>
       <c r="H13" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L13" s="54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" s="55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O13" s="54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P13" s="54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B14" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="128" t="s">
+      <c r="D14" s="110" t="s">
         <v>229</v>
       </c>
       <c r="E14" s="52" t="s">
@@ -8217,44 +8270,44 @@
       <c r="F14" s="51"/>
       <c r="G14" s="94"/>
       <c r="H14" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B15" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="128" t="s">
+      <c r="D15" s="110" t="s">
         <v>229</v>
       </c>
       <c r="E15" s="52" t="s">
@@ -8263,44 +8316,44 @@
       <c r="F15" s="51"/>
       <c r="G15" s="94"/>
       <c r="H15" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="110" t="s">
         <v>229</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -8309,91 +8362,91 @@
       <c r="F16" s="51"/>
       <c r="G16" s="94"/>
       <c r="H16" s="39">
+        <v>2</v>
+      </c>
+      <c r="I16" s="39">
+        <v>2</v>
+      </c>
+      <c r="J16" s="55">
+        <v>2</v>
+      </c>
+      <c r="K16" s="56">
+        <v>2</v>
+      </c>
+      <c r="L16" s="54">
+        <v>2</v>
+      </c>
+      <c r="M16" s="55">
+        <v>2</v>
+      </c>
+      <c r="N16" s="56">
+        <v>2</v>
+      </c>
+      <c r="O16" s="54">
+        <v>2</v>
+      </c>
+      <c r="P16" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="51">
         <v>1</v>
       </c>
-      <c r="I16" s="39">
+      <c r="C17" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="39">
         <v>1</v>
       </c>
-      <c r="J16" s="55">
+      <c r="I17" s="39">
         <v>1</v>
       </c>
-      <c r="K16" s="56">
+      <c r="J17" s="55">
         <v>1</v>
       </c>
-      <c r="L16" s="54">
+      <c r="K17" s="56">
         <v>1</v>
       </c>
-      <c r="M16" s="55">
+      <c r="L17" s="54">
         <v>1</v>
       </c>
-      <c r="N16" s="56">
+      <c r="M17" s="55">
         <v>1</v>
       </c>
-      <c r="O16" s="54">
+      <c r="N17" s="56">
         <v>1</v>
       </c>
-      <c r="P16" s="54">
+      <c r="O17" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="44">
-        <v>16</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="129" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="43">
-        <v>16</v>
-      </c>
-      <c r="I17" s="43">
-        <v>16</v>
-      </c>
-      <c r="J17" s="45">
-        <v>16</v>
-      </c>
-      <c r="K17" s="46">
-        <v>16</v>
-      </c>
-      <c r="L17" s="43">
-        <v>16</v>
-      </c>
-      <c r="M17" s="45">
-        <v>16</v>
-      </c>
-      <c r="N17" s="46">
-        <v>16</v>
-      </c>
-      <c r="O17" s="43">
-        <v>16</v>
-      </c>
-      <c r="P17" s="43">
-        <v>16</v>
+      <c r="P17" s="54">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="B18" s="44">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="129" t="s">
-        <v>185</v>
+      <c r="D18" s="111" t="s">
+        <v>230</v>
       </c>
       <c r="E18" s="53" t="s">
         <v>25</v>
@@ -8401,44 +8454,44 @@
       <c r="F18" s="44"/>
       <c r="G18" s="97"/>
       <c r="H18" s="43">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I18" s="43">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J18" s="45">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K18" s="46">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L18" s="43">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M18" s="45">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N18" s="46">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O18" s="43">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P18" s="43">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="B19" s="44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="111" t="s">
         <v>185</v>
       </c>
       <c r="E19" s="53" t="s">
@@ -8447,36 +8500,36 @@
       <c r="F19" s="44"/>
       <c r="G19" s="97"/>
       <c r="H19" s="43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I19" s="43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J19" s="45">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K19" s="46">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L19" s="43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M19" s="45">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N19" s="46">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O19" s="43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P19" s="43">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="44">
         <v>2</v>
@@ -8484,11 +8537,11 @@
       <c r="C20" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>25</v>
+      <c r="E20" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="97"/>
@@ -8499,38 +8552,38 @@
         <v>2</v>
       </c>
       <c r="J20" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="B21" s="44">
         <v>2</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="111" t="s">
         <v>185</v>
       </c>
       <c r="E21" s="61" t="s">
@@ -8542,7 +8595,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="45">
         <v>0</v>
@@ -8568,53 +8621,53 @@
     </row>
     <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="B22" s="44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="53" t="s">
-        <v>25</v>
+      <c r="E22" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="97"/>
       <c r="H22" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22" s="43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" s="45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22" s="43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22" s="45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N22" s="46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O22" s="43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P22" s="43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
-        <v>176</v>
+      <c r="A23" s="43" t="s">
+        <v>221</v>
       </c>
       <c r="B23" s="44">
         <v>4</v>
@@ -8622,7 +8675,7 @@
       <c r="C23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="111" t="s">
         <v>185</v>
       </c>
       <c r="E23" s="53" t="s">
@@ -8659,61 +8712,106 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="62">
-        <v>2</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="130" t="s">
-        <v>186</v>
+      <c r="A24" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="44">
+        <v>4</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>185</v>
       </c>
       <c r="E24" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="57">
-        <v>2</v>
-      </c>
-      <c r="I24" s="57">
-        <v>2</v>
-      </c>
-      <c r="J24" s="58">
-        <v>2</v>
-      </c>
-      <c r="K24" s="59">
-        <v>2</v>
-      </c>
-      <c r="L24" s="57">
-        <v>2</v>
-      </c>
-      <c r="M24" s="58">
-        <v>2</v>
-      </c>
-      <c r="N24" s="59">
-        <v>2</v>
-      </c>
-      <c r="O24" s="57">
-        <v>2</v>
-      </c>
-      <c r="P24" s="57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="104" t="s">
+      <c r="F24" s="44"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="43">
+        <v>4</v>
+      </c>
+      <c r="I24" s="43">
+        <v>4</v>
+      </c>
+      <c r="J24" s="45">
+        <v>4</v>
+      </c>
+      <c r="K24" s="46">
+        <v>4</v>
+      </c>
+      <c r="L24" s="43">
+        <v>4</v>
+      </c>
+      <c r="M24" s="45">
+        <v>4</v>
+      </c>
+      <c r="N24" s="46">
+        <v>4</v>
+      </c>
+      <c r="O24" s="43">
+        <v>4</v>
+      </c>
+      <c r="P24" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="62">
+        <v>2</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="57">
+        <v>2</v>
+      </c>
+      <c r="I25" s="57">
+        <v>2</v>
+      </c>
+      <c r="J25" s="58">
+        <v>2</v>
+      </c>
+      <c r="K25" s="59">
+        <v>2</v>
+      </c>
+      <c r="L25" s="57">
+        <v>2</v>
+      </c>
+      <c r="M25" s="58">
+        <v>2</v>
+      </c>
+      <c r="N25" s="59">
+        <v>2</v>
+      </c>
+      <c r="O25" s="57">
+        <v>2</v>
+      </c>
+      <c r="P25" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="H25">
-        <f>SUM(H3:H24)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H26">
+        <f>SUM(H3:H25)</f>
+        <v>103</v>
+      </c>
+    </row>
     <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8730,8 +8828,8 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H6:P6">
-    <cfRule type="iconSet" priority="19">
+  <conditionalFormatting sqref="H7:P7">
+    <cfRule type="iconSet" priority="21">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="0" gte="0"/>
@@ -8739,7 +8837,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:P6">
+  <conditionalFormatting sqref="H7:P7">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="3Symbols" reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0" gte="0"/>
+        <cfvo type="percent" val="&quot;B3&quot;"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:P3">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -8749,6 +8856,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:P3">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="3Symbols" reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0" gte="0"/>
+        <cfvo type="percent" val="&quot;B3&quot;"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:P6">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -8757,7 +8873,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:P3">
+  <conditionalFormatting sqref="H6:P6">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -8766,7 +8882,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:P5">
+  <conditionalFormatting sqref="H8:P8">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -8775,7 +8891,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:P5">
+  <conditionalFormatting sqref="H8:P8">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -8784,7 +8900,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:P7">
+  <conditionalFormatting sqref="H4:P4">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -8793,7 +8909,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:P7">
+  <conditionalFormatting sqref="H4:P4">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -8802,7 +8918,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:P4">
+  <conditionalFormatting sqref="H9:P9">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -8811,7 +8927,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:P4">
+  <conditionalFormatting sqref="H9:P9">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -8820,7 +8936,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:P8">
+  <conditionalFormatting sqref="H5:P5">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -8829,7 +8945,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:P8">
+  <conditionalFormatting sqref="H5:P5">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -8839,17 +8955,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="K12:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8857,33 +8974,33 @@
     <col min="2" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="135" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="134"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
@@ -8915,7 +9032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="69">
         <v>41556</v>
@@ -8945,7 +9062,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="22">
         <v>1</v>
@@ -8983,92 +9100,106 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="10">
-        <f>SUM('Sprint 2'!H3:H24)</f>
-        <v>95</v>
+        <f>SUM('Sprint 2'!H3:H25)</f>
+        <v>103</v>
       </c>
       <c r="C6" s="15">
         <f>SUM('Sprint 2'!I3:I31)</f>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="28">
         <f>SUM('Sprint 2'!J3:J31)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="10">
         <f>SUM('Sprint 2'!K3:K31)</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F6" s="15">
         <f>SUM('Sprint 2'!L3:L31)</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G6" s="28">
         <f>SUM('Sprint 2'!M3:M31)</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H6" s="10">
         <f>SUM('Sprint 2'!N3:N31)</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I6" s="15">
         <f>SUM('Sprint 2'!O3:O31)</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J6" s="28">
         <f>SUM('Sprint 2'!P3:P31)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="L6" s="69">
+        <v>41556</v>
+      </c>
+      <c r="M6" s="71">
+        <v>41575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="5">
         <f>SUM('Sprint 2'!$B$3:$B$31)-(((B5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C7" s="16">
         <f>SUM('Sprint 2'!$B$3:$B$31)-(((C5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>83.125</v>
+        <v>90.125</v>
       </c>
       <c r="D7" s="11">
         <f>SUM('Sprint 2'!$B$3:$B$31)-(((D5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>71.25</v>
+        <v>77.25</v>
       </c>
       <c r="E7" s="5">
         <f>SUM('Sprint 2'!$B$3:$B$31)-(((E5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>59.375</v>
+        <v>64.375</v>
       </c>
       <c r="F7" s="16">
         <f>SUM('Sprint 2'!$B$3:$B$31)-(((F5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>47.5</v>
+        <v>51.5</v>
       </c>
       <c r="G7" s="11">
         <f>SUM('Sprint 2'!$B$3:$B$31)-(((G5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>35.625</v>
+        <v>38.625</v>
       </c>
       <c r="H7" s="5">
         <f>SUM('Sprint 2'!$B$3:$B$31)-(((H5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>23.75</v>
+        <v>25.75</v>
       </c>
       <c r="I7" s="16">
         <f>SUM('Sprint 2'!$B$3:$B$31)-(((I5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>11.875</v>
+        <v>12.875</v>
       </c>
       <c r="J7" s="11">
         <f>SUM('Sprint 2'!$B$3:$B$31)-(((J5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="5">
+        <f>SUM('Sprint 2'!$B$3:$B$31)-(((B5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <v>103</v>
+      </c>
+      <c r="M7" s="11">
+        <f>SUM('Sprint 2'!$B$3:$B$31)-(((J5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
@@ -9078,7 +9209,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -9086,7 +9217,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -9094,7 +9225,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -9102,7 +9233,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -9110,7 +9241,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="236">
   <si>
     <t>User Stories</t>
   </si>
@@ -863,9 +863,6 @@
     <t>Enable database encrpytion</t>
   </si>
   <si>
-    <t>Communication between android/UI</t>
-  </si>
-  <si>
     <t>Create query command for transactions</t>
   </si>
   <si>
@@ -900,17 +897,30 @@
   </si>
   <si>
     <t>Create "add contact" page sequence</t>
+  </si>
+  <si>
+    <t>Communication between android/database</t>
+  </si>
+  <si>
+    <t>Edit code for android 2.3.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1253,6 +1263,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1841,416 +1858,425 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="35" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="51" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="34" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="50" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2535,11 +2561,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="120736000"/>
-        <c:axId val="120742272"/>
+        <c:axId val="75518336"/>
+        <c:axId val="75520256"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120736000"/>
+        <c:axId val="75518336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,14 +2605,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="120742272"/>
+        <c:crossAx val="75520256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120742272"/>
+        <c:axId val="75520256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,7 +2656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120736000"/>
+        <c:crossAx val="75518336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2762,28 +2788,28 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2888,28 +2914,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Id</c:v>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 2 Burndown'!$L$7:$M$7</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2929,11 +2933,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="121612544"/>
-        <c:axId val="121614720"/>
+        <c:axId val="70747264"/>
+        <c:axId val="70749184"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="121612544"/>
+        <c:axId val="70747264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,14 +2978,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="121614720"/>
+        <c:crossAx val="70749184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121614720"/>
+        <c:axId val="70749184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121612544"/>
+        <c:crossAx val="70747264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3558,13 +3562,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
+      <c r="A1" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4527,10 +4531,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
@@ -4849,8 +4853,8 @@
       <c r="A21" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="137" t="s">
-        <v>234</v>
+      <c r="B21" s="118" t="s">
+        <v>233</v>
       </c>
       <c r="C21" s="47">
         <v>4</v>
@@ -4989,8 +4993,8 @@
       <c r="A31" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="117" t="s">
-        <v>233</v>
+      <c r="B31" s="116" t="s">
+        <v>232</v>
       </c>
       <c r="C31" s="47">
         <v>4</v>
@@ -5354,7 +5358,7 @@
         <v>92</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C57" s="44">
         <v>2</v>
@@ -5368,7 +5372,7 @@
         <v>92</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C58" s="44">
         <v>2</v>
@@ -5806,21 +5810,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="121" t="s">
+      <c r="H1" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="122"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="124" t="s">
+      <c r="I1" s="123"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="125" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="125"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="124" t="s">
+      <c r="L1" s="126"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="125" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="125"/>
-      <c r="P1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="127"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -6342,7 +6346,7 @@
       <c r="C13" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="108" t="s">
         <v>186</v>
       </c>
       <c r="E13" s="61" t="s">
@@ -6388,7 +6392,7 @@
       <c r="C14" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>186</v>
       </c>
       <c r="E14" s="61" t="s">
@@ -6434,7 +6438,7 @@
       <c r="C15" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="108" t="s">
         <v>186</v>
       </c>
       <c r="E15" s="61" t="s">
@@ -6480,7 +6484,7 @@
       <c r="C16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="108" t="s">
         <v>186</v>
       </c>
       <c r="E16" s="61" t="s">
@@ -6526,7 +6530,7 @@
       <c r="C17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="108" t="s">
         <v>186</v>
       </c>
       <c r="E17" s="61" t="s">
@@ -7266,30 +7270,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -7355,31 +7359,31 @@
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
-      <c r="B5" s="115">
+      <c r="B5" s="114">
         <v>1</v>
       </c>
-      <c r="C5" s="116">
-        <v>2</v>
-      </c>
-      <c r="D5" s="116">
+      <c r="C5" s="115">
+        <v>2</v>
+      </c>
+      <c r="D5" s="115">
         <v>3</v>
       </c>
-      <c r="E5" s="116">
-        <v>4</v>
-      </c>
-      <c r="F5" s="116">
+      <c r="E5" s="115">
+        <v>4</v>
+      </c>
+      <c r="F5" s="115">
         <v>5</v>
       </c>
-      <c r="G5" s="116">
+      <c r="G5" s="115">
         <v>6</v>
       </c>
-      <c r="H5" s="116">
+      <c r="H5" s="115">
         <v>7</v>
       </c>
-      <c r="I5" s="116">
-        <v>8</v>
-      </c>
-      <c r="J5" s="115">
+      <c r="I5" s="115">
+        <v>8</v>
+      </c>
+      <c r="J5" s="114">
         <v>9</v>
       </c>
       <c r="K5" s="10"/>
@@ -7388,39 +7392,39 @@
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="115">
         <f>SUM('Sprint 1'!H3:H29)</f>
         <v>95</v>
       </c>
-      <c r="C6" s="116">
+      <c r="C6" s="115">
         <f>SUM('Sprint 1'!I3:I29)</f>
         <v>82</v>
       </c>
-      <c r="D6" s="116">
+      <c r="D6" s="115">
         <f>SUM('Sprint 1'!J3:J29)</f>
         <v>71</v>
       </c>
-      <c r="E6" s="116">
+      <c r="E6" s="115">
         <f>SUM('Sprint 1'!K3:K29)</f>
         <v>59</v>
       </c>
-      <c r="F6" s="116">
+      <c r="F6" s="115">
         <f>SUM('Sprint 1'!L3:L29)</f>
         <v>43</v>
       </c>
-      <c r="G6" s="116">
+      <c r="G6" s="115">
         <f>SUM('Sprint 1'!M3:M29)</f>
         <v>28</v>
       </c>
-      <c r="H6" s="116">
+      <c r="H6" s="115">
         <f>SUM('Sprint 1'!N3:N29)</f>
         <v>16</v>
       </c>
-      <c r="I6" s="116">
+      <c r="I6" s="115">
         <f>SUM('Sprint 1'!O3:O29)</f>
         <v>12</v>
       </c>
-      <c r="J6" s="115">
+      <c r="J6" s="114">
         <f>SUM('Sprint 1'!P3:P29)</f>
         <v>6</v>
       </c>
@@ -7430,39 +7434,39 @@
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="113">
+      <c r="B7" s="112">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((B5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>95</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="112">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((C5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>83.125</v>
       </c>
-      <c r="D7" s="113">
+      <c r="D7" s="112">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((D5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>71.25</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E7" s="112">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((E5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>59.375</v>
       </c>
-      <c r="F7" s="113">
+      <c r="F7" s="112">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((F5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>47.5</v>
       </c>
-      <c r="G7" s="113">
+      <c r="G7" s="112">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((G5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>35.625</v>
       </c>
-      <c r="H7" s="113">
+      <c r="H7" s="112">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((H5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>23.75</v>
       </c>
-      <c r="I7" s="113">
+      <c r="I7" s="112">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((I5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>11.875</v>
       </c>
-      <c r="J7" s="114">
+      <c r="J7" s="113">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((J5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>0</v>
       </c>
@@ -7641,35 +7645,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="90.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="20" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21" style="20" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="20" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" customWidth="1"/>
     <col min="10" max="10" width="4.140625" customWidth="1"/>
     <col min="11" max="11" width="3.5703125" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="12" max="13" width="4.7109375" customWidth="1"/>
     <col min="14" max="14" width="3.5703125" customWidth="1"/>
     <col min="15" max="15" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="4.7109375" customWidth="1"/>
     <col min="18" max="26" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
-        <v>227</v>
+    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140" t="s">
+        <v>226</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="85"/>
@@ -7679,21 +7682,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="124" t="s">
+      <c r="H1" s="125" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="126"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="125" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="125"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="124" t="s">
-        <v>226</v>
-      </c>
-      <c r="L1" s="125"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" s="125"/>
-      <c r="P1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="125" t="s">
+        <v>231</v>
+      </c>
+      <c r="O1" s="126"/>
+      <c r="P1" s="127"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -7755,8 +7758,8 @@
       <c r="C3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="109" t="s">
-        <v>231</v>
+      <c r="D3" s="108" t="s">
+        <v>230</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>25</v>
@@ -7801,7 +7804,7 @@
       <c r="C4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="117" t="s">
         <v>186</v>
       </c>
       <c r="E4" s="52" t="s">
@@ -7816,30 +7819,30 @@
         <v>8</v>
       </c>
       <c r="J4" s="49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K4" s="50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L4" s="48">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M4" s="49">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N4" s="50">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O4" s="48">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P4" s="48">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="137" t="s">
-        <v>234</v>
+      <c r="A5" s="118" t="s">
+        <v>233</v>
       </c>
       <c r="B5" s="47">
         <v>4</v>
@@ -7847,7 +7850,7 @@
       <c r="C5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="117" t="s">
         <v>186</v>
       </c>
       <c r="E5" s="52" t="s">
@@ -7865,22 +7868,22 @@
         <v>4</v>
       </c>
       <c r="K5" s="50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O5" s="48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P5" s="48">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -7893,8 +7896,8 @@
       <c r="C6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="109" t="s">
-        <v>231</v>
+      <c r="D6" s="108" t="s">
+        <v>230</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>25</v>
@@ -7939,7 +7942,7 @@
       <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="108" t="s">
         <v>186</v>
       </c>
       <c r="E7" s="61" t="s">
@@ -7985,7 +7988,7 @@
       <c r="C8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="108" t="s">
         <v>186</v>
       </c>
       <c r="E8" s="61" t="s">
@@ -8022,8 +8025,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="117" t="s">
-        <v>233</v>
+      <c r="A9" s="116" t="s">
+        <v>232</v>
       </c>
       <c r="B9" s="47">
         <v>4</v>
@@ -8031,7 +8034,7 @@
       <c r="C9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="108" t="s">
         <v>186</v>
       </c>
       <c r="E9" s="52" t="s">
@@ -8055,16 +8058,16 @@
         <v>3</v>
       </c>
       <c r="M9" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -8077,8 +8080,8 @@
       <c r="C10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="110" t="s">
-        <v>229</v>
+      <c r="D10" s="109" t="s">
+        <v>228</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>25</v>
@@ -8098,24 +8101,24 @@
         <v>16</v>
       </c>
       <c r="L10" s="54">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M10" s="55">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N10" s="56">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O10" s="54">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P10" s="54">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
-        <v>215</v>
+      <c r="A11" s="138" t="s">
+        <v>235</v>
       </c>
       <c r="B11" s="51">
         <v>8</v>
@@ -8123,8 +8126,8 @@
       <c r="C11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="110" t="s">
-        <v>183</v>
+      <c r="D11" s="139" t="s">
+        <v>186</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>25</v>
@@ -8135,41 +8138,41 @@
         <v>8</v>
       </c>
       <c r="I11" s="39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K11" s="56">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L11" s="54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" s="55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N11" s="56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O11" s="54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P11" s="54">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="109" t="s">
         <v>183</v>
       </c>
       <c r="E12" s="52" t="s">
@@ -8178,31 +8181,31 @@
       <c r="F12" s="51"/>
       <c r="G12" s="94"/>
       <c r="H12" s="39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I12" s="39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J12" s="55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K12" s="56">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L12" s="54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M12" s="55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N12" s="56">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O12" s="54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P12" s="54">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -8215,8 +8218,8 @@
       <c r="C13" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="110" t="s">
-        <v>229</v>
+      <c r="D13" s="109" t="s">
+        <v>228</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>25</v>
@@ -8261,8 +8264,8 @@
       <c r="C14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="110" t="s">
-        <v>229</v>
+      <c r="D14" s="109" t="s">
+        <v>228</v>
       </c>
       <c r="E14" s="52" t="s">
         <v>25</v>
@@ -8307,8 +8310,8 @@
       <c r="C15" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="110" t="s">
-        <v>229</v>
+      <c r="D15" s="109" t="s">
+        <v>228</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>25</v>
@@ -8353,8 +8356,8 @@
       <c r="C16" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="110" t="s">
-        <v>229</v>
+      <c r="D16" s="139" t="s">
+        <v>186</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>25</v>
@@ -8399,8 +8402,8 @@
       <c r="C17" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="110" t="s">
-        <v>229</v>
+      <c r="D17" s="139" t="s">
+        <v>186</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>25</v>
@@ -8436,8 +8439,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>222</v>
+      <c r="A18" s="137" t="s">
+        <v>234</v>
       </c>
       <c r="B18" s="44">
         <v>16</v>
@@ -8445,8 +8448,8 @@
       <c r="C18" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="111" t="s">
-        <v>230</v>
+      <c r="D18" s="110" t="s">
+        <v>229</v>
       </c>
       <c r="E18" s="53" t="s">
         <v>25</v>
@@ -8460,25 +8463,25 @@
         <v>16</v>
       </c>
       <c r="J18" s="45">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K18" s="46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L18" s="43">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M18" s="45">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N18" s="46">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O18" s="43">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P18" s="43">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -8491,7 +8494,7 @@
       <c r="C19" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="110" t="s">
         <v>185</v>
       </c>
       <c r="E19" s="53" t="s">
@@ -8529,7 +8532,7 @@
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="44">
         <v>2</v>
@@ -8537,7 +8540,7 @@
       <c r="C20" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="110" t="s">
         <v>185</v>
       </c>
       <c r="E20" s="61" t="s">
@@ -8575,7 +8578,7 @@
     </row>
     <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="44">
         <v>2</v>
@@ -8583,7 +8586,7 @@
       <c r="C21" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="110" t="s">
         <v>185</v>
       </c>
       <c r="E21" s="61" t="s">
@@ -8629,7 +8632,7 @@
       <c r="C22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="110" t="s">
         <v>185</v>
       </c>
       <c r="E22" s="61" t="s">
@@ -8666,8 +8669,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>221</v>
+      <c r="A23" s="77" t="s">
+        <v>176</v>
       </c>
       <c r="B23" s="44">
         <v>4</v>
@@ -8675,7 +8678,7 @@
       <c r="C23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="110" t="s">
         <v>185</v>
       </c>
       <c r="E23" s="53" t="s">
@@ -8712,106 +8715,61 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="44">
-        <v>4</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>9</v>
+      <c r="A24" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="62">
+        <v>2</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>8</v>
       </c>
       <c r="D24" s="111" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E24" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="43">
-        <v>4</v>
-      </c>
-      <c r="I24" s="43">
-        <v>4</v>
-      </c>
-      <c r="J24" s="45">
-        <v>4</v>
-      </c>
-      <c r="K24" s="46">
-        <v>4</v>
-      </c>
-      <c r="L24" s="43">
-        <v>4</v>
-      </c>
-      <c r="M24" s="45">
-        <v>4</v>
-      </c>
-      <c r="N24" s="46">
-        <v>4</v>
-      </c>
-      <c r="O24" s="43">
-        <v>4</v>
-      </c>
-      <c r="P24" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="62">
-        <v>2</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="57">
-        <v>2</v>
-      </c>
-      <c r="I25" s="57">
-        <v>2</v>
-      </c>
-      <c r="J25" s="58">
-        <v>2</v>
-      </c>
-      <c r="K25" s="59">
-        <v>2</v>
-      </c>
-      <c r="L25" s="57">
-        <v>2</v>
-      </c>
-      <c r="M25" s="58">
-        <v>2</v>
-      </c>
-      <c r="N25" s="59">
-        <v>2</v>
-      </c>
-      <c r="O25" s="57">
-        <v>2</v>
-      </c>
-      <c r="P25" s="57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="104" t="s">
+      <c r="F24" s="62"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="57">
+        <v>2</v>
+      </c>
+      <c r="I24" s="57">
+        <v>2</v>
+      </c>
+      <c r="J24" s="58">
+        <v>2</v>
+      </c>
+      <c r="K24" s="59">
+        <v>2</v>
+      </c>
+      <c r="L24" s="57">
+        <v>2</v>
+      </c>
+      <c r="M24" s="58">
+        <v>2</v>
+      </c>
+      <c r="N24" s="59">
+        <v>2</v>
+      </c>
+      <c r="O24" s="57">
+        <v>2</v>
+      </c>
+      <c r="P24" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="H26">
-        <f>SUM(H3:H25)</f>
+      <c r="H25">
+        <f>SUM(H3:H24)</f>
         <v>103</v>
       </c>
     </row>
+    <row r="26" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8962,11 +8920,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="K12:N16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8974,33 +8932,33 @@
     <col min="2" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="130"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
@@ -9032,7 +8990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="69">
         <v>41556</v>
@@ -9062,7 +9020,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="22">
         <v>1</v>
@@ -9100,54 +9058,48 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="10">
-        <f>SUM('Sprint 2'!H3:H25)</f>
+        <f>SUM('Sprint 2'!H3:H24)</f>
         <v>103</v>
       </c>
       <c r="C6" s="15">
         <f>SUM('Sprint 2'!I3:I31)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" s="28">
         <f>SUM('Sprint 2'!J3:J31)</f>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E6" s="10">
         <f>SUM('Sprint 2'!K3:K31)</f>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F6" s="15">
         <f>SUM('Sprint 2'!L3:L31)</f>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G6" s="28">
         <f>SUM('Sprint 2'!M3:M31)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H6" s="10">
         <f>SUM('Sprint 2'!N3:N31)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I6" s="15">
         <f>SUM('Sprint 2'!O3:O31)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J6" s="28">
         <f>SUM('Sprint 2'!P3:P31)</f>
-        <v>90</v>
-      </c>
-      <c r="L6" s="69">
-        <v>41556</v>
-      </c>
-      <c r="M6" s="71">
-        <v>41575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
@@ -9187,19 +9139,11 @@
         <f>SUM('Sprint 2'!$B$3:$B$31)-(((J5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="5">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((B5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>103</v>
-      </c>
-      <c r="M7" s="11">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((J5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
@@ -9209,7 +9153,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -9217,7 +9161,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -9225,7 +9169,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -9233,7 +9177,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -9241,7 +9185,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJeon\Documents\GitHub\PayBack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="4"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="Sprint 2" sheetId="6" r:id="rId5"/>
     <sheet name="Sprint 2 Burndown" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +52,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +140,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="249">
   <si>
     <t>User Stories</t>
   </si>
@@ -903,17 +908,63 @@
   </si>
   <si>
     <t>Edit code for android 2.3.3</t>
+  </si>
+  <si>
+    <t>Research Communication between Android and DB</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Hohyun</t>
+  </si>
+  <si>
+    <t>Transfer DB to a committed Desktop</t>
+  </si>
+  <si>
+    <t>Install Apache and PHP on Desktop</t>
+  </si>
+  <si>
+    <t>This is a category header</t>
+  </si>
+  <si>
+    <t>PHP server code for account creation</t>
+  </si>
+  <si>
+    <t>Java Plugin code for server communication</t>
+  </si>
+  <si>
+    <t>Establish Server Communication Schema</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1858,426 +1909,447 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="52" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="35" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="51" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2292,15 +2364,18 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF20BC14"/>
       <color rgb="FF5AC3DC"/>
       <color rgb="FF3366CC"/>
       <color rgb="FF000000"/>
-      <color rgb="FF20BC14"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2336,6 +2411,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2561,11 +2637,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="75518336"/>
-        <c:axId val="75520256"/>
+        <c:axId val="248453864"/>
+        <c:axId val="248453472"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="75518336"/>
+        <c:axId val="248453864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,20 +2675,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="75520256"/>
+        <c:crossAx val="248453472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75520256"/>
+        <c:axId val="248453472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,6 +2712,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2656,13 +2734,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75518336"/>
+        <c:crossAx val="248453864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2678,6 +2757,304 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Remaining</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Percentage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$S$27:$S$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GUI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Backend</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$R$27:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2803,13 +3180,13 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,11 +3310,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="70747264"/>
-        <c:axId val="70749184"/>
+        <c:axId val="248451904"/>
+        <c:axId val="248450728"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="70747264"/>
+        <c:axId val="248451904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,14 +3355,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="70749184"/>
+        <c:crossAx val="248450728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70749184"/>
+        <c:axId val="248450728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70747264"/>
+        <c:crossAx val="248451904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3050,6 +3427,570 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="260">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="0"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="0"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3228,6 +4169,41 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1345404</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1107280</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3301,7 +4277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3336,7 +4312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3562,13 +4538,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4531,10 +5507,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="121"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
@@ -5810,21 +6786,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="125" t="s">
+      <c r="I1" s="127"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="126"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="125" t="s">
+      <c r="L1" s="130"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="126"/>
-      <c r="P1" s="127"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="131"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -7260,7 +8236,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -7270,30 +8246,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="135"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="139"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -7643,11 +8619,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7657,7 +8633,7 @@
     <col min="3" max="3" width="9.7109375" style="20" customWidth="1"/>
     <col min="4" max="4" width="21" style="20" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" style="20" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" customWidth="1"/>
@@ -7667,11 +8643,13 @@
     <col min="14" max="14" width="3.5703125" customWidth="1"/>
     <col min="15" max="15" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="4.7109375" customWidth="1"/>
-    <col min="18" max="26" width="5.7109375" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" customWidth="1"/>
+    <col min="19" max="19" width="31.140625" customWidth="1"/>
+    <col min="20" max="26" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="122" t="s">
         <v>226</v>
       </c>
       <c r="B1" s="84"/>
@@ -7682,23 +8660,23 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="126"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="125" t="s">
+      <c r="I1" s="130"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="129" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="126"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="125" t="s">
+      <c r="L1" s="130"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="126"/>
-      <c r="P1" s="127"/>
-    </row>
-    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="O1" s="130"/>
+      <c r="P1" s="131"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -7748,7 +8726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>199</v>
       </c>
@@ -7793,8 +8771,12 @@
       <c r="P3" s="48">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f>SUM(P3:P9)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>196</v>
       </c>
@@ -7840,7 +8822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
         <v>233</v>
       </c>
@@ -7886,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
         <v>202</v>
       </c>
@@ -7932,7 +8914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>143</v>
       </c>
@@ -7978,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>138</v>
       </c>
@@ -8024,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116" t="s">
         <v>232</v>
       </c>
@@ -8070,7 +9052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
         <v>217</v>
       </c>
@@ -8115,9 +9097,13 @@
       <c r="P10" s="54">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="138" t="s">
+      <c r="R10">
+        <f>SUM(P10:P17)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120" t="s">
         <v>235</v>
       </c>
       <c r="B11" s="51">
@@ -8126,7 +9112,7 @@
       <c r="C11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="D11" s="121" t="s">
         <v>186</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -8162,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
         <v>215</v>
       </c>
@@ -8208,7 +9194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
         <v>219</v>
       </c>
@@ -8254,7 +9240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>153</v>
       </c>
@@ -8300,7 +9286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>156</v>
       </c>
@@ -8346,7 +9332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>146</v>
       </c>
@@ -8356,7 +9342,7 @@
       <c r="C16" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="121" t="s">
         <v>186</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -8392,7 +9378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>147</v>
       </c>
@@ -8402,7 +9388,7 @@
       <c r="C17" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="121" t="s">
         <v>186</v>
       </c>
       <c r="E17" s="52" t="s">
@@ -8438,12 +9424,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
+    <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="119" t="s">
         <v>234</v>
       </c>
       <c r="B18" s="44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>8</v>
@@ -8454,332 +9440,645 @@
       <c r="E18" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="145" t="s">
+        <v>241</v>
+      </c>
       <c r="G18" s="97"/>
       <c r="H18" s="43">
+        <v>0</v>
+      </c>
+      <c r="I18" s="43">
+        <v>0</v>
+      </c>
+      <c r="J18" s="45">
+        <v>0</v>
+      </c>
+      <c r="K18" s="46">
+        <v>0</v>
+      </c>
+      <c r="L18" s="43">
+        <v>0</v>
+      </c>
+      <c r="M18" s="45">
+        <v>0</v>
+      </c>
+      <c r="N18" s="46">
+        <v>0</v>
+      </c>
+      <c r="O18" s="43">
+        <v>0</v>
+      </c>
+      <c r="P18" s="43">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f>SUM(P18:P29)</f>
         <v>16</v>
       </c>
-      <c r="I18" s="43">
+    </row>
+    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="144" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="44">
+        <v>4</v>
+      </c>
+      <c r="C19" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="43">
+        <v>4</v>
+      </c>
+      <c r="I19" s="43">
+        <v>4</v>
+      </c>
+      <c r="J19" s="142">
+        <v>2</v>
+      </c>
+      <c r="K19" s="143">
+        <v>2</v>
+      </c>
+      <c r="L19" s="43">
+        <v>0</v>
+      </c>
+      <c r="M19" s="142">
+        <v>0</v>
+      </c>
+      <c r="N19" s="143">
+        <v>0</v>
+      </c>
+      <c r="O19" s="43">
+        <v>0</v>
+      </c>
+      <c r="P19" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="144" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="44">
+        <v>1</v>
+      </c>
+      <c r="C20" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="145" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="43">
+        <v>1</v>
+      </c>
+      <c r="I20" s="43">
+        <v>1</v>
+      </c>
+      <c r="J20" s="142">
+        <v>1</v>
+      </c>
+      <c r="K20" s="143">
+        <v>1</v>
+      </c>
+      <c r="L20" s="43">
+        <v>1</v>
+      </c>
+      <c r="M20" s="142">
+        <v>1</v>
+      </c>
+      <c r="N20" s="143">
+        <v>0</v>
+      </c>
+      <c r="O20" s="43">
+        <v>0</v>
+      </c>
+      <c r="P20" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="144" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="44">
+        <v>2</v>
+      </c>
+      <c r="C21" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="145" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="43">
+        <v>2</v>
+      </c>
+      <c r="I21" s="43">
+        <v>2</v>
+      </c>
+      <c r="J21" s="142">
+        <v>2</v>
+      </c>
+      <c r="K21" s="143">
+        <v>2</v>
+      </c>
+      <c r="L21" s="43">
+        <v>2</v>
+      </c>
+      <c r="M21" s="142">
+        <v>2</v>
+      </c>
+      <c r="N21" s="143">
+        <v>1</v>
+      </c>
+      <c r="O21" s="43">
+        <v>1</v>
+      </c>
+      <c r="P21" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="144" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="44">
+        <v>1</v>
+      </c>
+      <c r="C22" s="145" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="145" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="43">
+        <v>1</v>
+      </c>
+      <c r="I22" s="43">
+        <v>1</v>
+      </c>
+      <c r="J22" s="142">
+        <v>1</v>
+      </c>
+      <c r="K22" s="143">
+        <v>1</v>
+      </c>
+      <c r="L22" s="43">
+        <v>1</v>
+      </c>
+      <c r="M22" s="142">
+        <v>1</v>
+      </c>
+      <c r="N22" s="143">
+        <v>0</v>
+      </c>
+      <c r="O22" s="43">
+        <v>0</v>
+      </c>
+      <c r="P22" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="144" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="44">
+        <v>4</v>
+      </c>
+      <c r="C23" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="43">
+        <v>4</v>
+      </c>
+      <c r="I23" s="43">
+        <v>4</v>
+      </c>
+      <c r="J23" s="142">
+        <v>4</v>
+      </c>
+      <c r="K23" s="143">
+        <v>4</v>
+      </c>
+      <c r="L23" s="43">
+        <v>4</v>
+      </c>
+      <c r="M23" s="142">
+        <v>4</v>
+      </c>
+      <c r="N23" s="143">
+        <v>2</v>
+      </c>
+      <c r="O23" s="43">
+        <v>2</v>
+      </c>
+      <c r="P23" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="144" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="44">
+        <v>4</v>
+      </c>
+      <c r="C24" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="145" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="43">
+        <v>4</v>
+      </c>
+      <c r="I24" s="43">
+        <v>4</v>
+      </c>
+      <c r="J24" s="142">
+        <v>4</v>
+      </c>
+      <c r="K24" s="143">
+        <v>4</v>
+      </c>
+      <c r="L24" s="43">
+        <v>4</v>
+      </c>
+      <c r="M24" s="142">
+        <v>4</v>
+      </c>
+      <c r="N24" s="143">
+        <v>4</v>
+      </c>
+      <c r="O24" s="43">
+        <v>4</v>
+      </c>
+      <c r="P24" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="44">
+        <v>8</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="43">
+        <v>8</v>
+      </c>
+      <c r="I25" s="43">
+        <v>8</v>
+      </c>
+      <c r="J25" s="45">
+        <v>8</v>
+      </c>
+      <c r="K25" s="46">
+        <v>8</v>
+      </c>
+      <c r="L25" s="43">
+        <v>8</v>
+      </c>
+      <c r="M25" s="45">
+        <v>8</v>
+      </c>
+      <c r="N25" s="46">
+        <v>7</v>
+      </c>
+      <c r="O25" s="43">
+        <v>7</v>
+      </c>
+      <c r="P25" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="44">
+        <v>2</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="43">
+        <v>2</v>
+      </c>
+      <c r="I26" s="43">
+        <v>2</v>
+      </c>
+      <c r="J26" s="45">
+        <v>0</v>
+      </c>
+      <c r="K26" s="46">
+        <v>0</v>
+      </c>
+      <c r="L26" s="43">
+        <v>0</v>
+      </c>
+      <c r="M26" s="45">
+        <v>0</v>
+      </c>
+      <c r="N26" s="46">
+        <v>0</v>
+      </c>
+      <c r="O26" s="43">
+        <v>0</v>
+      </c>
+      <c r="P26" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="44">
+        <v>2</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="43">
+        <v>2</v>
+      </c>
+      <c r="I27" s="43">
+        <v>2</v>
+      </c>
+      <c r="J27" s="45">
+        <v>0</v>
+      </c>
+      <c r="K27" s="46">
+        <v>0</v>
+      </c>
+      <c r="L27" s="43">
+        <v>0</v>
+      </c>
+      <c r="M27" s="45">
+        <v>0</v>
+      </c>
+      <c r="N27" s="46">
+        <v>0</v>
+      </c>
+      <c r="O27" s="43">
+        <v>0</v>
+      </c>
+      <c r="P27" s="43">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f>SUM(R3)</f>
+        <v>11</v>
+      </c>
+      <c r="S27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="44">
+        <v>2</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="43">
+        <v>2</v>
+      </c>
+      <c r="I28" s="43">
+        <v>0</v>
+      </c>
+      <c r="J28" s="45">
+        <v>0</v>
+      </c>
+      <c r="K28" s="46">
+        <v>0</v>
+      </c>
+      <c r="L28" s="43">
+        <v>0</v>
+      </c>
+      <c r="M28" s="45">
+        <v>0</v>
+      </c>
+      <c r="N28" s="46">
+        <v>0</v>
+      </c>
+      <c r="O28" s="43">
+        <v>0</v>
+      </c>
+      <c r="P28" s="43">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f>SUM(R10)</f>
+        <v>25</v>
+      </c>
+      <c r="S28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="44">
+        <v>4</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="43">
+        <v>4</v>
+      </c>
+      <c r="I29" s="43">
+        <v>4</v>
+      </c>
+      <c r="J29" s="45">
+        <v>4</v>
+      </c>
+      <c r="K29" s="46">
+        <v>4</v>
+      </c>
+      <c r="L29" s="43">
+        <v>2</v>
+      </c>
+      <c r="M29" s="45">
+        <v>2</v>
+      </c>
+      <c r="N29" s="46">
+        <v>2</v>
+      </c>
+      <c r="O29" s="43">
+        <v>2</v>
+      </c>
+      <c r="P29" s="43">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <f>SUM(R18)</f>
         <v>16</v>
       </c>
-      <c r="J18" s="45">
-        <v>14</v>
-      </c>
-      <c r="K18" s="46">
-        <v>14</v>
-      </c>
-      <c r="L18" s="43">
-        <v>10</v>
-      </c>
-      <c r="M18" s="45">
-        <v>10</v>
-      </c>
-      <c r="N18" s="46">
-        <v>10</v>
-      </c>
-      <c r="O18" s="43">
-        <v>10</v>
-      </c>
-      <c r="P18" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="44">
-        <v>8</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="53" t="s">
+      <c r="S29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="62">
+        <v>2</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="43">
-        <v>8</v>
-      </c>
-      <c r="I19" s="43">
-        <v>8</v>
-      </c>
-      <c r="J19" s="45">
-        <v>8</v>
-      </c>
-      <c r="K19" s="46">
-        <v>8</v>
-      </c>
-      <c r="L19" s="43">
-        <v>8</v>
-      </c>
-      <c r="M19" s="45">
-        <v>8</v>
-      </c>
-      <c r="N19" s="46">
-        <v>8</v>
-      </c>
-      <c r="O19" s="43">
-        <v>8</v>
-      </c>
-      <c r="P19" s="43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="44">
-        <v>2</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="43">
-        <v>2</v>
-      </c>
-      <c r="I20" s="43">
-        <v>2</v>
-      </c>
-      <c r="J20" s="45">
-        <v>0</v>
-      </c>
-      <c r="K20" s="46">
-        <v>0</v>
-      </c>
-      <c r="L20" s="43">
-        <v>0</v>
-      </c>
-      <c r="M20" s="45">
-        <v>0</v>
-      </c>
-      <c r="N20" s="46">
-        <v>0</v>
-      </c>
-      <c r="O20" s="43">
-        <v>0</v>
-      </c>
-      <c r="P20" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="44">
-        <v>2</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="43">
-        <v>2</v>
-      </c>
-      <c r="I21" s="43">
-        <v>2</v>
-      </c>
-      <c r="J21" s="45">
-        <v>0</v>
-      </c>
-      <c r="K21" s="46">
-        <v>0</v>
-      </c>
-      <c r="L21" s="43">
-        <v>0</v>
-      </c>
-      <c r="M21" s="45">
-        <v>0</v>
-      </c>
-      <c r="N21" s="46">
-        <v>0</v>
-      </c>
-      <c r="O21" s="43">
-        <v>0</v>
-      </c>
-      <c r="P21" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="44">
-        <v>2</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="43">
-        <v>2</v>
-      </c>
-      <c r="I22" s="43">
-        <v>0</v>
-      </c>
-      <c r="J22" s="45">
-        <v>0</v>
-      </c>
-      <c r="K22" s="46">
-        <v>0</v>
-      </c>
-      <c r="L22" s="43">
-        <v>0</v>
-      </c>
-      <c r="M22" s="45">
-        <v>0</v>
-      </c>
-      <c r="N22" s="46">
-        <v>0</v>
-      </c>
-      <c r="O22" s="43">
-        <v>0</v>
-      </c>
-      <c r="P22" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="44">
-        <v>4</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="43">
-        <v>4</v>
-      </c>
-      <c r="I23" s="43">
-        <v>4</v>
-      </c>
-      <c r="J23" s="45">
-        <v>4</v>
-      </c>
-      <c r="K23" s="46">
-        <v>4</v>
-      </c>
-      <c r="L23" s="43">
-        <v>4</v>
-      </c>
-      <c r="M23" s="45">
-        <v>4</v>
-      </c>
-      <c r="N23" s="46">
-        <v>4</v>
-      </c>
-      <c r="O23" s="43">
-        <v>4</v>
-      </c>
-      <c r="P23" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="62">
-        <v>2</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="57">
-        <v>2</v>
-      </c>
-      <c r="I24" s="57">
-        <v>2</v>
-      </c>
-      <c r="J24" s="58">
-        <v>2</v>
-      </c>
-      <c r="K24" s="59">
-        <v>2</v>
-      </c>
-      <c r="L24" s="57">
-        <v>2</v>
-      </c>
-      <c r="M24" s="58">
-        <v>2</v>
-      </c>
-      <c r="N24" s="59">
-        <v>2</v>
-      </c>
-      <c r="O24" s="57">
-        <v>2</v>
-      </c>
-      <c r="P24" s="57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="104" t="s">
+      <c r="F30" s="62"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="57">
+        <v>2</v>
+      </c>
+      <c r="I30" s="57">
+        <v>2</v>
+      </c>
+      <c r="J30" s="58">
+        <v>2</v>
+      </c>
+      <c r="K30" s="59">
+        <v>2</v>
+      </c>
+      <c r="L30" s="57">
+        <v>2</v>
+      </c>
+      <c r="M30" s="58">
+        <v>2</v>
+      </c>
+      <c r="N30" s="59">
+        <v>2</v>
+      </c>
+      <c r="O30" s="57">
+        <v>2</v>
+      </c>
+      <c r="P30" s="57">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <f>SUM(P30)</f>
+        <v>2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="H25">
-        <f>SUM(H3:H24)</f>
+      <c r="H31">
+        <f>SUM(H3:H30)</f>
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R31">
+        <f>SUM(H31)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H1:J1"/>
@@ -8914,7 +10213,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8923,7 +10223,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -8933,30 +10233,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="140" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="135"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="139"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -9063,40 +10363,40 @@
         <v>27</v>
       </c>
       <c r="B6" s="10">
-        <f>SUM('Sprint 2'!H3:H24)</f>
+        <f>SUM('Sprint 2'!H3:H30)</f>
         <v>103</v>
       </c>
       <c r="C6" s="15">
-        <f>SUM('Sprint 2'!I3:I31)</f>
+        <f>SUM('Sprint 2'!I3:I37)</f>
         <v>98</v>
       </c>
       <c r="D6" s="28">
-        <f>SUM('Sprint 2'!J3:J31)</f>
+        <f>SUM('Sprint 2'!J3:J37)</f>
         <v>87</v>
       </c>
       <c r="E6" s="10">
-        <f>SUM('Sprint 2'!K3:K31)</f>
+        <f>SUM('Sprint 2'!K3:K37)</f>
         <v>83</v>
       </c>
       <c r="F6" s="15">
-        <f>SUM('Sprint 2'!L3:L31)</f>
+        <f>SUM('Sprint 2'!L3:L37)</f>
         <v>65</v>
       </c>
       <c r="G6" s="28">
-        <f>SUM('Sprint 2'!M3:M31)</f>
+        <f>SUM('Sprint 2'!M3:M37)</f>
         <v>60</v>
       </c>
       <c r="H6" s="10">
-        <f>SUM('Sprint 2'!N3:N31)</f>
-        <v>60</v>
+        <f>SUM('Sprint 2'!N3:N37)</f>
+        <v>54</v>
       </c>
       <c r="I6" s="15">
-        <f>SUM('Sprint 2'!O3:O31)</f>
-        <v>60</v>
+        <f>SUM('Sprint 2'!O3:O37)</f>
+        <v>54</v>
       </c>
       <c r="J6" s="28">
-        <f>SUM('Sprint 2'!P3:P31)</f>
-        <v>60</v>
+        <f>SUM('Sprint 2'!P3:P37)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -9104,39 +10404,39 @@
         <v>28</v>
       </c>
       <c r="B7" s="5">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((B5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((B5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>103</v>
       </c>
       <c r="C7" s="16">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((C5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((C5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>90.125</v>
       </c>
       <c r="D7" s="11">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((D5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((D5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>77.25</v>
       </c>
       <c r="E7" s="5">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((E5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((E5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>64.375</v>
       </c>
       <c r="F7" s="16">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((F5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((F5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>51.5</v>
       </c>
       <c r="G7" s="11">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((G5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((G5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>38.625</v>
       </c>
       <c r="H7" s="5">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((H5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((H5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>25.75</v>
       </c>
       <c r="I7" s="16">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((I5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((I5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>12.875</v>
       </c>
       <c r="J7" s="11">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((J5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((J5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>0</v>
       </c>
     </row>

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -953,11 +953,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1909,444 +1916,447 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="52" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2411,7 +2421,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2637,11 +2646,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="248453864"/>
-        <c:axId val="248453472"/>
+        <c:axId val="252101264"/>
+        <c:axId val="252100480"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="248453864"/>
+        <c:axId val="252101264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,21 +2684,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="248453472"/>
+        <c:crossAx val="252100480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="248453472"/>
+        <c:axId val="252100480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2712,7 +2720,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2734,14 +2741,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248453864"/>
+        <c:crossAx val="252101264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3084,7 +3090,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3310,11 +3315,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="248451904"/>
-        <c:axId val="248450728"/>
+        <c:axId val="254649416"/>
+        <c:axId val="254647456"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="248451904"/>
+        <c:axId val="254649416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3348,21 +3353,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="248450728"/>
+        <c:crossAx val="254647456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="248450728"/>
+        <c:axId val="254647456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,7 +3389,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3407,14 +3410,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248451904"/>
+        <c:crossAx val="254649416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4538,13 +4540,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5507,10 +5509,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="132"/>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
@@ -6786,21 +6788,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="126" t="s">
+      <c r="H1" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="129" t="s">
+      <c r="I1" s="134"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="130"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="129" t="s">
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="130"/>
-      <c r="P1" s="131"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="138"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -8246,30 +8248,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="139"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -8621,9 +8623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8660,21 +8662,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="129" t="s">
+      <c r="H1" s="136" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="129" t="s">
+      <c r="I1" s="137"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="130"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="129" t="s">
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="136" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="130"/>
-      <c r="P1" s="131"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="138"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -9437,10 +9439,10 @@
       <c r="D18" s="110" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="145" t="s">
+      <c r="E18" s="148" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="127" t="s">
         <v>241</v>
       </c>
       <c r="G18" s="97"/>
@@ -9477,42 +9479,42 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="144" t="s">
+      <c r="A19" s="126" t="s">
         <v>236</v>
       </c>
       <c r="B19" s="44">
         <v>4</v>
       </c>
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="127" t="s">
         <v>237</v>
       </c>
-      <c r="D19" s="145" t="s">
+      <c r="D19" s="127" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="147" t="s">
+      <c r="E19" s="129" t="s">
         <v>188</v>
       </c>
       <c r="F19" s="44"/>
-      <c r="G19" s="141"/>
+      <c r="G19" s="123"/>
       <c r="H19" s="43">
         <v>4</v>
       </c>
       <c r="I19" s="43">
         <v>4</v>
       </c>
-      <c r="J19" s="142">
-        <v>2</v>
-      </c>
-      <c r="K19" s="143">
+      <c r="J19" s="124">
+        <v>2</v>
+      </c>
+      <c r="K19" s="125">
         <v>2</v>
       </c>
       <c r="L19" s="43">
         <v>0</v>
       </c>
-      <c r="M19" s="142">
-        <v>0</v>
-      </c>
-      <c r="N19" s="143">
+      <c r="M19" s="124">
+        <v>0</v>
+      </c>
+      <c r="N19" s="125">
         <v>0</v>
       </c>
       <c r="O19" s="43">
@@ -9523,42 +9525,42 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="126" t="s">
         <v>239</v>
       </c>
       <c r="B20" s="44">
         <v>1</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="127" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="145" t="s">
+      <c r="D20" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="146" t="s">
+      <c r="E20" s="128" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="141"/>
+      <c r="G20" s="123"/>
       <c r="H20" s="43">
         <v>1</v>
       </c>
       <c r="I20" s="43">
         <v>1</v>
       </c>
-      <c r="J20" s="142">
+      <c r="J20" s="124">
         <v>1</v>
       </c>
-      <c r="K20" s="143">
+      <c r="K20" s="125">
         <v>1</v>
       </c>
       <c r="L20" s="43">
         <v>1</v>
       </c>
-      <c r="M20" s="142">
+      <c r="M20" s="124">
         <v>1</v>
       </c>
-      <c r="N20" s="143">
+      <c r="N20" s="125">
         <v>0</v>
       </c>
       <c r="O20" s="43">
@@ -9569,42 +9571,42 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="144" t="s">
+      <c r="A21" s="126" t="s">
         <v>240</v>
       </c>
       <c r="B21" s="44">
         <v>2</v>
       </c>
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="127" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="128" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="44"/>
-      <c r="G21" s="141"/>
+      <c r="G21" s="123"/>
       <c r="H21" s="43">
         <v>2</v>
       </c>
       <c r="I21" s="43">
         <v>2</v>
       </c>
-      <c r="J21" s="142">
-        <v>2</v>
-      </c>
-      <c r="K21" s="143">
+      <c r="J21" s="124">
+        <v>2</v>
+      </c>
+      <c r="K21" s="125">
         <v>2</v>
       </c>
       <c r="L21" s="43">
         <v>2</v>
       </c>
-      <c r="M21" s="142">
-        <v>2</v>
-      </c>
-      <c r="N21" s="143">
+      <c r="M21" s="124">
+        <v>2</v>
+      </c>
+      <c r="N21" s="125">
         <v>1</v>
       </c>
       <c r="O21" s="43">
@@ -9615,42 +9617,42 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="126" t="s">
         <v>244</v>
       </c>
       <c r="B22" s="44">
         <v>1</v>
       </c>
-      <c r="C22" s="145" t="s">
+      <c r="C22" s="127" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="145" t="s">
+      <c r="D22" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="147" t="s">
+      <c r="E22" s="129" t="s">
         <v>188</v>
       </c>
       <c r="F22" s="44"/>
-      <c r="G22" s="141"/>
+      <c r="G22" s="123"/>
       <c r="H22" s="43">
         <v>1</v>
       </c>
       <c r="I22" s="43">
         <v>1</v>
       </c>
-      <c r="J22" s="142">
+      <c r="J22" s="124">
         <v>1</v>
       </c>
-      <c r="K22" s="143">
+      <c r="K22" s="125">
         <v>1</v>
       </c>
       <c r="L22" s="43">
         <v>1</v>
       </c>
-      <c r="M22" s="142">
+      <c r="M22" s="124">
         <v>1</v>
       </c>
-      <c r="N22" s="143">
+      <c r="N22" s="125">
         <v>0</v>
       </c>
       <c r="O22" s="43">
@@ -9661,42 +9663,42 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="126" t="s">
         <v>242</v>
       </c>
       <c r="B23" s="44">
         <v>4</v>
       </c>
-      <c r="C23" s="145" t="s">
+      <c r="C23" s="127" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="127" t="s">
         <v>238</v>
       </c>
-      <c r="E23" s="146" t="s">
+      <c r="E23" s="128" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="141"/>
+      <c r="G23" s="123"/>
       <c r="H23" s="43">
         <v>4</v>
       </c>
       <c r="I23" s="43">
         <v>4</v>
       </c>
-      <c r="J23" s="142">
-        <v>4</v>
-      </c>
-      <c r="K23" s="143">
+      <c r="J23" s="124">
+        <v>4</v>
+      </c>
+      <c r="K23" s="125">
         <v>4</v>
       </c>
       <c r="L23" s="43">
         <v>4</v>
       </c>
-      <c r="M23" s="142">
-        <v>4</v>
-      </c>
-      <c r="N23" s="143">
+      <c r="M23" s="124">
+        <v>4</v>
+      </c>
+      <c r="N23" s="125">
         <v>2</v>
       </c>
       <c r="O23" s="43">
@@ -9707,42 +9709,42 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="126" t="s">
         <v>243</v>
       </c>
       <c r="B24" s="44">
         <v>4</v>
       </c>
-      <c r="C24" s="145" t="s">
+      <c r="C24" s="127" t="s">
         <v>237</v>
       </c>
-      <c r="D24" s="145" t="s">
+      <c r="D24" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="146" t="s">
+      <c r="E24" s="128" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="44"/>
-      <c r="G24" s="141"/>
+      <c r="G24" s="123"/>
       <c r="H24" s="43">
         <v>4</v>
       </c>
       <c r="I24" s="43">
         <v>4</v>
       </c>
-      <c r="J24" s="142">
-        <v>4</v>
-      </c>
-      <c r="K24" s="143">
+      <c r="J24" s="124">
+        <v>4</v>
+      </c>
+      <c r="K24" s="125">
         <v>4</v>
       </c>
       <c r="L24" s="43">
         <v>4</v>
       </c>
-      <c r="M24" s="142">
-        <v>4</v>
-      </c>
-      <c r="N24" s="143">
+      <c r="M24" s="124">
+        <v>4</v>
+      </c>
+      <c r="N24" s="125">
         <v>4</v>
       </c>
       <c r="O24" s="43">
@@ -10233,30 +10235,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="139"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJeon\Documents\GitHub\PayBack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="4"/>
   </bookViews>
@@ -19,7 +14,7 @@
     <sheet name="Sprint 2" sheetId="6" r:id="rId5"/>
     <sheet name="Sprint 2 Burndown" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -29,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +47,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +70,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +135,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="249">
   <si>
     <t>User Stories</t>
   </si>
@@ -953,18 +948,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1916,450 +1904,447 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="52" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2646,11 +2631,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="252101264"/>
-        <c:axId val="252100480"/>
+        <c:axId val="61224064"/>
+        <c:axId val="70764032"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="252101264"/>
+        <c:axId val="61224064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,14 +2675,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="252100480"/>
+        <c:crossAx val="70764032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="252100480"/>
+        <c:axId val="70764032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252101264"/>
+        <c:crossAx val="61224064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2813,23 +2798,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2991,10 +2959,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -3090,6 +3058,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3176,22 +3145,22 @@
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3315,11 +3284,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="254649416"/>
-        <c:axId val="254647456"/>
+        <c:axId val="81426304"/>
+        <c:axId val="81453056"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="254649416"/>
+        <c:axId val="81426304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,20 +3322,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="254647456"/>
+        <c:crossAx val="81453056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254647456"/>
+        <c:axId val="81453056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3389,6 +3359,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3410,13 +3381,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254649416"/>
+        <c:crossAx val="81426304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4279,7 +4251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4314,7 +4286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5493,11 +5465,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6619,112 +6591,207 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="82" t="s">
+      <c r="A76" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="44">
+        <v>4</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="126" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" s="44">
+        <v>1</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="44">
+        <v>2</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="126" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" s="44">
+        <v>1</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="126" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="44">
+        <v>4</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="126" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" s="44">
+        <v>4</v>
+      </c>
+      <c r="D81" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B76" s="66" t="s">
+      <c r="B82" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="62">
+      <c r="C82" s="62">
         <v>16</v>
       </c>
-      <c r="D76" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="61" t="s">
+      <c r="D82" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="61" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="82" t="s">
+    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="57" t="s">
+      <c r="B83" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="C77" s="62">
+      <c r="C83" s="62">
         <v>1</v>
       </c>
-      <c r="D77" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="61" t="s">
+      <c r="D83" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="61" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="82" t="s">
+    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B78" s="66" t="s">
+      <c r="B84" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="C78" s="62">
-        <v>2</v>
-      </c>
-      <c r="D78" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="61" t="s">
+      <c r="C84" s="62">
+        <v>2</v>
+      </c>
+      <c r="D84" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="61" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="82" t="s">
+    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B85" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="62">
-        <v>2</v>
-      </c>
-      <c r="D79" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="82" t="s">
+      <c r="C85" s="62">
+        <v>2</v>
+      </c>
+      <c r="D85" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B80" s="73" t="s">
+      <c r="B86" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="C80" s="62">
-        <v>2</v>
-      </c>
-      <c r="D80" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="82" t="s">
+      <c r="C86" s="62">
+        <v>2</v>
+      </c>
+      <c r="D86" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B81" s="73" t="s">
+      <c r="B87" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C81" s="62">
-        <v>2</v>
-      </c>
-      <c r="D81" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="20">
-        <f>SUM(C3:C81)</f>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C87" s="62">
+        <v>2</v>
+      </c>
+      <c r="D87" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="20">
+        <f>SUM(C3:C87)</f>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -8623,9 +8690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8775,7 +8842,7 @@
       </c>
       <c r="R3">
         <f>SUM(P3:P9)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -8837,8 +8904,8 @@
       <c r="D5" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>25</v>
+      <c r="E5" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="88"/>
@@ -8858,16 +8925,16 @@
         <v>2</v>
       </c>
       <c r="M5" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9101,7 +9168,7 @@
       </c>
       <c r="R10">
         <f>SUM(P10:P17)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9117,8 +9184,8 @@
       <c r="D11" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="52" t="s">
-        <v>25</v>
+      <c r="E11" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="94"/>
@@ -9138,16 +9205,16 @@
         <v>4</v>
       </c>
       <c r="M11" s="55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9347,8 +9414,8 @@
       <c r="D16" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="52" t="s">
-        <v>25</v>
+      <c r="E16" s="129" t="s">
+        <v>188</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="94"/>
@@ -9362,22 +9429,22 @@
         <v>2</v>
       </c>
       <c r="K16" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" s="56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" s="54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" s="54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9439,8 +9506,8 @@
       <c r="D18" s="110" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="148" t="s">
-        <v>188</v>
+      <c r="E18" s="128" t="s">
+        <v>25</v>
       </c>
       <c r="F18" s="127" t="s">
         <v>241</v>
@@ -9537,8 +9604,8 @@
       <c r="D20" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="128" t="s">
-        <v>25</v>
+      <c r="E20" s="129" t="s">
+        <v>188</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="123"/>
@@ -9893,7 +9960,7 @@
       </c>
       <c r="R27">
         <f>SUM(R3)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S27" t="s">
         <v>247</v>
@@ -9946,7 +10013,7 @@
       </c>
       <c r="R28">
         <f>SUM(R10)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S28" t="s">
         <v>246</v>
@@ -10378,27 +10445,27 @@
       </c>
       <c r="E6" s="10">
         <f>SUM('Sprint 2'!K3:K37)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="15">
         <f>SUM('Sprint 2'!L3:L37)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="28">
         <f>SUM('Sprint 2'!M3:M37)</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H6" s="10">
         <f>SUM('Sprint 2'!N3:N37)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I6" s="15">
         <f>SUM('Sprint 2'!O3:O37)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J6" s="28">
         <f>SUM('Sprint 2'!P3:P37)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orr\Documents\GitHub\PayBack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="620" windowWidth="11300" windowHeight="7460" tabRatio="885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Sprint 2" sheetId="6" r:id="rId5"/>
     <sheet name="Sprint 2 Burndown" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +52,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +140,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -948,11 +953,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1321,7 +1333,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1577,6 +1589,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1904,447 +1922,450 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="52" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2406,6 +2427,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2631,11 +2653,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="61224064"/>
-        <c:axId val="70764032"/>
+        <c:axId val="205944592"/>
+        <c:axId val="205941848"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="61224064"/>
+        <c:axId val="205944592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,20 +2691,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="70764032"/>
+        <c:crossAx val="205941848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70764032"/>
+        <c:axId val="205941848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,6 +2728,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2726,13 +2750,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61224064"/>
+        <c:crossAx val="205944592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2798,6 +2823,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2959,7 +3001,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22</c:v>
@@ -3154,13 +3196,13 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,11 +3326,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="81426304"/>
-        <c:axId val="81453056"/>
+        <c:axId val="205944984"/>
+        <c:axId val="205942632"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="81426304"/>
+        <c:axId val="205944984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3329,14 +3371,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="81453056"/>
+        <c:crossAx val="205942632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="81453056"/>
+        <c:axId val="205942632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3381,7 +3423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81426304"/>
+        <c:crossAx val="205944984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4251,7 +4293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4286,7 +4328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4502,16 +4544,16 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="60.7265625" customWidth="1"/>
+    <col min="5" max="5" width="60.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
@@ -4520,7 +4562,7 @@
       <c r="D1" s="130"/>
       <c r="E1" s="130"/>
     </row>
-    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4538,7 +4580,7 @@
       </c>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>30</v>
       </c>
@@ -4556,7 +4598,7 @@
       </c>
       <c r="F3" s="37"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>30</v>
       </c>
@@ -4574,7 +4616,7 @@
       </c>
       <c r="F4" s="37"/>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
@@ -4592,7 +4634,7 @@
       </c>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>30</v>
       </c>
@@ -4610,7 +4652,7 @@
       </c>
       <c r="F6" s="65"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>30</v>
       </c>
@@ -4628,7 +4670,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>30</v>
       </c>
@@ -4646,7 +4688,7 @@
       </c>
       <c r="F8" s="37"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>30</v>
       </c>
@@ -4664,7 +4706,7 @@
       </c>
       <c r="F9" s="37"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>30</v>
       </c>
@@ -4682,7 +4724,7 @@
       </c>
       <c r="F10" s="37"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>30</v>
       </c>
@@ -4700,7 +4742,7 @@
       </c>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>30</v>
       </c>
@@ -4718,7 +4760,7 @@
       </c>
       <c r="F12" s="37"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>49</v>
       </c>
@@ -4736,7 +4778,7 @@
       </c>
       <c r="F13" s="37"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>49</v>
       </c>
@@ -4754,7 +4796,7 @@
       </c>
       <c r="F14" s="37"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
         <v>49</v>
       </c>
@@ -4772,7 +4814,7 @@
       </c>
       <c r="F15" s="37"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>49</v>
       </c>
@@ -4790,7 +4832,7 @@
       </c>
       <c r="F16" s="37"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
         <v>49</v>
       </c>
@@ -4808,7 +4850,7 @@
       </c>
       <c r="F17" s="37"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
         <v>49</v>
       </c>
@@ -4826,7 +4868,7 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
         <v>49</v>
       </c>
@@ -4844,7 +4886,7 @@
       </c>
       <c r="F19" s="37"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
@@ -4862,7 +4904,7 @@
       </c>
       <c r="F20" s="37"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
         <v>49</v>
       </c>
@@ -4880,7 +4922,7 @@
       </c>
       <c r="F21" s="37"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
         <v>49</v>
       </c>
@@ -4898,7 +4940,7 @@
       </c>
       <c r="F22" s="37"/>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
         <v>49</v>
       </c>
@@ -4916,7 +4958,7 @@
       </c>
       <c r="F23" s="37"/>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
         <v>49</v>
       </c>
@@ -4934,7 +4976,7 @@
       </c>
       <c r="F24" s="37"/>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>49</v>
       </c>
@@ -4952,7 +4994,7 @@
       </c>
       <c r="F25" s="37"/>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
@@ -4970,7 +5012,7 @@
       </c>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="33" t="s">
         <v>49</v>
       </c>
@@ -4988,7 +5030,7 @@
       </c>
       <c r="F27" s="37"/>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>49</v>
       </c>
@@ -5006,7 +5048,7 @@
       </c>
       <c r="F28" s="37"/>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
         <v>49</v>
       </c>
@@ -5024,7 +5066,7 @@
       </c>
       <c r="F29" s="37"/>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="33" t="s">
         <v>49</v>
       </c>
@@ -5042,7 +5084,7 @@
       </c>
       <c r="F30" s="37"/>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
         <v>49</v>
       </c>
@@ -5060,7 +5102,7 @@
       </c>
       <c r="F31" s="37"/>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
         <v>49</v>
       </c>
@@ -5078,7 +5120,7 @@
       </c>
       <c r="F32" s="37"/>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="30" t="s">
         <v>49</v>
       </c>
@@ -5096,7 +5138,7 @@
       </c>
       <c r="F33" s="37"/>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>92</v>
       </c>
@@ -5113,7 +5155,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>92</v>
       </c>
@@ -5130,7 +5172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>92</v>
       </c>
@@ -5147,7 +5189,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>92</v>
       </c>
@@ -5164,7 +5206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>92</v>
       </c>
@@ -5181,7 +5223,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>92</v>
       </c>
@@ -5198,7 +5240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>92</v>
       </c>
@@ -5215,7 +5257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>92</v>
       </c>
@@ -5232,7 +5274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>92</v>
       </c>
@@ -5249,7 +5291,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
         <v>92</v>
       </c>
@@ -5266,7 +5308,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>92</v>
       </c>
@@ -5283,7 +5325,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>92</v>
       </c>
@@ -5300,7 +5342,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
         <v>92</v>
       </c>
@@ -5317,7 +5359,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>92</v>
       </c>
@@ -5334,7 +5376,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
         <v>92</v>
       </c>
@@ -5351,7 +5393,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
         <v>92</v>
       </c>
@@ -5368,7 +5410,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
         <v>92</v>
       </c>
@@ -5385,7 +5427,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
         <v>92</v>
       </c>
@@ -5402,7 +5444,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
         <v>92</v>
       </c>
@@ -5419,7 +5461,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
         <v>92</v>
       </c>
@@ -5436,7 +5478,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
         <v>92</v>
       </c>
@@ -5472,15 +5514,15 @@
       <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="78.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="20"/>
+    <col min="1" max="1" width="16.7265625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="78.1796875" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="132" t="s">
         <v>11</v>
       </c>
@@ -5488,7 +5530,7 @@
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -5502,7 +5544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>30</v>
       </c>
@@ -5519,7 +5561,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>30</v>
       </c>
@@ -5536,7 +5578,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>30</v>
       </c>
@@ -5553,7 +5595,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>30</v>
       </c>
@@ -5570,7 +5612,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
         <v>30</v>
       </c>
@@ -5587,7 +5629,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
         <v>30</v>
       </c>
@@ -5604,7 +5646,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
         <v>30</v>
       </c>
@@ -5621,7 +5663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="47" t="s">
         <v>30</v>
       </c>
@@ -5638,7 +5680,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
         <v>30</v>
       </c>
@@ -5655,7 +5697,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="47" t="s">
         <v>30</v>
       </c>
@@ -5669,7 +5711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="47" t="s">
         <v>30</v>
       </c>
@@ -5686,7 +5728,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="47" t="s">
         <v>30</v>
       </c>
@@ -5703,7 +5745,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="47" t="s">
         <v>30</v>
       </c>
@@ -5720,7 +5762,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="47" t="s">
         <v>30</v>
       </c>
@@ -5737,7 +5779,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="47" t="s">
         <v>30</v>
       </c>
@@ -5754,7 +5796,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="47" t="s">
         <v>30</v>
       </c>
@@ -5771,7 +5813,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="83" t="s">
         <v>30</v>
       </c>
@@ -5785,7 +5827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="83" t="s">
         <v>30</v>
       </c>
@@ -5799,7 +5841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="83" t="s">
         <v>30</v>
       </c>
@@ -5813,7 +5855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="83" t="s">
         <v>30</v>
       </c>
@@ -5827,7 +5869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="83" t="s">
         <v>30</v>
       </c>
@@ -5841,7 +5883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="83" t="s">
         <v>30</v>
       </c>
@@ -5855,7 +5897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="83" t="s">
         <v>30</v>
       </c>
@@ -5869,7 +5911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="83" t="s">
         <v>30</v>
       </c>
@@ -5883,7 +5925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="83" t="s">
         <v>30</v>
       </c>
@@ -5897,7 +5939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="83" t="s">
         <v>30</v>
       </c>
@@ -5911,7 +5953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="47" t="s">
         <v>30</v>
       </c>
@@ -5925,7 +5967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="47" t="s">
         <v>30</v>
       </c>
@@ -5939,7 +5981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="47" t="s">
         <v>30</v>
       </c>
@@ -5953,7 +5995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51" t="s">
         <v>49</v>
       </c>
@@ -5967,7 +6009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="51" t="s">
         <v>49</v>
       </c>
@@ -5981,7 +6023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="51" t="s">
         <v>49</v>
       </c>
@@ -5995,7 +6037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="51" t="s">
         <v>49</v>
       </c>
@@ -6009,7 +6051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="51" t="s">
         <v>49</v>
       </c>
@@ -6023,7 +6065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="51" t="s">
         <v>49</v>
       </c>
@@ -6037,7 +6079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="51" t="s">
         <v>49</v>
       </c>
@@ -6051,7 +6093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="51" t="s">
         <v>49</v>
       </c>
@@ -6065,7 +6107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="51" t="s">
         <v>49</v>
       </c>
@@ -6079,7 +6121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="51" t="s">
         <v>49</v>
       </c>
@@ -6093,7 +6135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="51" t="s">
         <v>49</v>
       </c>
@@ -6107,7 +6149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="51" t="s">
         <v>49</v>
       </c>
@@ -6121,7 +6163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="51" t="s">
         <v>49</v>
       </c>
@@ -6135,7 +6177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51" t="s">
         <v>49</v>
       </c>
@@ -6149,7 +6191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="51" t="s">
         <v>49</v>
       </c>
@@ -6163,7 +6205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="51" t="s">
         <v>49</v>
       </c>
@@ -6177,7 +6219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="51" t="s">
         <v>49</v>
       </c>
@@ -6191,7 +6233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="51" t="s">
         <v>49</v>
       </c>
@@ -6205,7 +6247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="51" t="s">
         <v>49</v>
       </c>
@@ -6219,7 +6261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="51" t="s">
         <v>49</v>
       </c>
@@ -6233,7 +6275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="51" t="s">
         <v>49</v>
       </c>
@@ -6247,7 +6289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="51" t="s">
         <v>49</v>
       </c>
@@ -6261,7 +6303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="51" t="s">
         <v>49</v>
       </c>
@@ -6275,7 +6317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="51" t="s">
         <v>49</v>
       </c>
@@ -6289,7 +6331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="51" t="s">
         <v>49</v>
       </c>
@@ -6303,7 +6345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="44" t="s">
         <v>92</v>
       </c>
@@ -6317,7 +6359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="44" t="s">
         <v>92</v>
       </c>
@@ -6331,7 +6373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="44" t="s">
         <v>92</v>
       </c>
@@ -6345,7 +6387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="44" t="s">
         <v>92</v>
       </c>
@@ -6362,7 +6404,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="44" t="s">
         <v>92</v>
       </c>
@@ -6379,7 +6421,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="44" t="s">
         <v>92</v>
       </c>
@@ -6396,7 +6438,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="44" t="s">
         <v>92</v>
       </c>
@@ -6410,7 +6452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="44" t="s">
         <v>92</v>
       </c>
@@ -6427,7 +6469,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="44" t="s">
         <v>92</v>
       </c>
@@ -6441,7 +6483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="44" t="s">
         <v>92</v>
       </c>
@@ -6458,7 +6500,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="44" t="s">
         <v>92</v>
       </c>
@@ -6475,7 +6517,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="44" t="s">
         <v>92</v>
       </c>
@@ -6489,7 +6531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="44" t="s">
         <v>92</v>
       </c>
@@ -6506,7 +6548,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="44" t="s">
         <v>92</v>
       </c>
@@ -6520,7 +6562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="44" t="s">
         <v>92</v>
       </c>
@@ -6534,7 +6576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="44" t="s">
         <v>92</v>
       </c>
@@ -6548,7 +6590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="44" t="s">
         <v>92</v>
       </c>
@@ -6562,7 +6604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="44" t="s">
         <v>92</v>
       </c>
@@ -6576,7 +6618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="44" t="s">
         <v>92</v>
       </c>
@@ -6590,7 +6632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="44" t="s">
         <v>92</v>
       </c>
@@ -6604,7 +6646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="44" t="s">
         <v>92</v>
       </c>
@@ -6618,7 +6660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="44" t="s">
         <v>92</v>
       </c>
@@ -6632,7 +6674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="44" t="s">
         <v>92</v>
       </c>
@@ -6646,7 +6688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="44" t="s">
         <v>92</v>
       </c>
@@ -6660,7 +6702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="44" t="s">
         <v>92</v>
       </c>
@@ -6674,7 +6716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="82" t="s">
         <v>210</v>
       </c>
@@ -6691,7 +6733,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="82" t="s">
         <v>210</v>
       </c>
@@ -6708,7 +6750,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="82" t="s">
         <v>210</v>
       </c>
@@ -6725,7 +6767,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="82" t="s">
         <v>210</v>
       </c>
@@ -6739,7 +6781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="82" t="s">
         <v>210</v>
       </c>
@@ -6753,7 +6795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="82" t="s">
         <v>210</v>
       </c>
@@ -6767,29 +6809,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="20">
         <f>SUM(C3:C87)</f>
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
     </row>
   </sheetData>
@@ -6830,20 +6872,20 @@
       <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="20" customWidth="1"/>
-    <col min="9" max="16" width="3.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="80.81640625" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="3.7265625" style="20" customWidth="1"/>
+    <col min="9" max="16" width="3.54296875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
@@ -6871,7 +6913,7 @@
       <c r="O1" s="137"/>
       <c r="P1" s="138"/>
     </row>
-    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -6921,7 +6963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="67" t="s">
         <v>194</v>
       </c>
@@ -6967,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>129</v>
       </c>
@@ -7013,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>130</v>
       </c>
@@ -7059,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>137</v>
       </c>
@@ -7105,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>133</v>
       </c>
@@ -7151,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>135</v>
       </c>
@@ -7197,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>134</v>
       </c>
@@ -7243,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>136</v>
       </c>
@@ -7289,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
         <v>132</v>
       </c>
@@ -7335,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
         <v>131</v>
       </c>
@@ -7381,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>144</v>
       </c>
@@ -7427,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>140</v>
       </c>
@@ -7473,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>141</v>
       </c>
@@ -7519,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>142</v>
       </c>
@@ -7565,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>145</v>
       </c>
@@ -7611,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
         <v>146</v>
       </c>
@@ -7658,7 +7700,7 @@
       </c>
       <c r="Q18" s="20"/>
     </row>
-    <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
         <v>168</v>
       </c>
@@ -7705,7 +7747,7 @@
       </c>
       <c r="Q19" s="20"/>
     </row>
-    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="43" t="s">
         <v>169</v>
       </c>
@@ -7752,7 +7794,7 @@
       </c>
       <c r="Q20" s="20"/>
     </row>
-    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
         <v>170</v>
       </c>
@@ -7798,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="43" t="s">
         <v>172</v>
       </c>
@@ -7844,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
         <v>173</v>
       </c>
@@ -7890,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
         <v>174</v>
       </c>
@@ -7936,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="77" t="s">
         <v>220</v>
       </c>
@@ -7982,7 +8024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="77" t="s">
         <v>177</v>
       </c>
@@ -8028,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="66" t="s">
         <v>191</v>
       </c>
@@ -8074,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="66" t="s">
         <v>193</v>
       </c>
@@ -8120,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="57" t="s">
         <v>189</v>
       </c>
@@ -8166,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="104" t="s">
         <v>204</v>
       </c>
@@ -8175,16 +8217,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L35" s="105"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
     </row>
-    <row r="36" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L36" s="105"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
@@ -8309,12 +8351,12 @@
       <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="10" width="9.7109375" customWidth="1"/>
+    <col min="2" max="10" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="139" t="s">
         <v>26</v>
       </c>
@@ -8328,7 +8370,7 @@
       <c r="I1" s="140"/>
       <c r="J1" s="140"/>
     </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="141"/>
       <c r="C2" s="142"/>
@@ -8340,7 +8382,7 @@
       <c r="I2" s="145"/>
       <c r="J2" s="146"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
@@ -8372,7 +8414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="69">
         <v>41535</v>
@@ -8402,7 +8444,7 @@
         <v>41554</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="114">
         <v>1</v>
@@ -8433,7 +8475,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
@@ -8475,7 +8517,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
@@ -8517,10 +8559,10 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
@@ -8530,7 +8572,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -8538,7 +8580,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -8546,7 +8588,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -8554,7 +8596,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -8562,7 +8604,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -8570,7 +8612,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -8578,7 +8620,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -8586,7 +8628,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -8594,7 +8636,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -8602,7 +8644,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -8610,7 +8652,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -8618,7 +8660,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -8626,7 +8668,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -8634,7 +8676,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -8642,7 +8684,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -8650,7 +8692,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -8658,7 +8700,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -8666,7 +8708,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -8692,32 +8734,32 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.140625" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="90.1796875" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" style="20" customWidth="1"/>
     <col min="4" max="4" width="21" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" customWidth="1"/>
-    <col min="12" max="13" width="4.7109375" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" customWidth="1"/>
-    <col min="19" max="19" width="31.140625" customWidth="1"/>
-    <col min="20" max="26" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="5.26953125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="4.54296875" customWidth="1"/>
+    <col min="9" max="9" width="3.54296875" customWidth="1"/>
+    <col min="10" max="10" width="4.1796875" customWidth="1"/>
+    <col min="11" max="11" width="3.54296875" customWidth="1"/>
+    <col min="12" max="13" width="4.7265625" customWidth="1"/>
+    <col min="14" max="14" width="3.54296875" customWidth="1"/>
+    <col min="15" max="15" width="4.54296875" customWidth="1"/>
+    <col min="16" max="16" width="4.7265625" customWidth="1"/>
+    <col min="18" max="18" width="5.7265625" customWidth="1"/>
+    <col min="19" max="19" width="31.1796875" customWidth="1"/>
+    <col min="20" max="26" width="5.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="122" t="s">
         <v>226</v>
       </c>
@@ -8745,7 +8787,7 @@
       <c r="O1" s="137"/>
       <c r="P1" s="138"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -8795,7 +8837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="68" t="s">
         <v>199</v>
       </c>
@@ -8808,8 +8850,8 @@
       <c r="D3" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>25</v>
+      <c r="E3" s="148" t="s">
+        <v>188</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="88"/>
@@ -8832,20 +8874,20 @@
         <v>2</v>
       </c>
       <c r="N3" s="50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" s="48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" s="48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <f>SUM(P3:P9)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
         <v>196</v>
       </c>
@@ -8891,7 +8933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="118" t="s">
         <v>233</v>
       </c>
@@ -8937,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="68" t="s">
         <v>202</v>
       </c>
@@ -8983,7 +9025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>143</v>
       </c>
@@ -9029,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="74" t="s">
         <v>138</v>
       </c>
@@ -9075,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="116" t="s">
         <v>232</v>
       </c>
@@ -9121,7 +9163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="76" t="s">
         <v>217</v>
       </c>
@@ -9171,7 +9213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="120" t="s">
         <v>235</v>
       </c>
@@ -9217,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
         <v>215</v>
       </c>
@@ -9263,7 +9305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="76" t="s">
         <v>219</v>
       </c>
@@ -9309,7 +9351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
         <v>153</v>
       </c>
@@ -9355,7 +9397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
         <v>156</v>
       </c>
@@ -9401,7 +9443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>146</v>
       </c>
@@ -9447,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
         <v>147</v>
       </c>
@@ -9493,7 +9535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="119" t="s">
         <v>234</v>
       </c>
@@ -9545,7 +9587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="126" t="s">
         <v>236</v>
       </c>
@@ -9591,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="126" t="s">
         <v>239</v>
       </c>
@@ -9637,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="126" t="s">
         <v>240</v>
       </c>
@@ -9683,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="126" t="s">
         <v>244</v>
       </c>
@@ -9729,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="126" t="s">
         <v>242</v>
       </c>
@@ -9775,7 +9817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="126" t="s">
         <v>243</v>
       </c>
@@ -9821,7 +9863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
         <v>178</v>
       </c>
@@ -9867,7 +9909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="43" t="s">
         <v>222</v>
       </c>
@@ -9913,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
         <v>223</v>
       </c>
@@ -9960,13 +10002,13 @@
       </c>
       <c r="R27">
         <f>SUM(R3)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S27" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43" t="s">
         <v>175</v>
       </c>
@@ -10019,7 +10061,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="77" t="s">
         <v>176</v>
       </c>
@@ -10072,7 +10114,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="73" t="s">
         <v>211</v>
       </c>
@@ -10125,7 +10167,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="104" t="s">
         <v>204</v>
       </c>
@@ -10138,16 +10180,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H1:J1"/>
@@ -10296,12 +10338,12 @@
       <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="10" width="9.7109375" customWidth="1"/>
+    <col min="2" max="10" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="147" t="s">
         <v>227</v>
       </c>
@@ -10315,7 +10357,7 @@
       <c r="I1" s="140"/>
       <c r="J1" s="140"/>
     </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="141"/>
       <c r="C2" s="142"/>
@@ -10327,7 +10369,7 @@
       <c r="I2" s="145"/>
       <c r="J2" s="146"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
@@ -10359,7 +10401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="69">
         <v>41556</v>
@@ -10389,7 +10431,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="22">
         <v>1</v>
@@ -10427,7 +10469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
@@ -10457,18 +10499,18 @@
       </c>
       <c r="H6" s="10">
         <f>SUM('Sprint 2'!N3:N37)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" s="15">
         <f>SUM('Sprint 2'!O3:O37)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6" s="28">
         <f>SUM('Sprint 2'!P3:P37)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
@@ -10509,10 +10551,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
@@ -10522,7 +10564,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -10530,7 +10572,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -10538,7 +10580,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -10546,7 +10588,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -10554,7 +10596,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -10562,7 +10604,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -10570,7 +10612,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -10578,7 +10620,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -10586,7 +10628,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -10594,7 +10636,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -10602,7 +10644,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -10610,7 +10652,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -10618,7 +10660,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -10626,7 +10668,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -10634,7 +10676,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -10642,7 +10684,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -10650,7 +10692,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -10658,7 +10700,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="252">
   <si>
     <t>User Stories</t>
   </si>
@@ -848,9 +848,6 @@
     <t>Provide method for authentication of logins/accounts</t>
   </si>
   <si>
-    <t>Create intents for transaction parameters through Transaction pages 1 - 5</t>
-  </si>
-  <si>
     <t>Provide method for pushing transaction object to database.</t>
   </si>
   <si>
@@ -899,9 +896,6 @@
     <t>Create "add contact" page sequence</t>
   </si>
   <si>
-    <t>Communication between android/database</t>
-  </si>
-  <si>
     <t>Edit code for android 2.3.3</t>
   </si>
   <si>
@@ -920,9 +914,6 @@
     <t>Install Apache and PHP on Desktop</t>
   </si>
   <si>
-    <t>This is a category header</t>
-  </si>
-  <si>
     <t>PHP server code for account creation</t>
   </si>
   <si>
@@ -942,17 +933,42 @@
   </si>
   <si>
     <t>Report</t>
+  </si>
+  <si>
+    <t>Create transaction page 2 + 4 (Contact selection / borrower's share)</t>
+  </si>
+  <si>
+    <t>Create transaction page 3 ( Lender's share) debt division selection</t>
+  </si>
+  <si>
+    <t>Create transaction page 5 ( Summary)</t>
+  </si>
+  <si>
+    <t>Create transaction page 1 (Information gather)</t>
+  </si>
+  <si>
+    <t>Capture Adding friend by email address</t>
+  </si>
+  <si>
+    <t>Will</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1904,447 +1920,450 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="52" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2962,7 +2981,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -3136,31 +3155,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3235,28 +3254,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.125</c:v>
+                  <c:v>100.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.25</c:v>
+                  <c:v>86.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.375</c:v>
+                  <c:v>71.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.5</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.625</c:v>
+                  <c:v>43.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.75</c:v>
+                  <c:v>28.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.875</c:v>
+                  <c:v>14.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4512,13 +4531,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5465,11 +5484,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5481,10 +5500,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="131"/>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
@@ -5668,6 +5687,9 @@
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
+      <c r="E12" s="61" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
@@ -5804,7 +5826,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="47">
         <v>4</v>
@@ -5944,7 +5966,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C31" s="47">
         <v>4</v>
@@ -5972,13 +5994,13 @@
         <v>49</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="C33" s="51">
         <v>2</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5986,13 +6008,13 @@
         <v>49</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="51">
         <v>2</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6000,10 +6022,10 @@
         <v>49</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>6</v>
@@ -6014,13 +6036,13 @@
         <v>49</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6028,10 +6050,10 @@
         <v>49</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>9</v>
@@ -6042,7 +6064,7 @@
         <v>49</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" s="51">
         <v>4</v>
@@ -6056,13 +6078,13 @@
         <v>49</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6070,13 +6092,13 @@
         <v>49</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" s="51">
         <v>2</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6084,13 +6106,13 @@
         <v>49</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6098,10 +6120,10 @@
         <v>49</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" s="51" t="s">
         <v>6</v>
@@ -6112,13 +6134,13 @@
         <v>49</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" s="51">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6126,10 +6148,10 @@
         <v>49</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C44" s="51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D44" s="51" t="s">
         <v>9</v>
@@ -6140,7 +6162,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" s="51">
         <v>4</v>
@@ -6154,13 +6176,13 @@
         <v>49</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C46" s="51">
         <v>4</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6168,13 +6190,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="51">
         <v>4</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6182,13 +6204,13 @@
         <v>49</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="51">
         <v>4</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6196,13 +6218,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="51">
         <v>4</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6210,13 +6232,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" s="51">
         <v>4</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6224,27 +6246,27 @@
         <v>49</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="76" t="s">
-        <v>215</v>
+      <c r="B52" s="38" t="s">
+        <v>165</v>
       </c>
       <c r="C52" s="51">
         <v>8</v>
       </c>
-      <c r="D52" s="80" t="s">
-        <v>8</v>
+      <c r="D52" s="51" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6252,10 +6274,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C53" s="51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D53" s="80" t="s">
         <v>8</v>
@@ -6266,10 +6288,10 @@
         <v>49</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="51">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D54" s="80" t="s">
         <v>8</v>
@@ -6279,10 +6301,10 @@
       <c r="A55" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="51">
+      <c r="B55" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="109">
         <v>2</v>
       </c>
       <c r="D55" s="80" t="s">
@@ -6293,73 +6315,70 @@
       <c r="A56" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="C56" s="51">
-        <v>4</v>
+      <c r="B56" s="147" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="109">
+        <v>16</v>
       </c>
       <c r="D56" s="80" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" s="44">
-        <v>2</v>
-      </c>
-      <c r="D57" s="44" t="s">
+      <c r="A57" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="109">
+        <v>4</v>
+      </c>
+      <c r="D57" s="80" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="44">
-        <v>2</v>
-      </c>
-      <c r="D58" s="44" t="s">
+      <c r="A58" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="147" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="109">
+        <v>4</v>
+      </c>
+      <c r="D58" s="80" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="44">
-        <v>4</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>6</v>
+      <c r="A59" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="51">
+        <v>2</v>
+      </c>
+      <c r="D59" s="80" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="44">
-        <v>4</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="61" t="s">
-        <v>188</v>
+      <c r="A60" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="51">
+        <v>4</v>
+      </c>
+      <c r="D60" s="80" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6367,16 +6386,13 @@
         <v>92</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="C61" s="44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D61" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6384,16 +6400,13 @@
         <v>92</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="C62" s="44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="E62" s="61" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6401,13 +6414,13 @@
         <v>92</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C63" s="44">
         <v>4</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6415,7 +6428,7 @@
         <v>92</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C64" s="44">
         <v>4</v>
@@ -6432,13 +6445,16 @@
         <v>92</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C65" s="44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D65" s="44" t="s">
         <v>8</v>
+      </c>
+      <c r="E65" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6446,7 +6462,7 @@
         <v>92</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C66" s="44">
         <v>4</v>
@@ -6463,16 +6479,13 @@
         <v>92</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C67" s="44">
         <v>4</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="61" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6480,13 +6493,16 @@
         <v>92</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C68" s="44">
         <v>4</v>
       </c>
       <c r="D68" s="44" t="s">
         <v>8</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6494,16 +6510,13 @@
         <v>92</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C69" s="44">
         <v>4</v>
       </c>
       <c r="D69" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="E69" s="61" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6511,13 +6524,16 @@
         <v>92</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C70" s="44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D70" s="44" t="s">
         <v>8</v>
+      </c>
+      <c r="E70" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6525,13 +6541,16 @@
         <v>92</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C71" s="44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E71" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6539,13 +6558,13 @@
         <v>92</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C72" s="44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6553,13 +6572,16 @@
         <v>92</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C73" s="44">
         <v>4</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6567,24 +6589,24 @@
         <v>92</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C74" s="44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="77" t="s">
-        <v>221</v>
+      <c r="B75" s="43" t="s">
+        <v>179</v>
       </c>
       <c r="C75" s="44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D75" s="44" t="s">
         <v>9</v>
@@ -6594,64 +6616,64 @@
       <c r="A76" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="126" t="s">
-        <v>236</v>
+      <c r="B76" s="43" t="s">
+        <v>180</v>
       </c>
       <c r="C76" s="44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="126" t="s">
-        <v>239</v>
+      <c r="B77" s="43" t="s">
+        <v>181</v>
       </c>
       <c r="C77" s="44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="126" t="s">
-        <v>240</v>
+      <c r="B78" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="C78" s="44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" s="44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="126" t="s">
-        <v>244</v>
+      <c r="B79" s="77" t="s">
+        <v>220</v>
       </c>
       <c r="C79" s="44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="126" t="s">
-        <v>242</v>
+      <c r="B80" s="125" t="s">
+        <v>234</v>
       </c>
       <c r="C80" s="44">
         <v>4</v>
@@ -6664,78 +6686,69 @@
       <c r="A81" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="126" t="s">
-        <v>243</v>
+      <c r="B81" s="125" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D81" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B82" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="62">
-        <v>16</v>
-      </c>
-      <c r="D82" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="61" t="s">
-        <v>188</v>
+      <c r="A82" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="44">
+        <v>2</v>
+      </c>
+      <c r="D82" s="44" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B83" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="C83" s="62">
+      <c r="A83" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="44">
         <v>1</v>
       </c>
-      <c r="D83" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="61" t="s">
-        <v>188</v>
+      <c r="D83" s="44" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B84" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="C84" s="62">
-        <v>2</v>
-      </c>
-      <c r="D84" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="61" t="s">
-        <v>188</v>
+      <c r="A84" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="125" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="44">
+        <v>4</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B85" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C85" s="62">
-        <v>2</v>
-      </c>
-      <c r="D85" s="82" t="s">
+      <c r="A85" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="125" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="44">
+        <v>4</v>
+      </c>
+      <c r="D85" s="44" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6743,45 +6756,100 @@
       <c r="A86" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B86" s="73" t="s">
-        <v>212</v>
+      <c r="B86" s="66" t="s">
+        <v>191</v>
       </c>
       <c r="C86" s="62">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D86" s="82" t="s">
         <v>8</v>
+      </c>
+      <c r="E86" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B87" s="73" t="s">
+      <c r="B87" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="62">
+        <v>1</v>
+      </c>
+      <c r="D87" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="62">
+        <v>2</v>
+      </c>
+      <c r="D88" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" s="62">
+        <v>2</v>
+      </c>
+      <c r="D89" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="B90" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" s="62">
+        <v>2</v>
+      </c>
+      <c r="D90" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C87" s="62">
-        <v>2</v>
-      </c>
-      <c r="D87" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="20">
-        <f>SUM(C3:C87)</f>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90"/>
-    </row>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91"/>
+      <c r="C91" s="62">
+        <v>2</v>
+      </c>
+      <c r="D91" s="82" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92"/>
+      <c r="C92" s="20">
+        <f>SUM(C3:C91)</f>
+        <v>339</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93"/>
@@ -6791,6 +6859,15 @@
     </row>
     <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
+    </row>
+    <row r="96" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6855,21 +6932,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="132" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="136" t="s">
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="136" t="s">
+      <c r="L1" s="136"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="137"/>
-      <c r="P1" s="138"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="137"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -7938,7 +8015,7 @@
     </row>
     <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" s="44">
         <v>4</v>
@@ -8315,30 +8392,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -8690,9 +8767,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8718,8 +8795,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
-        <v>226</v>
+      <c r="A1" s="121" t="s">
+        <v>225</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="85"/>
@@ -8729,21 +8806,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="136" t="s">
+      <c r="H1" s="135" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="136"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="135" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="137"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="136" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="136" t="s">
-        <v>231</v>
-      </c>
-      <c r="O1" s="137"/>
-      <c r="P1" s="138"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="135" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" s="136"/>
+      <c r="P1" s="137"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -8806,7 +8883,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>25</v>
@@ -8893,7 +8970,7 @@
     </row>
     <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="47">
         <v>4</v>
@@ -8948,7 +9025,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>25</v>
@@ -9077,7 +9154,7 @@
     </row>
     <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="47">
         <v>4</v>
@@ -9122,17 +9199,17 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="51">
-        <v>16</v>
-      </c>
-      <c r="C10" s="80" t="s">
+      <c r="A10" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="109">
+        <v>2</v>
+      </c>
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>25</v>
@@ -9140,95 +9217,95 @@
       <c r="F10" s="51"/>
       <c r="G10" s="94"/>
       <c r="H10" s="39">
+        <v>2</v>
+      </c>
+      <c r="I10" s="39">
+        <v>2</v>
+      </c>
+      <c r="J10" s="55">
+        <v>2</v>
+      </c>
+      <c r="K10" s="56">
+        <v>2</v>
+      </c>
+      <c r="L10" s="54">
+        <v>2</v>
+      </c>
+      <c r="M10" s="55">
+        <v>2</v>
+      </c>
+      <c r="N10" s="56">
+        <v>2</v>
+      </c>
+      <c r="O10" s="54">
+        <v>2</v>
+      </c>
+      <c r="P10" s="54">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <f>SUM(P10:P21)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="147" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="109">
         <v>16</v>
       </c>
-      <c r="I10" s="39">
-        <v>16</v>
-      </c>
-      <c r="J10" s="55">
-        <v>16</v>
-      </c>
-      <c r="K10" s="56">
-        <v>16</v>
-      </c>
-      <c r="L10" s="54">
-        <v>8</v>
-      </c>
-      <c r="M10" s="55">
-        <v>8</v>
-      </c>
-      <c r="N10" s="56">
-        <v>8</v>
-      </c>
-      <c r="O10" s="54">
-        <v>8</v>
-      </c>
-      <c r="P10" s="54">
-        <v>8</v>
-      </c>
-      <c r="R10">
-        <f>SUM(P10:P17)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="51">
-        <v>8</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>188</v>
+      <c r="C11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="109" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="94"/>
       <c r="H11" s="39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I11" s="39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J11" s="55">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K11" s="56">
         <v>8</v>
       </c>
       <c r="L11" s="54">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M11" s="55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N11" s="56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O11" s="54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P11" s="54">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="51">
-        <v>8</v>
-      </c>
-      <c r="C12" s="80" t="s">
+      <c r="A12" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="109">
+        <v>4</v>
+      </c>
+      <c r="C12" s="109" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>25</v>
@@ -9236,45 +9313,45 @@
       <c r="F12" s="51"/>
       <c r="G12" s="94"/>
       <c r="H12" s="39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I12" s="39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J12" s="55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K12" s="56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L12" s="54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M12" s="55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N12" s="56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O12" s="54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P12" s="54">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="51">
-        <v>4</v>
-      </c>
-      <c r="C13" s="80" t="s">
+      <c r="A13" s="147" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="109">
+        <v>4</v>
+      </c>
+      <c r="C13" s="109" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>25</v>
@@ -9310,63 +9387,63 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>153</v>
+      <c r="A14" s="119" t="s">
+        <v>233</v>
       </c>
       <c r="B14" s="51">
-        <v>2</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="94"/>
       <c r="H14" s="39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I14" s="39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J14" s="55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K14" s="56">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L14" s="54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" s="55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" s="54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>156</v>
+      <c r="A15" s="76" t="s">
+        <v>215</v>
       </c>
       <c r="B15" s="51">
-        <v>1</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>8</v>
       </c>
       <c r="D15" s="109" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>25</v>
@@ -9374,91 +9451,91 @@
       <c r="F15" s="51"/>
       <c r="G15" s="94"/>
       <c r="H15" s="39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I15" s="39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J15" s="55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K15" s="56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L15" s="54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M15" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N15" s="56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O15" s="54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P15" s="54">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>146</v>
+      <c r="A16" s="76" t="s">
+        <v>218</v>
       </c>
       <c r="B16" s="51">
-        <v>2</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="129" t="s">
-        <v>188</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="94"/>
       <c r="H16" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K16" s="56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L16" s="54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M16" s="55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O16" s="54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P16" s="54">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B17" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="121" t="s">
-        <v>186</v>
+        <v>6</v>
+      </c>
+      <c r="D17" s="109" t="s">
+        <v>227</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>25</v>
@@ -9466,603 +9543,601 @@
       <c r="F17" s="51"/>
       <c r="G17" s="94"/>
       <c r="H17" s="39">
+        <v>2</v>
+      </c>
+      <c r="I17" s="39">
+        <v>2</v>
+      </c>
+      <c r="J17" s="55">
+        <v>2</v>
+      </c>
+      <c r="K17" s="56">
+        <v>2</v>
+      </c>
+      <c r="L17" s="54">
+        <v>2</v>
+      </c>
+      <c r="M17" s="55">
+        <v>2</v>
+      </c>
+      <c r="N17" s="56">
+        <v>2</v>
+      </c>
+      <c r="O17" s="54">
+        <v>2</v>
+      </c>
+      <c r="P17" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="51">
         <v>1</v>
       </c>
-      <c r="I17" s="39">
+      <c r="C18" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="39">
         <v>1</v>
       </c>
-      <c r="J17" s="55">
+      <c r="I18" s="39">
         <v>1</v>
       </c>
-      <c r="K17" s="56">
+      <c r="J18" s="55">
         <v>1</v>
       </c>
-      <c r="L17" s="54">
+      <c r="K18" s="56">
         <v>1</v>
       </c>
-      <c r="M17" s="55">
+      <c r="L18" s="54">
         <v>1</v>
       </c>
-      <c r="N17" s="56">
+      <c r="M18" s="55">
         <v>1</v>
       </c>
-      <c r="O17" s="54">
+      <c r="N18" s="56">
         <v>1</v>
       </c>
-      <c r="P17" s="54">
+      <c r="O18" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119" t="s">
+      <c r="P18" s="54">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f>SUM(P22:P32)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="51">
+        <v>2</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="148" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="39">
+        <v>2</v>
+      </c>
+      <c r="I19" s="39">
+        <v>2</v>
+      </c>
+      <c r="J19" s="55">
+        <v>2</v>
+      </c>
+      <c r="K19" s="56">
+        <v>1</v>
+      </c>
+      <c r="L19" s="54">
+        <v>1</v>
+      </c>
+      <c r="M19" s="55">
+        <v>1</v>
+      </c>
+      <c r="N19" s="56">
+        <v>0</v>
+      </c>
+      <c r="O19" s="54">
+        <v>0</v>
+      </c>
+      <c r="P19" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="51">
+        <v>2</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="39">
+        <v>2</v>
+      </c>
+      <c r="I20" s="39">
+        <v>2</v>
+      </c>
+      <c r="J20" s="55">
+        <v>2</v>
+      </c>
+      <c r="K20" s="56">
+        <v>2</v>
+      </c>
+      <c r="L20" s="54">
+        <v>2</v>
+      </c>
+      <c r="M20" s="55">
+        <v>2</v>
+      </c>
+      <c r="N20" s="56">
+        <v>2</v>
+      </c>
+      <c r="O20" s="54">
+        <v>2</v>
+      </c>
+      <c r="P20" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="51">
+        <v>1</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="I21" s="39">
+        <v>1</v>
+      </c>
+      <c r="J21" s="55">
+        <v>1</v>
+      </c>
+      <c r="K21" s="56">
+        <v>1</v>
+      </c>
+      <c r="L21" s="54">
+        <v>1</v>
+      </c>
+      <c r="M21" s="55">
+        <v>1</v>
+      </c>
+      <c r="N21" s="56">
+        <v>1</v>
+      </c>
+      <c r="O21" s="54">
+        <v>1</v>
+      </c>
+      <c r="P21" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="44">
-        <v>0</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="110" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="128" t="s">
+      <c r="B22" s="44">
+        <v>4</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="43">
+        <v>4</v>
+      </c>
+      <c r="I22" s="43">
+        <v>4</v>
+      </c>
+      <c r="J22" s="123">
+        <v>2</v>
+      </c>
+      <c r="K22" s="124">
+        <v>2</v>
+      </c>
+      <c r="L22" s="43">
+        <v>0</v>
+      </c>
+      <c r="M22" s="123">
+        <v>0</v>
+      </c>
+      <c r="N22" s="124">
+        <v>0</v>
+      </c>
+      <c r="O22" s="43">
+        <v>0</v>
+      </c>
+      <c r="P22" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="44">
+        <v>1</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="43">
+        <v>1</v>
+      </c>
+      <c r="I23" s="43">
+        <v>1</v>
+      </c>
+      <c r="J23" s="123">
+        <v>1</v>
+      </c>
+      <c r="K23" s="124">
+        <v>1</v>
+      </c>
+      <c r="L23" s="43">
+        <v>1</v>
+      </c>
+      <c r="M23" s="123">
+        <v>1</v>
+      </c>
+      <c r="N23" s="124">
+        <v>0</v>
+      </c>
+      <c r="O23" s="43">
+        <v>0</v>
+      </c>
+      <c r="P23" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="44">
+        <v>2</v>
+      </c>
+      <c r="C24" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="127" t="s">
+      <c r="F24" s="44"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="43">
+        <v>2</v>
+      </c>
+      <c r="I24" s="43">
+        <v>2</v>
+      </c>
+      <c r="J24" s="123">
+        <v>2</v>
+      </c>
+      <c r="K24" s="124">
+        <v>2</v>
+      </c>
+      <c r="L24" s="43">
+        <v>2</v>
+      </c>
+      <c r="M24" s="123">
+        <v>2</v>
+      </c>
+      <c r="N24" s="124">
+        <v>1</v>
+      </c>
+      <c r="O24" s="43">
+        <v>1</v>
+      </c>
+      <c r="P24" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="125" t="s">
         <v>241</v>
       </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="43">
-        <v>0</v>
-      </c>
-      <c r="I18" s="43">
-        <v>0</v>
-      </c>
-      <c r="J18" s="45">
-        <v>0</v>
-      </c>
-      <c r="K18" s="46">
-        <v>0</v>
-      </c>
-      <c r="L18" s="43">
-        <v>0</v>
-      </c>
-      <c r="M18" s="45">
-        <v>0</v>
-      </c>
-      <c r="N18" s="46">
-        <v>0</v>
-      </c>
-      <c r="O18" s="43">
-        <v>0</v>
-      </c>
-      <c r="P18" s="43">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f>SUM(P18:P29)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="126" t="s">
+      <c r="B25" s="44">
+        <v>1</v>
+      </c>
+      <c r="C25" s="126" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="126" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="43">
+        <v>1</v>
+      </c>
+      <c r="I25" s="43">
+        <v>1</v>
+      </c>
+      <c r="J25" s="123">
+        <v>1</v>
+      </c>
+      <c r="K25" s="124">
+        <v>1</v>
+      </c>
+      <c r="L25" s="43">
+        <v>1</v>
+      </c>
+      <c r="M25" s="123">
+        <v>1</v>
+      </c>
+      <c r="N25" s="124">
+        <v>0</v>
+      </c>
+      <c r="O25" s="43">
+        <v>0</v>
+      </c>
+      <c r="P25" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="125" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="44">
+        <v>4</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="126" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="44">
-        <v>4</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="127" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="43">
-        <v>4</v>
-      </c>
-      <c r="I19" s="43">
-        <v>4</v>
-      </c>
-      <c r="J19" s="124">
-        <v>2</v>
-      </c>
-      <c r="K19" s="125">
-        <v>2</v>
-      </c>
-      <c r="L19" s="43">
-        <v>0</v>
-      </c>
-      <c r="M19" s="124">
-        <v>0</v>
-      </c>
-      <c r="N19" s="125">
-        <v>0</v>
-      </c>
-      <c r="O19" s="43">
-        <v>0</v>
-      </c>
-      <c r="P19" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="126" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="44">
-        <v>1</v>
-      </c>
-      <c r="C20" s="127" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="127" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="43">
-        <v>1</v>
-      </c>
-      <c r="I20" s="43">
-        <v>1</v>
-      </c>
-      <c r="J20" s="124">
-        <v>1</v>
-      </c>
-      <c r="K20" s="125">
-        <v>1</v>
-      </c>
-      <c r="L20" s="43">
-        <v>1</v>
-      </c>
-      <c r="M20" s="124">
-        <v>1</v>
-      </c>
-      <c r="N20" s="125">
-        <v>0</v>
-      </c>
-      <c r="O20" s="43">
-        <v>0</v>
-      </c>
-      <c r="P20" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="126" t="s">
+      <c r="E26" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="43">
+        <v>4</v>
+      </c>
+      <c r="I26" s="43">
+        <v>4</v>
+      </c>
+      <c r="J26" s="123">
+        <v>4</v>
+      </c>
+      <c r="K26" s="124">
+        <v>4</v>
+      </c>
+      <c r="L26" s="43">
+        <v>4</v>
+      </c>
+      <c r="M26" s="123">
+        <v>4</v>
+      </c>
+      <c r="N26" s="124">
+        <v>2</v>
+      </c>
+      <c r="O26" s="43">
+        <v>2</v>
+      </c>
+      <c r="P26" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="125" t="s">
         <v>240</v>
       </c>
-      <c r="B21" s="44">
-        <v>2</v>
-      </c>
-      <c r="C21" s="127" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="127" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="128" t="s">
+      <c r="B27" s="44">
+        <v>4</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="126" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="43">
-        <v>2</v>
-      </c>
-      <c r="I21" s="43">
-        <v>2</v>
-      </c>
-      <c r="J21" s="124">
-        <v>2</v>
-      </c>
-      <c r="K21" s="125">
-        <v>2</v>
-      </c>
-      <c r="L21" s="43">
-        <v>2</v>
-      </c>
-      <c r="M21" s="124">
-        <v>2</v>
-      </c>
-      <c r="N21" s="125">
-        <v>1</v>
-      </c>
-      <c r="O21" s="43">
-        <v>1</v>
-      </c>
-      <c r="P21" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="126" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="44">
-        <v>1</v>
-      </c>
-      <c r="C22" s="127" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="127" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="43">
-        <v>1</v>
-      </c>
-      <c r="I22" s="43">
-        <v>1</v>
-      </c>
-      <c r="J22" s="124">
-        <v>1</v>
-      </c>
-      <c r="K22" s="125">
-        <v>1</v>
-      </c>
-      <c r="L22" s="43">
-        <v>1</v>
-      </c>
-      <c r="M22" s="124">
-        <v>1</v>
-      </c>
-      <c r="N22" s="125">
-        <v>0</v>
-      </c>
-      <c r="O22" s="43">
-        <v>0</v>
-      </c>
-      <c r="P22" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="126" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="44">
-        <v>4</v>
-      </c>
-      <c r="C23" s="127" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="127" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="43">
-        <v>4</v>
-      </c>
-      <c r="I23" s="43">
-        <v>4</v>
-      </c>
-      <c r="J23" s="124">
-        <v>4</v>
-      </c>
-      <c r="K23" s="125">
-        <v>4</v>
-      </c>
-      <c r="L23" s="43">
-        <v>4</v>
-      </c>
-      <c r="M23" s="124">
-        <v>4</v>
-      </c>
-      <c r="N23" s="125">
-        <v>2</v>
-      </c>
-      <c r="O23" s="43">
-        <v>2</v>
-      </c>
-      <c r="P23" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="126" t="s">
-        <v>243</v>
-      </c>
-      <c r="B24" s="44">
-        <v>4</v>
-      </c>
-      <c r="C24" s="127" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="127" t="s">
-        <v>229</v>
-      </c>
-      <c r="E24" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="43">
-        <v>4</v>
-      </c>
-      <c r="I24" s="43">
-        <v>4</v>
-      </c>
-      <c r="J24" s="124">
-        <v>4</v>
-      </c>
-      <c r="K24" s="125">
-        <v>4</v>
-      </c>
-      <c r="L24" s="43">
-        <v>4</v>
-      </c>
-      <c r="M24" s="124">
-        <v>4</v>
-      </c>
-      <c r="N24" s="125">
-        <v>4</v>
-      </c>
-      <c r="O24" s="43">
-        <v>4</v>
-      </c>
-      <c r="P24" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="44">
-        <v>8</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="43">
-        <v>8</v>
-      </c>
-      <c r="I25" s="43">
-        <v>8</v>
-      </c>
-      <c r="J25" s="45">
-        <v>8</v>
-      </c>
-      <c r="K25" s="46">
-        <v>8</v>
-      </c>
-      <c r="L25" s="43">
-        <v>8</v>
-      </c>
-      <c r="M25" s="45">
-        <v>8</v>
-      </c>
-      <c r="N25" s="46">
-        <v>7</v>
-      </c>
-      <c r="O25" s="43">
-        <v>7</v>
-      </c>
-      <c r="P25" s="43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" s="44">
-        <v>2</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="43">
-        <v>2</v>
-      </c>
-      <c r="I26" s="43">
-        <v>2</v>
-      </c>
-      <c r="J26" s="45">
-        <v>0</v>
-      </c>
-      <c r="K26" s="46">
-        <v>0</v>
-      </c>
-      <c r="L26" s="43">
-        <v>0</v>
-      </c>
-      <c r="M26" s="45">
-        <v>0</v>
-      </c>
-      <c r="N26" s="46">
-        <v>0</v>
-      </c>
-      <c r="O26" s="43">
-        <v>0</v>
-      </c>
-      <c r="P26" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="B27" s="44">
-        <v>2</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>188</v>
-      </c>
       <c r="F27" s="44"/>
-      <c r="G27" s="97"/>
+      <c r="G27" s="122"/>
       <c r="H27" s="43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27" s="43">
-        <v>2</v>
-      </c>
-      <c r="J27" s="45">
-        <v>0</v>
-      </c>
-      <c r="K27" s="46">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J27" s="123">
+        <v>4</v>
+      </c>
+      <c r="K27" s="124">
+        <v>4</v>
       </c>
       <c r="L27" s="43">
-        <v>0</v>
-      </c>
-      <c r="M27" s="45">
-        <v>0</v>
-      </c>
-      <c r="N27" s="46">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M27" s="123">
+        <v>4</v>
+      </c>
+      <c r="N27" s="124">
+        <v>4</v>
       </c>
       <c r="O27" s="43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P27" s="43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R27">
         <f>SUM(R3)</f>
         <v>10</v>
       </c>
       <c r="S27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B28" s="44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="61" t="s">
-        <v>188</v>
+      <c r="E28" s="53" t="s">
+        <v>25</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="97"/>
       <c r="H28" s="43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I28" s="43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28" s="45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K28" s="46">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L28" s="43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M28" s="45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N28" s="46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O28" s="43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P28" s="43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R28">
         <f>SUM(R10)</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="S28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
-        <v>176</v>
+      <c r="A29" s="43" t="s">
+        <v>221</v>
       </c>
       <c r="B29" s="44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="53" t="s">
-        <v>25</v>
+      <c r="E29" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="97"/>
       <c r="H29" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" s="45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L29" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" s="46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P29" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <f>SUM(R18)</f>
@@ -10073,81 +10148,216 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="44">
+        <v>2</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="43">
+        <v>2</v>
+      </c>
+      <c r="I30" s="43">
+        <v>2</v>
+      </c>
+      <c r="J30" s="45">
+        <v>0</v>
+      </c>
+      <c r="K30" s="46">
+        <v>0</v>
+      </c>
+      <c r="L30" s="43">
+        <v>0</v>
+      </c>
+      <c r="M30" s="45">
+        <v>0</v>
+      </c>
+      <c r="N30" s="46">
+        <v>0</v>
+      </c>
+      <c r="O30" s="43">
+        <v>0</v>
+      </c>
+      <c r="P30" s="43">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f>SUM(P33)</f>
+        <v>2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="44">
+        <v>2</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="44"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="43">
+        <v>2</v>
+      </c>
+      <c r="I31" s="43">
+        <v>0</v>
+      </c>
+      <c r="J31" s="45">
+        <v>0</v>
+      </c>
+      <c r="K31" s="46">
+        <v>0</v>
+      </c>
+      <c r="L31" s="43">
+        <v>0</v>
+      </c>
+      <c r="M31" s="45">
+        <v>0</v>
+      </c>
+      <c r="N31" s="46">
+        <v>0</v>
+      </c>
+      <c r="O31" s="43">
+        <v>0</v>
+      </c>
+      <c r="P31" s="43">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f>SUM(H34)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="44">
+        <v>4</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="44"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="43">
+        <v>4</v>
+      </c>
+      <c r="I32" s="43">
+        <v>4</v>
+      </c>
+      <c r="J32" s="45">
+        <v>4</v>
+      </c>
+      <c r="K32" s="46">
+        <v>4</v>
+      </c>
+      <c r="L32" s="43">
+        <v>2</v>
+      </c>
+      <c r="M32" s="45">
+        <v>2</v>
+      </c>
+      <c r="N32" s="46">
+        <v>2</v>
+      </c>
+      <c r="O32" s="43">
+        <v>2</v>
+      </c>
+      <c r="P32" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="B30" s="62">
-        <v>2</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="111" t="s">
+      <c r="B33" s="62">
+        <v>2</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E33" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="57">
-        <v>2</v>
-      </c>
-      <c r="I30" s="57">
-        <v>2</v>
-      </c>
-      <c r="J30" s="58">
-        <v>2</v>
-      </c>
-      <c r="K30" s="59">
-        <v>2</v>
-      </c>
-      <c r="L30" s="57">
-        <v>2</v>
-      </c>
-      <c r="M30" s="58">
-        <v>2</v>
-      </c>
-      <c r="N30" s="59">
-        <v>2</v>
-      </c>
-      <c r="O30" s="57">
-        <v>2</v>
-      </c>
-      <c r="P30" s="57">
-        <v>2</v>
-      </c>
-      <c r="R30">
-        <f>SUM(P30)</f>
-        <v>2</v>
-      </c>
-      <c r="S30" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="104" t="s">
+      <c r="F33" s="62"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="57">
+        <v>2</v>
+      </c>
+      <c r="I33" s="57">
+        <v>2</v>
+      </c>
+      <c r="J33" s="58">
+        <v>2</v>
+      </c>
+      <c r="K33" s="59">
+        <v>2</v>
+      </c>
+      <c r="L33" s="57">
+        <v>2</v>
+      </c>
+      <c r="M33" s="58">
+        <v>2</v>
+      </c>
+      <c r="N33" s="59">
+        <v>2</v>
+      </c>
+      <c r="O33" s="57">
+        <v>2</v>
+      </c>
+      <c r="P33" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="H31">
-        <f>SUM(H3:H30)</f>
-        <v>103</v>
-      </c>
-      <c r="R31">
-        <f>SUM(H31)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H34">
+        <f>SUM(H3:H33)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H1:J1"/>
@@ -10291,9 +10501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10302,30 +10512,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
+      <c r="A1" s="146" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -10432,40 +10642,40 @@
         <v>27</v>
       </c>
       <c r="B6" s="10">
-        <f>SUM('Sprint 2'!H3:H30)</f>
-        <v>103</v>
+        <f>SUM('Sprint 2'!H3:H33)</f>
+        <v>115</v>
       </c>
       <c r="C6" s="15">
         <f>SUM('Sprint 2'!I3:I37)</f>
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D6" s="28">
         <f>SUM('Sprint 2'!J3:J37)</f>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E6" s="10">
         <f>SUM('Sprint 2'!K3:K37)</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F6" s="15">
         <f>SUM('Sprint 2'!L3:L37)</f>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G6" s="28">
         <f>SUM('Sprint 2'!M3:M37)</f>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H6" s="10">
         <f>SUM('Sprint 2'!N3:N37)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I6" s="15">
         <f>SUM('Sprint 2'!O3:O37)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J6" s="28">
         <f>SUM('Sprint 2'!P3:P37)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -10474,35 +10684,35 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((B5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C7" s="16">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((C5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
-        <v>90.125</v>
+        <v>100.625</v>
       </c>
       <c r="D7" s="11">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((D5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
-        <v>77.25</v>
+        <v>86.25</v>
       </c>
       <c r="E7" s="5">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((E5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
-        <v>64.375</v>
+        <v>71.875</v>
       </c>
       <c r="F7" s="16">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((F5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
-        <v>51.5</v>
+        <v>57.5</v>
       </c>
       <c r="G7" s="11">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((G5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
-        <v>38.625</v>
+        <v>43.125</v>
       </c>
       <c r="H7" s="5">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((H5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
-        <v>25.75</v>
+        <v>28.75</v>
       </c>
       <c r="I7" s="16">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((I5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
-        <v>12.875</v>
+        <v>14.375</v>
       </c>
       <c r="J7" s="11">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((J5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJeon\Documents\GitHub\PayBack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="4"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="Sprint 2" sheetId="6" r:id="rId5"/>
     <sheet name="Sprint 2 Burndown" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +52,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +140,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="253">
   <si>
     <t>User Stories</t>
   </si>
@@ -951,17 +956,27 @@
   </si>
   <si>
     <t>Will</t>
+  </si>
+  <si>
+    <t>Hohyun, Viquoc, Arnav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1920,450 +1935,450 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="38" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="54" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2650,11 +2665,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="49859968"/>
-        <c:axId val="70650496"/>
+        <c:axId val="255667816"/>
+        <c:axId val="255669384"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="49859968"/>
+        <c:axId val="255667816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,14 +2709,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="70650496"/>
+        <c:crossAx val="255669384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70650496"/>
+        <c:axId val="255669384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49859968"/>
+        <c:crossAx val="255667816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2817,6 +2832,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2984,10 +3016,10 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,7 +3109,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3176,10 +3207,10 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,11 +3334,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="78348288"/>
-        <c:axId val="78351744"/>
+        <c:axId val="255667424"/>
+        <c:axId val="255670168"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="78348288"/>
+        <c:axId val="255667424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3341,21 +3372,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="78351744"/>
+        <c:crossAx val="255670168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78351744"/>
+        <c:axId val="255670168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3378,7 +3408,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3400,14 +3429,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78348288"/>
+        <c:crossAx val="255667424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4270,7 +4298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4305,7 +4333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4531,13 +4559,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5500,10 +5528,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="133"/>
+      <c r="B1" s="132"/>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
@@ -5825,7 +5853,7 @@
       <c r="A21" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="117" t="s">
         <v>232</v>
       </c>
       <c r="C21" s="47">
@@ -5965,7 +5993,7 @@
       <c r="A31" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="115" t="s">
         <v>231</v>
       </c>
       <c r="C31" s="47">
@@ -6301,7 +6329,7 @@
       <c r="A55" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="129" t="s">
+      <c r="B55" s="128" t="s">
         <v>249</v>
       </c>
       <c r="C55" s="109">
@@ -6315,7 +6343,7 @@
       <c r="A56" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="129" t="s">
+      <c r="B56" s="128" t="s">
         <v>246</v>
       </c>
       <c r="C56" s="109">
@@ -6329,7 +6357,7 @@
       <c r="A57" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="129" t="s">
+      <c r="B57" s="128" t="s">
         <v>247</v>
       </c>
       <c r="C57" s="109">
@@ -6343,7 +6371,7 @@
       <c r="A58" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="129" t="s">
+      <c r="B58" s="128" t="s">
         <v>248</v>
       </c>
       <c r="C58" s="109">
@@ -6672,7 +6700,7 @@
       <c r="A80" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="125" t="s">
+      <c r="B80" s="124" t="s">
         <v>234</v>
       </c>
       <c r="C80" s="44">
@@ -6686,7 +6714,7 @@
       <c r="A81" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="125" t="s">
+      <c r="B81" s="124" t="s">
         <v>237</v>
       </c>
       <c r="C81" s="44">
@@ -6700,7 +6728,7 @@
       <c r="A82" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="125" t="s">
+      <c r="B82" s="124" t="s">
         <v>238</v>
       </c>
       <c r="C82" s="44">
@@ -6714,7 +6742,7 @@
       <c r="A83" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="125" t="s">
+      <c r="B83" s="124" t="s">
         <v>241</v>
       </c>
       <c r="C83" s="44">
@@ -6728,7 +6756,7 @@
       <c r="A84" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="125" t="s">
+      <c r="B84" s="124" t="s">
         <v>239</v>
       </c>
       <c r="C84" s="44">
@@ -6742,7 +6770,7 @@
       <c r="A85" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="125" t="s">
+      <c r="B85" s="124" t="s">
         <v>240</v>
       </c>
       <c r="C85" s="44">
@@ -6932,21 +6960,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="137" t="s">
+      <c r="I1" s="134"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="137" t="s">
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="138"/>
-      <c r="P1" s="139"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="138"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -8392,30 +8420,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -8481,31 +8509,31 @@
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
-      <c r="B5" s="114">
+      <c r="B5" s="113">
         <v>1</v>
       </c>
-      <c r="C5" s="115">
-        <v>2</v>
-      </c>
-      <c r="D5" s="115">
+      <c r="C5" s="114">
+        <v>2</v>
+      </c>
+      <c r="D5" s="114">
         <v>3</v>
       </c>
-      <c r="E5" s="115">
-        <v>4</v>
-      </c>
-      <c r="F5" s="115">
+      <c r="E5" s="114">
+        <v>4</v>
+      </c>
+      <c r="F5" s="114">
         <v>5</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="114">
         <v>6</v>
       </c>
-      <c r="H5" s="115">
+      <c r="H5" s="114">
         <v>7</v>
       </c>
-      <c r="I5" s="115">
-        <v>8</v>
-      </c>
-      <c r="J5" s="114">
+      <c r="I5" s="114">
+        <v>8</v>
+      </c>
+      <c r="J5" s="113">
         <v>9</v>
       </c>
       <c r="K5" s="10"/>
@@ -8514,39 +8542,39 @@
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="114">
         <f>SUM('Sprint 1'!H3:H29)</f>
         <v>95</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="114">
         <f>SUM('Sprint 1'!I3:I29)</f>
         <v>82</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="114">
         <f>SUM('Sprint 1'!J3:J29)</f>
         <v>71</v>
       </c>
-      <c r="E6" s="115">
+      <c r="E6" s="114">
         <f>SUM('Sprint 1'!K3:K29)</f>
         <v>59</v>
       </c>
-      <c r="F6" s="115">
+      <c r="F6" s="114">
         <f>SUM('Sprint 1'!L3:L29)</f>
         <v>43</v>
       </c>
-      <c r="G6" s="115">
+      <c r="G6" s="114">
         <f>SUM('Sprint 1'!M3:M29)</f>
         <v>28</v>
       </c>
-      <c r="H6" s="115">
+      <c r="H6" s="114">
         <f>SUM('Sprint 1'!N3:N29)</f>
         <v>16</v>
       </c>
-      <c r="I6" s="115">
+      <c r="I6" s="114">
         <f>SUM('Sprint 1'!O3:O29)</f>
         <v>12</v>
       </c>
-      <c r="J6" s="114">
+      <c r="J6" s="113">
         <f>SUM('Sprint 1'!P3:P29)</f>
         <v>6</v>
       </c>
@@ -8556,39 +8584,39 @@
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="111">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((B5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>95</v>
       </c>
-      <c r="C7" s="112">
+      <c r="C7" s="111">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((C5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>83.125</v>
       </c>
-      <c r="D7" s="112">
+      <c r="D7" s="111">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((D5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>71.25</v>
       </c>
-      <c r="E7" s="112">
+      <c r="E7" s="111">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((E5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>59.375</v>
       </c>
-      <c r="F7" s="112">
+      <c r="F7" s="111">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((F5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>47.5</v>
       </c>
-      <c r="G7" s="112">
+      <c r="G7" s="111">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((G5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>35.625</v>
       </c>
-      <c r="H7" s="112">
+      <c r="H7" s="111">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((H5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>23.75</v>
       </c>
-      <c r="I7" s="112">
+      <c r="I7" s="111">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((I5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>11.875</v>
       </c>
-      <c r="J7" s="113">
+      <c r="J7" s="112">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((J5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>0</v>
       </c>
@@ -8768,8 +8796,8 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8795,7 +8823,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="120" t="s">
         <v>225</v>
       </c>
       <c r="B1" s="84"/>
@@ -8806,21 +8834,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="137" t="s">
+      <c r="H1" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="138"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="137" t="s">
+      <c r="I1" s="137"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="136" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="137" t="s">
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="138"/>
-      <c r="P1" s="139"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="138"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -8932,7 +8960,7 @@
       <c r="C4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="116" t="s">
         <v>186</v>
       </c>
       <c r="E4" s="52" t="s">
@@ -8969,7 +8997,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>232</v>
       </c>
       <c r="B5" s="47">
@@ -8978,7 +9006,7 @@
       <c r="C5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="116" t="s">
         <v>186</v>
       </c>
       <c r="E5" s="61" t="s">
@@ -9153,7 +9181,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="115" t="s">
         <v>231</v>
       </c>
       <c r="B9" s="47">
@@ -9199,7 +9227,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="128" t="s">
         <v>249</v>
       </c>
       <c r="B10" s="109">
@@ -9249,7 +9277,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="128" t="s">
         <v>246</v>
       </c>
       <c r="B11" s="109">
@@ -9295,7 +9323,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="128" t="s">
         <v>247</v>
       </c>
       <c r="B12" s="109">
@@ -9341,7 +9369,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="128" t="s">
         <v>248</v>
       </c>
       <c r="B13" s="109">
@@ -9387,7 +9415,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="118" t="s">
         <v>233</v>
       </c>
       <c r="B14" s="51">
@@ -9396,7 +9424,7 @@
       <c r="C14" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="119" t="s">
         <v>186</v>
       </c>
       <c r="E14" s="61" t="s">
@@ -9617,7 +9645,7 @@
       </c>
       <c r="R18">
         <f>SUM(P22:P32)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9630,10 +9658,10 @@
       <c r="C19" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="130" t="s">
+      <c r="D19" s="129" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="127" t="s">
         <v>188</v>
       </c>
       <c r="F19" s="51"/>
@@ -9722,7 +9750,7 @@
       <c r="C21" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="120" t="s">
+      <c r="D21" s="119" t="s">
         <v>186</v>
       </c>
       <c r="E21" s="52" t="s">
@@ -9759,42 +9787,42 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="124" t="s">
         <v>234</v>
       </c>
       <c r="B22" s="44">
         <v>4</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="126" t="s">
+      <c r="D22" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="127" t="s">
         <v>188</v>
       </c>
       <c r="F22" s="44"/>
-      <c r="G22" s="122"/>
+      <c r="G22" s="121"/>
       <c r="H22" s="43">
         <v>4</v>
       </c>
       <c r="I22" s="43">
         <v>4</v>
       </c>
-      <c r="J22" s="123">
-        <v>2</v>
-      </c>
-      <c r="K22" s="124">
+      <c r="J22" s="122">
+        <v>2</v>
+      </c>
+      <c r="K22" s="123">
         <v>2</v>
       </c>
       <c r="L22" s="43">
         <v>0</v>
       </c>
-      <c r="M22" s="123">
-        <v>0</v>
-      </c>
-      <c r="N22" s="124">
+      <c r="M22" s="122">
+        <v>0</v>
+      </c>
+      <c r="N22" s="123">
         <v>0</v>
       </c>
       <c r="O22" s="43">
@@ -9805,42 +9833,42 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="124" t="s">
         <v>237</v>
       </c>
       <c r="B23" s="44">
         <v>1</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="128" t="s">
+      <c r="E23" s="127" t="s">
         <v>188</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="122"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="43">
         <v>1</v>
       </c>
       <c r="I23" s="43">
         <v>1</v>
       </c>
-      <c r="J23" s="123">
+      <c r="J23" s="122">
         <v>1</v>
       </c>
-      <c r="K23" s="124">
+      <c r="K23" s="123">
         <v>1</v>
       </c>
       <c r="L23" s="43">
         <v>1</v>
       </c>
-      <c r="M23" s="123">
+      <c r="M23" s="122">
         <v>1</v>
       </c>
-      <c r="N23" s="124">
+      <c r="N23" s="123">
         <v>0</v>
       </c>
       <c r="O23" s="43">
@@ -9851,42 +9879,42 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="124" t="s">
         <v>238</v>
       </c>
       <c r="B24" s="44">
         <v>2</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="127" t="s">
+      <c r="E24" s="126" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="44"/>
-      <c r="G24" s="122"/>
+      <c r="G24" s="121"/>
       <c r="H24" s="43">
         <v>2</v>
       </c>
       <c r="I24" s="43">
         <v>2</v>
       </c>
-      <c r="J24" s="123">
-        <v>2</v>
-      </c>
-      <c r="K24" s="124">
+      <c r="J24" s="122">
+        <v>2</v>
+      </c>
+      <c r="K24" s="123">
         <v>2</v>
       </c>
       <c r="L24" s="43">
         <v>2</v>
       </c>
-      <c r="M24" s="123">
-        <v>2</v>
-      </c>
-      <c r="N24" s="124">
+      <c r="M24" s="122">
+        <v>2</v>
+      </c>
+      <c r="N24" s="123">
         <v>1</v>
       </c>
       <c r="O24" s="43">
@@ -9897,42 +9925,42 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="124" t="s">
         <v>241</v>
       </c>
       <c r="B25" s="44">
         <v>1</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="125" t="s">
         <v>242</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="125" t="s">
         <v>228</v>
       </c>
-      <c r="E25" s="128" t="s">
+      <c r="E25" s="127" t="s">
         <v>188</v>
       </c>
       <c r="F25" s="44"/>
-      <c r="G25" s="122"/>
+      <c r="G25" s="121"/>
       <c r="H25" s="43">
         <v>1</v>
       </c>
       <c r="I25" s="43">
         <v>1</v>
       </c>
-      <c r="J25" s="123">
+      <c r="J25" s="122">
         <v>1</v>
       </c>
-      <c r="K25" s="124">
+      <c r="K25" s="123">
         <v>1</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
       </c>
-      <c r="M25" s="123">
+      <c r="M25" s="122">
         <v>1</v>
       </c>
-      <c r="N25" s="124">
+      <c r="N25" s="123">
         <v>0</v>
       </c>
       <c r="O25" s="43">
@@ -9943,42 +9971,42 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="124" t="s">
         <v>239</v>
       </c>
       <c r="B26" s="44">
         <v>4</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="D26" s="126" t="s">
+      <c r="D26" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="E26" s="127" t="s">
+      <c r="E26" s="126" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="44"/>
-      <c r="G26" s="122"/>
+      <c r="G26" s="121"/>
       <c r="H26" s="43">
         <v>4</v>
       </c>
       <c r="I26" s="43">
         <v>4</v>
       </c>
-      <c r="J26" s="123">
-        <v>4</v>
-      </c>
-      <c r="K26" s="124">
+      <c r="J26" s="122">
+        <v>4</v>
+      </c>
+      <c r="K26" s="123">
         <v>4</v>
       </c>
       <c r="L26" s="43">
         <v>4</v>
       </c>
-      <c r="M26" s="123">
-        <v>4</v>
-      </c>
-      <c r="N26" s="124">
+      <c r="M26" s="122">
+        <v>4</v>
+      </c>
+      <c r="N26" s="123">
         <v>2</v>
       </c>
       <c r="O26" s="43">
@@ -9989,49 +10017,49 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="125" t="s">
+      <c r="A27" s="124" t="s">
         <v>240</v>
       </c>
       <c r="B27" s="44">
         <v>4</v>
       </c>
-      <c r="C27" s="126" t="s">
+      <c r="C27" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="125" t="s">
         <v>228</v>
       </c>
-      <c r="E27" s="127" t="s">
+      <c r="E27" s="126" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="44"/>
-      <c r="G27" s="122"/>
+      <c r="G27" s="121"/>
       <c r="H27" s="43">
         <v>4</v>
       </c>
       <c r="I27" s="43">
         <v>4</v>
       </c>
-      <c r="J27" s="123">
-        <v>4</v>
-      </c>
-      <c r="K27" s="124">
+      <c r="J27" s="122">
+        <v>4</v>
+      </c>
+      <c r="K27" s="123">
         <v>4</v>
       </c>
       <c r="L27" s="43">
         <v>4</v>
       </c>
-      <c r="M27" s="123">
-        <v>4</v>
-      </c>
-      <c r="N27" s="124">
+      <c r="M27" s="122">
+        <v>4</v>
+      </c>
+      <c r="N27" s="123">
         <v>4</v>
       </c>
       <c r="O27" s="43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P27" s="43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <f>SUM(R3)</f>
@@ -10081,10 +10109,10 @@
         <v>7</v>
       </c>
       <c r="O28" s="43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P28" s="43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R28">
         <f>SUM(R10)</f>
@@ -10141,7 +10169,7 @@
       </c>
       <c r="R29">
         <f>SUM(R18)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S29" t="s">
         <v>92</v>
@@ -10194,7 +10222,7 @@
       </c>
       <c r="R30">
         <f>SUM(P33)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S30" t="s">
         <v>245</v>
@@ -10290,10 +10318,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P32" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -10306,8 +10334,8 @@
       <c r="C33" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="111" t="s">
-        <v>186</v>
+      <c r="D33" s="148" t="s">
+        <v>252</v>
       </c>
       <c r="E33" s="53" t="s">
         <v>25</v>
@@ -10336,10 +10364,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33" s="57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -10512,30 +10540,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="147" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -10671,11 +10699,11 @@
       </c>
       <c r="I6" s="15">
         <f>SUM('Sprint 2'!O3:O37)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J6" s="28">
         <f>SUM('Sprint 2'!P3:P37)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -2323,6 +2323,9 @@
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2376,9 +2379,6 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2665,11 +2665,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="255667816"/>
-        <c:axId val="255669384"/>
+        <c:axId val="252038440"/>
+        <c:axId val="254361192"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="255667816"/>
+        <c:axId val="252038440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,14 +2709,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="255669384"/>
+        <c:crossAx val="254361192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="255669384"/>
+        <c:axId val="254361192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255667816"/>
+        <c:crossAx val="252038440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3016,7 +3016,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3204,13 +3204,13 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,11 +3334,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="255667424"/>
-        <c:axId val="255670168"/>
+        <c:axId val="254360016"/>
+        <c:axId val="254358448"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="255667424"/>
+        <c:axId val="254360016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3378,14 +3378,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="255670168"/>
+        <c:crossAx val="254358448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="255670168"/>
+        <c:axId val="254358448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,7 +3429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255667424"/>
+        <c:crossAx val="254360016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4559,13 +4559,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="A1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5528,10 +5528,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="133"/>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
@@ -6960,21 +6960,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="136" t="s">
+      <c r="I1" s="135"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="136" t="s">
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="137" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="137"/>
-      <c r="P1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="139"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -8420,30 +8420,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -8796,8 +8796,8 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8834,21 +8834,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="136" t="s">
+      <c r="H1" s="137" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="137"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="136" t="s">
+      <c r="I1" s="138"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="137" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="136" t="s">
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="137" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="137"/>
-      <c r="P1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="139"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -9645,7 +9645,7 @@
       </c>
       <c r="R18">
         <f>SUM(P22:P32)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9915,13 +9915,13 @@
         <v>2</v>
       </c>
       <c r="N24" s="123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="R29">
         <f>SUM(R18)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S29" t="s">
         <v>92</v>
@@ -10334,7 +10334,7 @@
       <c r="C33" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="148" t="s">
+      <c r="D33" s="130" t="s">
         <v>252</v>
       </c>
       <c r="E33" s="53" t="s">
@@ -10540,30 +10540,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -10695,15 +10695,15 @@
       </c>
       <c r="H6" s="10">
         <f>SUM('Sprint 2'!N3:N37)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="15">
         <f>SUM('Sprint 2'!O3:O37)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="28">
         <f>SUM('Sprint 2'!P3:P37)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="252">
   <si>
     <t>User Stories</t>
   </si>
@@ -848,9 +848,6 @@
     <t>Provide method for authentication of logins/accounts</t>
   </si>
   <si>
-    <t>Create intents for transaction parameters through Transaction pages 1 - 5</t>
-  </si>
-  <si>
     <t>Provide method for pushing transaction object to database.</t>
   </si>
   <si>
@@ -899,21 +896,86 @@
     <t>Create "add contact" page sequence</t>
   </si>
   <si>
-    <t>Communication between android/database</t>
-  </si>
-  <si>
     <t>Edit code for android 2.3.3</t>
+  </si>
+  <si>
+    <t>Research Communication between Android and DB</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Hohyun</t>
+  </si>
+  <si>
+    <t>Transfer DB to a committed Desktop</t>
+  </si>
+  <si>
+    <t>Install Apache and PHP on Desktop</t>
+  </si>
+  <si>
+    <t>PHP server code for account creation</t>
+  </si>
+  <si>
+    <t>Java Plugin code for server communication</t>
+  </si>
+  <si>
+    <t>Establish Server Communication Schema</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Create transaction page 2 + 4 (Contact selection / borrower's share)</t>
+  </si>
+  <si>
+    <t>Create transaction page 3 ( Lender's share) debt division selection</t>
+  </si>
+  <si>
+    <t>Create transaction page 5 ( Summary)</t>
+  </si>
+  <si>
+    <t>Create transaction page 1 (Information gather)</t>
+  </si>
+  <si>
+    <t>Capture Adding friend by email address</t>
+  </si>
+  <si>
+    <t>Will</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1858,200 +1920,221 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="37" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="53" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2060,224 +2143,227 @@
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="35" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="51" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2292,15 +2378,18 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF20BC14"/>
       <color rgb="FF5AC3DC"/>
       <color rgb="FF3366CC"/>
       <color rgb="FF000000"/>
-      <color rgb="FF20BC14"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2561,11 +2650,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="75518336"/>
-        <c:axId val="75520256"/>
+        <c:axId val="49859968"/>
+        <c:axId val="70650496"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="75518336"/>
+        <c:axId val="49859968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,14 +2694,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="75520256"/>
+        <c:crossAx val="70650496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75520256"/>
+        <c:axId val="70650496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,7 +2745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75518336"/>
+        <c:crossAx val="49859968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2678,6 +2767,287 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Remaining</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Percentage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$S$27:$S$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GUI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Backend</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$R$27:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2785,22 +3155,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>60</c:v>
@@ -2884,28 +3254,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.125</c:v>
+                  <c:v>100.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.25</c:v>
+                  <c:v>86.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.375</c:v>
+                  <c:v>71.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.5</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.625</c:v>
+                  <c:v>43.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.75</c:v>
+                  <c:v>28.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.875</c:v>
+                  <c:v>14.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2933,11 +3303,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="70747264"/>
-        <c:axId val="70749184"/>
+        <c:axId val="78348288"/>
+        <c:axId val="78351744"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="70747264"/>
+        <c:axId val="78348288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,14 +3348,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="70749184"/>
+        <c:crossAx val="78351744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70749184"/>
+        <c:axId val="78351744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70747264"/>
+        <c:crossAx val="78348288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3050,6 +3420,570 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="260">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="0"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="0"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3227,6 +4161,41 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1345404</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1107280</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3562,13 +4531,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
+      <c r="A1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4515,11 +5484,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4531,10 +5500,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="121"/>
+      <c r="B1" s="133"/>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
@@ -4718,6 +5687,9 @@
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
+      <c r="E12" s="61" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
@@ -4854,7 +5826,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="47">
         <v>4</v>
@@ -4994,7 +5966,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C31" s="47">
         <v>4</v>
@@ -5022,13 +5994,13 @@
         <v>49</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="C33" s="51">
         <v>2</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5036,13 +6008,13 @@
         <v>49</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="51">
         <v>2</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5050,10 +6022,10 @@
         <v>49</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>6</v>
@@ -5064,13 +6036,13 @@
         <v>49</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5078,10 +6050,10 @@
         <v>49</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>9</v>
@@ -5092,7 +6064,7 @@
         <v>49</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" s="51">
         <v>4</v>
@@ -5106,13 +6078,13 @@
         <v>49</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5120,13 +6092,13 @@
         <v>49</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" s="51">
         <v>2</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5134,13 +6106,13 @@
         <v>49</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5148,10 +6120,10 @@
         <v>49</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" s="51" t="s">
         <v>6</v>
@@ -5162,13 +6134,13 @@
         <v>49</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" s="51">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5176,10 +6148,10 @@
         <v>49</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C44" s="51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D44" s="51" t="s">
         <v>9</v>
@@ -5190,7 +6162,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" s="51">
         <v>4</v>
@@ -5204,13 +6176,13 @@
         <v>49</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C46" s="51">
         <v>4</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5218,13 +6190,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="51">
         <v>4</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,13 +6204,13 @@
         <v>49</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="51">
         <v>4</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5246,13 +6218,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="51">
         <v>4</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5260,13 +6232,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" s="51">
         <v>4</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5274,27 +6246,27 @@
         <v>49</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="76" t="s">
-        <v>215</v>
+      <c r="B52" s="38" t="s">
+        <v>165</v>
       </c>
       <c r="C52" s="51">
         <v>8</v>
       </c>
-      <c r="D52" s="80" t="s">
-        <v>8</v>
+      <c r="D52" s="51" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5302,10 +6274,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C53" s="51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D53" s="80" t="s">
         <v>8</v>
@@ -5316,10 +6288,10 @@
         <v>49</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="51">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D54" s="80" t="s">
         <v>8</v>
@@ -5329,10 +6301,10 @@
       <c r="A55" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="51">
+      <c r="B55" s="129" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="109">
         <v>2</v>
       </c>
       <c r="D55" s="80" t="s">
@@ -5343,73 +6315,70 @@
       <c r="A56" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="C56" s="51">
-        <v>4</v>
+      <c r="B56" s="129" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="109">
+        <v>16</v>
       </c>
       <c r="D56" s="80" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" s="44">
-        <v>2</v>
-      </c>
-      <c r="D57" s="44" t="s">
+      <c r="A57" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="129" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="109">
+        <v>4</v>
+      </c>
+      <c r="D57" s="80" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="44">
-        <v>2</v>
-      </c>
-      <c r="D58" s="44" t="s">
+      <c r="A58" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="129" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="109">
+        <v>4</v>
+      </c>
+      <c r="D58" s="80" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="44">
-        <v>4</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>6</v>
+      <c r="A59" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="51">
+        <v>2</v>
+      </c>
+      <c r="D59" s="80" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="44">
-        <v>4</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="61" t="s">
-        <v>188</v>
+      <c r="A60" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="51">
+        <v>4</v>
+      </c>
+      <c r="D60" s="80" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5417,16 +6386,13 @@
         <v>92</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="C61" s="44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D61" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5434,16 +6400,13 @@
         <v>92</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="C62" s="44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="E62" s="61" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5451,13 +6414,13 @@
         <v>92</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C63" s="44">
         <v>4</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5465,7 +6428,7 @@
         <v>92</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C64" s="44">
         <v>4</v>
@@ -5482,13 +6445,16 @@
         <v>92</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C65" s="44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D65" s="44" t="s">
         <v>8</v>
+      </c>
+      <c r="E65" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5496,7 +6462,7 @@
         <v>92</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C66" s="44">
         <v>4</v>
@@ -5513,16 +6479,13 @@
         <v>92</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C67" s="44">
         <v>4</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="61" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5530,13 +6493,16 @@
         <v>92</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C68" s="44">
         <v>4</v>
       </c>
       <c r="D68" s="44" t="s">
         <v>8</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5544,16 +6510,13 @@
         <v>92</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C69" s="44">
         <v>4</v>
       </c>
       <c r="D69" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="E69" s="61" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5561,13 +6524,16 @@
         <v>92</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C70" s="44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D70" s="44" t="s">
         <v>8</v>
+      </c>
+      <c r="E70" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5575,13 +6541,16 @@
         <v>92</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C71" s="44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E71" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5589,13 +6558,13 @@
         <v>92</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C72" s="44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5603,13 +6572,16 @@
         <v>92</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C73" s="44">
         <v>4</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5617,136 +6589,286 @@
         <v>92</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C74" s="44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="77" t="s">
-        <v>221</v>
+      <c r="B75" s="43" t="s">
+        <v>179</v>
       </c>
       <c r="C75" s="44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D75" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="82" t="s">
+      <c r="A76" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="44">
+        <v>8</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="44">
+        <v>4</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="44">
+        <v>4</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" s="44">
+        <v>4</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="125" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="44">
+        <v>4</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="44">
+        <v>1</v>
+      </c>
+      <c r="D81" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="44">
+        <v>2</v>
+      </c>
+      <c r="D82" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="44">
+        <v>1</v>
+      </c>
+      <c r="D83" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="125" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="44">
+        <v>4</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="125" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="44">
+        <v>4</v>
+      </c>
+      <c r="D85" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B76" s="66" t="s">
+      <c r="B86" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="62">
+      <c r="C86" s="62">
         <v>16</v>
       </c>
-      <c r="D76" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="61" t="s">
+      <c r="D86" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="61" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="82" t="s">
+    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="57" t="s">
+      <c r="B87" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="C77" s="62">
+      <c r="C87" s="62">
         <v>1</v>
       </c>
-      <c r="D77" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="61" t="s">
+      <c r="D87" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="61" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="82" t="s">
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B78" s="66" t="s">
+      <c r="B88" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="C78" s="62">
-        <v>2</v>
-      </c>
-      <c r="D78" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="61" t="s">
+      <c r="C88" s="62">
+        <v>2</v>
+      </c>
+      <c r="D88" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="61" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="82" t="s">
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B89" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="62">
-        <v>2</v>
-      </c>
-      <c r="D79" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="82" t="s">
+      <c r="C89" s="62">
+        <v>2</v>
+      </c>
+      <c r="D89" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B80" s="73" t="s">
+      <c r="B90" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="C80" s="62">
-        <v>2</v>
-      </c>
-      <c r="D80" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="82" t="s">
+      <c r="C90" s="62">
+        <v>2</v>
+      </c>
+      <c r="D90" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B81" s="73" t="s">
+      <c r="B91" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C81" s="62">
-        <v>2</v>
-      </c>
-      <c r="D81" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="20">
-        <f>SUM(C3:C81)</f>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C91" s="62">
+        <v>2</v>
+      </c>
+      <c r="D91" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="20">
+        <f>SUM(C3:C91)</f>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -5810,21 +6932,21 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="125" t="s">
+      <c r="I1" s="135"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="126"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="125" t="s">
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="137" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="126"/>
-      <c r="P1" s="127"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="139"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -6893,7 +8015,7 @@
     </row>
     <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" s="44">
         <v>4</v>
@@ -7260,7 +8382,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -7270,30 +8392,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="135"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -7643,11 +8765,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7655,24 +8777,26 @@
     <col min="1" max="1" width="90.140625" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="20" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="21" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="20" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" customWidth="1"/>
     <col min="10" max="10" width="4.140625" customWidth="1"/>
     <col min="11" max="11" width="3.5703125" customWidth="1"/>
     <col min="12" max="13" width="4.7109375" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" customWidth="1"/>
-    <col min="18" max="26" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" customWidth="1"/>
+    <col min="19" max="19" width="31.140625" customWidth="1"/>
+    <col min="20" max="26" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
-        <v>226</v>
+    <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="121" t="s">
+        <v>225</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="85"/>
@@ -7682,23 +8806,23 @@
       <c r="G1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="137" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="138"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="137" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="126"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="125" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" s="126"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="125" t="s">
-        <v>231</v>
-      </c>
-      <c r="O1" s="126"/>
-      <c r="P1" s="127"/>
-    </row>
-    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="137" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" s="138"/>
+      <c r="P1" s="139"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -7748,7 +8872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>199</v>
       </c>
@@ -7759,7 +8883,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>25</v>
@@ -7793,8 +8917,12 @@
       <c r="P3" s="48">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f>SUM(P3:P9)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>196</v>
       </c>
@@ -7840,9 +8968,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="47">
         <v>4</v>
@@ -7853,8 +8981,8 @@
       <c r="D5" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>25</v>
+      <c r="E5" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="88"/>
@@ -7874,19 +9002,19 @@
         <v>2</v>
       </c>
       <c r="M5" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
         <v>202</v>
       </c>
@@ -7897,7 +9025,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>25</v>
@@ -7932,7 +9060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>143</v>
       </c>
@@ -7978,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>138</v>
       </c>
@@ -8024,9 +9152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="47">
         <v>4</v>
@@ -8070,18 +9198,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="51">
-        <v>16</v>
-      </c>
-      <c r="C10" s="80" t="s">
+    <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="129" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="109">
+        <v>2</v>
+      </c>
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>25</v>
@@ -8089,45 +9217,49 @@
       <c r="F10" s="51"/>
       <c r="G10" s="94"/>
       <c r="H10" s="39">
+        <v>2</v>
+      </c>
+      <c r="I10" s="39">
+        <v>2</v>
+      </c>
+      <c r="J10" s="55">
+        <v>2</v>
+      </c>
+      <c r="K10" s="56">
+        <v>2</v>
+      </c>
+      <c r="L10" s="54">
+        <v>2</v>
+      </c>
+      <c r="M10" s="55">
+        <v>2</v>
+      </c>
+      <c r="N10" s="56">
+        <v>2</v>
+      </c>
+      <c r="O10" s="54">
+        <v>2</v>
+      </c>
+      <c r="P10" s="54">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <f>SUM(P10:P21)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="129" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="109">
         <v>16</v>
       </c>
-      <c r="I10" s="39">
-        <v>16</v>
-      </c>
-      <c r="J10" s="55">
-        <v>16</v>
-      </c>
-      <c r="K10" s="56">
-        <v>16</v>
-      </c>
-      <c r="L10" s="54">
-        <v>8</v>
-      </c>
-      <c r="M10" s="55">
-        <v>8</v>
-      </c>
-      <c r="N10" s="56">
-        <v>8</v>
-      </c>
-      <c r="O10" s="54">
-        <v>8</v>
-      </c>
-      <c r="P10" s="54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="138" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="51">
-        <v>8</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="139" t="s">
-        <v>186</v>
+      <c r="C11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="109" t="s">
+        <v>227</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>25</v>
@@ -8135,45 +9267,45 @@
       <c r="F11" s="51"/>
       <c r="G11" s="94"/>
       <c r="H11" s="39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I11" s="39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J11" s="55">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K11" s="56">
         <v>8</v>
       </c>
       <c r="L11" s="54">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M11" s="55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N11" s="56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O11" s="54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P11" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="51">
-        <v>8</v>
-      </c>
-      <c r="C12" s="80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="129" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="109">
+        <v>4</v>
+      </c>
+      <c r="C12" s="109" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>25</v>
@@ -8181,45 +9313,45 @@
       <c r="F12" s="51"/>
       <c r="G12" s="94"/>
       <c r="H12" s="39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I12" s="39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J12" s="55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K12" s="56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L12" s="54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M12" s="55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N12" s="56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O12" s="54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P12" s="54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="51">
-        <v>4</v>
-      </c>
-      <c r="C13" s="80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="129" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="109">
+        <v>4</v>
+      </c>
+      <c r="C13" s="109" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>25</v>
@@ -8254,64 +9386,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>153</v>
+    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="119" t="s">
+        <v>233</v>
       </c>
       <c r="B14" s="51">
-        <v>2</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="94"/>
       <c r="H14" s="39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I14" s="39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J14" s="55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K14" s="56">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L14" s="54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" s="55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" s="54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>156</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
+        <v>215</v>
       </c>
       <c r="B15" s="51">
-        <v>1</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>8</v>
       </c>
       <c r="D15" s="109" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>25</v>
@@ -8319,45 +9451,45 @@
       <c r="F15" s="51"/>
       <c r="G15" s="94"/>
       <c r="H15" s="39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I15" s="39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J15" s="55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K15" s="56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L15" s="54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M15" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N15" s="56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O15" s="54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P15" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>146</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>218</v>
       </c>
       <c r="B16" s="51">
-        <v>2</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="139" t="s">
-        <v>186</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>227</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>25</v>
@@ -8365,45 +9497,45 @@
       <c r="F16" s="51"/>
       <c r="G16" s="94"/>
       <c r="H16" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K16" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L16" s="54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" s="55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O16" s="54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P16" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B17" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="139" t="s">
-        <v>186</v>
+        <v>6</v>
+      </c>
+      <c r="D17" s="109" t="s">
+        <v>227</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>25</v>
@@ -8411,375 +9543,821 @@
       <c r="F17" s="51"/>
       <c r="G17" s="94"/>
       <c r="H17" s="39">
+        <v>2</v>
+      </c>
+      <c r="I17" s="39">
+        <v>2</v>
+      </c>
+      <c r="J17" s="55">
+        <v>2</v>
+      </c>
+      <c r="K17" s="56">
+        <v>2</v>
+      </c>
+      <c r="L17" s="54">
+        <v>2</v>
+      </c>
+      <c r="M17" s="55">
+        <v>2</v>
+      </c>
+      <c r="N17" s="56">
+        <v>2</v>
+      </c>
+      <c r="O17" s="54">
+        <v>2</v>
+      </c>
+      <c r="P17" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="51">
         <v>1</v>
       </c>
-      <c r="I17" s="39">
+      <c r="C18" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="39">
         <v>1</v>
       </c>
-      <c r="J17" s="55">
+      <c r="I18" s="39">
         <v>1</v>
       </c>
-      <c r="K17" s="56">
+      <c r="J18" s="55">
         <v>1</v>
       </c>
-      <c r="L17" s="54">
+      <c r="K18" s="56">
         <v>1</v>
       </c>
-      <c r="M17" s="55">
+      <c r="L18" s="54">
         <v>1</v>
       </c>
-      <c r="N17" s="56">
+      <c r="M18" s="55">
         <v>1</v>
       </c>
-      <c r="O17" s="54">
+      <c r="N18" s="56">
         <v>1</v>
       </c>
-      <c r="P17" s="54">
+      <c r="O18" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
+      <c r="P18" s="54">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f>SUM(P22:P32)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="51">
+        <v>2</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="130" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="39">
+        <v>2</v>
+      </c>
+      <c r="I19" s="39">
+        <v>2</v>
+      </c>
+      <c r="J19" s="55">
+        <v>2</v>
+      </c>
+      <c r="K19" s="56">
+        <v>1</v>
+      </c>
+      <c r="L19" s="54">
+        <v>1</v>
+      </c>
+      <c r="M19" s="55">
+        <v>1</v>
+      </c>
+      <c r="N19" s="56">
+        <v>0</v>
+      </c>
+      <c r="O19" s="54">
+        <v>0</v>
+      </c>
+      <c r="P19" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="51">
+        <v>2</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="39">
+        <v>2</v>
+      </c>
+      <c r="I20" s="39">
+        <v>2</v>
+      </c>
+      <c r="J20" s="55">
+        <v>2</v>
+      </c>
+      <c r="K20" s="56">
+        <v>2</v>
+      </c>
+      <c r="L20" s="54">
+        <v>2</v>
+      </c>
+      <c r="M20" s="55">
+        <v>2</v>
+      </c>
+      <c r="N20" s="56">
+        <v>2</v>
+      </c>
+      <c r="O20" s="54">
+        <v>2</v>
+      </c>
+      <c r="P20" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="51">
+        <v>1</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="I21" s="39">
+        <v>1</v>
+      </c>
+      <c r="J21" s="55">
+        <v>1</v>
+      </c>
+      <c r="K21" s="56">
+        <v>1</v>
+      </c>
+      <c r="L21" s="54">
+        <v>1</v>
+      </c>
+      <c r="M21" s="55">
+        <v>1</v>
+      </c>
+      <c r="N21" s="56">
+        <v>1</v>
+      </c>
+      <c r="O21" s="54">
+        <v>1</v>
+      </c>
+      <c r="P21" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B22" s="44">
+        <v>4</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="43">
+        <v>4</v>
+      </c>
+      <c r="I22" s="43">
+        <v>4</v>
+      </c>
+      <c r="J22" s="123">
+        <v>2</v>
+      </c>
+      <c r="K22" s="124">
+        <v>2</v>
+      </c>
+      <c r="L22" s="43">
+        <v>0</v>
+      </c>
+      <c r="M22" s="123">
+        <v>0</v>
+      </c>
+      <c r="N22" s="124">
+        <v>0</v>
+      </c>
+      <c r="O22" s="43">
+        <v>0</v>
+      </c>
+      <c r="P22" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="44">
+        <v>1</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="43">
+        <v>1</v>
+      </c>
+      <c r="I23" s="43">
+        <v>1</v>
+      </c>
+      <c r="J23" s="123">
+        <v>1</v>
+      </c>
+      <c r="K23" s="124">
+        <v>1</v>
+      </c>
+      <c r="L23" s="43">
+        <v>1</v>
+      </c>
+      <c r="M23" s="123">
+        <v>1</v>
+      </c>
+      <c r="N23" s="124">
+        <v>0</v>
+      </c>
+      <c r="O23" s="43">
+        <v>0</v>
+      </c>
+      <c r="P23" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="44">
+        <v>2</v>
+      </c>
+      <c r="C24" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="43">
+        <v>2</v>
+      </c>
+      <c r="I24" s="43">
+        <v>2</v>
+      </c>
+      <c r="J24" s="123">
+        <v>2</v>
+      </c>
+      <c r="K24" s="124">
+        <v>2</v>
+      </c>
+      <c r="L24" s="43">
+        <v>2</v>
+      </c>
+      <c r="M24" s="123">
+        <v>2</v>
+      </c>
+      <c r="N24" s="124">
+        <v>1</v>
+      </c>
+      <c r="O24" s="43">
+        <v>1</v>
+      </c>
+      <c r="P24" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="44">
+        <v>1</v>
+      </c>
+      <c r="C25" s="126" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="126" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="43">
+        <v>1</v>
+      </c>
+      <c r="I25" s="43">
+        <v>1</v>
+      </c>
+      <c r="J25" s="123">
+        <v>1</v>
+      </c>
+      <c r="K25" s="124">
+        <v>1</v>
+      </c>
+      <c r="L25" s="43">
+        <v>1</v>
+      </c>
+      <c r="M25" s="123">
+        <v>1</v>
+      </c>
+      <c r="N25" s="124">
+        <v>0</v>
+      </c>
+      <c r="O25" s="43">
+        <v>0</v>
+      </c>
+      <c r="P25" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="125" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="44">
+        <v>4</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="43">
+        <v>4</v>
+      </c>
+      <c r="I26" s="43">
+        <v>4</v>
+      </c>
+      <c r="J26" s="123">
+        <v>4</v>
+      </c>
+      <c r="K26" s="124">
+        <v>4</v>
+      </c>
+      <c r="L26" s="43">
+        <v>4</v>
+      </c>
+      <c r="M26" s="123">
+        <v>4</v>
+      </c>
+      <c r="N26" s="124">
+        <v>2</v>
+      </c>
+      <c r="O26" s="43">
+        <v>2</v>
+      </c>
+      <c r="P26" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="125" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="44">
+        <v>4</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="126" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="43">
+        <v>4</v>
+      </c>
+      <c r="I27" s="43">
+        <v>4</v>
+      </c>
+      <c r="J27" s="123">
+        <v>4</v>
+      </c>
+      <c r="K27" s="124">
+        <v>4</v>
+      </c>
+      <c r="L27" s="43">
+        <v>4</v>
+      </c>
+      <c r="M27" s="123">
+        <v>4</v>
+      </c>
+      <c r="N27" s="124">
+        <v>4</v>
+      </c>
+      <c r="O27" s="43">
+        <v>4</v>
+      </c>
+      <c r="P27" s="43">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <f>SUM(R3)</f>
+        <v>10</v>
+      </c>
+      <c r="S27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="44">
+        <v>8</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="43">
+        <v>8</v>
+      </c>
+      <c r="I28" s="43">
+        <v>8</v>
+      </c>
+      <c r="J28" s="45">
+        <v>8</v>
+      </c>
+      <c r="K28" s="46">
+        <v>8</v>
+      </c>
+      <c r="L28" s="43">
+        <v>8</v>
+      </c>
+      <c r="M28" s="45">
+        <v>8</v>
+      </c>
+      <c r="N28" s="46">
+        <v>7</v>
+      </c>
+      <c r="O28" s="43">
+        <v>7</v>
+      </c>
+      <c r="P28" s="43">
+        <v>7</v>
+      </c>
+      <c r="R28">
+        <f>SUM(R10)</f>
+        <v>32</v>
+      </c>
+      <c r="S28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" s="44">
+        <v>2</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="43">
+        <v>2</v>
+      </c>
+      <c r="I29" s="43">
+        <v>2</v>
+      </c>
+      <c r="J29" s="45">
+        <v>0</v>
+      </c>
+      <c r="K29" s="46">
+        <v>0</v>
+      </c>
+      <c r="L29" s="43">
+        <v>0</v>
+      </c>
+      <c r="M29" s="45">
+        <v>0</v>
+      </c>
+      <c r="N29" s="46">
+        <v>0</v>
+      </c>
+      <c r="O29" s="43">
+        <v>0</v>
+      </c>
+      <c r="P29" s="43">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f>SUM(R18)</f>
         <v>16</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="110" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="53" t="s">
+      <c r="S29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="44">
+        <v>2</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="43">
+        <v>2</v>
+      </c>
+      <c r="I30" s="43">
+        <v>2</v>
+      </c>
+      <c r="J30" s="45">
+        <v>0</v>
+      </c>
+      <c r="K30" s="46">
+        <v>0</v>
+      </c>
+      <c r="L30" s="43">
+        <v>0</v>
+      </c>
+      <c r="M30" s="45">
+        <v>0</v>
+      </c>
+      <c r="N30" s="46">
+        <v>0</v>
+      </c>
+      <c r="O30" s="43">
+        <v>0</v>
+      </c>
+      <c r="P30" s="43">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f>SUM(P33)</f>
+        <v>2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="44">
+        <v>2</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="44"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="43">
+        <v>2</v>
+      </c>
+      <c r="I31" s="43">
+        <v>0</v>
+      </c>
+      <c r="J31" s="45">
+        <v>0</v>
+      </c>
+      <c r="K31" s="46">
+        <v>0</v>
+      </c>
+      <c r="L31" s="43">
+        <v>0</v>
+      </c>
+      <c r="M31" s="45">
+        <v>0</v>
+      </c>
+      <c r="N31" s="46">
+        <v>0</v>
+      </c>
+      <c r="O31" s="43">
+        <v>0</v>
+      </c>
+      <c r="P31" s="43">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f>SUM(H34)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="44">
+        <v>4</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="43">
-        <v>16</v>
-      </c>
-      <c r="I18" s="43">
-        <v>16</v>
-      </c>
-      <c r="J18" s="45">
-        <v>14</v>
-      </c>
-      <c r="K18" s="46">
-        <v>14</v>
-      </c>
-      <c r="L18" s="43">
-        <v>10</v>
-      </c>
-      <c r="M18" s="45">
-        <v>10</v>
-      </c>
-      <c r="N18" s="46">
-        <v>10</v>
-      </c>
-      <c r="O18" s="43">
-        <v>10</v>
-      </c>
-      <c r="P18" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="44">
-        <v>8</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="53" t="s">
+      <c r="F32" s="44"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="43">
+        <v>4</v>
+      </c>
+      <c r="I32" s="43">
+        <v>4</v>
+      </c>
+      <c r="J32" s="45">
+        <v>4</v>
+      </c>
+      <c r="K32" s="46">
+        <v>4</v>
+      </c>
+      <c r="L32" s="43">
+        <v>2</v>
+      </c>
+      <c r="M32" s="45">
+        <v>2</v>
+      </c>
+      <c r="N32" s="46">
+        <v>2</v>
+      </c>
+      <c r="O32" s="43">
+        <v>2</v>
+      </c>
+      <c r="P32" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="62">
+        <v>2</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="43">
-        <v>8</v>
-      </c>
-      <c r="I19" s="43">
-        <v>8</v>
-      </c>
-      <c r="J19" s="45">
-        <v>8</v>
-      </c>
-      <c r="K19" s="46">
-        <v>8</v>
-      </c>
-      <c r="L19" s="43">
-        <v>8</v>
-      </c>
-      <c r="M19" s="45">
-        <v>8</v>
-      </c>
-      <c r="N19" s="46">
-        <v>8</v>
-      </c>
-      <c r="O19" s="43">
-        <v>8</v>
-      </c>
-      <c r="P19" s="43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="44">
-        <v>2</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="43">
-        <v>2</v>
-      </c>
-      <c r="I20" s="43">
-        <v>2</v>
-      </c>
-      <c r="J20" s="45">
-        <v>0</v>
-      </c>
-      <c r="K20" s="46">
-        <v>0</v>
-      </c>
-      <c r="L20" s="43">
-        <v>0</v>
-      </c>
-      <c r="M20" s="45">
-        <v>0</v>
-      </c>
-      <c r="N20" s="46">
-        <v>0</v>
-      </c>
-      <c r="O20" s="43">
-        <v>0</v>
-      </c>
-      <c r="P20" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="44">
-        <v>2</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="43">
-        <v>2</v>
-      </c>
-      <c r="I21" s="43">
-        <v>2</v>
-      </c>
-      <c r="J21" s="45">
-        <v>0</v>
-      </c>
-      <c r="K21" s="46">
-        <v>0</v>
-      </c>
-      <c r="L21" s="43">
-        <v>0</v>
-      </c>
-      <c r="M21" s="45">
-        <v>0</v>
-      </c>
-      <c r="N21" s="46">
-        <v>0</v>
-      </c>
-      <c r="O21" s="43">
-        <v>0</v>
-      </c>
-      <c r="P21" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="44">
-        <v>2</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="43">
-        <v>2</v>
-      </c>
-      <c r="I22" s="43">
-        <v>0</v>
-      </c>
-      <c r="J22" s="45">
-        <v>0</v>
-      </c>
-      <c r="K22" s="46">
-        <v>0</v>
-      </c>
-      <c r="L22" s="43">
-        <v>0</v>
-      </c>
-      <c r="M22" s="45">
-        <v>0</v>
-      </c>
-      <c r="N22" s="46">
-        <v>0</v>
-      </c>
-      <c r="O22" s="43">
-        <v>0</v>
-      </c>
-      <c r="P22" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="44">
-        <v>4</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="43">
-        <v>4</v>
-      </c>
-      <c r="I23" s="43">
-        <v>4</v>
-      </c>
-      <c r="J23" s="45">
-        <v>4</v>
-      </c>
-      <c r="K23" s="46">
-        <v>4</v>
-      </c>
-      <c r="L23" s="43">
-        <v>4</v>
-      </c>
-      <c r="M23" s="45">
-        <v>4</v>
-      </c>
-      <c r="N23" s="46">
-        <v>4</v>
-      </c>
-      <c r="O23" s="43">
-        <v>4</v>
-      </c>
-      <c r="P23" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="62">
-        <v>2</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="57">
-        <v>2</v>
-      </c>
-      <c r="I24" s="57">
-        <v>2</v>
-      </c>
-      <c r="J24" s="58">
-        <v>2</v>
-      </c>
-      <c r="K24" s="59">
-        <v>2</v>
-      </c>
-      <c r="L24" s="57">
-        <v>2</v>
-      </c>
-      <c r="M24" s="58">
-        <v>2</v>
-      </c>
-      <c r="N24" s="59">
-        <v>2</v>
-      </c>
-      <c r="O24" s="57">
-        <v>2</v>
-      </c>
-      <c r="P24" s="57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="104" t="s">
+      <c r="F33" s="62"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="57">
+        <v>2</v>
+      </c>
+      <c r="I33" s="57">
+        <v>2</v>
+      </c>
+      <c r="J33" s="58">
+        <v>2</v>
+      </c>
+      <c r="K33" s="59">
+        <v>2</v>
+      </c>
+      <c r="L33" s="57">
+        <v>2</v>
+      </c>
+      <c r="M33" s="58">
+        <v>2</v>
+      </c>
+      <c r="N33" s="59">
+        <v>2</v>
+      </c>
+      <c r="O33" s="57">
+        <v>2</v>
+      </c>
+      <c r="P33" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="H25">
-        <f>SUM(H3:H24)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H34">
+        <f>SUM(H3:H33)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H1:J1"/>
@@ -8914,7 +10492,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8923,8 +10502,8 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8933,30 +10512,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="A1" s="148" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="135"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -9063,39 +10642,39 @@
         <v>27</v>
       </c>
       <c r="B6" s="10">
-        <f>SUM('Sprint 2'!H3:H24)</f>
-        <v>103</v>
+        <f>SUM('Sprint 2'!H3:H33)</f>
+        <v>115</v>
       </c>
       <c r="C6" s="15">
-        <f>SUM('Sprint 2'!I3:I31)</f>
-        <v>98</v>
+        <f>SUM('Sprint 2'!I3:I37)</f>
+        <v>110</v>
       </c>
       <c r="D6" s="28">
-        <f>SUM('Sprint 2'!J3:J31)</f>
-        <v>87</v>
+        <f>SUM('Sprint 2'!J3:J37)</f>
+        <v>99</v>
       </c>
       <c r="E6" s="10">
-        <f>SUM('Sprint 2'!K3:K31)</f>
-        <v>83</v>
+        <f>SUM('Sprint 2'!K3:K37)</f>
+        <v>86</v>
       </c>
       <c r="F6" s="15">
-        <f>SUM('Sprint 2'!L3:L31)</f>
-        <v>65</v>
+        <f>SUM('Sprint 2'!L3:L37)</f>
+        <v>74</v>
       </c>
       <c r="G6" s="28">
-        <f>SUM('Sprint 2'!M3:M31)</f>
+        <f>SUM('Sprint 2'!M3:M37)</f>
+        <v>67</v>
+      </c>
+      <c r="H6" s="10">
+        <f>SUM('Sprint 2'!N3:N37)</f>
         <v>60</v>
       </c>
-      <c r="H6" s="10">
-        <f>SUM('Sprint 2'!N3:N31)</f>
+      <c r="I6" s="15">
+        <f>SUM('Sprint 2'!O3:O37)</f>
         <v>60</v>
       </c>
-      <c r="I6" s="15">
-        <f>SUM('Sprint 2'!O3:O31)</f>
-        <v>60</v>
-      </c>
       <c r="J6" s="28">
-        <f>SUM('Sprint 2'!P3:P31)</f>
+        <f>SUM('Sprint 2'!P3:P37)</f>
         <v>60</v>
       </c>
     </row>
@@ -9104,39 +10683,39 @@
         <v>28</v>
       </c>
       <c r="B7" s="5">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((B5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>103</v>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((B5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
+        <v>115</v>
       </c>
       <c r="C7" s="16">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((C5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>90.125</v>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((C5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
+        <v>100.625</v>
       </c>
       <c r="D7" s="11">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((D5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>77.25</v>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((D5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
+        <v>86.25</v>
       </c>
       <c r="E7" s="5">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((E5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>64.375</v>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((E5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
+        <v>71.875</v>
       </c>
       <c r="F7" s="16">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((F5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>51.5</v>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((F5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
+        <v>57.5</v>
       </c>
       <c r="G7" s="11">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((G5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>38.625</v>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((G5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
+        <v>43.125</v>
       </c>
       <c r="H7" s="5">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((H5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>25.75</v>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((H5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
+        <v>28.75</v>
       </c>
       <c r="I7" s="16">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((I5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
-        <v>12.875</v>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((I5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
+        <v>14.375</v>
       </c>
       <c r="J7" s="11">
-        <f>SUM('Sprint 2'!$B$3:$B$31)-(((J5-1)*SUM('Sprint 2'!$B$3:$B$31))/($J$5-1))</f>
+        <f>SUM('Sprint 2'!$B$3:$B$37)-(((J5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>0</v>
       </c>
     </row>

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -965,11 +965,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1935,450 +1942,447 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="16" fontId="39" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="55" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="38" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="54" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2389,7 +2393,50 @@
     <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2665,11 +2712,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="252038440"/>
-        <c:axId val="254361192"/>
+        <c:axId val="218585344"/>
+        <c:axId val="290656880"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="252038440"/>
+        <c:axId val="218585344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,14 +2756,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="254361192"/>
+        <c:crossAx val="290656880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254361192"/>
+        <c:axId val="290656880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252038440"/>
+        <c:crossAx val="218585344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3016,7 +3063,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3210,7 +3257,7 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,11 +3381,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="254360016"/>
-        <c:axId val="254358448"/>
+        <c:axId val="292951968"/>
+        <c:axId val="292953144"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="254360016"/>
+        <c:axId val="292951968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3378,14 +3425,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="254358448"/>
+        <c:crossAx val="292953144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254358448"/>
+        <c:axId val="292953144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,7 +3476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254360016"/>
+        <c:crossAx val="292951968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4559,13 +4606,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4655,7 +4702,7 @@
       <c r="E6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="65"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -5084,7 +5131,7 @@
       <c r="D30" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="63" t="s">
         <v>190</v>
       </c>
       <c r="F30" s="37"/>
@@ -5496,7 +5543,7 @@
       <c r="D54" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="63" t="s">
+      <c r="E54" s="62" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5528,12 +5575,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
@@ -5542,10 +5589,10 @@
       <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="80" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5553,7 +5600,7 @@
       <c r="A3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>194</v>
       </c>
       <c r="C3" s="47">
@@ -5562,7 +5609,7 @@
       <c r="D3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5579,7 +5626,7 @@
       <c r="D4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5596,7 +5643,7 @@
       <c r="D5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5613,7 +5660,7 @@
       <c r="D6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5630,7 +5677,7 @@
       <c r="D7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5647,7 +5694,7 @@
       <c r="D8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5664,7 +5711,7 @@
       <c r="D9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5681,7 +5728,7 @@
       <c r="D10" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5698,7 +5745,7 @@
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5715,7 +5762,7 @@
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5732,7 +5779,7 @@
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5749,7 +5796,7 @@
       <c r="D14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5766,7 +5813,7 @@
       <c r="D15" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5783,7 +5830,7 @@
       <c r="D16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5800,7 +5847,7 @@
       <c r="D17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5808,7 +5855,7 @@
       <c r="A18" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="71" t="s">
         <v>209</v>
       </c>
       <c r="C18" s="47">
@@ -5817,147 +5864,147 @@
       <c r="D18" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="60" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="67" t="s">
         <v>195</v>
       </c>
       <c r="C19" s="47">
         <v>4</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="67" t="s">
         <v>196</v>
       </c>
       <c r="C20" s="47">
         <v>4</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="116" t="s">
         <v>232</v>
       </c>
       <c r="C21" s="47">
         <v>4</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="67" t="s">
         <v>197</v>
       </c>
       <c r="C22" s="47">
         <v>2</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="67" t="s">
         <v>198</v>
       </c>
       <c r="C23" s="47">
         <v>8</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="67" t="s">
         <v>199</v>
       </c>
       <c r="C24" s="47">
         <v>2</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="67" t="s">
         <v>200</v>
       </c>
       <c r="C25" s="47">
         <v>2</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="67" t="s">
         <v>201</v>
       </c>
       <c r="C26" s="47">
         <v>4</v>
       </c>
-      <c r="D26" s="79" t="s">
+      <c r="D26" s="78" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="67" t="s">
         <v>202</v>
       </c>
       <c r="C27" s="47">
         <v>4</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="67" t="s">
         <v>203</v>
       </c>
       <c r="C28" s="47">
         <v>8</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5965,7 +6012,7 @@
       <c r="A29" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="73" t="s">
         <v>138</v>
       </c>
       <c r="C29" s="47">
@@ -5993,7 +6040,7 @@
       <c r="A31" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="114" t="s">
         <v>231</v>
       </c>
       <c r="C31" s="47">
@@ -6301,13 +6348,13 @@
       <c r="A53" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="76" t="s">
+      <c r="B53" s="75" t="s">
         <v>215</v>
       </c>
       <c r="C53" s="51">
         <v>8</v>
       </c>
-      <c r="D53" s="80" t="s">
+      <c r="D53" s="79" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6315,13 +6362,13 @@
       <c r="A54" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="76" t="s">
+      <c r="B54" s="75" t="s">
         <v>216</v>
       </c>
       <c r="C54" s="51">
         <v>4</v>
       </c>
-      <c r="D54" s="80" t="s">
+      <c r="D54" s="79" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6329,13 +6376,13 @@
       <c r="A55" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="128" t="s">
+      <c r="B55" s="126" t="s">
         <v>249</v>
       </c>
-      <c r="C55" s="109">
-        <v>2</v>
-      </c>
-      <c r="D55" s="80" t="s">
+      <c r="C55" s="108">
+        <v>2</v>
+      </c>
+      <c r="D55" s="79" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6343,13 +6390,13 @@
       <c r="A56" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="128" t="s">
+      <c r="B56" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="C56" s="109">
+      <c r="C56" s="108">
         <v>16</v>
       </c>
-      <c r="D56" s="80" t="s">
+      <c r="D56" s="79" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6357,13 +6404,13 @@
       <c r="A57" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="128" t="s">
+      <c r="B57" s="126" t="s">
         <v>247</v>
       </c>
-      <c r="C57" s="109">
-        <v>4</v>
-      </c>
-      <c r="D57" s="80" t="s">
+      <c r="C57" s="108">
+        <v>4</v>
+      </c>
+      <c r="D57" s="79" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6371,13 +6418,13 @@
       <c r="A58" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="128" t="s">
+      <c r="B58" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="109">
-        <v>4</v>
-      </c>
-      <c r="D58" s="80" t="s">
+      <c r="C58" s="108">
+        <v>4</v>
+      </c>
+      <c r="D58" s="79" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6385,13 +6432,13 @@
       <c r="A59" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="75" t="s">
         <v>217</v>
       </c>
       <c r="C59" s="51">
         <v>2</v>
       </c>
-      <c r="D59" s="80" t="s">
+      <c r="D59" s="79" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6399,13 +6446,13 @@
       <c r="A60" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="75" t="s">
         <v>218</v>
       </c>
       <c r="C60" s="51">
         <v>4</v>
       </c>
-      <c r="D60" s="80" t="s">
+      <c r="D60" s="79" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6464,7 +6511,7 @@
       <c r="D64" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="61" t="s">
+      <c r="E64" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6481,7 +6528,7 @@
       <c r="D65" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="61" t="s">
+      <c r="E65" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6498,7 +6545,7 @@
       <c r="D66" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6529,7 +6576,7 @@
       <c r="D68" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="61" t="s">
+      <c r="E68" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6560,7 +6607,7 @@
       <c r="D70" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="61" t="s">
+      <c r="E70" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6577,7 +6624,7 @@
       <c r="D71" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="61" t="s">
+      <c r="E71" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6608,7 +6655,7 @@
       <c r="D73" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="61" t="s">
+      <c r="E73" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6686,7 +6733,7 @@
       <c r="A79" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="77" t="s">
+      <c r="B79" s="76" t="s">
         <v>220</v>
       </c>
       <c r="C79" s="44">
@@ -6700,7 +6747,7 @@
       <c r="A80" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="124" t="s">
+      <c r="B80" s="123" t="s">
         <v>234</v>
       </c>
       <c r="C80" s="44">
@@ -6714,7 +6761,7 @@
       <c r="A81" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="124" t="s">
+      <c r="B81" s="123" t="s">
         <v>237</v>
       </c>
       <c r="C81" s="44">
@@ -6728,7 +6775,7 @@
       <c r="A82" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="124" t="s">
+      <c r="B82" s="123" t="s">
         <v>238</v>
       </c>
       <c r="C82" s="44">
@@ -6742,7 +6789,7 @@
       <c r="A83" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="124" t="s">
+      <c r="B83" s="123" t="s">
         <v>241</v>
       </c>
       <c r="C83" s="44">
@@ -6756,7 +6803,7 @@
       <c r="A84" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="124" t="s">
+      <c r="B84" s="123" t="s">
         <v>239</v>
       </c>
       <c r="C84" s="44">
@@ -6770,7 +6817,7 @@
       <c r="A85" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="124" t="s">
+      <c r="B85" s="123" t="s">
         <v>240</v>
       </c>
       <c r="C85" s="44">
@@ -6781,95 +6828,95 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="B86" s="66" t="s">
+      <c r="B86" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="C86" s="62">
+      <c r="C86" s="61">
         <v>16</v>
       </c>
-      <c r="D86" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="61" t="s">
+      <c r="D86" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="60" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="82" t="s">
+      <c r="A87" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="62">
+      <c r="C87" s="61">
         <v>1</v>
       </c>
-      <c r="D87" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="61" t="s">
+      <c r="D87" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="60" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="B88" s="66" t="s">
+      <c r="B88" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="62">
-        <v>2</v>
-      </c>
-      <c r="D88" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="61" t="s">
+      <c r="C88" s="61">
+        <v>2</v>
+      </c>
+      <c r="D88" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="60" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="B89" s="73" t="s">
+      <c r="B89" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="C89" s="62">
-        <v>2</v>
-      </c>
-      <c r="D89" s="82" t="s">
+      <c r="C89" s="61">
+        <v>2</v>
+      </c>
+      <c r="D89" s="81" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="82" t="s">
+      <c r="A90" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="B90" s="73" t="s">
+      <c r="B90" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="C90" s="62">
-        <v>2</v>
-      </c>
-      <c r="D90" s="82" t="s">
+      <c r="C90" s="61">
+        <v>2</v>
+      </c>
+      <c r="D90" s="81" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="82" t="s">
+      <c r="A91" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="B91" s="73" t="s">
+      <c r="B91" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="C91" s="62">
-        <v>2</v>
-      </c>
-      <c r="D91" s="82" t="s">
+      <c r="C91" s="61">
+        <v>2</v>
+      </c>
+      <c r="D91" s="81" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6952,29 +6999,29 @@
       <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="86" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="132" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="137" t="s">
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="137" t="s">
+      <c r="L1" s="136"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="138"/>
-      <c r="P1" s="139"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="137"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -6995,13 +7042,13 @@
       <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="86" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -7027,7 +7074,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="47">
@@ -7039,36 +7086,36 @@
       <c r="D3" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F3" s="47"/>
-      <c r="G3" s="88"/>
+      <c r="G3" s="87"/>
       <c r="H3" s="47">
         <v>2</v>
       </c>
       <c r="I3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="88">
-        <v>0</v>
-      </c>
-      <c r="K3" s="89">
-        <v>0</v>
-      </c>
-      <c r="L3" s="90">
-        <v>0</v>
-      </c>
-      <c r="M3" s="88">
-        <v>0</v>
-      </c>
-      <c r="N3" s="89">
-        <v>0</v>
-      </c>
-      <c r="O3" s="90">
-        <v>0</v>
-      </c>
-      <c r="P3" s="90">
+      <c r="J3" s="87">
+        <v>0</v>
+      </c>
+      <c r="K3" s="88">
+        <v>0</v>
+      </c>
+      <c r="L3" s="89">
+        <v>0</v>
+      </c>
+      <c r="M3" s="87">
+        <v>0</v>
+      </c>
+      <c r="N3" s="88">
+        <v>0</v>
+      </c>
+      <c r="O3" s="89">
+        <v>0</v>
+      </c>
+      <c r="P3" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7085,36 +7132,36 @@
       <c r="D4" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="47"/>
-      <c r="G4" s="88"/>
+      <c r="G4" s="87"/>
       <c r="H4" s="47">
         <v>4</v>
       </c>
       <c r="I4" s="47">
         <v>4</v>
       </c>
-      <c r="J4" s="88">
-        <v>0</v>
-      </c>
-      <c r="K4" s="89">
-        <v>0</v>
-      </c>
-      <c r="L4" s="90">
-        <v>0</v>
-      </c>
-      <c r="M4" s="88">
-        <v>0</v>
-      </c>
-      <c r="N4" s="89">
-        <v>0</v>
-      </c>
-      <c r="O4" s="90">
-        <v>0</v>
-      </c>
-      <c r="P4" s="90">
+      <c r="J4" s="87">
+        <v>0</v>
+      </c>
+      <c r="K4" s="88">
+        <v>0</v>
+      </c>
+      <c r="L4" s="89">
+        <v>0</v>
+      </c>
+      <c r="M4" s="87">
+        <v>0</v>
+      </c>
+      <c r="N4" s="88">
+        <v>0</v>
+      </c>
+      <c r="O4" s="89">
+        <v>0</v>
+      </c>
+      <c r="P4" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7131,36 +7178,36 @@
       <c r="D5" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F5" s="47"/>
-      <c r="G5" s="91"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="47">
         <v>4</v>
       </c>
       <c r="I5" s="47">
         <v>4</v>
       </c>
-      <c r="J5" s="91">
-        <v>0</v>
-      </c>
-      <c r="K5" s="92">
-        <v>0</v>
-      </c>
-      <c r="L5" s="90">
-        <v>0</v>
-      </c>
-      <c r="M5" s="91">
-        <v>0</v>
-      </c>
-      <c r="N5" s="92">
-        <v>0</v>
-      </c>
-      <c r="O5" s="90">
-        <v>0</v>
-      </c>
-      <c r="P5" s="90">
+      <c r="J5" s="90">
+        <v>0</v>
+      </c>
+      <c r="K5" s="91">
+        <v>0</v>
+      </c>
+      <c r="L5" s="89">
+        <v>0</v>
+      </c>
+      <c r="M5" s="90">
+        <v>0</v>
+      </c>
+      <c r="N5" s="91">
+        <v>0</v>
+      </c>
+      <c r="O5" s="89">
+        <v>0</v>
+      </c>
+      <c r="P5" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7177,36 +7224,36 @@
       <c r="D6" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F6" s="47"/>
-      <c r="G6" s="91"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="47">
         <v>4</v>
       </c>
       <c r="I6" s="47">
         <v>4</v>
       </c>
-      <c r="J6" s="91">
-        <v>4</v>
-      </c>
-      <c r="K6" s="92">
-        <v>2</v>
-      </c>
-      <c r="L6" s="90">
-        <v>0</v>
-      </c>
-      <c r="M6" s="91">
-        <v>0</v>
-      </c>
-      <c r="N6" s="92">
-        <v>0</v>
-      </c>
-      <c r="O6" s="90">
-        <v>0</v>
-      </c>
-      <c r="P6" s="90">
+      <c r="J6" s="90">
+        <v>4</v>
+      </c>
+      <c r="K6" s="91">
+        <v>2</v>
+      </c>
+      <c r="L6" s="89">
+        <v>0</v>
+      </c>
+      <c r="M6" s="90">
+        <v>0</v>
+      </c>
+      <c r="N6" s="91">
+        <v>0</v>
+      </c>
+      <c r="O6" s="89">
+        <v>0</v>
+      </c>
+      <c r="P6" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7220,39 +7267,39 @@
       <c r="C7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F7" s="47"/>
-      <c r="G7" s="88"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="47">
         <v>4</v>
       </c>
       <c r="I7" s="47">
         <v>4</v>
       </c>
-      <c r="J7" s="88">
-        <v>4</v>
-      </c>
-      <c r="K7" s="89">
-        <v>4</v>
-      </c>
-      <c r="L7" s="90">
-        <v>4</v>
-      </c>
-      <c r="M7" s="88">
-        <v>0</v>
-      </c>
-      <c r="N7" s="89">
-        <v>0</v>
-      </c>
-      <c r="O7" s="90">
-        <v>0</v>
-      </c>
-      <c r="P7" s="90">
+      <c r="J7" s="87">
+        <v>4</v>
+      </c>
+      <c r="K7" s="88">
+        <v>4</v>
+      </c>
+      <c r="L7" s="89">
+        <v>4</v>
+      </c>
+      <c r="M7" s="87">
+        <v>0</v>
+      </c>
+      <c r="N7" s="88">
+        <v>0</v>
+      </c>
+      <c r="O7" s="89">
+        <v>0</v>
+      </c>
+      <c r="P7" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7266,39 +7313,39 @@
       <c r="C8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F8" s="47"/>
-      <c r="G8" s="91"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="47">
         <v>4</v>
       </c>
       <c r="I8" s="47">
         <v>4</v>
       </c>
-      <c r="J8" s="91">
-        <v>4</v>
-      </c>
-      <c r="K8" s="92">
-        <v>4</v>
-      </c>
-      <c r="L8" s="90">
-        <v>4</v>
-      </c>
-      <c r="M8" s="91">
-        <v>2</v>
-      </c>
-      <c r="N8" s="92">
-        <v>0</v>
-      </c>
-      <c r="O8" s="90">
-        <v>0</v>
-      </c>
-      <c r="P8" s="90">
+      <c r="J8" s="90">
+        <v>4</v>
+      </c>
+      <c r="K8" s="91">
+        <v>4</v>
+      </c>
+      <c r="L8" s="89">
+        <v>4</v>
+      </c>
+      <c r="M8" s="90">
+        <v>2</v>
+      </c>
+      <c r="N8" s="91">
+        <v>0</v>
+      </c>
+      <c r="O8" s="89">
+        <v>0</v>
+      </c>
+      <c r="P8" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7312,39 +7359,39 @@
       <c r="C9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F9" s="47"/>
-      <c r="G9" s="91"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="47">
         <v>4</v>
       </c>
       <c r="I9" s="47">
         <v>4</v>
       </c>
-      <c r="J9" s="91">
-        <v>4</v>
-      </c>
-      <c r="K9" s="92">
-        <v>4</v>
-      </c>
-      <c r="L9" s="90">
-        <v>4</v>
-      </c>
-      <c r="M9" s="91">
-        <v>2</v>
-      </c>
-      <c r="N9" s="92">
-        <v>0</v>
-      </c>
-      <c r="O9" s="90">
-        <v>0</v>
-      </c>
-      <c r="P9" s="90">
+      <c r="J9" s="90">
+        <v>4</v>
+      </c>
+      <c r="K9" s="91">
+        <v>4</v>
+      </c>
+      <c r="L9" s="89">
+        <v>4</v>
+      </c>
+      <c r="M9" s="90">
+        <v>2</v>
+      </c>
+      <c r="N9" s="91">
+        <v>0</v>
+      </c>
+      <c r="O9" s="89">
+        <v>0</v>
+      </c>
+      <c r="P9" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7358,39 +7405,39 @@
       <c r="C10" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F10" s="47"/>
-      <c r="G10" s="88"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="47">
         <v>4</v>
       </c>
       <c r="I10" s="47">
         <v>4</v>
       </c>
-      <c r="J10" s="88">
-        <v>4</v>
-      </c>
-      <c r="K10" s="89">
-        <v>4</v>
-      </c>
-      <c r="L10" s="90">
-        <v>4</v>
-      </c>
-      <c r="M10" s="88">
-        <v>4</v>
-      </c>
-      <c r="N10" s="89">
-        <v>0</v>
-      </c>
-      <c r="O10" s="90">
-        <v>0</v>
-      </c>
-      <c r="P10" s="90">
+      <c r="J10" s="87">
+        <v>4</v>
+      </c>
+      <c r="K10" s="88">
+        <v>4</v>
+      </c>
+      <c r="L10" s="89">
+        <v>4</v>
+      </c>
+      <c r="M10" s="87">
+        <v>4</v>
+      </c>
+      <c r="N10" s="88">
+        <v>0</v>
+      </c>
+      <c r="O10" s="89">
+        <v>0</v>
+      </c>
+      <c r="P10" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7404,39 +7451,39 @@
       <c r="C11" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F11" s="47"/>
-      <c r="G11" s="91"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="47">
         <v>4</v>
       </c>
       <c r="I11" s="47">
         <v>4</v>
       </c>
-      <c r="J11" s="91">
-        <v>4</v>
-      </c>
-      <c r="K11" s="92">
-        <v>4</v>
-      </c>
-      <c r="L11" s="90">
-        <v>4</v>
-      </c>
-      <c r="M11" s="91">
-        <v>4</v>
-      </c>
-      <c r="N11" s="92">
-        <v>2</v>
-      </c>
-      <c r="O11" s="90">
-        <v>2</v>
-      </c>
-      <c r="P11" s="90">
+      <c r="J11" s="90">
+        <v>4</v>
+      </c>
+      <c r="K11" s="91">
+        <v>4</v>
+      </c>
+      <c r="L11" s="89">
+        <v>4</v>
+      </c>
+      <c r="M11" s="90">
+        <v>4</v>
+      </c>
+      <c r="N11" s="91">
+        <v>2</v>
+      </c>
+      <c r="O11" s="89">
+        <v>2</v>
+      </c>
+      <c r="P11" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7453,36 +7500,36 @@
       <c r="D12" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F12" s="47"/>
-      <c r="G12" s="88"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="47">
         <v>1</v>
       </c>
       <c r="I12" s="47">
         <v>1</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="87">
         <v>1</v>
       </c>
-      <c r="K12" s="89">
+      <c r="K12" s="88">
         <v>1</v>
       </c>
-      <c r="L12" s="90">
+      <c r="L12" s="89">
         <v>1</v>
       </c>
-      <c r="M12" s="88">
-        <v>0</v>
-      </c>
-      <c r="N12" s="89">
-        <v>0</v>
-      </c>
-      <c r="O12" s="90">
-        <v>0</v>
-      </c>
-      <c r="P12" s="90">
+      <c r="M12" s="87">
+        <v>0</v>
+      </c>
+      <c r="N12" s="88">
+        <v>0</v>
+      </c>
+      <c r="O12" s="89">
+        <v>0</v>
+      </c>
+      <c r="P12" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7496,39 +7543,39 @@
       <c r="C13" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F13" s="47"/>
-      <c r="G13" s="88"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="47">
         <v>1</v>
       </c>
       <c r="I13" s="47">
         <v>1</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="87">
         <v>1</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K13" s="88">
         <v>1</v>
       </c>
-      <c r="L13" s="90">
-        <v>0</v>
-      </c>
-      <c r="M13" s="88">
-        <v>0</v>
-      </c>
-      <c r="N13" s="89">
-        <v>0</v>
-      </c>
-      <c r="O13" s="90">
-        <v>0</v>
-      </c>
-      <c r="P13" s="90">
+      <c r="L13" s="89">
+        <v>0</v>
+      </c>
+      <c r="M13" s="87">
+        <v>0</v>
+      </c>
+      <c r="N13" s="88">
+        <v>0</v>
+      </c>
+      <c r="O13" s="89">
+        <v>0</v>
+      </c>
+      <c r="P13" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7542,39 +7589,39 @@
       <c r="C14" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F14" s="47"/>
-      <c r="G14" s="88"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="47">
         <v>1</v>
       </c>
       <c r="I14" s="47">
         <v>1</v>
       </c>
-      <c r="J14" s="88">
+      <c r="J14" s="87">
         <v>1</v>
       </c>
-      <c r="K14" s="89">
+      <c r="K14" s="88">
         <v>1</v>
       </c>
-      <c r="L14" s="90">
-        <v>0</v>
-      </c>
-      <c r="M14" s="88">
-        <v>0</v>
-      </c>
-      <c r="N14" s="89">
-        <v>0</v>
-      </c>
-      <c r="O14" s="90">
-        <v>0</v>
-      </c>
-      <c r="P14" s="90">
+      <c r="L14" s="89">
+        <v>0</v>
+      </c>
+      <c r="M14" s="87">
+        <v>0</v>
+      </c>
+      <c r="N14" s="88">
+        <v>0</v>
+      </c>
+      <c r="O14" s="89">
+        <v>0</v>
+      </c>
+      <c r="P14" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7585,42 +7632,42 @@
       <c r="B15" s="47">
         <v>1</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F15" s="47"/>
-      <c r="G15" s="88"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="47">
         <v>1</v>
       </c>
       <c r="I15" s="47">
         <v>1</v>
       </c>
-      <c r="J15" s="88">
+      <c r="J15" s="87">
         <v>1</v>
       </c>
-      <c r="K15" s="89">
+      <c r="K15" s="88">
         <v>1</v>
       </c>
-      <c r="L15" s="90">
+      <c r="L15" s="89">
         <v>1</v>
       </c>
-      <c r="M15" s="88">
+      <c r="M15" s="87">
         <v>1</v>
       </c>
-      <c r="N15" s="89">
+      <c r="N15" s="88">
         <v>1</v>
       </c>
-      <c r="O15" s="90">
+      <c r="O15" s="89">
         <v>1</v>
       </c>
-      <c r="P15" s="90">
+      <c r="P15" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7634,39 +7681,39 @@
       <c r="C16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F16" s="47"/>
-      <c r="G16" s="88"/>
+      <c r="G16" s="87"/>
       <c r="H16" s="47">
         <v>1</v>
       </c>
       <c r="I16" s="47">
         <v>1</v>
       </c>
-      <c r="J16" s="88">
+      <c r="J16" s="87">
         <v>1</v>
       </c>
-      <c r="K16" s="89">
+      <c r="K16" s="88">
         <v>1</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="89">
         <v>1</v>
       </c>
-      <c r="M16" s="88">
+      <c r="M16" s="87">
         <v>1</v>
       </c>
-      <c r="N16" s="89">
+      <c r="N16" s="88">
         <v>1</v>
       </c>
-      <c r="O16" s="90">
+      <c r="O16" s="89">
         <v>1</v>
       </c>
-      <c r="P16" s="90">
+      <c r="P16" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7680,39 +7727,39 @@
       <c r="C17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F17" s="47"/>
-      <c r="G17" s="88"/>
+      <c r="G17" s="87"/>
       <c r="H17" s="47">
         <v>1</v>
       </c>
       <c r="I17" s="47">
         <v>0</v>
       </c>
-      <c r="J17" s="88">
-        <v>0</v>
-      </c>
-      <c r="K17" s="89">
-        <v>0</v>
-      </c>
-      <c r="L17" s="90">
-        <v>0</v>
-      </c>
-      <c r="M17" s="88">
-        <v>0</v>
-      </c>
-      <c r="N17" s="89">
-        <v>0</v>
-      </c>
-      <c r="O17" s="90">
-        <v>0</v>
-      </c>
-      <c r="P17" s="90">
+      <c r="J17" s="87">
+        <v>0</v>
+      </c>
+      <c r="K17" s="88">
+        <v>0</v>
+      </c>
+      <c r="L17" s="89">
+        <v>0</v>
+      </c>
+      <c r="M17" s="87">
+        <v>0</v>
+      </c>
+      <c r="N17" s="88">
+        <v>0</v>
+      </c>
+      <c r="O17" s="89">
+        <v>0</v>
+      </c>
+      <c r="P17" s="89">
         <v>0</v>
       </c>
     </row>
@@ -7729,36 +7776,36 @@
       <c r="D18" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="74" t="s">
         <v>214</v>
       </c>
       <c r="F18" s="51"/>
-      <c r="G18" s="94"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="51">
         <v>4</v>
       </c>
       <c r="I18" s="51">
         <v>4</v>
       </c>
-      <c r="J18" s="94">
-        <v>4</v>
-      </c>
-      <c r="K18" s="95">
-        <v>4</v>
-      </c>
-      <c r="L18" s="96">
-        <v>4</v>
-      </c>
-      <c r="M18" s="94">
-        <v>4</v>
-      </c>
-      <c r="N18" s="95">
-        <v>4</v>
-      </c>
-      <c r="O18" s="96">
-        <v>4</v>
-      </c>
-      <c r="P18" s="96">
+      <c r="J18" s="93">
+        <v>4</v>
+      </c>
+      <c r="K18" s="94">
+        <v>4</v>
+      </c>
+      <c r="L18" s="95">
+        <v>4</v>
+      </c>
+      <c r="M18" s="93">
+        <v>4</v>
+      </c>
+      <c r="N18" s="94">
+        <v>4</v>
+      </c>
+      <c r="O18" s="95">
+        <v>4</v>
+      </c>
+      <c r="P18" s="95">
         <v>4</v>
       </c>
       <c r="Q18" s="20"/>
@@ -7776,36 +7823,36 @@
       <c r="D19" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F19" s="44"/>
-      <c r="G19" s="97"/>
+      <c r="G19" s="96"/>
       <c r="H19" s="44">
         <v>4</v>
       </c>
       <c r="I19" s="44">
         <v>4</v>
       </c>
-      <c r="J19" s="97">
-        <v>4</v>
-      </c>
-      <c r="K19" s="98">
-        <v>2</v>
-      </c>
-      <c r="L19" s="78">
-        <v>2</v>
-      </c>
-      <c r="M19" s="99">
-        <v>0</v>
-      </c>
-      <c r="N19" s="100">
-        <v>0</v>
-      </c>
-      <c r="O19" s="78">
-        <v>0</v>
-      </c>
-      <c r="P19" s="78">
+      <c r="J19" s="96">
+        <v>4</v>
+      </c>
+      <c r="K19" s="97">
+        <v>2</v>
+      </c>
+      <c r="L19" s="77">
+        <v>2</v>
+      </c>
+      <c r="M19" s="98">
+        <v>0</v>
+      </c>
+      <c r="N19" s="99">
+        <v>0</v>
+      </c>
+      <c r="O19" s="77">
+        <v>0</v>
+      </c>
+      <c r="P19" s="77">
         <v>0</v>
       </c>
       <c r="Q19" s="20"/>
@@ -7823,36 +7870,36 @@
       <c r="D20" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="97"/>
+      <c r="G20" s="96"/>
       <c r="H20" s="44">
         <v>8</v>
       </c>
       <c r="I20" s="44">
         <v>8</v>
       </c>
-      <c r="J20" s="97">
-        <v>8</v>
-      </c>
-      <c r="K20" s="98">
-        <v>4</v>
-      </c>
-      <c r="L20" s="78">
-        <v>2</v>
-      </c>
-      <c r="M20" s="97">
-        <v>2</v>
-      </c>
-      <c r="N20" s="98">
-        <v>0</v>
-      </c>
-      <c r="O20" s="78">
-        <v>0</v>
-      </c>
-      <c r="P20" s="78">
+      <c r="J20" s="96">
+        <v>8</v>
+      </c>
+      <c r="K20" s="97">
+        <v>4</v>
+      </c>
+      <c r="L20" s="77">
+        <v>2</v>
+      </c>
+      <c r="M20" s="96">
+        <v>2</v>
+      </c>
+      <c r="N20" s="97">
+        <v>0</v>
+      </c>
+      <c r="O20" s="77">
+        <v>0</v>
+      </c>
+      <c r="P20" s="77">
         <v>0</v>
       </c>
       <c r="Q20" s="20"/>
@@ -7870,36 +7917,36 @@
       <c r="D21" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F21" s="44"/>
-      <c r="G21" s="97"/>
+      <c r="G21" s="96"/>
       <c r="H21" s="44">
         <v>4</v>
       </c>
       <c r="I21" s="44">
         <v>2</v>
       </c>
-      <c r="J21" s="97">
-        <v>0</v>
-      </c>
-      <c r="K21" s="98">
-        <v>0</v>
-      </c>
-      <c r="L21" s="78">
-        <v>0</v>
-      </c>
-      <c r="M21" s="97">
-        <v>0</v>
-      </c>
-      <c r="N21" s="98">
-        <v>0</v>
-      </c>
-      <c r="O21" s="78">
-        <v>0</v>
-      </c>
-      <c r="P21" s="78">
+      <c r="J21" s="96">
+        <v>0</v>
+      </c>
+      <c r="K21" s="97">
+        <v>0</v>
+      </c>
+      <c r="L21" s="77">
+        <v>0</v>
+      </c>
+      <c r="M21" s="96">
+        <v>0</v>
+      </c>
+      <c r="N21" s="97">
+        <v>0</v>
+      </c>
+      <c r="O21" s="77">
+        <v>0</v>
+      </c>
+      <c r="P21" s="77">
         <v>0</v>
       </c>
     </row>
@@ -7913,39 +7960,39 @@
       <c r="C22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="106" t="s">
+      <c r="D22" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F22" s="44"/>
-      <c r="G22" s="97"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="44">
         <v>4</v>
       </c>
       <c r="I22" s="44">
         <v>4</v>
       </c>
-      <c r="J22" s="97">
-        <v>4</v>
-      </c>
-      <c r="K22" s="98">
-        <v>4</v>
-      </c>
-      <c r="L22" s="78">
-        <v>0</v>
-      </c>
-      <c r="M22" s="99">
-        <v>0</v>
-      </c>
-      <c r="N22" s="100">
-        <v>0</v>
-      </c>
-      <c r="O22" s="78">
-        <v>0</v>
-      </c>
-      <c r="P22" s="78">
+      <c r="J22" s="96">
+        <v>4</v>
+      </c>
+      <c r="K22" s="97">
+        <v>4</v>
+      </c>
+      <c r="L22" s="77">
+        <v>0</v>
+      </c>
+      <c r="M22" s="98">
+        <v>0</v>
+      </c>
+      <c r="N22" s="99">
+        <v>0</v>
+      </c>
+      <c r="O22" s="77">
+        <v>0</v>
+      </c>
+      <c r="P22" s="77">
         <v>0</v>
       </c>
     </row>
@@ -7959,33 +8006,33 @@
       <c r="C23" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="106" t="s">
+      <c r="D23" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="97"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="44">
         <v>2</v>
       </c>
       <c r="I23" s="44">
         <v>2</v>
       </c>
-      <c r="J23" s="97">
-        <v>2</v>
-      </c>
-      <c r="K23" s="98">
+      <c r="J23" s="96">
+        <v>2</v>
+      </c>
+      <c r="K23" s="97">
         <v>2</v>
       </c>
       <c r="L23" s="44">
         <v>0</v>
       </c>
-      <c r="M23" s="97">
-        <v>0</v>
-      </c>
-      <c r="N23" s="98">
+      <c r="M23" s="96">
+        <v>0</v>
+      </c>
+      <c r="N23" s="97">
         <v>0</v>
       </c>
       <c r="O23" s="44">
@@ -8005,33 +8052,33 @@
       <c r="C24" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="106" t="s">
+      <c r="D24" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F24" s="44"/>
-      <c r="G24" s="97"/>
+      <c r="G24" s="96"/>
       <c r="H24" s="44">
         <v>2</v>
       </c>
       <c r="I24" s="44">
         <v>2</v>
       </c>
-      <c r="J24" s="97">
-        <v>2</v>
-      </c>
-      <c r="K24" s="98">
+      <c r="J24" s="96">
+        <v>2</v>
+      </c>
+      <c r="K24" s="97">
         <v>2</v>
       </c>
       <c r="L24" s="44">
         <v>0</v>
       </c>
-      <c r="M24" s="97">
-        <v>0</v>
-      </c>
-      <c r="N24" s="98">
+      <c r="M24" s="96">
+        <v>0</v>
+      </c>
+      <c r="N24" s="97">
         <v>0</v>
       </c>
       <c r="O24" s="44">
@@ -8042,7 +8089,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="76" t="s">
         <v>219</v>
       </c>
       <c r="B25" s="44">
@@ -8054,30 +8101,30 @@
       <c r="D25" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="74" t="s">
         <v>214</v>
       </c>
       <c r="F25" s="44"/>
-      <c r="G25" s="97"/>
+      <c r="G25" s="96"/>
       <c r="H25" s="44">
         <v>4</v>
       </c>
       <c r="I25" s="44">
         <v>4</v>
       </c>
-      <c r="J25" s="97">
-        <v>4</v>
-      </c>
-      <c r="K25" s="98">
+      <c r="J25" s="96">
+        <v>4</v>
+      </c>
+      <c r="K25" s="97">
         <v>4</v>
       </c>
       <c r="L25" s="44">
         <v>4</v>
       </c>
-      <c r="M25" s="97">
-        <v>2</v>
-      </c>
-      <c r="N25" s="98">
+      <c r="M25" s="96">
+        <v>2</v>
+      </c>
+      <c r="N25" s="97">
         <v>2</v>
       </c>
       <c r="O25" s="44">
@@ -8088,7 +8135,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="76" t="s">
         <v>177</v>
       </c>
       <c r="B26" s="44">
@@ -8100,30 +8147,30 @@
       <c r="D26" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F26" s="44"/>
-      <c r="G26" s="97"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="44">
         <v>4</v>
       </c>
       <c r="I26" s="44">
         <v>4</v>
       </c>
-      <c r="J26" s="97">
-        <v>4</v>
-      </c>
-      <c r="K26" s="98">
+      <c r="J26" s="96">
+        <v>4</v>
+      </c>
+      <c r="K26" s="97">
         <v>4</v>
       </c>
       <c r="L26" s="44">
         <v>2</v>
       </c>
-      <c r="M26" s="97">
-        <v>0</v>
-      </c>
-      <c r="N26" s="98">
+      <c r="M26" s="96">
+        <v>0</v>
+      </c>
+      <c r="N26" s="97">
         <v>0</v>
       </c>
       <c r="O26" s="44">
@@ -8134,145 +8181,145 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="61">
         <v>16</v>
       </c>
-      <c r="C27" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="101" t="s">
+      <c r="C27" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="62">
+      <c r="F27" s="61"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="61">
         <v>16</v>
       </c>
-      <c r="I27" s="62">
-        <v>8</v>
-      </c>
-      <c r="J27" s="102">
-        <v>8</v>
-      </c>
-      <c r="K27" s="103">
-        <v>4</v>
-      </c>
-      <c r="L27" s="62">
-        <v>4</v>
-      </c>
-      <c r="M27" s="102">
-        <v>4</v>
-      </c>
-      <c r="N27" s="103">
-        <v>4</v>
-      </c>
-      <c r="O27" s="62">
-        <v>0</v>
-      </c>
-      <c r="P27" s="62">
+      <c r="I27" s="61">
+        <v>8</v>
+      </c>
+      <c r="J27" s="101">
+        <v>8</v>
+      </c>
+      <c r="K27" s="102">
+        <v>4</v>
+      </c>
+      <c r="L27" s="61">
+        <v>4</v>
+      </c>
+      <c r="M27" s="101">
+        <v>4</v>
+      </c>
+      <c r="N27" s="102">
+        <v>4</v>
+      </c>
+      <c r="O27" s="61">
+        <v>0</v>
+      </c>
+      <c r="P27" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="62">
-        <v>2</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="62" t="s">
+      <c r="B28" s="61">
+        <v>2</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="62">
-        <v>2</v>
-      </c>
-      <c r="I28" s="62">
-        <v>2</v>
-      </c>
-      <c r="J28" s="102">
-        <v>2</v>
-      </c>
-      <c r="K28" s="103">
-        <v>2</v>
-      </c>
-      <c r="L28" s="62">
-        <v>2</v>
-      </c>
-      <c r="M28" s="102">
-        <v>2</v>
-      </c>
-      <c r="N28" s="103">
-        <v>2</v>
-      </c>
-      <c r="O28" s="62">
-        <v>2</v>
-      </c>
-      <c r="P28" s="62">
+      <c r="F28" s="61"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="61">
+        <v>2</v>
+      </c>
+      <c r="I28" s="61">
+        <v>2</v>
+      </c>
+      <c r="J28" s="101">
+        <v>2</v>
+      </c>
+      <c r="K28" s="102">
+        <v>2</v>
+      </c>
+      <c r="L28" s="61">
+        <v>2</v>
+      </c>
+      <c r="M28" s="101">
+        <v>2</v>
+      </c>
+      <c r="N28" s="102">
+        <v>2</v>
+      </c>
+      <c r="O28" s="61">
+        <v>2</v>
+      </c>
+      <c r="P28" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="61">
         <v>1</v>
       </c>
-      <c r="C29" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="62" t="s">
+      <c r="C29" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="62">
+      <c r="F29" s="61"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="61">
         <v>1</v>
       </c>
-      <c r="I29" s="62">
-        <v>0</v>
-      </c>
-      <c r="J29" s="102">
-        <v>0</v>
-      </c>
-      <c r="K29" s="103">
-        <v>0</v>
-      </c>
-      <c r="L29" s="62">
-        <v>0</v>
-      </c>
-      <c r="M29" s="102">
-        <v>0</v>
-      </c>
-      <c r="N29" s="103">
-        <v>0</v>
-      </c>
-      <c r="O29" s="62">
-        <v>0</v>
-      </c>
-      <c r="P29" s="62">
+      <c r="I29" s="61">
+        <v>0</v>
+      </c>
+      <c r="J29" s="101">
+        <v>0</v>
+      </c>
+      <c r="K29" s="102">
+        <v>0</v>
+      </c>
+      <c r="L29" s="61">
+        <v>0</v>
+      </c>
+      <c r="M29" s="101">
+        <v>0</v>
+      </c>
+      <c r="N29" s="102">
+        <v>0</v>
+      </c>
+      <c r="O29" s="61">
+        <v>0</v>
+      </c>
+      <c r="P29" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="104" t="s">
+      <c r="F30" s="103" t="s">
         <v>204</v>
       </c>
       <c r="H30" s="20">
@@ -8285,12 +8332,12 @@
     <row r="33" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L35" s="105"/>
+      <c r="L35" s="104"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
     </row>
     <row r="36" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L36" s="105"/>
+      <c r="L36" s="104"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
     </row>
@@ -8420,30 +8467,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -8479,61 +8526,61 @@
     </row>
     <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="69">
+      <c r="B4" s="68">
         <v>41535</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="69">
         <v>41537</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="70">
         <v>41540</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="68">
         <v>41542</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="69">
         <v>41544</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="70">
         <v>41547</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="68">
         <v>41549</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="69">
         <v>41551</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="70">
         <v>41554</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
-      <c r="B5" s="113">
+      <c r="B5" s="112">
         <v>1</v>
       </c>
-      <c r="C5" s="114">
-        <v>2</v>
-      </c>
-      <c r="D5" s="114">
+      <c r="C5" s="113">
+        <v>2</v>
+      </c>
+      <c r="D5" s="113">
         <v>3</v>
       </c>
-      <c r="E5" s="114">
-        <v>4</v>
-      </c>
-      <c r="F5" s="114">
+      <c r="E5" s="113">
+        <v>4</v>
+      </c>
+      <c r="F5" s="113">
         <v>5</v>
       </c>
-      <c r="G5" s="114">
+      <c r="G5" s="113">
         <v>6</v>
       </c>
-      <c r="H5" s="114">
+      <c r="H5" s="113">
         <v>7</v>
       </c>
-      <c r="I5" s="114">
-        <v>8</v>
-      </c>
-      <c r="J5" s="113">
+      <c r="I5" s="113">
+        <v>8</v>
+      </c>
+      <c r="J5" s="112">
         <v>9</v>
       </c>
       <c r="K5" s="10"/>
@@ -8542,39 +8589,39 @@
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="114">
+      <c r="B6" s="113">
         <f>SUM('Sprint 1'!H3:H29)</f>
         <v>95</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="113">
         <f>SUM('Sprint 1'!I3:I29)</f>
         <v>82</v>
       </c>
-      <c r="D6" s="114">
+      <c r="D6" s="113">
         <f>SUM('Sprint 1'!J3:J29)</f>
         <v>71</v>
       </c>
-      <c r="E6" s="114">
+      <c r="E6" s="113">
         <f>SUM('Sprint 1'!K3:K29)</f>
         <v>59</v>
       </c>
-      <c r="F6" s="114">
+      <c r="F6" s="113">
         <f>SUM('Sprint 1'!L3:L29)</f>
         <v>43</v>
       </c>
-      <c r="G6" s="114">
+      <c r="G6" s="113">
         <f>SUM('Sprint 1'!M3:M29)</f>
         <v>28</v>
       </c>
-      <c r="H6" s="114">
+      <c r="H6" s="113">
         <f>SUM('Sprint 1'!N3:N29)</f>
         <v>16</v>
       </c>
-      <c r="I6" s="114">
+      <c r="I6" s="113">
         <f>SUM('Sprint 1'!O3:O29)</f>
         <v>12</v>
       </c>
-      <c r="J6" s="113">
+      <c r="J6" s="112">
         <f>SUM('Sprint 1'!P3:P29)</f>
         <v>6</v>
       </c>
@@ -8584,39 +8631,39 @@
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="110">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((B5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>95</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="110">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((C5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>83.125</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="110">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((D5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>71.25</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="110">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((E5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>59.375</v>
       </c>
-      <c r="F7" s="111">
+      <c r="F7" s="110">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((F5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>47.5</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="110">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((G5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>35.625</v>
       </c>
-      <c r="H7" s="111">
+      <c r="H7" s="110">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((H5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>23.75</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="110">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((I5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>11.875</v>
       </c>
-      <c r="J7" s="112">
+      <c r="J7" s="111">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((J5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>0</v>
       </c>
@@ -8796,8 +8843,8 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8823,32 +8870,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="86" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="137" t="s">
+      <c r="H1" s="135" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="138"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="137" t="s">
+      <c r="I1" s="136"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="135" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="137" t="s">
+      <c r="L1" s="136"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="135" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="138"/>
-      <c r="P1" s="139"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="137"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -8869,13 +8916,13 @@
       <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -8901,23 +8948,23 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>199</v>
       </c>
       <c r="B3" s="47">
         <v>2</v>
       </c>
-      <c r="C3" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="108" t="s">
+      <c r="C3" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="107" t="s">
         <v>229</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="47"/>
-      <c r="G3" s="88"/>
+      <c r="G3" s="87"/>
       <c r="H3" s="42">
         <v>2</v>
       </c>
@@ -8951,23 +8998,23 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>196</v>
       </c>
       <c r="B4" s="47">
         <v>8</v>
       </c>
-      <c r="C4" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="116" t="s">
+      <c r="C4" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="115" t="s">
         <v>186</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="47"/>
-      <c r="G4" s="88"/>
+      <c r="G4" s="87"/>
       <c r="H4" s="42">
         <v>8</v>
       </c>
@@ -8997,23 +9044,23 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="116" t="s">
         <v>232</v>
       </c>
       <c r="B5" s="47">
         <v>4</v>
       </c>
-      <c r="C5" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="116" t="s">
+      <c r="C5" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F5" s="47"/>
-      <c r="G5" s="88"/>
+      <c r="G5" s="87"/>
       <c r="H5" s="42">
         <v>4</v>
       </c>
@@ -9043,23 +9090,23 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>202</v>
       </c>
       <c r="B6" s="47">
         <v>4</v>
       </c>
-      <c r="C6" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="108" t="s">
+      <c r="C6" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="107" t="s">
         <v>229</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="47"/>
-      <c r="G6" s="88"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="42">
         <v>4</v>
       </c>
@@ -9098,14 +9145,14 @@
       <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F7" s="47"/>
-      <c r="G7" s="88"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="42">
         <v>1</v>
       </c>
@@ -9135,7 +9182,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="73" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="47">
@@ -9144,14 +9191,14 @@
       <c r="C8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F8" s="47"/>
-      <c r="G8" s="88"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="42">
         <v>2</v>
       </c>
@@ -9181,7 +9228,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="114" t="s">
         <v>231</v>
       </c>
       <c r="B9" s="47">
@@ -9190,14 +9237,14 @@
       <c r="C9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="107" t="s">
         <v>186</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="47"/>
-      <c r="G9" s="88"/>
+      <c r="G9" s="87"/>
       <c r="H9" s="42">
         <v>4</v>
       </c>
@@ -9227,48 +9274,48 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="126" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="109">
-        <v>2</v>
-      </c>
-      <c r="C10" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="109" t="s">
+      <c r="B10" s="108">
+        <v>2</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="108" t="s">
         <v>227</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="51"/>
-      <c r="G10" s="94"/>
+      <c r="G10" s="93"/>
       <c r="H10" s="39">
         <v>2</v>
       </c>
       <c r="I10" s="39">
         <v>2</v>
       </c>
-      <c r="J10" s="55">
-        <v>2</v>
-      </c>
-      <c r="K10" s="56">
-        <v>2</v>
-      </c>
-      <c r="L10" s="54">
-        <v>2</v>
-      </c>
-      <c r="M10" s="55">
-        <v>2</v>
-      </c>
-      <c r="N10" s="56">
-        <v>2</v>
-      </c>
-      <c r="O10" s="54">
-        <v>2</v>
-      </c>
-      <c r="P10" s="54">
+      <c r="J10" s="54">
+        <v>2</v>
+      </c>
+      <c r="K10" s="55">
+        <v>2</v>
+      </c>
+      <c r="L10" s="53">
+        <v>2</v>
+      </c>
+      <c r="M10" s="54">
+        <v>2</v>
+      </c>
+      <c r="N10" s="55">
+        <v>2</v>
+      </c>
+      <c r="O10" s="53">
+        <v>2</v>
+      </c>
+      <c r="P10" s="53">
         <v>2</v>
       </c>
       <c r="R10">
@@ -9277,278 +9324,278 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="109">
+      <c r="B11" s="108">
         <v>16</v>
       </c>
-      <c r="C11" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="109" t="s">
+      <c r="C11" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="108" t="s">
         <v>227</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="51"/>
-      <c r="G11" s="94"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="39">
         <v>16</v>
       </c>
       <c r="I11" s="39">
         <v>16</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="54">
         <v>16</v>
       </c>
-      <c r="K11" s="56">
-        <v>8</v>
-      </c>
-      <c r="L11" s="54">
-        <v>8</v>
-      </c>
-      <c r="M11" s="55">
-        <v>8</v>
-      </c>
-      <c r="N11" s="56">
-        <v>8</v>
-      </c>
-      <c r="O11" s="54">
-        <v>8</v>
-      </c>
-      <c r="P11" s="54">
+      <c r="K11" s="55">
+        <v>8</v>
+      </c>
+      <c r="L11" s="53">
+        <v>8</v>
+      </c>
+      <c r="M11" s="54">
+        <v>8</v>
+      </c>
+      <c r="N11" s="55">
+        <v>8</v>
+      </c>
+      <c r="O11" s="53">
+        <v>8</v>
+      </c>
+      <c r="P11" s="53">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="126" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="109">
-        <v>4</v>
-      </c>
-      <c r="C12" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="109" t="s">
+      <c r="B12" s="108">
+        <v>4</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="108" t="s">
         <v>227</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="51"/>
-      <c r="G12" s="94"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="39">
         <v>4</v>
       </c>
       <c r="I12" s="39">
         <v>4</v>
       </c>
-      <c r="J12" s="55">
-        <v>4</v>
-      </c>
-      <c r="K12" s="56">
-        <v>4</v>
-      </c>
-      <c r="L12" s="54">
-        <v>2</v>
-      </c>
-      <c r="M12" s="55">
-        <v>2</v>
-      </c>
-      <c r="N12" s="56">
-        <v>2</v>
-      </c>
-      <c r="O12" s="54">
-        <v>2</v>
-      </c>
-      <c r="P12" s="54">
+      <c r="J12" s="54">
+        <v>4</v>
+      </c>
+      <c r="K12" s="55">
+        <v>4</v>
+      </c>
+      <c r="L12" s="53">
+        <v>2</v>
+      </c>
+      <c r="M12" s="54">
+        <v>2</v>
+      </c>
+      <c r="N12" s="55">
+        <v>2</v>
+      </c>
+      <c r="O12" s="53">
+        <v>2</v>
+      </c>
+      <c r="P12" s="53">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="B13" s="109">
-        <v>4</v>
-      </c>
-      <c r="C13" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="109" t="s">
+      <c r="B13" s="108">
+        <v>4</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>227</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="51"/>
-      <c r="G13" s="94"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="39">
         <v>4</v>
       </c>
       <c r="I13" s="39">
         <v>4</v>
       </c>
-      <c r="J13" s="55">
-        <v>4</v>
-      </c>
-      <c r="K13" s="56">
-        <v>4</v>
-      </c>
-      <c r="L13" s="54">
-        <v>4</v>
-      </c>
-      <c r="M13" s="55">
-        <v>4</v>
-      </c>
-      <c r="N13" s="56">
-        <v>4</v>
-      </c>
-      <c r="O13" s="54">
-        <v>4</v>
-      </c>
-      <c r="P13" s="54">
+      <c r="J13" s="54">
+        <v>4</v>
+      </c>
+      <c r="K13" s="55">
+        <v>4</v>
+      </c>
+      <c r="L13" s="53">
+        <v>4</v>
+      </c>
+      <c r="M13" s="54">
+        <v>4</v>
+      </c>
+      <c r="N13" s="55">
+        <v>4</v>
+      </c>
+      <c r="O13" s="53">
+        <v>4</v>
+      </c>
+      <c r="P13" s="53">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="117" t="s">
         <v>233</v>
       </c>
       <c r="B14" s="51">
         <v>8</v>
       </c>
-      <c r="C14" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="119" t="s">
+      <c r="C14" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="60" t="s">
         <v>188</v>
       </c>
       <c r="F14" s="51"/>
-      <c r="G14" s="94"/>
+      <c r="G14" s="93"/>
       <c r="H14" s="39">
         <v>8</v>
       </c>
       <c r="I14" s="39">
         <v>8</v>
       </c>
-      <c r="J14" s="55">
-        <v>8</v>
-      </c>
-      <c r="K14" s="56">
-        <v>8</v>
-      </c>
-      <c r="L14" s="54">
-        <v>4</v>
-      </c>
-      <c r="M14" s="55">
-        <v>0</v>
-      </c>
-      <c r="N14" s="56">
-        <v>0</v>
-      </c>
-      <c r="O14" s="54">
-        <v>0</v>
-      </c>
-      <c r="P14" s="54">
+      <c r="J14" s="54">
+        <v>8</v>
+      </c>
+      <c r="K14" s="55">
+        <v>8</v>
+      </c>
+      <c r="L14" s="53">
+        <v>4</v>
+      </c>
+      <c r="M14" s="54">
+        <v>0</v>
+      </c>
+      <c r="N14" s="55">
+        <v>0</v>
+      </c>
+      <c r="O14" s="53">
+        <v>0</v>
+      </c>
+      <c r="P14" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="75" t="s">
         <v>215</v>
       </c>
       <c r="B15" s="51">
         <v>8</v>
       </c>
-      <c r="C15" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="109" t="s">
+      <c r="C15" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="108" t="s">
         <v>183</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="51"/>
-      <c r="G15" s="94"/>
+      <c r="G15" s="93"/>
       <c r="H15" s="39">
         <v>8</v>
       </c>
       <c r="I15" s="39">
         <v>7</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="54">
         <v>7</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="55">
         <v>6</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="53">
         <v>6</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15" s="54">
         <v>6</v>
       </c>
-      <c r="N15" s="56">
+      <c r="N15" s="55">
         <v>6</v>
       </c>
-      <c r="O15" s="54">
+      <c r="O15" s="53">
         <v>6</v>
       </c>
-      <c r="P15" s="54">
+      <c r="P15" s="53">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="75" t="s">
         <v>218</v>
       </c>
       <c r="B16" s="51">
         <v>4</v>
       </c>
-      <c r="C16" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="109" t="s">
+      <c r="C16" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="108" t="s">
         <v>227</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="51"/>
-      <c r="G16" s="94"/>
+      <c r="G16" s="93"/>
       <c r="H16" s="39">
         <v>4</v>
       </c>
       <c r="I16" s="39">
         <v>4</v>
       </c>
-      <c r="J16" s="55">
-        <v>4</v>
-      </c>
-      <c r="K16" s="56">
-        <v>4</v>
-      </c>
-      <c r="L16" s="54">
-        <v>4</v>
-      </c>
-      <c r="M16" s="55">
-        <v>4</v>
-      </c>
-      <c r="N16" s="56">
-        <v>4</v>
-      </c>
-      <c r="O16" s="54">
-        <v>4</v>
-      </c>
-      <c r="P16" s="54">
+      <c r="J16" s="54">
+        <v>4</v>
+      </c>
+      <c r="K16" s="55">
+        <v>4</v>
+      </c>
+      <c r="L16" s="53">
+        <v>4</v>
+      </c>
+      <c r="M16" s="54">
+        <v>4</v>
+      </c>
+      <c r="N16" s="55">
+        <v>4</v>
+      </c>
+      <c r="O16" s="53">
+        <v>4</v>
+      </c>
+      <c r="P16" s="53">
         <v>4</v>
       </c>
     </row>
@@ -9562,39 +9609,39 @@
       <c r="C17" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="108" t="s">
         <v>227</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="51"/>
-      <c r="G17" s="94"/>
+      <c r="G17" s="93"/>
       <c r="H17" s="39">
         <v>2</v>
       </c>
       <c r="I17" s="39">
         <v>2</v>
       </c>
-      <c r="J17" s="55">
-        <v>2</v>
-      </c>
-      <c r="K17" s="56">
-        <v>2</v>
-      </c>
-      <c r="L17" s="54">
-        <v>2</v>
-      </c>
-      <c r="M17" s="55">
-        <v>2</v>
-      </c>
-      <c r="N17" s="56">
-        <v>2</v>
-      </c>
-      <c r="O17" s="54">
-        <v>2</v>
-      </c>
-      <c r="P17" s="54">
+      <c r="J17" s="54">
+        <v>2</v>
+      </c>
+      <c r="K17" s="55">
+        <v>2</v>
+      </c>
+      <c r="L17" s="53">
+        <v>2</v>
+      </c>
+      <c r="M17" s="54">
+        <v>2</v>
+      </c>
+      <c r="N17" s="55">
+        <v>2</v>
+      </c>
+      <c r="O17" s="53">
+        <v>2</v>
+      </c>
+      <c r="P17" s="53">
         <v>2</v>
       </c>
     </row>
@@ -9608,44 +9655,44 @@
       <c r="C18" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="108" t="s">
         <v>227</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="51"/>
-      <c r="G18" s="94"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="39">
         <v>1</v>
       </c>
       <c r="I18" s="39">
         <v>1</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="54">
         <v>1</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="55">
         <v>1</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18" s="53">
         <v>1</v>
       </c>
-      <c r="M18" s="55">
+      <c r="M18" s="54">
         <v>1</v>
       </c>
-      <c r="N18" s="56">
+      <c r="N18" s="55">
         <v>1</v>
       </c>
-      <c r="O18" s="54">
+      <c r="O18" s="53">
         <v>1</v>
       </c>
-      <c r="P18" s="54">
+      <c r="P18" s="53">
         <v>1</v>
       </c>
       <c r="R18">
         <f>SUM(P22:P32)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9658,39 +9705,39 @@
       <c r="C19" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="127" t="s">
+      <c r="E19" s="125" t="s">
         <v>188</v>
       </c>
       <c r="F19" s="51"/>
-      <c r="G19" s="94"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="39">
         <v>2</v>
       </c>
       <c r="I19" s="39">
         <v>2</v>
       </c>
-      <c r="J19" s="55">
-        <v>2</v>
-      </c>
-      <c r="K19" s="56">
+      <c r="J19" s="54">
+        <v>2</v>
+      </c>
+      <c r="K19" s="55">
         <v>1</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="53">
         <v>1</v>
       </c>
-      <c r="M19" s="55">
+      <c r="M19" s="54">
         <v>1</v>
       </c>
-      <c r="N19" s="56">
-        <v>0</v>
-      </c>
-      <c r="O19" s="54">
-        <v>0</v>
-      </c>
-      <c r="P19" s="54">
+      <c r="N19" s="55">
+        <v>0</v>
+      </c>
+      <c r="O19" s="53">
+        <v>0</v>
+      </c>
+      <c r="P19" s="53">
         <v>0</v>
       </c>
     </row>
@@ -9711,32 +9758,32 @@
         <v>25</v>
       </c>
       <c r="F20" s="51"/>
-      <c r="G20" s="94"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="39">
         <v>2</v>
       </c>
       <c r="I20" s="39">
         <v>2</v>
       </c>
-      <c r="J20" s="55">
-        <v>2</v>
-      </c>
-      <c r="K20" s="56">
-        <v>2</v>
-      </c>
-      <c r="L20" s="54">
-        <v>2</v>
-      </c>
-      <c r="M20" s="55">
-        <v>2</v>
-      </c>
-      <c r="N20" s="56">
-        <v>2</v>
-      </c>
-      <c r="O20" s="54">
-        <v>2</v>
-      </c>
-      <c r="P20" s="54">
+      <c r="J20" s="54">
+        <v>2</v>
+      </c>
+      <c r="K20" s="55">
+        <v>2</v>
+      </c>
+      <c r="L20" s="53">
+        <v>2</v>
+      </c>
+      <c r="M20" s="54">
+        <v>2</v>
+      </c>
+      <c r="N20" s="55">
+        <v>2</v>
+      </c>
+      <c r="O20" s="53">
+        <v>2</v>
+      </c>
+      <c r="P20" s="53">
         <v>2</v>
       </c>
     </row>
@@ -9750,79 +9797,79 @@
       <c r="C21" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="118" t="s">
         <v>186</v>
       </c>
       <c r="E21" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="51"/>
-      <c r="G21" s="94"/>
+      <c r="G21" s="93"/>
       <c r="H21" s="39">
         <v>1</v>
       </c>
       <c r="I21" s="39">
         <v>1</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="54">
         <v>1</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="55">
         <v>1</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="53">
         <v>1</v>
       </c>
-      <c r="M21" s="55">
+      <c r="M21" s="54">
         <v>1</v>
       </c>
-      <c r="N21" s="56">
+      <c r="N21" s="55">
         <v>1</v>
       </c>
-      <c r="O21" s="54">
+      <c r="O21" s="53">
         <v>1</v>
       </c>
-      <c r="P21" s="54">
+      <c r="P21" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="123" t="s">
         <v>234</v>
       </c>
       <c r="B22" s="44">
         <v>4</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="D22" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="E22" s="127" t="s">
+      <c r="E22" s="125" t="s">
         <v>188</v>
       </c>
       <c r="F22" s="44"/>
-      <c r="G22" s="121"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="43">
         <v>4</v>
       </c>
       <c r="I22" s="43">
         <v>4</v>
       </c>
-      <c r="J22" s="122">
-        <v>2</v>
-      </c>
-      <c r="K22" s="123">
+      <c r="J22" s="121">
+        <v>2</v>
+      </c>
+      <c r="K22" s="122">
         <v>2</v>
       </c>
       <c r="L22" s="43">
         <v>0</v>
       </c>
-      <c r="M22" s="122">
-        <v>0</v>
-      </c>
-      <c r="N22" s="123">
+      <c r="M22" s="121">
+        <v>0</v>
+      </c>
+      <c r="N22" s="122">
         <v>0</v>
       </c>
       <c r="O22" s="43">
@@ -9833,42 +9880,42 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="123" t="s">
         <v>237</v>
       </c>
       <c r="B23" s="44">
         <v>1</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="127" t="s">
+      <c r="E23" s="125" t="s">
         <v>188</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="121"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="43">
         <v>1</v>
       </c>
       <c r="I23" s="43">
         <v>1</v>
       </c>
-      <c r="J23" s="122">
+      <c r="J23" s="121">
         <v>1</v>
       </c>
-      <c r="K23" s="123">
+      <c r="K23" s="122">
         <v>1</v>
       </c>
       <c r="L23" s="43">
         <v>1</v>
       </c>
-      <c r="M23" s="122">
+      <c r="M23" s="121">
         <v>1</v>
       </c>
-      <c r="N23" s="123">
+      <c r="N23" s="122">
         <v>0</v>
       </c>
       <c r="O23" s="43">
@@ -9879,42 +9926,42 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="124" t="s">
+      <c r="A24" s="123" t="s">
         <v>238</v>
       </c>
       <c r="B24" s="44">
         <v>2</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="D24" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="126" t="s">
-        <v>25</v>
+      <c r="E24" s="147" t="s">
+        <v>188</v>
       </c>
       <c r="F24" s="44"/>
-      <c r="G24" s="121"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="43">
         <v>2</v>
       </c>
       <c r="I24" s="43">
         <v>2</v>
       </c>
-      <c r="J24" s="122">
-        <v>2</v>
-      </c>
-      <c r="K24" s="123">
+      <c r="J24" s="121">
+        <v>2</v>
+      </c>
+      <c r="K24" s="122">
         <v>2</v>
       </c>
       <c r="L24" s="43">
         <v>2</v>
       </c>
-      <c r="M24" s="122">
-        <v>2</v>
-      </c>
-      <c r="N24" s="123">
+      <c r="M24" s="121">
+        <v>2</v>
+      </c>
+      <c r="N24" s="122">
         <v>0</v>
       </c>
       <c r="O24" s="43">
@@ -9925,42 +9972,42 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="124" t="s">
+      <c r="A25" s="123" t="s">
         <v>241</v>
       </c>
       <c r="B25" s="44">
         <v>1</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="124" t="s">
         <v>242</v>
       </c>
-      <c r="D25" s="125" t="s">
+      <c r="D25" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="E25" s="125" t="s">
         <v>188</v>
       </c>
       <c r="F25" s="44"/>
-      <c r="G25" s="121"/>
+      <c r="G25" s="120"/>
       <c r="H25" s="43">
         <v>1</v>
       </c>
       <c r="I25" s="43">
         <v>1</v>
       </c>
-      <c r="J25" s="122">
+      <c r="J25" s="121">
         <v>1</v>
       </c>
-      <c r="K25" s="123">
+      <c r="K25" s="122">
         <v>1</v>
       </c>
       <c r="L25" s="43">
         <v>1</v>
       </c>
-      <c r="M25" s="122">
+      <c r="M25" s="121">
         <v>1</v>
       </c>
-      <c r="N25" s="123">
+      <c r="N25" s="122">
         <v>0</v>
       </c>
       <c r="O25" s="43">
@@ -9971,88 +10018,88 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="123" t="s">
         <v>239</v>
       </c>
       <c r="B26" s="44">
         <v>4</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="E26" s="126" t="s">
+      <c r="E26" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="43">
+        <v>4</v>
+      </c>
+      <c r="I26" s="43">
+        <v>4</v>
+      </c>
+      <c r="J26" s="121">
+        <v>4</v>
+      </c>
+      <c r="K26" s="122">
+        <v>4</v>
+      </c>
+      <c r="L26" s="43">
+        <v>4</v>
+      </c>
+      <c r="M26" s="121">
+        <v>4</v>
+      </c>
+      <c r="N26" s="122">
+        <v>2</v>
+      </c>
+      <c r="O26" s="43">
+        <v>2</v>
+      </c>
+      <c r="P26" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="123" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="44">
+        <v>4</v>
+      </c>
+      <c r="C27" s="124" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="124" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="43">
-        <v>4</v>
-      </c>
-      <c r="I26" s="43">
-        <v>4</v>
-      </c>
-      <c r="J26" s="122">
-        <v>4</v>
-      </c>
-      <c r="K26" s="123">
-        <v>4</v>
-      </c>
-      <c r="L26" s="43">
-        <v>4</v>
-      </c>
-      <c r="M26" s="122">
-        <v>4</v>
-      </c>
-      <c r="N26" s="123">
-        <v>2</v>
-      </c>
-      <c r="O26" s="43">
-        <v>2</v>
-      </c>
-      <c r="P26" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="124" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="44">
-        <v>4</v>
-      </c>
-      <c r="C27" s="125" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="125" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="126" t="s">
-        <v>25</v>
-      </c>
       <c r="F27" s="44"/>
-      <c r="G27" s="121"/>
+      <c r="G27" s="120"/>
       <c r="H27" s="43">
         <v>4</v>
       </c>
       <c r="I27" s="43">
         <v>4</v>
       </c>
-      <c r="J27" s="122">
-        <v>4</v>
-      </c>
-      <c r="K27" s="123">
+      <c r="J27" s="121">
+        <v>4</v>
+      </c>
+      <c r="K27" s="122">
         <v>4</v>
       </c>
       <c r="L27" s="43">
         <v>4</v>
       </c>
-      <c r="M27" s="122">
-        <v>4</v>
-      </c>
-      <c r="N27" s="123">
+      <c r="M27" s="121">
+        <v>4</v>
+      </c>
+      <c r="N27" s="122">
         <v>4</v>
       </c>
       <c r="O27" s="43">
@@ -10079,14 +10126,14 @@
       <c r="C28" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="110" t="s">
+      <c r="D28" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="147" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="44"/>
-      <c r="G28" s="97"/>
+      <c r="G28" s="96"/>
       <c r="H28" s="43">
         <v>8</v>
       </c>
@@ -10112,7 +10159,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R28">
         <f>SUM(R10)</f>
@@ -10132,14 +10179,14 @@
       <c r="C29" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="147" t="s">
         <v>188</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="97"/>
+      <c r="G29" s="96"/>
       <c r="H29" s="43">
         <v>2</v>
       </c>
@@ -10169,7 +10216,7 @@
       </c>
       <c r="R29">
         <f>SUM(R18)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S29" t="s">
         <v>92</v>
@@ -10185,14 +10232,14 @@
       <c r="C30" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="110" t="s">
+      <c r="D30" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="147" t="s">
         <v>188</v>
       </c>
       <c r="F30" s="44"/>
-      <c r="G30" s="97"/>
+      <c r="G30" s="96"/>
       <c r="H30" s="43">
         <v>2</v>
       </c>
@@ -10238,14 +10285,14 @@
       <c r="C31" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="147" t="s">
         <v>188</v>
       </c>
       <c r="F31" s="44"/>
-      <c r="G31" s="97"/>
+      <c r="G31" s="96"/>
       <c r="H31" s="43">
         <v>2</v>
       </c>
@@ -10279,7 +10326,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="76" t="s">
         <v>176</v>
       </c>
       <c r="B32" s="44">
@@ -10288,14 +10335,14 @@
       <c r="C32" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="53" t="s">
-        <v>25</v>
+      <c r="E32" s="147" t="s">
+        <v>188</v>
       </c>
       <c r="F32" s="44"/>
-      <c r="G32" s="97"/>
+      <c r="G32" s="96"/>
       <c r="H32" s="43">
         <v>4</v>
       </c>
@@ -10325,53 +10372,53 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="62">
-        <v>2</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="130" t="s">
+      <c r="B33" s="61">
+        <v>2</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="128" t="s">
         <v>252</v>
       </c>
-      <c r="E33" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="57">
-        <v>2</v>
-      </c>
-      <c r="I33" s="57">
-        <v>2</v>
-      </c>
-      <c r="J33" s="58">
-        <v>2</v>
-      </c>
-      <c r="K33" s="59">
-        <v>2</v>
-      </c>
-      <c r="L33" s="57">
-        <v>2</v>
-      </c>
-      <c r="M33" s="58">
-        <v>2</v>
-      </c>
-      <c r="N33" s="59">
-        <v>2</v>
-      </c>
-      <c r="O33" s="57">
-        <v>0</v>
-      </c>
-      <c r="P33" s="57">
+      <c r="E33" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="56">
+        <v>2</v>
+      </c>
+      <c r="I33" s="56">
+        <v>2</v>
+      </c>
+      <c r="J33" s="57">
+        <v>2</v>
+      </c>
+      <c r="K33" s="58">
+        <v>2</v>
+      </c>
+      <c r="L33" s="56">
+        <v>2</v>
+      </c>
+      <c r="M33" s="57">
+        <v>2</v>
+      </c>
+      <c r="N33" s="58">
+        <v>2</v>
+      </c>
+      <c r="O33" s="56">
+        <v>0</v>
+      </c>
+      <c r="P33" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F34" s="104" t="s">
+      <c r="F34" s="103" t="s">
         <v>204</v>
       </c>
       <c r="H34">
@@ -10393,7 +10440,7 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:P7">
-    <cfRule type="iconSet" priority="21">
+    <cfRule type="iconSet" priority="24">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="0" gte="0"/>
@@ -10402,6 +10449,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:P7">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="3Symbols" reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0" gte="0"/>
+        <cfvo type="percent" val="&quot;B3&quot;"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:P3">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="3Symbols" reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0" gte="0"/>
+        <cfvo type="percent" val="&quot;B3&quot;"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:P3">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -10410,7 +10475,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:P3">
+  <conditionalFormatting sqref="H6:P6">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="3Symbols" reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0" gte="0"/>
+        <cfvo type="percent" val="&quot;B3&quot;"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:P6">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -10419,7 +10493,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:P3">
+  <conditionalFormatting sqref="H8:P8">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -10428,7 +10502,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:P6">
+  <conditionalFormatting sqref="H8:P8">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -10437,7 +10511,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:P6">
+  <conditionalFormatting sqref="H4:P4">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -10446,7 +10520,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:P8">
+  <conditionalFormatting sqref="H4:P4">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -10455,7 +10529,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:P8">
+  <conditionalFormatting sqref="H9:P9">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -10464,7 +10538,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:P4">
+  <conditionalFormatting sqref="H9:P9">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -10473,7 +10547,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:P4">
+  <conditionalFormatting sqref="H5:P5">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -10482,7 +10556,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:P9">
+  <conditionalFormatting sqref="H5:P5">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -10491,31 +10565,14 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:P9">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="3Symbols" reverse="1">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="0" gte="0"/>
-        <cfvo type="percent" val="&quot;B3&quot;"/>
-      </iconSet>
+  <conditionalFormatting sqref="E22:E26">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:P5">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Symbols" reverse="1">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="0" gte="0"/>
-        <cfvo type="percent" val="&quot;B3&quot;"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:P5">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols" reverse="1">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="0" gte="0"/>
-        <cfvo type="percent" val="&quot;B3&quot;"/>
-      </iconSet>
+  <conditionalFormatting sqref="E27:E33">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10540,30 +10597,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="146" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -10599,31 +10656,31 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="69">
+      <c r="B4" s="68">
         <v>41556</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="69">
         <v>41558</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="70">
         <v>41561</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="68">
         <v>41563</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="69">
         <v>41565</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="70">
         <v>41568</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="68">
         <v>41570</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="69">
         <v>41572</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="70">
         <v>41575</v>
       </c>
     </row>
@@ -10703,7 +10760,7 @@
       </c>
       <c r="J6" s="28">
         <f>SUM('Sprint 2'!P3:P37)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJeon\Documents\GitHub\PayBack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orr\Documents\GitHub\PayBack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="620" windowWidth="11300" windowHeight="7460" tabRatio="885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -965,11 +965,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1359,7 +1366,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,6 +1622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1942,446 +1955,449 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="40" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="56" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="39" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="55" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2393,35 +2409,7 @@
     <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2712,11 +2700,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="218585344"/>
-        <c:axId val="290656880"/>
+        <c:axId val="113251624"/>
+        <c:axId val="306150744"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="218585344"/>
+        <c:axId val="113251624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2756,14 +2744,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="290656880"/>
+        <c:crossAx val="306150744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="290656880"/>
+        <c:axId val="306150744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2807,7 +2795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218585344"/>
+        <c:crossAx val="113251624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3057,7 +3045,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32</c:v>
@@ -3245,19 +3233,19 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3381,11 +3369,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="292951968"/>
-        <c:axId val="292953144"/>
+        <c:axId val="306151136"/>
+        <c:axId val="306153096"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="292951968"/>
+        <c:axId val="306151136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,14 +3413,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="292953144"/>
+        <c:crossAx val="306153096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="292953144"/>
+        <c:axId val="306153096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3476,7 +3464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292951968"/>
+        <c:crossAx val="306151136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4596,25 +4584,25 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="60.7265625" customWidth="1"/>
+    <col min="5" max="5" width="60.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-    </row>
-    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+    </row>
+    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4632,7 +4620,7 @@
       </c>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>30</v>
       </c>
@@ -4650,7 +4638,7 @@
       </c>
       <c r="F3" s="37"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>30</v>
       </c>
@@ -4668,7 +4656,7 @@
       </c>
       <c r="F4" s="37"/>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
@@ -4686,7 +4674,7 @@
       </c>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>30</v>
       </c>
@@ -4704,7 +4692,7 @@
       </c>
       <c r="F6" s="64"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>30</v>
       </c>
@@ -4722,7 +4710,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>30</v>
       </c>
@@ -4740,7 +4728,7 @@
       </c>
       <c r="F8" s="37"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>30</v>
       </c>
@@ -4758,7 +4746,7 @@
       </c>
       <c r="F9" s="37"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>30</v>
       </c>
@@ -4776,7 +4764,7 @@
       </c>
       <c r="F10" s="37"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>30</v>
       </c>
@@ -4794,7 +4782,7 @@
       </c>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>30</v>
       </c>
@@ -4812,7 +4800,7 @@
       </c>
       <c r="F12" s="37"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>49</v>
       </c>
@@ -4830,7 +4818,7 @@
       </c>
       <c r="F13" s="37"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>49</v>
       </c>
@@ -4848,7 +4836,7 @@
       </c>
       <c r="F14" s="37"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
         <v>49</v>
       </c>
@@ -4866,7 +4854,7 @@
       </c>
       <c r="F15" s="37"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>49</v>
       </c>
@@ -4884,7 +4872,7 @@
       </c>
       <c r="F16" s="37"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
         <v>49</v>
       </c>
@@ -4902,7 +4890,7 @@
       </c>
       <c r="F17" s="37"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
         <v>49</v>
       </c>
@@ -4920,7 +4908,7 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
         <v>49</v>
       </c>
@@ -4938,7 +4926,7 @@
       </c>
       <c r="F19" s="37"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
@@ -4956,7 +4944,7 @@
       </c>
       <c r="F20" s="37"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
         <v>49</v>
       </c>
@@ -4974,7 +4962,7 @@
       </c>
       <c r="F21" s="37"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
         <v>49</v>
       </c>
@@ -4992,7 +4980,7 @@
       </c>
       <c r="F22" s="37"/>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
         <v>49</v>
       </c>
@@ -5010,7 +4998,7 @@
       </c>
       <c r="F23" s="37"/>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
         <v>49</v>
       </c>
@@ -5028,7 +5016,7 @@
       </c>
       <c r="F24" s="37"/>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>49</v>
       </c>
@@ -5046,7 +5034,7 @@
       </c>
       <c r="F25" s="37"/>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
@@ -5064,7 +5052,7 @@
       </c>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="33" t="s">
         <v>49</v>
       </c>
@@ -5082,7 +5070,7 @@
       </c>
       <c r="F27" s="37"/>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>49</v>
       </c>
@@ -5100,7 +5088,7 @@
       </c>
       <c r="F28" s="37"/>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
         <v>49</v>
       </c>
@@ -5118,7 +5106,7 @@
       </c>
       <c r="F29" s="37"/>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="33" t="s">
         <v>49</v>
       </c>
@@ -5136,7 +5124,7 @@
       </c>
       <c r="F30" s="37"/>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
         <v>49</v>
       </c>
@@ -5154,7 +5142,7 @@
       </c>
       <c r="F31" s="37"/>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
         <v>49</v>
       </c>
@@ -5172,7 +5160,7 @@
       </c>
       <c r="F32" s="37"/>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="30" t="s">
         <v>49</v>
       </c>
@@ -5190,7 +5178,7 @@
       </c>
       <c r="F33" s="37"/>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>92</v>
       </c>
@@ -5207,7 +5195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>92</v>
       </c>
@@ -5224,7 +5212,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>92</v>
       </c>
@@ -5241,7 +5229,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>92</v>
       </c>
@@ -5258,7 +5246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>92</v>
       </c>
@@ -5275,7 +5263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>92</v>
       </c>
@@ -5292,7 +5280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>92</v>
       </c>
@@ -5309,7 +5297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>92</v>
       </c>
@@ -5326,7 +5314,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>92</v>
       </c>
@@ -5343,7 +5331,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
         <v>92</v>
       </c>
@@ -5360,7 +5348,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>92</v>
       </c>
@@ -5377,7 +5365,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>92</v>
       </c>
@@ -5394,7 +5382,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
         <v>92</v>
       </c>
@@ -5411,7 +5399,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>92</v>
       </c>
@@ -5428,7 +5416,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
         <v>92</v>
       </c>
@@ -5445,7 +5433,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
         <v>92</v>
       </c>
@@ -5462,7 +5450,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
         <v>92</v>
       </c>
@@ -5479,7 +5467,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
         <v>92</v>
       </c>
@@ -5496,7 +5484,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
         <v>92</v>
       </c>
@@ -5513,7 +5501,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
         <v>92</v>
       </c>
@@ -5530,7 +5518,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
         <v>92</v>
       </c>
@@ -5566,23 +5554,23 @@
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="78.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="20"/>
+    <col min="1" max="1" width="16.7265625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="78.1796875" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="131"/>
+      <c r="B1" s="132"/>
       <c r="C1" s="80"/>
       <c r="D1" s="80"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -5596,7 +5584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>30</v>
       </c>
@@ -5613,7 +5601,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>30</v>
       </c>
@@ -5630,7 +5618,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>30</v>
       </c>
@@ -5647,7 +5635,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>30</v>
       </c>
@@ -5664,7 +5652,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
         <v>30</v>
       </c>
@@ -5681,7 +5669,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
         <v>30</v>
       </c>
@@ -5698,7 +5686,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
         <v>30</v>
       </c>
@@ -5715,7 +5703,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="47" t="s">
         <v>30</v>
       </c>
@@ -5732,7 +5720,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
         <v>30</v>
       </c>
@@ -5749,7 +5737,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="47" t="s">
         <v>30</v>
       </c>
@@ -5766,7 +5754,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="47" t="s">
         <v>30</v>
       </c>
@@ -5783,7 +5771,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="47" t="s">
         <v>30</v>
       </c>
@@ -5800,7 +5788,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="47" t="s">
         <v>30</v>
       </c>
@@ -5817,7 +5805,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="47" t="s">
         <v>30</v>
       </c>
@@ -5834,7 +5822,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="47" t="s">
         <v>30</v>
       </c>
@@ -5851,7 +5839,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="47" t="s">
         <v>30</v>
       </c>
@@ -5868,7 +5856,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="82" t="s">
         <v>30</v>
       </c>
@@ -5882,7 +5870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="82" t="s">
         <v>30</v>
       </c>
@@ -5896,7 +5884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="82" t="s">
         <v>30</v>
       </c>
@@ -5910,7 +5898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="82" t="s">
         <v>30</v>
       </c>
@@ -5924,7 +5912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="82" t="s">
         <v>30</v>
       </c>
@@ -5938,7 +5926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="82" t="s">
         <v>30</v>
       </c>
@@ -5952,7 +5940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="82" t="s">
         <v>30</v>
       </c>
@@ -5966,7 +5954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="82" t="s">
         <v>30</v>
       </c>
@@ -5980,7 +5968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="82" t="s">
         <v>30</v>
       </c>
@@ -5994,7 +5982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="82" t="s">
         <v>30</v>
       </c>
@@ -6008,7 +5996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="47" t="s">
         <v>30</v>
       </c>
@@ -6022,7 +6010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="47" t="s">
         <v>30</v>
       </c>
@@ -6036,7 +6024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="47" t="s">
         <v>30</v>
       </c>
@@ -6050,7 +6038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51" t="s">
         <v>49</v>
       </c>
@@ -6064,7 +6052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="51" t="s">
         <v>49</v>
       </c>
@@ -6078,7 +6066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="51" t="s">
         <v>49</v>
       </c>
@@ -6092,7 +6080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="51" t="s">
         <v>49</v>
       </c>
@@ -6106,7 +6094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="51" t="s">
         <v>49</v>
       </c>
@@ -6120,7 +6108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="51" t="s">
         <v>49</v>
       </c>
@@ -6134,7 +6122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="51" t="s">
         <v>49</v>
       </c>
@@ -6148,7 +6136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="51" t="s">
         <v>49</v>
       </c>
@@ -6162,7 +6150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="51" t="s">
         <v>49</v>
       </c>
@@ -6176,7 +6164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="51" t="s">
         <v>49</v>
       </c>
@@ -6190,7 +6178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="51" t="s">
         <v>49</v>
       </c>
@@ -6204,7 +6192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="51" t="s">
         <v>49</v>
       </c>
@@ -6218,7 +6206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="51" t="s">
         <v>49</v>
       </c>
@@ -6232,7 +6220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51" t="s">
         <v>49</v>
       </c>
@@ -6246,7 +6234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="51" t="s">
         <v>49</v>
       </c>
@@ -6260,7 +6248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="51" t="s">
         <v>49</v>
       </c>
@@ -6274,7 +6262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="51" t="s">
         <v>49</v>
       </c>
@@ -6288,7 +6276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="51" t="s">
         <v>49</v>
       </c>
@@ -6302,7 +6290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="51" t="s">
         <v>49</v>
       </c>
@@ -6316,7 +6304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="51" t="s">
         <v>49</v>
       </c>
@@ -6330,7 +6318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="51" t="s">
         <v>49</v>
       </c>
@@ -6344,7 +6332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="51" t="s">
         <v>49</v>
       </c>
@@ -6358,7 +6346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="51" t="s">
         <v>49</v>
       </c>
@@ -6372,7 +6360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="51" t="s">
         <v>49</v>
       </c>
@@ -6386,7 +6374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="51" t="s">
         <v>49</v>
       </c>
@@ -6400,7 +6388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="51" t="s">
         <v>49</v>
       </c>
@@ -6414,7 +6402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="51" t="s">
         <v>49</v>
       </c>
@@ -6428,7 +6416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="51" t="s">
         <v>49</v>
       </c>
@@ -6442,7 +6430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="51" t="s">
         <v>49</v>
       </c>
@@ -6456,7 +6444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="44" t="s">
         <v>92</v>
       </c>
@@ -6470,7 +6458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="44" t="s">
         <v>92</v>
       </c>
@@ -6484,7 +6472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="44" t="s">
         <v>92</v>
       </c>
@@ -6498,7 +6486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="44" t="s">
         <v>92</v>
       </c>
@@ -6515,7 +6503,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="44" t="s">
         <v>92</v>
       </c>
@@ -6532,7 +6520,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="44" t="s">
         <v>92</v>
       </c>
@@ -6549,7 +6537,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="44" t="s">
         <v>92</v>
       </c>
@@ -6563,7 +6551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="44" t="s">
         <v>92</v>
       </c>
@@ -6580,7 +6568,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="44" t="s">
         <v>92</v>
       </c>
@@ -6594,7 +6582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="44" t="s">
         <v>92</v>
       </c>
@@ -6611,7 +6599,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="44" t="s">
         <v>92</v>
       </c>
@@ -6628,7 +6616,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="44" t="s">
         <v>92</v>
       </c>
@@ -6642,7 +6630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="44" t="s">
         <v>92</v>
       </c>
@@ -6659,7 +6647,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="44" t="s">
         <v>92</v>
       </c>
@@ -6673,7 +6661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="44" t="s">
         <v>92</v>
       </c>
@@ -6687,7 +6675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="44" t="s">
         <v>92</v>
       </c>
@@ -6701,7 +6689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="44" t="s">
         <v>92</v>
       </c>
@@ -6715,7 +6703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="44" t="s">
         <v>92</v>
       </c>
@@ -6729,7 +6717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="44" t="s">
         <v>92</v>
       </c>
@@ -6743,7 +6731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="44" t="s">
         <v>92</v>
       </c>
@@ -6757,7 +6745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="44" t="s">
         <v>92</v>
       </c>
@@ -6771,7 +6759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="44" t="s">
         <v>92</v>
       </c>
@@ -6785,7 +6773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="44" t="s">
         <v>92</v>
       </c>
@@ -6799,7 +6787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="44" t="s">
         <v>92</v>
       </c>
@@ -6813,7 +6801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="44" t="s">
         <v>92</v>
       </c>
@@ -6827,7 +6815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="81" t="s">
         <v>210</v>
       </c>
@@ -6844,7 +6832,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="81" t="s">
         <v>210</v>
       </c>
@@ -6861,7 +6849,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="81" t="s">
         <v>210</v>
       </c>
@@ -6878,7 +6866,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="81" t="s">
         <v>210</v>
       </c>
@@ -6892,7 +6880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="81" t="s">
         <v>210</v>
       </c>
@@ -6906,7 +6894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="81" t="s">
         <v>210</v>
       </c>
@@ -6920,28 +6908,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="20">
         <f>SUM(C3:C91)</f>
         <v>339</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98"/>
     </row>
   </sheetData>
@@ -6982,20 +6970,20 @@
       <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="20" customWidth="1"/>
-    <col min="9" max="16" width="3.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="80.81640625" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="3.7265625" style="20" customWidth="1"/>
+    <col min="9" max="16" width="3.54296875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
@@ -7007,23 +6995,23 @@
       <c r="G1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="135" t="s">
+      <c r="I1" s="134"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="136"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="135" t="s">
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="136"/>
-      <c r="P1" s="137"/>
-    </row>
-    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="O1" s="137"/>
+      <c r="P1" s="138"/>
+    </row>
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -7073,7 +7061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="66" t="s">
         <v>194</v>
       </c>
@@ -7119,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>129</v>
       </c>
@@ -7165,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>130</v>
       </c>
@@ -7211,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>137</v>
       </c>
@@ -7257,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>133</v>
       </c>
@@ -7303,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>135</v>
       </c>
@@ -7349,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>134</v>
       </c>
@@ -7395,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>136</v>
       </c>
@@ -7441,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
         <v>132</v>
       </c>
@@ -7487,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
         <v>131</v>
       </c>
@@ -7533,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>144</v>
       </c>
@@ -7579,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>140</v>
       </c>
@@ -7625,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>141</v>
       </c>
@@ -7671,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>142</v>
       </c>
@@ -7717,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>145</v>
       </c>
@@ -7763,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
         <v>146</v>
       </c>
@@ -7810,7 +7798,7 @@
       </c>
       <c r="Q18" s="20"/>
     </row>
-    <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
         <v>168</v>
       </c>
@@ -7857,7 +7845,7 @@
       </c>
       <c r="Q19" s="20"/>
     </row>
-    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="43" t="s">
         <v>169</v>
       </c>
@@ -7904,7 +7892,7 @@
       </c>
       <c r="Q20" s="20"/>
     </row>
-    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
         <v>170</v>
       </c>
@@ -7950,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="43" t="s">
         <v>172</v>
       </c>
@@ -7996,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
         <v>173</v>
       </c>
@@ -8042,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
         <v>174</v>
       </c>
@@ -8088,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="76" t="s">
         <v>219</v>
       </c>
@@ -8134,7 +8122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="76" t="s">
         <v>177</v>
       </c>
@@ -8180,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65" t="s">
         <v>191</v>
       </c>
@@ -8226,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="65" t="s">
         <v>193</v>
       </c>
@@ -8272,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
         <v>189</v>
       </c>
@@ -8318,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="103" t="s">
         <v>204</v>
       </c>
@@ -8327,16 +8315,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L35" s="104"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
     </row>
-    <row r="36" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L36" s="104"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
@@ -8461,38 +8449,38 @@
       <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="10" width="9.7109375" customWidth="1"/>
+    <col min="2" max="10" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="145"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
@@ -8524,7 +8512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="68">
         <v>41535</v>
@@ -8554,7 +8542,7 @@
         <v>41554</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="112">
         <v>1</v>
@@ -8585,7 +8573,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
@@ -8627,7 +8615,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
@@ -8669,10 +8657,10 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
@@ -8682,7 +8670,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -8690,7 +8678,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -8698,7 +8686,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -8706,7 +8694,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -8714,7 +8702,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -8722,7 +8710,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -8730,7 +8718,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -8738,7 +8726,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -8746,7 +8734,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -8754,7 +8742,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -8762,7 +8750,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -8770,7 +8758,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -8778,7 +8766,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -8786,7 +8774,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -8794,7 +8782,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -8802,7 +8790,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -8810,7 +8798,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -8818,7 +8806,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -8843,33 +8831,33 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q26" sqref="Q26"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.140625" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" customWidth="1"/>
-    <col min="12" max="13" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="90.1796875" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="4.54296875" customWidth="1"/>
+    <col min="9" max="9" width="3.54296875" customWidth="1"/>
+    <col min="10" max="10" width="4.1796875" customWidth="1"/>
+    <col min="11" max="11" width="3.54296875" customWidth="1"/>
+    <col min="12" max="13" width="4.7265625" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" customWidth="1"/>
-    <col min="19" max="19" width="31.140625" customWidth="1"/>
-    <col min="20" max="26" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="4.81640625" customWidth="1"/>
+    <col min="18" max="18" width="5.7265625" customWidth="1"/>
+    <col min="19" max="19" width="31.1796875" customWidth="1"/>
+    <col min="20" max="26" width="5.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="119" t="s">
         <v>225</v>
       </c>
@@ -8881,23 +8869,23 @@
       <c r="G1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="135" t="s">
+      <c r="I1" s="137"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="136" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="136"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="135" t="s">
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="136"/>
-      <c r="P1" s="137"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O1" s="137"/>
+      <c r="P1" s="138"/>
+    </row>
+    <row r="2" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -8947,7 +8935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="67" t="s">
         <v>199</v>
       </c>
@@ -8960,8 +8948,8 @@
       <c r="D3" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>25</v>
+      <c r="E3" s="148" t="s">
+        <v>188</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="87"/>
@@ -8978,26 +8966,26 @@
         <v>2</v>
       </c>
       <c r="L3" s="48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" s="50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" s="48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" s="48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <f>SUM(P3:P9)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="67" t="s">
         <v>196</v>
       </c>
@@ -9043,7 +9031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116" t="s">
         <v>232</v>
       </c>
@@ -9089,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="67" t="s">
         <v>202</v>
       </c>
@@ -9129,13 +9117,13 @@
         <v>4</v>
       </c>
       <c r="O6" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P6" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>143</v>
       </c>
@@ -9181,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="73" t="s">
         <v>138</v>
       </c>
@@ -9227,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="114" t="s">
         <v>231</v>
       </c>
@@ -9273,7 +9261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="126" t="s">
         <v>249</v>
       </c>
@@ -9323,7 +9311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="126" t="s">
         <v>246</v>
       </c>
@@ -9369,7 +9357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="126" t="s">
         <v>247</v>
       </c>
@@ -9415,7 +9403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="126" t="s">
         <v>248</v>
       </c>
@@ -9461,7 +9449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="117" t="s">
         <v>233</v>
       </c>
@@ -9507,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="75" t="s">
         <v>215</v>
       </c>
@@ -9553,7 +9541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="75" t="s">
         <v>218</v>
       </c>
@@ -9599,7 +9587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
         <v>153</v>
       </c>
@@ -9645,7 +9633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
         <v>156</v>
       </c>
@@ -9695,7 +9683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>146</v>
       </c>
@@ -9741,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38" t="s">
         <v>250</v>
       </c>
@@ -9787,7 +9775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
         <v>147</v>
       </c>
@@ -9833,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="123" t="s">
         <v>234</v>
       </c>
@@ -9879,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="123" t="s">
         <v>237</v>
       </c>
@@ -9925,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="123" t="s">
         <v>238</v>
       </c>
@@ -9938,7 +9926,7 @@
       <c r="D24" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="147" t="s">
+      <c r="E24" s="129" t="s">
         <v>188</v>
       </c>
       <c r="F24" s="44"/>
@@ -9971,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="123" t="s">
         <v>241</v>
       </c>
@@ -10017,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="123" t="s">
         <v>239</v>
       </c>
@@ -10030,7 +10018,7 @@
       <c r="D26" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="E26" s="147" t="s">
+      <c r="E26" s="129" t="s">
         <v>188</v>
       </c>
       <c r="F26" s="44"/>
@@ -10063,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="123" t="s">
         <v>240</v>
       </c>
@@ -10076,7 +10064,7 @@
       <c r="D27" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="E27" s="147" t="s">
+      <c r="E27" s="129" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="44"/>
@@ -10110,13 +10098,13 @@
       </c>
       <c r="R27">
         <f>SUM(R3)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43" t="s">
         <v>178</v>
       </c>
@@ -10129,7 +10117,7 @@
       <c r="D28" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="147" t="s">
+      <c r="E28" s="129" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="44"/>
@@ -10169,7 +10157,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
         <v>221</v>
       </c>
@@ -10182,7 +10170,7 @@
       <c r="D29" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="147" t="s">
+      <c r="E29" s="129" t="s">
         <v>188</v>
       </c>
       <c r="F29" s="44"/>
@@ -10222,7 +10210,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
         <v>222</v>
       </c>
@@ -10235,7 +10223,7 @@
       <c r="D30" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="147" t="s">
+      <c r="E30" s="129" t="s">
         <v>188</v>
       </c>
       <c r="F30" s="44"/>
@@ -10275,7 +10263,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
         <v>175</v>
       </c>
@@ -10288,7 +10276,7 @@
       <c r="D31" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="147" t="s">
+      <c r="E31" s="129" t="s">
         <v>188</v>
       </c>
       <c r="F31" s="44"/>
@@ -10325,7 +10313,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="76" t="s">
         <v>176</v>
       </c>
@@ -10338,7 +10326,7 @@
       <c r="D32" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="147" t="s">
+      <c r="E32" s="129" t="s">
         <v>188</v>
       </c>
       <c r="F32" s="44"/>
@@ -10371,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="72" t="s">
         <v>211</v>
       </c>
@@ -10384,7 +10372,7 @@
       <c r="D33" s="128" t="s">
         <v>252</v>
       </c>
-      <c r="E33" s="147" t="s">
+      <c r="E33" s="129" t="s">
         <v>188</v>
       </c>
       <c r="F33" s="61"/>
@@ -10417,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="103" t="s">
         <v>204</v>
       </c>
@@ -10426,13 +10414,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H1:J1"/>
@@ -10566,12 +10554,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E26">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E33">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10591,38 +10579,38 @@
       <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="10" width="9.7109375" customWidth="1"/>
+    <col min="2" max="10" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="147" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="145"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
@@ -10654,7 +10642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="68">
         <v>41556</v>
@@ -10684,7 +10672,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="22">
         <v>1</v>
@@ -10722,7 +10710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
@@ -10744,26 +10732,26 @@
       </c>
       <c r="F6" s="15">
         <f>SUM('Sprint 2'!L3:L37)</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="28">
         <f>SUM('Sprint 2'!M3:M37)</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="10">
         <f>SUM('Sprint 2'!N3:N37)</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="15">
         <f>SUM('Sprint 2'!O3:O37)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J6" s="28">
         <f>SUM('Sprint 2'!P3:P37)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
@@ -10804,10 +10792,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
@@ -10817,7 +10805,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -10825,7 +10813,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -10833,7 +10821,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -10841,7 +10829,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -10849,7 +10837,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -10857,7 +10845,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -10865,7 +10853,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -10873,7 +10861,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -10881,7 +10869,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -10889,7 +10877,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -10897,7 +10885,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -10905,7 +10893,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -10913,7 +10901,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -10921,7 +10909,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -10929,7 +10917,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -10937,7 +10925,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -10945,7 +10933,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -10953,7 +10941,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orr\Documents\GitHub\PayBack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="620" windowWidth="11300" windowHeight="7460" tabRatio="885" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Sprint 2" sheetId="6" r:id="rId5"/>
     <sheet name="Sprint 2 Burndown" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -29,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +47,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +70,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +135,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -964,12 +959,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="61" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="62">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1955,449 +1957,452 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="41" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="57" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="40" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="56" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2447,17 +2452,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2475,9 +2471,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
@@ -2681,14 +2675,7 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:dropLines>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2700,15 +2687,14 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="113251624"/>
-        <c:axId val="306150744"/>
+        <c:axId val="65723776"/>
+        <c:axId val="64947712"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="113251624"/>
+        <c:axId val="65723776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2738,24 +2724,21 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="306150744"/>
+        <c:crossAx val="64947712"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="306150744"/>
+        <c:axId val="64947712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2774,7 +2757,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -2795,14 +2777,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113251624"/>
+        <c:crossAx val="65723776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -2810,7 +2791,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2818,17 +2799,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2859,7 +2830,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2867,25 +2837,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2906,63 +2858,15 @@
           </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2992,12 +2896,8 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -3048,7 +2948,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -3061,14 +2961,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -3081,8 +2974,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3108,7 +3000,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3116,17 +3008,8 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3144,9 +3027,8 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
@@ -3245,7 +3127,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3350,14 +3232,7 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:dropLines>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3369,15 +3244,14 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="306151136"/>
-        <c:axId val="306153096"/>
+        <c:axId val="70349184"/>
+        <c:axId val="70351104"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="306151136"/>
+        <c:axId val="70349184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3407,24 +3281,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="306153096"/>
+        <c:crossAx val="70351104"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="306153096"/>
+        <c:axId val="70351104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3443,7 +3315,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -3464,14 +3336,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306151136"/>
+        <c:crossAx val="70349184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -3479,7 +3351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4333,7 +4205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4365,10 +4237,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4400,7 +4271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4576,7 +4446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4584,25 +4454,25 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="4" width="60.7265625" customWidth="1"/>
-    <col min="5" max="5" width="60.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-    </row>
-    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="26.25" customHeight="1">
+      <c r="A1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+    </row>
+    <row r="2" spans="1:22" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4620,7 +4490,7 @@
       </c>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>30</v>
       </c>
@@ -4638,7 +4508,7 @@
       </c>
       <c r="F3" s="37"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1">
       <c r="A4" s="29" t="s">
         <v>30</v>
       </c>
@@ -4656,7 +4526,7 @@
       </c>
       <c r="F4" s="37"/>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1">
       <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
@@ -4674,7 +4544,7 @@
       </c>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="18.75" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>30</v>
       </c>
@@ -4692,7 +4562,7 @@
       </c>
       <c r="F6" s="64"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="18.75" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>30</v>
       </c>
@@ -4710,7 +4580,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="18.75" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>30</v>
       </c>
@@ -4728,7 +4598,7 @@
       </c>
       <c r="F8" s="37"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="18.75" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>30</v>
       </c>
@@ -4746,7 +4616,7 @@
       </c>
       <c r="F9" s="37"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="18.75" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>30</v>
       </c>
@@ -4764,7 +4634,7 @@
       </c>
       <c r="F10" s="37"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="18.75" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>30</v>
       </c>
@@ -4782,7 +4652,7 @@
       </c>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="18.75" customHeight="1">
       <c r="A12" s="29" t="s">
         <v>30</v>
       </c>
@@ -4800,7 +4670,7 @@
       </c>
       <c r="F12" s="37"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="18.75" customHeight="1">
       <c r="A13" s="33" t="s">
         <v>49</v>
       </c>
@@ -4818,7 +4688,7 @@
       </c>
       <c r="F13" s="37"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="18.75" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>49</v>
       </c>
@@ -4836,7 +4706,7 @@
       </c>
       <c r="F14" s="37"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="18.75" customHeight="1">
       <c r="A15" s="30" t="s">
         <v>49</v>
       </c>
@@ -4854,7 +4724,7 @@
       </c>
       <c r="F15" s="37"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="18.75" customHeight="1">
       <c r="A16" s="30" t="s">
         <v>49</v>
       </c>
@@ -4872,7 +4742,7 @@
       </c>
       <c r="F16" s="37"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="33" t="s">
         <v>49</v>
       </c>
@@ -4890,7 +4760,7 @@
       </c>
       <c r="F17" s="37"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="33" t="s">
         <v>49</v>
       </c>
@@ -4908,7 +4778,7 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="33" t="s">
         <v>49</v>
       </c>
@@ -4926,7 +4796,7 @@
       </c>
       <c r="F19" s="37"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1">
       <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
@@ -4944,7 +4814,7 @@
       </c>
       <c r="F20" s="37"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="33" t="s">
         <v>49</v>
       </c>
@@ -4962,7 +4832,7 @@
       </c>
       <c r="F21" s="37"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="33" t="s">
         <v>49</v>
       </c>
@@ -4980,7 +4850,7 @@
       </c>
       <c r="F22" s="37"/>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1">
       <c r="A23" s="33" t="s">
         <v>49</v>
       </c>
@@ -4998,7 +4868,7 @@
       </c>
       <c r="F23" s="37"/>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="33" t="s">
         <v>49</v>
       </c>
@@ -5016,7 +4886,7 @@
       </c>
       <c r="F24" s="37"/>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25" s="33" t="s">
         <v>49</v>
       </c>
@@ -5034,7 +4904,7 @@
       </c>
       <c r="F25" s="37"/>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
@@ -5052,7 +4922,7 @@
       </c>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="33" t="s">
         <v>49</v>
       </c>
@@ -5070,7 +4940,7 @@
       </c>
       <c r="F27" s="37"/>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="33" t="s">
         <v>49</v>
       </c>
@@ -5088,7 +4958,7 @@
       </c>
       <c r="F28" s="37"/>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29" s="30" t="s">
         <v>49</v>
       </c>
@@ -5106,7 +4976,7 @@
       </c>
       <c r="F29" s="37"/>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30" s="33" t="s">
         <v>49</v>
       </c>
@@ -5124,7 +4994,7 @@
       </c>
       <c r="F30" s="37"/>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31" s="33" t="s">
         <v>49</v>
       </c>
@@ -5142,7 +5012,7 @@
       </c>
       <c r="F31" s="37"/>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1">
       <c r="A32" s="33" t="s">
         <v>49</v>
       </c>
@@ -5160,7 +5030,7 @@
       </c>
       <c r="F32" s="37"/>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1">
       <c r="A33" s="30" t="s">
         <v>49</v>
       </c>
@@ -5178,7 +5048,7 @@
       </c>
       <c r="F33" s="37"/>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1">
       <c r="A34" s="34" t="s">
         <v>92</v>
       </c>
@@ -5195,7 +5065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1">
       <c r="A35" s="34" t="s">
         <v>92</v>
       </c>
@@ -5212,7 +5082,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1">
       <c r="A36" s="34" t="s">
         <v>92</v>
       </c>
@@ -5229,7 +5099,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1">
       <c r="A37" s="31" t="s">
         <v>92</v>
       </c>
@@ -5246,7 +5116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1">
       <c r="A38" s="34" t="s">
         <v>92</v>
       </c>
@@ -5263,7 +5133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="18.75" customHeight="1">
       <c r="A39" s="34" t="s">
         <v>92</v>
       </c>
@@ -5280,7 +5150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="18.75" customHeight="1">
       <c r="A40" s="34" t="s">
         <v>92</v>
       </c>
@@ -5297,7 +5167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="18.75" customHeight="1">
       <c r="A41" s="34" t="s">
         <v>92</v>
       </c>
@@ -5314,7 +5184,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="18.75" customHeight="1">
       <c r="A42" s="34" t="s">
         <v>92</v>
       </c>
@@ -5331,7 +5201,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="18.75" customHeight="1">
       <c r="A43" s="34" t="s">
         <v>92</v>
       </c>
@@ -5348,7 +5218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="18.75" customHeight="1">
       <c r="A44" s="31" t="s">
         <v>92</v>
       </c>
@@ -5365,7 +5235,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="18.75" customHeight="1">
       <c r="A45" s="31" t="s">
         <v>92</v>
       </c>
@@ -5382,7 +5252,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="18.75" customHeight="1">
       <c r="A46" s="34" t="s">
         <v>92</v>
       </c>
@@ -5399,7 +5269,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="18.75" customHeight="1">
       <c r="A47" s="34" t="s">
         <v>92</v>
       </c>
@@ -5416,7 +5286,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="18.75" customHeight="1">
       <c r="A48" s="34" t="s">
         <v>92</v>
       </c>
@@ -5433,7 +5303,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1">
       <c r="A49" s="34" t="s">
         <v>92</v>
       </c>
@@ -5450,7 +5320,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1">
       <c r="A50" s="34" t="s">
         <v>92</v>
       </c>
@@ -5467,7 +5337,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1">
       <c r="A51" s="34" t="s">
         <v>92</v>
       </c>
@@ -5484,7 +5354,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1">
       <c r="A52" s="34" t="s">
         <v>92</v>
       </c>
@@ -5501,7 +5371,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1">
       <c r="A53" s="34" t="s">
         <v>92</v>
       </c>
@@ -5518,7 +5388,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1">
       <c r="A54" s="34" t="s">
         <v>92</v>
       </c>
@@ -5546,7 +5416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5554,23 +5424,23 @@
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="78.1796875" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="20"/>
+    <col min="1" max="1" width="16.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="78.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:5" ht="24" customHeight="1">
+      <c r="A1" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="133"/>
       <c r="C1" s="80"/>
       <c r="D1" s="80"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -5584,7 +5454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>30</v>
       </c>
@@ -5601,7 +5471,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>30</v>
       </c>
@@ -5618,7 +5488,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1">
       <c r="A5" s="47" t="s">
         <v>30</v>
       </c>
@@ -5635,7 +5505,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1">
       <c r="A6" s="47" t="s">
         <v>30</v>
       </c>
@@ -5652,7 +5522,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>30</v>
       </c>
@@ -5669,7 +5539,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>30</v>
       </c>
@@ -5686,7 +5556,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1">
       <c r="A9" s="47" t="s">
         <v>30</v>
       </c>
@@ -5703,7 +5573,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1">
       <c r="A10" s="47" t="s">
         <v>30</v>
       </c>
@@ -5720,7 +5590,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1">
       <c r="A11" s="47" t="s">
         <v>30</v>
       </c>
@@ -5737,7 +5607,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1">
       <c r="A12" s="47" t="s">
         <v>30</v>
       </c>
@@ -5754,7 +5624,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1">
       <c r="A13" s="47" t="s">
         <v>30</v>
       </c>
@@ -5771,7 +5641,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1">
       <c r="A14" s="47" t="s">
         <v>30</v>
       </c>
@@ -5788,7 +5658,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1">
       <c r="A15" s="47" t="s">
         <v>30</v>
       </c>
@@ -5805,7 +5675,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1">
       <c r="A16" s="47" t="s">
         <v>30</v>
       </c>
@@ -5822,7 +5692,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1">
       <c r="A17" s="47" t="s">
         <v>30</v>
       </c>
@@ -5839,7 +5709,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1">
       <c r="A18" s="47" t="s">
         <v>30</v>
       </c>
@@ -5856,7 +5726,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1">
       <c r="A19" s="82" t="s">
         <v>30</v>
       </c>
@@ -5870,7 +5740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1">
       <c r="A20" s="82" t="s">
         <v>30</v>
       </c>
@@ -5884,7 +5754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1">
       <c r="A21" s="82" t="s">
         <v>30</v>
       </c>
@@ -5898,7 +5768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1">
       <c r="A22" s="82" t="s">
         <v>30</v>
       </c>
@@ -5912,7 +5782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1">
       <c r="A23" s="82" t="s">
         <v>30</v>
       </c>
@@ -5926,7 +5796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1">
       <c r="A24" s="82" t="s">
         <v>30</v>
       </c>
@@ -5940,7 +5810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1">
       <c r="A25" s="82" t="s">
         <v>30</v>
       </c>
@@ -5954,7 +5824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1">
       <c r="A26" s="82" t="s">
         <v>30</v>
       </c>
@@ -5968,7 +5838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1">
       <c r="A27" s="82" t="s">
         <v>30</v>
       </c>
@@ -5982,7 +5852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1">
       <c r="A28" s="82" t="s">
         <v>30</v>
       </c>
@@ -5996,7 +5866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1">
       <c r="A29" s="47" t="s">
         <v>30</v>
       </c>
@@ -6010,7 +5880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1">
       <c r="A30" s="47" t="s">
         <v>30</v>
       </c>
@@ -6024,7 +5894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1">
       <c r="A31" s="47" t="s">
         <v>30</v>
       </c>
@@ -6038,7 +5908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1">
       <c r="A32" s="51" t="s">
         <v>49</v>
       </c>
@@ -6052,7 +5922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1">
       <c r="A33" s="51" t="s">
         <v>49</v>
       </c>
@@ -6066,7 +5936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1">
       <c r="A34" s="51" t="s">
         <v>49</v>
       </c>
@@ -6080,7 +5950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1">
       <c r="A35" s="51" t="s">
         <v>49</v>
       </c>
@@ -6094,7 +5964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1">
       <c r="A36" s="51" t="s">
         <v>49</v>
       </c>
@@ -6108,7 +5978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1">
       <c r="A37" s="51" t="s">
         <v>49</v>
       </c>
@@ -6122,7 +5992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1">
       <c r="A38" s="51" t="s">
         <v>49</v>
       </c>
@@ -6136,7 +6006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1">
       <c r="A39" s="51" t="s">
         <v>49</v>
       </c>
@@ -6150,7 +6020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1">
       <c r="A40" s="51" t="s">
         <v>49</v>
       </c>
@@ -6164,7 +6034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1">
       <c r="A41" s="51" t="s">
         <v>49</v>
       </c>
@@ -6178,7 +6048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1">
       <c r="A42" s="51" t="s">
         <v>49</v>
       </c>
@@ -6192,7 +6062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1">
       <c r="A43" s="51" t="s">
         <v>49</v>
       </c>
@@ -6206,7 +6076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1">
       <c r="A44" s="51" t="s">
         <v>49</v>
       </c>
@@ -6220,7 +6090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1">
       <c r="A45" s="51" t="s">
         <v>49</v>
       </c>
@@ -6234,7 +6104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1">
       <c r="A46" s="51" t="s">
         <v>49</v>
       </c>
@@ -6248,7 +6118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1">
       <c r="A47" s="51" t="s">
         <v>49</v>
       </c>
@@ -6262,7 +6132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1">
       <c r="A48" s="51" t="s">
         <v>49</v>
       </c>
@@ -6276,7 +6146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1">
       <c r="A49" s="51" t="s">
         <v>49</v>
       </c>
@@ -6290,7 +6160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1">
       <c r="A50" s="51" t="s">
         <v>49</v>
       </c>
@@ -6304,7 +6174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1">
       <c r="A51" s="51" t="s">
         <v>49</v>
       </c>
@@ -6318,7 +6188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1">
       <c r="A52" s="51" t="s">
         <v>49</v>
       </c>
@@ -6332,7 +6202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1">
       <c r="A53" s="51" t="s">
         <v>49</v>
       </c>
@@ -6346,7 +6216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1">
       <c r="A54" s="51" t="s">
         <v>49</v>
       </c>
@@ -6360,7 +6230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="18.75" customHeight="1">
       <c r="A55" s="51" t="s">
         <v>49</v>
       </c>
@@ -6374,7 +6244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="18.75" customHeight="1">
       <c r="A56" s="51" t="s">
         <v>49</v>
       </c>
@@ -6388,7 +6258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1">
       <c r="A57" s="51" t="s">
         <v>49</v>
       </c>
@@ -6402,7 +6272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="18.75" customHeight="1">
       <c r="A58" s="51" t="s">
         <v>49</v>
       </c>
@@ -6416,7 +6286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="18.75" customHeight="1">
       <c r="A59" s="51" t="s">
         <v>49</v>
       </c>
@@ -6430,7 +6300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="18.75" customHeight="1">
       <c r="A60" s="51" t="s">
         <v>49</v>
       </c>
@@ -6444,7 +6314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="18.75" customHeight="1">
       <c r="A61" s="44" t="s">
         <v>92</v>
       </c>
@@ -6458,7 +6328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="18.75" customHeight="1">
       <c r="A62" s="44" t="s">
         <v>92</v>
       </c>
@@ -6472,7 +6342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="18.75" customHeight="1">
       <c r="A63" s="44" t="s">
         <v>92</v>
       </c>
@@ -6486,7 +6356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="18.75" customHeight="1">
       <c r="A64" s="44" t="s">
         <v>92</v>
       </c>
@@ -6503,7 +6373,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="18.75" customHeight="1">
       <c r="A65" s="44" t="s">
         <v>92</v>
       </c>
@@ -6520,7 +6390,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="18.75" customHeight="1">
       <c r="A66" s="44" t="s">
         <v>92</v>
       </c>
@@ -6537,7 +6407,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="18.75" customHeight="1">
       <c r="A67" s="44" t="s">
         <v>92</v>
       </c>
@@ -6551,7 +6421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="18.75" customHeight="1">
       <c r="A68" s="44" t="s">
         <v>92</v>
       </c>
@@ -6568,7 +6438,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="18.75" customHeight="1">
       <c r="A69" s="44" t="s">
         <v>92</v>
       </c>
@@ -6582,7 +6452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1">
       <c r="A70" s="44" t="s">
         <v>92</v>
       </c>
@@ -6599,7 +6469,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="18.75" customHeight="1">
       <c r="A71" s="44" t="s">
         <v>92</v>
       </c>
@@ -6616,7 +6486,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="18.75" customHeight="1">
       <c r="A72" s="44" t="s">
         <v>92</v>
       </c>
@@ -6630,7 +6500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="18.75" customHeight="1">
       <c r="A73" s="44" t="s">
         <v>92</v>
       </c>
@@ -6647,7 +6517,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="18.75" customHeight="1">
       <c r="A74" s="44" t="s">
         <v>92</v>
       </c>
@@ -6661,7 +6531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="18.75" customHeight="1">
       <c r="A75" s="44" t="s">
         <v>92</v>
       </c>
@@ -6675,7 +6545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="18.75" customHeight="1">
       <c r="A76" s="44" t="s">
         <v>92</v>
       </c>
@@ -6689,7 +6559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="18.75" customHeight="1">
       <c r="A77" s="44" t="s">
         <v>92</v>
       </c>
@@ -6703,7 +6573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="18.75" customHeight="1">
       <c r="A78" s="44" t="s">
         <v>92</v>
       </c>
@@ -6717,7 +6587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="18.75" customHeight="1">
       <c r="A79" s="44" t="s">
         <v>92</v>
       </c>
@@ -6731,7 +6601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="18.75" customHeight="1">
       <c r="A80" s="44" t="s">
         <v>92</v>
       </c>
@@ -6745,7 +6615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="18.75" customHeight="1">
       <c r="A81" s="44" t="s">
         <v>92</v>
       </c>
@@ -6759,7 +6629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="18.75" customHeight="1">
       <c r="A82" s="44" t="s">
         <v>92</v>
       </c>
@@ -6773,7 +6643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="18.75" customHeight="1">
       <c r="A83" s="44" t="s">
         <v>92</v>
       </c>
@@ -6787,7 +6657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="18.75" customHeight="1">
       <c r="A84" s="44" t="s">
         <v>92</v>
       </c>
@@ -6801,7 +6671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="18.75" customHeight="1">
       <c r="A85" s="44" t="s">
         <v>92</v>
       </c>
@@ -6815,7 +6685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="18.75" customHeight="1">
       <c r="A86" s="81" t="s">
         <v>210</v>
       </c>
@@ -6832,7 +6702,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="18.75" customHeight="1">
       <c r="A87" s="81" t="s">
         <v>210</v>
       </c>
@@ -6849,7 +6719,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="18.75" customHeight="1">
       <c r="A88" s="81" t="s">
         <v>210</v>
       </c>
@@ -6866,7 +6736,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="18.75" customHeight="1">
       <c r="A89" s="81" t="s">
         <v>210</v>
       </c>
@@ -6880,7 +6750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="18.75" customHeight="1">
       <c r="A90" s="81" t="s">
         <v>210</v>
       </c>
@@ -6894,7 +6764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="12.75" customHeight="1">
       <c r="A91" s="81" t="s">
         <v>210</v>
       </c>
@@ -6908,28 +6778,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="12.75" customHeight="1">
       <c r="C92" s="20">
         <f>SUM(C3:C91)</f>
         <v>339</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="12.75" customHeight="1">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="12.75" customHeight="1">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="12.75" customHeight="1">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="12.75" customHeight="1">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="12.75" customHeight="1">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="12.75" customHeight="1">
       <c r="A98"/>
     </row>
   </sheetData>
@@ -6940,8 +6810,8 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="81" yWindow="476" count="2">
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="validationFailedClick and enter a value from range 'User Stories'!A3:A15">
           <x14:formula1>
@@ -6962,7 +6832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -6970,20 +6840,20 @@
       <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="80.81640625" customWidth="1"/>
-    <col min="2" max="2" width="4.1796875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="3.7265625" style="20" customWidth="1"/>
-    <col min="9" max="16" width="3.54296875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="80.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="20" customWidth="1"/>
+    <col min="9" max="16" width="3.5703125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="29.25" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
@@ -6995,23 +6865,23 @@
       <c r="G1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="136" t="s">
+      <c r="I1" s="135"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="136" t="s">
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="137" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="137"/>
-      <c r="P1" s="138"/>
-    </row>
-    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+      <c r="O1" s="138"/>
+      <c r="P1" s="139"/>
+    </row>
+    <row r="2" spans="1:16" ht="25.5">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -7061,7 +6931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="24" customHeight="1">
       <c r="A3" s="66" t="s">
         <v>194</v>
       </c>
@@ -7107,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="24" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>129</v>
       </c>
@@ -7153,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="24" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>130</v>
       </c>
@@ -7199,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="24" customHeight="1">
       <c r="A6" s="40" t="s">
         <v>137</v>
       </c>
@@ -7245,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="24" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>133</v>
       </c>
@@ -7291,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="24" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>135</v>
       </c>
@@ -7337,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="24" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>134</v>
       </c>
@@ -7383,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="24" customHeight="1">
       <c r="A10" s="41" t="s">
         <v>136</v>
       </c>
@@ -7429,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="24" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>132</v>
       </c>
@@ -7475,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="24" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>131</v>
       </c>
@@ -7521,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="24" customHeight="1">
       <c r="A13" s="40" t="s">
         <v>144</v>
       </c>
@@ -7567,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="24" customHeight="1">
       <c r="A14" s="40" t="s">
         <v>140</v>
       </c>
@@ -7613,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="24" customHeight="1">
       <c r="A15" s="40" t="s">
         <v>141</v>
       </c>
@@ -7659,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="24" customHeight="1">
       <c r="A16" s="40" t="s">
         <v>142</v>
       </c>
@@ -7705,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="24" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>145</v>
       </c>
@@ -7751,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="24" customHeight="1">
       <c r="A18" s="38" t="s">
         <v>146</v>
       </c>
@@ -7798,7 +7668,7 @@
       </c>
       <c r="Q18" s="20"/>
     </row>
-    <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="24" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>168</v>
       </c>
@@ -7845,7 +7715,7 @@
       </c>
       <c r="Q19" s="20"/>
     </row>
-    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="24" customHeight="1">
       <c r="A20" s="43" t="s">
         <v>169</v>
       </c>
@@ -7892,7 +7762,7 @@
       </c>
       <c r="Q20" s="20"/>
     </row>
-    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="24" customHeight="1">
       <c r="A21" s="43" t="s">
         <v>170</v>
       </c>
@@ -7938,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="24" customHeight="1">
       <c r="A22" s="43" t="s">
         <v>172</v>
       </c>
@@ -7984,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="24" customHeight="1">
       <c r="A23" s="43" t="s">
         <v>173</v>
       </c>
@@ -8030,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="24" customHeight="1">
       <c r="A24" s="43" t="s">
         <v>174</v>
       </c>
@@ -8076,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="24" customHeight="1">
       <c r="A25" s="76" t="s">
         <v>219</v>
       </c>
@@ -8122,7 +7992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="24" customHeight="1">
       <c r="A26" s="76" t="s">
         <v>177</v>
       </c>
@@ -8168,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="24" customHeight="1">
       <c r="A27" s="65" t="s">
         <v>191</v>
       </c>
@@ -8214,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="24" customHeight="1">
       <c r="A28" s="65" t="s">
         <v>193</v>
       </c>
@@ -8260,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="24" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>189</v>
       </c>
@@ -8306,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="24" customHeight="1">
       <c r="F30" s="103" t="s">
         <v>204</v>
       </c>
@@ -8315,16 +8185,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="24" customHeight="1"/>
+    <row r="32" spans="1:17" ht="24" customHeight="1"/>
+    <row r="33" spans="12:16" ht="24" customHeight="1"/>
+    <row r="34" spans="12:16" ht="24" customHeight="1"/>
+    <row r="35" spans="12:16" ht="24" customHeight="1">
       <c r="L35" s="104"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
     </row>
-    <row r="36" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:16" ht="24" customHeight="1">
       <c r="L36" s="104"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
@@ -8441,7 +8311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8449,38 +8319,38 @@
       <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="2" max="10" width="9.7265625" customWidth="1"/>
+    <col min="2" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A1" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
@@ -8512,7 +8382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="1"/>
       <c r="B4" s="68">
         <v>41535</v>
@@ -8542,7 +8412,7 @@
         <v>41554</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="26.25" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="112">
         <v>1</v>
@@ -8573,7 +8443,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="26.25" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
@@ -8615,7 +8485,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="24" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
@@ -8657,10 +8527,10 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="26.25" customHeight="1"/>
+    <row r="9" spans="1:11" ht="26.25" customHeight="1"/>
+    <row r="10" spans="1:11" ht="26.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="26.25" customHeight="1">
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
@@ -8670,7 +8540,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="26.25" customHeight="1">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -8678,7 +8548,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="26.25" customHeight="1">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -8686,7 +8556,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="26.25" customHeight="1">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -8694,7 +8564,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="26.25" customHeight="1">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -8702,7 +8572,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="26.25" customHeight="1">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -8710,7 +8580,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -8718,7 +8588,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -8726,7 +8596,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -8734,7 +8604,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -8742,7 +8612,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -8750,7 +8620,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -8758,7 +8628,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -8766,7 +8636,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -8774,7 +8644,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -8782,7 +8652,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="12.75" customHeight="1">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -8790,7 +8660,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="12.75" customHeight="1">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -8798,7 +8668,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="12.75" customHeight="1">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -8806,7 +8676,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="12.75" customHeight="1">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -8827,37 +8697,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="90.1796875" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="6.26953125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="4.54296875" customWidth="1"/>
-    <col min="9" max="9" width="3.54296875" customWidth="1"/>
-    <col min="10" max="10" width="4.1796875" customWidth="1"/>
-    <col min="11" max="11" width="3.54296875" customWidth="1"/>
-    <col min="12" max="13" width="4.7265625" customWidth="1"/>
+    <col min="1" max="1" width="90.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="12" max="13" width="4.7109375" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
-    <col min="16" max="16" width="4.81640625" customWidth="1"/>
-    <col min="18" max="18" width="5.7265625" customWidth="1"/>
-    <col min="19" max="19" width="31.1796875" customWidth="1"/>
-    <col min="20" max="26" width="5.7265625" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" customWidth="1"/>
+    <col min="19" max="19" width="31.140625" customWidth="1"/>
+    <col min="20" max="26" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="29.25" customHeight="1">
       <c r="A1" s="119" t="s">
         <v>225</v>
       </c>
@@ -8869,23 +8739,23 @@
       <c r="G1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="136" t="s">
+      <c r="H1" s="137" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="137"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="136" t="s">
+      <c r="I1" s="138"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="137" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="136" t="s">
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="137" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="137"/>
-      <c r="P1" s="138"/>
-    </row>
-    <row r="2" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+      <c r="O1" s="138"/>
+      <c r="P1" s="139"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -8935,7 +8805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="24" customHeight="1">
       <c r="A3" s="67" t="s">
         <v>199</v>
       </c>
@@ -8948,7 +8818,7 @@
       <c r="D3" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="148" t="s">
+      <c r="E3" s="130" t="s">
         <v>188</v>
       </c>
       <c r="F3" s="47"/>
@@ -8985,7 +8855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="24" customHeight="1">
       <c r="A4" s="67" t="s">
         <v>196</v>
       </c>
@@ -9031,7 +8901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="24" customHeight="1">
       <c r="A5" s="116" t="s">
         <v>232</v>
       </c>
@@ -9077,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="24" customHeight="1">
       <c r="A6" s="67" t="s">
         <v>202</v>
       </c>
@@ -9123,7 +8993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="24" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>143</v>
       </c>
@@ -9169,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="24" customHeight="1">
       <c r="A8" s="73" t="s">
         <v>138</v>
       </c>
@@ -9182,7 +9052,7 @@
       <c r="D8" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="149" t="s">
         <v>188</v>
       </c>
       <c r="F8" s="47"/>
@@ -9215,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="24" customHeight="1">
       <c r="A9" s="114" t="s">
         <v>231</v>
       </c>
@@ -9261,7 +9131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="24" customHeight="1">
       <c r="A10" s="126" t="s">
         <v>249</v>
       </c>
@@ -9274,8 +9144,8 @@
       <c r="D10" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="E10" s="52" t="s">
-        <v>25</v>
+      <c r="E10" s="149" t="s">
+        <v>188</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="93"/>
@@ -9304,14 +9174,14 @@
         <v>2</v>
       </c>
       <c r="P10" s="53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <f>SUM(P10:P21)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="24" customHeight="1">
       <c r="A11" s="126" t="s">
         <v>246</v>
       </c>
@@ -9354,10 +9224,10 @@
         <v>8</v>
       </c>
       <c r="P11" s="53">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="24" customHeight="1">
       <c r="A12" s="126" t="s">
         <v>247</v>
       </c>
@@ -9400,10 +9270,10 @@
         <v>2</v>
       </c>
       <c r="P12" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="24" customHeight="1">
       <c r="A13" s="126" t="s">
         <v>248</v>
       </c>
@@ -9446,10 +9316,10 @@
         <v>4</v>
       </c>
       <c r="P13" s="53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="24" customHeight="1">
       <c r="A14" s="117" t="s">
         <v>233</v>
       </c>
@@ -9495,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="24" customHeight="1">
       <c r="A15" s="75" t="s">
         <v>215</v>
       </c>
@@ -9541,7 +9411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="24" customHeight="1">
       <c r="A16" s="75" t="s">
         <v>218</v>
       </c>
@@ -9584,10 +9454,10 @@
         <v>4</v>
       </c>
       <c r="P16" s="53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="24" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>153</v>
       </c>
@@ -9633,7 +9503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="24" customHeight="1">
       <c r="A18" s="38" t="s">
         <v>156</v>
       </c>
@@ -9683,7 +9553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="24" customHeight="1">
       <c r="A19" s="38" t="s">
         <v>146</v>
       </c>
@@ -9729,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="24" customHeight="1">
       <c r="A20" s="38" t="s">
         <v>250</v>
       </c>
@@ -9775,7 +9645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="24" customHeight="1">
       <c r="A21" s="38" t="s">
         <v>147</v>
       </c>
@@ -9821,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="24" customHeight="1">
       <c r="A22" s="123" t="s">
         <v>234</v>
       </c>
@@ -9867,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="24" customHeight="1">
       <c r="A23" s="123" t="s">
         <v>237</v>
       </c>
@@ -9913,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="24" customHeight="1">
       <c r="A24" s="123" t="s">
         <v>238</v>
       </c>
@@ -9959,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="24" customHeight="1">
       <c r="A25" s="123" t="s">
         <v>241</v>
       </c>
@@ -10005,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="24" customHeight="1">
       <c r="A26" s="123" t="s">
         <v>239</v>
       </c>
@@ -10051,7 +9921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="24" customHeight="1">
       <c r="A27" s="123" t="s">
         <v>240</v>
       </c>
@@ -10104,7 +9974,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="24" customHeight="1">
       <c r="A28" s="43" t="s">
         <v>178</v>
       </c>
@@ -10151,13 +10021,13 @@
       </c>
       <c r="R28">
         <f>SUM(R10)</f>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="S28" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="24" customHeight="1">
       <c r="A29" s="43" t="s">
         <v>221</v>
       </c>
@@ -10210,7 +10080,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="24" customHeight="1">
       <c r="A30" s="43" t="s">
         <v>222</v>
       </c>
@@ -10263,7 +10133,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="24" customHeight="1">
       <c r="A31" s="43" t="s">
         <v>175</v>
       </c>
@@ -10313,7 +10183,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="24" customHeight="1">
       <c r="A32" s="76" t="s">
         <v>176</v>
       </c>
@@ -10359,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="24" customHeight="1">
       <c r="A33" s="72" t="s">
         <v>211</v>
       </c>
@@ -10405,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="24" customHeight="1">
       <c r="F34" s="103" t="s">
         <v>204</v>
       </c>
@@ -10414,13 +10284,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" ht="24" customHeight="1"/>
+    <row r="36" spans="1:16" ht="24" customHeight="1"/>
+    <row r="37" spans="1:16" ht="24" customHeight="1"/>
+    <row r="38" spans="1:16" ht="24" customHeight="1"/>
+    <row r="39" spans="1:16" ht="24" customHeight="1"/>
+    <row r="40" spans="1:16" ht="24" customHeight="1"/>
+    <row r="41" spans="1:16" ht="24" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H1:J1"/>
@@ -10571,7 +10441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10579,38 +10449,38 @@
       <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="2" max="10" width="9.7265625" customWidth="1"/>
+    <col min="2" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A1" s="148" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
@@ -10642,7 +10512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="1"/>
       <c r="B4" s="68">
         <v>41556</v>
@@ -10672,7 +10542,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="22">
         <v>1</v>
@@ -10710,7 +10580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
@@ -10748,10 +10618,10 @@
       </c>
       <c r="J6" s="28">
         <f>SUM('Sprint 2'!P3:P37)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
@@ -10792,10 +10662,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="26.25" customHeight="1"/>
+    <row r="9" spans="1:10" ht="26.25" customHeight="1"/>
+    <row r="10" spans="1:10" ht="26.25" customHeight="1"/>
+    <row r="11" spans="1:10" ht="26.25" customHeight="1">
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
@@ -10805,7 +10675,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -10813,7 +10683,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="26.25" customHeight="1">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -10821,7 +10691,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="26.25" customHeight="1">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -10829,7 +10699,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="26.25" customHeight="1">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -10837,7 +10707,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="26.25" customHeight="1">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -10845,7 +10715,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -10853,7 +10723,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -10861,7 +10731,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -10869,7 +10739,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -10877,7 +10747,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -10885,7 +10755,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -10893,7 +10763,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -10901,7 +10771,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -10909,7 +10779,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -10917,7 +10787,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="12.75" customHeight="1">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -10925,7 +10795,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="12.75" customHeight="1">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -10933,7 +10803,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="12.75" customHeight="1">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -10941,7 +10811,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="12.75" customHeight="1">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJeon\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJeon\Documents\GitHub\PayBack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="11295" windowHeight="7455" tabRatio="885" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Sprint 1 Burndown Chart</t>
   </si>
   <si>
@@ -983,17 +980,27 @@
   </si>
   <si>
     <t>hohyun,viquoc,arnav</t>
+  </si>
+  <si>
+    <t>Parked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1971,450 +1978,450 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="40" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="56" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="39" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="55" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="26" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="58" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="26" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2716,11 +2723,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="394653360"/>
-        <c:axId val="462980024"/>
+        <c:axId val="279903888"/>
+        <c:axId val="279904280"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="394653360"/>
+        <c:axId val="279903888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,14 +2767,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="462980024"/>
+        <c:crossAx val="279904280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462980024"/>
+        <c:axId val="279904280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,7 +2818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394653360"/>
+        <c:crossAx val="279903888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2985,8 +2992,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.9330333446591076E-2"/>
-                  <c:y val="0.12794731206925619"/>
+                  <c:x val="0.110994984054"/>
+                  <c:y val="0.16481278658105658"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -3103,10 +3110,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -3335,13 +3342,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3441,7 +3448,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3670,11 +3677,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="462983552"/>
-        <c:axId val="462981200"/>
+        <c:axId val="283084496"/>
+        <c:axId val="283086456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462983552"/>
+        <c:axId val="283084496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3773,14 +3780,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462981200"/>
+        <c:crossAx val="283086456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462981200"/>
+        <c:axId val="283086456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3891,7 +3898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462983552"/>
+        <c:crossAx val="283084496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4266,13 +4273,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4372,7 +4379,7 @@
                   <c:v>9.6666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3333333333333339</c:v>
+                  <c:v>4.3333333333333339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4472,7 +4479,7 @@
                   <c:v>7.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4572,7 +4579,7 @@
                   <c:v>7.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4994,8 +5001,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="462980416"/>
-        <c:axId val="462982768"/>
+        <c:axId val="283085280"/>
+        <c:axId val="283082928"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5095,7 +5102,7 @@
                         <c:v>7.666666666666667</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>3.3333333333333335</c:v>
+                        <c:v>2.3333333333333335</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5423,7 +5430,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462980416"/>
+        <c:axId val="283085280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5466,14 +5473,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462982768"/>
+        <c:crossAx val="283082928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462982768"/>
+        <c:axId val="283082928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5524,7 +5531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462980416"/>
+        <c:crossAx val="283085280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5740,13 +5747,13 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5870,11 +5877,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="462982376"/>
-        <c:axId val="466634328"/>
+        <c:axId val="283085672"/>
+        <c:axId val="283086064"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="462982376"/>
+        <c:axId val="283085672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5915,14 +5922,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="466634328"/>
+        <c:crossAx val="283086064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466634328"/>
+        <c:axId val="283086064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5967,7 +5974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462982376"/>
+        <c:crossAx val="283085672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7961,11 +7968,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>285749</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8153401" cy="5248276"/>
+    <xdr:ext cx="7800976" cy="4838701"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8292,13 +8299,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8320,7 +8327,7 @@
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>8</v>
@@ -8329,16 +8336,16 @@
         <v>7</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>8</v>
@@ -8347,16 +8354,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>33</v>
       </c>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>8</v>
@@ -8365,34 +8372,34 @@
         <v>7</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="E6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>6</v>
@@ -8401,16 +8408,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>39</v>
       </c>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>9</v>
@@ -8419,16 +8426,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>41</v>
       </c>
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>9</v>
@@ -8437,16 +8444,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>43</v>
       </c>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -8455,16 +8462,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>45</v>
       </c>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>9</v>
@@ -8473,16 +8480,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>9</v>
@@ -8491,16 +8498,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>8</v>
@@ -8509,16 +8516,16 @@
         <v>7</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>51</v>
       </c>
       <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>8</v>
@@ -8527,16 +8534,16 @@
         <v>7</v>
       </c>
       <c r="D14" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>53</v>
       </c>
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>8</v>
@@ -8545,16 +8552,16 @@
         <v>7</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>8</v>
@@ -8563,16 +8570,16 @@
         <v>7</v>
       </c>
       <c r="D16" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>6</v>
@@ -8581,16 +8588,16 @@
         <v>7</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>59</v>
       </c>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>6</v>
@@ -8599,16 +8606,16 @@
         <v>7</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>61</v>
       </c>
       <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>6</v>
@@ -8617,16 +8624,16 @@
         <v>7</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>62</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>63</v>
       </c>
       <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>6</v>
@@ -8635,16 +8642,16 @@
         <v>7</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>6</v>
@@ -8653,16 +8660,16 @@
         <v>7</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>66</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>67</v>
       </c>
       <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>6</v>
@@ -8671,16 +8678,16 @@
         <v>7</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>68</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>69</v>
       </c>
       <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>6</v>
@@ -8689,34 +8696,34 @@
         <v>7</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="E24" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>73</v>
       </c>
       <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>9</v>
@@ -8725,16 +8732,16 @@
         <v>7</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>9</v>
@@ -8743,34 +8750,34 @@
         <v>7</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>76</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>77</v>
       </c>
       <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="E27" s="30" t="s">
         <v>79</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>80</v>
       </c>
       <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>9</v>
@@ -8779,16 +8786,16 @@
         <v>7</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>81</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>82</v>
       </c>
       <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>9</v>
@@ -8797,16 +8804,16 @@
         <v>7</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>83</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>84</v>
       </c>
       <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>9</v>
@@ -8815,16 +8822,16 @@
         <v>7</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>190</v>
+        <v>84</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>189</v>
       </c>
       <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>9</v>
@@ -8833,16 +8840,16 @@
         <v>7</v>
       </c>
       <c r="D31" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>86</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>87</v>
       </c>
       <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>9</v>
@@ -8851,16 +8858,16 @@
         <v>7</v>
       </c>
       <c r="D32" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>88</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>89</v>
       </c>
       <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>9</v>
@@ -8869,16 +8876,16 @@
         <v>7</v>
       </c>
       <c r="D33" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>90</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>91</v>
       </c>
       <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>8</v>
@@ -8887,15 +8894,15 @@
         <v>10</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>8</v>
@@ -8904,15 +8911,15 @@
         <v>10</v>
       </c>
       <c r="D35" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>8</v>
@@ -8921,83 +8928,83 @@
         <v>10</v>
       </c>
       <c r="D36" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>8</v>
@@ -9006,15 +9013,15 @@
         <v>7</v>
       </c>
       <c r="D41" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="31" t="s">
         <v>102</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>8</v>
@@ -9023,15 +9030,15 @@
         <v>7</v>
       </c>
       <c r="D42" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>8</v>
@@ -9040,15 +9047,15 @@
         <v>7</v>
       </c>
       <c r="D43" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="31" t="s">
         <v>106</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>8</v>
@@ -9057,15 +9064,15 @@
         <v>7</v>
       </c>
       <c r="D44" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="31" t="s">
         <v>108</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>8</v>
@@ -9074,15 +9081,15 @@
         <v>7</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>6</v>
@@ -9091,15 +9098,15 @@
         <v>7</v>
       </c>
       <c r="D46" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="31" t="s">
         <v>111</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>6</v>
@@ -9108,15 +9115,15 @@
         <v>7</v>
       </c>
       <c r="D47" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>6</v>
@@ -9125,15 +9132,15 @@
         <v>7</v>
       </c>
       <c r="D48" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="31" t="s">
         <v>115</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>6</v>
@@ -9142,15 +9149,15 @@
         <v>7</v>
       </c>
       <c r="D49" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="31" t="s">
         <v>117</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>9</v>
@@ -9159,15 +9166,15 @@
         <v>10</v>
       </c>
       <c r="D50" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="31" t="s">
         <v>119</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>9</v>
@@ -9176,15 +9183,15 @@
         <v>7</v>
       </c>
       <c r="D51" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="31" t="s">
         <v>121</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>9</v>
@@ -9193,15 +9200,15 @@
         <v>7</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>9</v>
@@ -9210,15 +9217,15 @@
         <v>7</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>9</v>
@@ -9227,10 +9234,10 @@
         <v>7</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -9261,12 +9268,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -9275,19 +9282,19 @@
       <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>194</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>193</v>
       </c>
       <c r="C3" s="42">
         <v>2</v>
@@ -9295,16 +9302,16 @@
       <c r="D3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>188</v>
+      <c r="E3" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="42">
         <v>4</v>
@@ -9312,16 +9319,16 @@
       <c r="D4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>188</v>
+      <c r="E4" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="42">
         <v>4</v>
@@ -9329,16 +9336,16 @@
       <c r="D5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>188</v>
+      <c r="E5" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="42">
         <v>4</v>
@@ -9346,16 +9353,16 @@
       <c r="D6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>188</v>
+      <c r="E6" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="42">
         <v>1</v>
@@ -9363,16 +9370,16 @@
       <c r="D7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="50" t="s">
-        <v>188</v>
+      <c r="E7" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="42">
         <v>1</v>
@@ -9380,16 +9387,16 @@
       <c r="D8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>188</v>
+      <c r="E8" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="42">
         <v>1</v>
@@ -9397,16 +9404,16 @@
       <c r="D9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="50" t="s">
-        <v>188</v>
+      <c r="E9" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="42">
         <v>1</v>
@@ -9414,16 +9421,16 @@
       <c r="D10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>188</v>
+      <c r="E10" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="42">
         <v>1</v>
@@ -9431,16 +9438,16 @@
       <c r="D11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>188</v>
+      <c r="E11" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="42">
         <v>1</v>
@@ -9448,16 +9455,16 @@
       <c r="D12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="50" t="s">
-        <v>188</v>
+      <c r="E12" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="42">
         <v>1</v>
@@ -9465,16 +9472,16 @@
       <c r="D13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>188</v>
+      <c r="E13" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="42">
         <v>4</v>
@@ -9482,16 +9489,16 @@
       <c r="D14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="50" t="s">
-        <v>188</v>
+      <c r="E14" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="42">
         <v>4</v>
@@ -9499,16 +9506,16 @@
       <c r="D15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>188</v>
+      <c r="E15" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="42">
         <v>4</v>
@@ -9516,16 +9523,16 @@
       <c r="D16" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>188</v>
+      <c r="E16" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="42">
         <v>4</v>
@@ -9533,16 +9540,16 @@
       <c r="D17" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>188</v>
+      <c r="E17" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>209</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>208</v>
       </c>
       <c r="C18" s="42">
         <v>4</v>
@@ -9550,156 +9557,156 @@
       <c r="D18" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="50" t="s">
-        <v>188</v>
+      <c r="E18" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="42">
+        <v>4</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="42">
-        <v>4</v>
-      </c>
-      <c r="D19" s="68" t="s">
+      <c r="C20" s="42">
+        <v>4</v>
+      </c>
+      <c r="D20" s="67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="57" t="s">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="42">
+        <v>4</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="42">
-        <v>4</v>
-      </c>
-      <c r="D20" s="68" t="s">
+      <c r="C22" s="42">
+        <v>2</v>
+      </c>
+      <c r="D22" s="67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="106" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="42">
-        <v>4</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="57" t="s">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="56" t="s">
         <v>197</v>
-      </c>
-      <c r="C22" s="42">
-        <v>2</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>198</v>
       </c>
       <c r="C23" s="42">
         <v>8</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="67" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="42">
+        <v>2</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="42">
-        <v>2</v>
-      </c>
-      <c r="D24" s="68" t="s">
+      <c r="C25" s="42">
+        <v>2</v>
+      </c>
+      <c r="D25" s="67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="57" t="s">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="42">
-        <v>2</v>
-      </c>
-      <c r="D25" s="68" t="s">
+      <c r="C26" s="42">
+        <v>4</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="42">
+        <v>4</v>
+      </c>
+      <c r="D27" s="67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" s="42">
-        <v>4</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="57" t="s">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>202</v>
-      </c>
-      <c r="C27" s="42">
-        <v>4</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="57" t="s">
-        <v>203</v>
       </c>
       <c r="C28" s="42">
         <v>8</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="67" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>138</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>137</v>
       </c>
       <c r="C29" s="42">
         <v>2</v>
@@ -9710,10 +9717,10 @@
     </row>
     <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="42">
         <v>2</v>
@@ -9724,10 +9731,10 @@
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="104" t="s">
-        <v>231</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C31" s="42">
         <v>4</v>
@@ -9738,10 +9745,10 @@
     </row>
     <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="45">
         <v>2</v>
@@ -9752,10 +9759,10 @@
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C33" s="45">
         <v>2</v>
@@ -9766,10 +9773,10 @@
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" s="45">
         <v>2</v>
@@ -9780,10 +9787,10 @@
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" s="45">
         <v>2</v>
@@ -9794,10 +9801,10 @@
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="45">
         <v>4</v>
@@ -9808,10 +9815,10 @@
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="45">
         <v>2</v>
@@ -9822,10 +9829,10 @@
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="45">
         <v>4</v>
@@ -9836,10 +9843,10 @@
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="45">
         <v>4</v>
@@ -9850,10 +9857,10 @@
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="45">
         <v>2</v>
@@ -9864,10 +9871,10 @@
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="45">
         <v>2</v>
@@ -9878,10 +9885,10 @@
     </row>
     <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="45">
         <v>4</v>
@@ -9892,10 +9899,10 @@
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="45">
         <v>1</v>
@@ -9906,10 +9913,10 @@
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C44" s="45">
         <v>8</v>
@@ -9920,10 +9927,10 @@
     </row>
     <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" s="45">
         <v>4</v>
@@ -9934,10 +9941,10 @@
     </row>
     <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46" s="45">
         <v>4</v>
@@ -9948,10 +9955,10 @@
     </row>
     <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="45">
         <v>4</v>
@@ -9962,10 +9969,10 @@
     </row>
     <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C48" s="45">
         <v>4</v>
@@ -9976,10 +9983,10 @@
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" s="45">
         <v>4</v>
@@ -9990,10 +9997,10 @@
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" s="45">
         <v>4</v>
@@ -10004,10 +10011,10 @@
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="45">
         <v>4</v>
@@ -10018,10 +10025,10 @@
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" s="45">
         <v>8</v>
@@ -10032,122 +10039,122 @@
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="65" t="s">
-        <v>215</v>
+        <v>48</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>214</v>
       </c>
       <c r="C53" s="45">
         <v>8</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D53" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="65" t="s">
-        <v>216</v>
+        <v>48</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>215</v>
       </c>
       <c r="C54" s="45">
         <v>4</v>
       </c>
-      <c r="D54" s="69" t="s">
+      <c r="D54" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="116" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" s="98">
-        <v>2</v>
-      </c>
-      <c r="D55" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" s="97">
+        <v>2</v>
+      </c>
+      <c r="D55" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="116" t="s">
-        <v>246</v>
-      </c>
-      <c r="C56" s="98">
+        <v>48</v>
+      </c>
+      <c r="B56" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="C56" s="97">
         <v>16</v>
       </c>
-      <c r="D56" s="69" t="s">
+      <c r="D56" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="116" t="s">
-        <v>247</v>
-      </c>
-      <c r="C57" s="98">
-        <v>4</v>
-      </c>
-      <c r="D57" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="115" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="97">
+        <v>4</v>
+      </c>
+      <c r="D57" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="116" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="98">
-        <v>4</v>
-      </c>
-      <c r="D58" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="115" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="97">
+        <v>4</v>
+      </c>
+      <c r="D58" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="65" t="s">
-        <v>217</v>
+        <v>48</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>216</v>
       </c>
       <c r="C59" s="45">
         <v>2</v>
       </c>
-      <c r="D59" s="69" t="s">
+      <c r="D59" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="65" t="s">
-        <v>218</v>
+        <v>48</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>217</v>
       </c>
       <c r="C60" s="45">
         <v>4</v>
       </c>
-      <c r="D60" s="69" t="s">
+      <c r="D60" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C61" s="41">
         <v>2</v>
@@ -10158,10 +10165,10 @@
     </row>
     <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C62" s="41">
         <v>2</v>
@@ -10172,10 +10179,10 @@
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C63" s="41">
         <v>4</v>
@@ -10186,10 +10193,10 @@
     </row>
     <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" s="41">
         <v>4</v>
@@ -10197,16 +10204,16 @@
       <c r="D64" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="50" t="s">
-        <v>188</v>
+      <c r="E64" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65" s="41">
         <v>8</v>
@@ -10214,16 +10221,16 @@
       <c r="D65" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="50" t="s">
-        <v>188</v>
+      <c r="E65" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C66" s="41">
         <v>4</v>
@@ -10231,16 +10238,16 @@
       <c r="D66" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="50" t="s">
-        <v>188</v>
+      <c r="E66" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67" s="41">
         <v>4</v>
@@ -10251,10 +10258,10 @@
     </row>
     <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" s="41">
         <v>4</v>
@@ -10262,16 +10269,16 @@
       <c r="D68" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="50" t="s">
-        <v>188</v>
+      <c r="E68" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C69" s="41">
         <v>4</v>
@@ -10282,10 +10289,10 @@
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C70" s="41">
         <v>4</v>
@@ -10293,16 +10300,16 @@
       <c r="D70" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="50" t="s">
-        <v>188</v>
+      <c r="E70" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C71" s="41">
         <v>4</v>
@@ -10310,16 +10317,16 @@
       <c r="D71" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="50" t="s">
-        <v>188</v>
+      <c r="E71" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C72" s="41">
         <v>4</v>
@@ -10330,10 +10337,10 @@
     </row>
     <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C73" s="41">
         <v>4</v>
@@ -10341,16 +10348,16 @@
       <c r="D73" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="50" t="s">
-        <v>188</v>
+      <c r="E73" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C74" s="41">
         <v>8</v>
@@ -10361,10 +10368,10 @@
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C75" s="41">
         <v>8</v>
@@ -10375,10 +10382,10 @@
     </row>
     <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C76" s="41">
         <v>8</v>
@@ -10389,10 +10396,10 @@
     </row>
     <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C77" s="41">
         <v>4</v>
@@ -10403,10 +10410,10 @@
     </row>
     <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" s="41">
         <v>4</v>
@@ -10417,10 +10424,10 @@
     </row>
     <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" s="66" t="s">
-        <v>220</v>
+        <v>91</v>
+      </c>
+      <c r="B79" s="65" t="s">
+        <v>219</v>
       </c>
       <c r="C79" s="41">
         <v>4</v>
@@ -10431,10 +10438,10 @@
     </row>
     <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" s="113" t="s">
-        <v>234</v>
+        <v>91</v>
+      </c>
+      <c r="B80" s="112" t="s">
+        <v>233</v>
       </c>
       <c r="C80" s="41">
         <v>4</v>
@@ -10445,10 +10452,10 @@
     </row>
     <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" s="113" t="s">
-        <v>237</v>
+        <v>91</v>
+      </c>
+      <c r="B81" s="112" t="s">
+        <v>236</v>
       </c>
       <c r="C81" s="41">
         <v>1</v>
@@ -10459,10 +10466,10 @@
     </row>
     <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" s="113" t="s">
-        <v>238</v>
+        <v>91</v>
+      </c>
+      <c r="B82" s="112" t="s">
+        <v>237</v>
       </c>
       <c r="C82" s="41">
         <v>2</v>
@@ -10473,10 +10480,10 @@
     </row>
     <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="113" t="s">
-        <v>241</v>
+        <v>91</v>
+      </c>
+      <c r="B83" s="112" t="s">
+        <v>240</v>
       </c>
       <c r="C83" s="41">
         <v>1</v>
@@ -10487,10 +10494,10 @@
     </row>
     <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" s="113" t="s">
-        <v>239</v>
+        <v>91</v>
+      </c>
+      <c r="B84" s="112" t="s">
+        <v>238</v>
       </c>
       <c r="C84" s="41">
         <v>4</v>
@@ -10501,10 +10508,10 @@
     </row>
     <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="113" t="s">
-        <v>240</v>
+        <v>91</v>
+      </c>
+      <c r="B85" s="112" t="s">
+        <v>239</v>
       </c>
       <c r="C85" s="41">
         <v>4</v>
@@ -10514,95 +10521,95 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="71" t="s">
+      <c r="A86" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="50">
+        <v>16</v>
+      </c>
+      <c r="D86" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="50">
+        <v>1</v>
+      </c>
+      <c r="D87" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="50">
+        <v>2</v>
+      </c>
+      <c r="D88" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B89" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="B86" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="C86" s="51">
-        <v>16</v>
-      </c>
-      <c r="D86" s="71" t="s">
+      <c r="C89" s="50">
+        <v>2</v>
+      </c>
+      <c r="D89" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B87" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="C87" s="51">
-        <v>1</v>
-      </c>
-      <c r="D87" s="71" t="s">
+    </row>
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="50">
+        <v>2</v>
+      </c>
+      <c r="D90" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B88" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="51">
-        <v>2</v>
-      </c>
-      <c r="D88" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B89" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="C89" s="51">
-        <v>2</v>
-      </c>
-      <c r="D89" s="71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B90" s="62" t="s">
+    </row>
+    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="C90" s="51">
-        <v>2</v>
-      </c>
-      <c r="D90" s="71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B91" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="C91" s="51">
-        <v>2</v>
-      </c>
-      <c r="D91" s="71" t="s">
+      <c r="C91" s="50">
+        <v>2</v>
+      </c>
+      <c r="D91" s="70" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10685,29 +10692,29 @@
       <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="75" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="129" t="s">
+      <c r="H1" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="134"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="136" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="132" t="s">
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="132" t="s">
-        <v>207</v>
-      </c>
-      <c r="O1" s="133"/>
-      <c r="P1" s="134"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="138"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -10728,13 +10735,13 @@
       <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="75" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="48" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -10760,8 +10767,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>194</v>
+      <c r="A3" s="55" t="s">
+        <v>193</v>
       </c>
       <c r="B3" s="42">
         <v>2</v>
@@ -10770,44 +10777,44 @@
         <v>8</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F3" s="42"/>
-      <c r="G3" s="77"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="42">
         <v>2</v>
       </c>
       <c r="I3" s="42">
         <v>1</v>
       </c>
-      <c r="J3" s="77">
-        <v>0</v>
-      </c>
-      <c r="K3" s="78">
-        <v>0</v>
-      </c>
-      <c r="L3" s="79">
-        <v>0</v>
-      </c>
-      <c r="M3" s="77">
-        <v>0</v>
-      </c>
-      <c r="N3" s="78">
-        <v>0</v>
-      </c>
-      <c r="O3" s="79">
-        <v>0</v>
-      </c>
-      <c r="P3" s="79">
+      <c r="J3" s="76">
+        <v>0</v>
+      </c>
+      <c r="K3" s="77">
+        <v>0</v>
+      </c>
+      <c r="L3" s="78">
+        <v>0</v>
+      </c>
+      <c r="M3" s="76">
+        <v>0</v>
+      </c>
+      <c r="N3" s="77">
+        <v>0</v>
+      </c>
+      <c r="O3" s="78">
+        <v>0</v>
+      </c>
+      <c r="P3" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="42">
         <v>4</v>
@@ -10816,44 +10823,44 @@
         <v>8</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F4" s="42"/>
-      <c r="G4" s="77"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="42">
         <v>4</v>
       </c>
       <c r="I4" s="42">
         <v>4</v>
       </c>
-      <c r="J4" s="77">
-        <v>0</v>
-      </c>
-      <c r="K4" s="78">
-        <v>0</v>
-      </c>
-      <c r="L4" s="79">
-        <v>0</v>
-      </c>
-      <c r="M4" s="77">
-        <v>0</v>
-      </c>
-      <c r="N4" s="78">
-        <v>0</v>
-      </c>
-      <c r="O4" s="79">
-        <v>0</v>
-      </c>
-      <c r="P4" s="79">
+      <c r="J4" s="76">
+        <v>0</v>
+      </c>
+      <c r="K4" s="77">
+        <v>0</v>
+      </c>
+      <c r="L4" s="78">
+        <v>0</v>
+      </c>
+      <c r="M4" s="76">
+        <v>0</v>
+      </c>
+      <c r="N4" s="77">
+        <v>0</v>
+      </c>
+      <c r="O4" s="78">
+        <v>0</v>
+      </c>
+      <c r="P4" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="42">
         <v>4</v>
@@ -10862,44 +10869,44 @@
         <v>8</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F5" s="42"/>
-      <c r="G5" s="80"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="42">
         <v>4</v>
       </c>
       <c r="I5" s="42">
         <v>4</v>
       </c>
-      <c r="J5" s="80">
-        <v>0</v>
-      </c>
-      <c r="K5" s="81">
-        <v>0</v>
-      </c>
-      <c r="L5" s="79">
-        <v>0</v>
-      </c>
-      <c r="M5" s="80">
-        <v>0</v>
-      </c>
-      <c r="N5" s="81">
-        <v>0</v>
-      </c>
-      <c r="O5" s="79">
-        <v>0</v>
-      </c>
-      <c r="P5" s="79">
+      <c r="J5" s="79">
+        <v>0</v>
+      </c>
+      <c r="K5" s="80">
+        <v>0</v>
+      </c>
+      <c r="L5" s="78">
+        <v>0</v>
+      </c>
+      <c r="M5" s="79">
+        <v>0</v>
+      </c>
+      <c r="N5" s="80">
+        <v>0</v>
+      </c>
+      <c r="O5" s="78">
+        <v>0</v>
+      </c>
+      <c r="P5" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="42">
         <v>4</v>
@@ -10908,44 +10915,44 @@
         <v>8</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F6" s="42"/>
-      <c r="G6" s="80"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="42">
         <v>4</v>
       </c>
       <c r="I6" s="42">
         <v>4</v>
       </c>
-      <c r="J6" s="80">
-        <v>4</v>
-      </c>
-      <c r="K6" s="81">
-        <v>2</v>
-      </c>
-      <c r="L6" s="79">
-        <v>0</v>
-      </c>
-      <c r="M6" s="80">
-        <v>0</v>
-      </c>
-      <c r="N6" s="81">
-        <v>0</v>
-      </c>
-      <c r="O6" s="79">
-        <v>0</v>
-      </c>
-      <c r="P6" s="79">
+      <c r="J6" s="79">
+        <v>4</v>
+      </c>
+      <c r="K6" s="80">
+        <v>2</v>
+      </c>
+      <c r="L6" s="78">
+        <v>0</v>
+      </c>
+      <c r="M6" s="79">
+        <v>0</v>
+      </c>
+      <c r="N6" s="80">
+        <v>0</v>
+      </c>
+      <c r="O6" s="78">
+        <v>0</v>
+      </c>
+      <c r="P6" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="42">
         <v>4</v>
@@ -10953,45 +10960,45 @@
       <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>188</v>
+      <c r="D7" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F7" s="42"/>
-      <c r="G7" s="77"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="42">
         <v>4</v>
       </c>
       <c r="I7" s="42">
         <v>4</v>
       </c>
-      <c r="J7" s="77">
-        <v>4</v>
-      </c>
-      <c r="K7" s="78">
-        <v>4</v>
-      </c>
-      <c r="L7" s="79">
-        <v>4</v>
-      </c>
-      <c r="M7" s="77">
-        <v>0</v>
-      </c>
-      <c r="N7" s="78">
-        <v>0</v>
-      </c>
-      <c r="O7" s="79">
-        <v>0</v>
-      </c>
-      <c r="P7" s="79">
+      <c r="J7" s="76">
+        <v>4</v>
+      </c>
+      <c r="K7" s="77">
+        <v>4</v>
+      </c>
+      <c r="L7" s="78">
+        <v>4</v>
+      </c>
+      <c r="M7" s="76">
+        <v>0</v>
+      </c>
+      <c r="N7" s="77">
+        <v>0</v>
+      </c>
+      <c r="O7" s="78">
+        <v>0</v>
+      </c>
+      <c r="P7" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="42">
         <v>4</v>
@@ -10999,45 +11006,45 @@
       <c r="C8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>188</v>
+      <c r="D8" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F8" s="42"/>
-      <c r="G8" s="80"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="42">
         <v>4</v>
       </c>
       <c r="I8" s="42">
         <v>4</v>
       </c>
-      <c r="J8" s="80">
-        <v>4</v>
-      </c>
-      <c r="K8" s="81">
-        <v>4</v>
-      </c>
-      <c r="L8" s="79">
-        <v>4</v>
-      </c>
-      <c r="M8" s="80">
-        <v>2</v>
-      </c>
-      <c r="N8" s="81">
-        <v>0</v>
-      </c>
-      <c r="O8" s="79">
-        <v>0</v>
-      </c>
-      <c r="P8" s="79">
+      <c r="J8" s="79">
+        <v>4</v>
+      </c>
+      <c r="K8" s="80">
+        <v>4</v>
+      </c>
+      <c r="L8" s="78">
+        <v>4</v>
+      </c>
+      <c r="M8" s="79">
+        <v>2</v>
+      </c>
+      <c r="N8" s="80">
+        <v>0</v>
+      </c>
+      <c r="O8" s="78">
+        <v>0</v>
+      </c>
+      <c r="P8" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="42">
         <v>4</v>
@@ -11045,45 +11052,45 @@
       <c r="C9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>188</v>
+      <c r="D9" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F9" s="42"/>
-      <c r="G9" s="80"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="42">
         <v>4</v>
       </c>
       <c r="I9" s="42">
         <v>4</v>
       </c>
-      <c r="J9" s="80">
-        <v>4</v>
-      </c>
-      <c r="K9" s="81">
-        <v>4</v>
-      </c>
-      <c r="L9" s="79">
-        <v>4</v>
-      </c>
-      <c r="M9" s="80">
-        <v>2</v>
-      </c>
-      <c r="N9" s="81">
-        <v>0</v>
-      </c>
-      <c r="O9" s="79">
-        <v>0</v>
-      </c>
-      <c r="P9" s="79">
+      <c r="J9" s="79">
+        <v>4</v>
+      </c>
+      <c r="K9" s="80">
+        <v>4</v>
+      </c>
+      <c r="L9" s="78">
+        <v>4</v>
+      </c>
+      <c r="M9" s="79">
+        <v>2</v>
+      </c>
+      <c r="N9" s="80">
+        <v>0</v>
+      </c>
+      <c r="O9" s="78">
+        <v>0</v>
+      </c>
+      <c r="P9" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="42">
         <v>4</v>
@@ -11091,45 +11098,45 @@
       <c r="C10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>188</v>
+      <c r="D10" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F10" s="42"/>
-      <c r="G10" s="77"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="42">
         <v>4</v>
       </c>
       <c r="I10" s="42">
         <v>4</v>
       </c>
-      <c r="J10" s="77">
-        <v>4</v>
-      </c>
-      <c r="K10" s="78">
-        <v>4</v>
-      </c>
-      <c r="L10" s="79">
-        <v>4</v>
-      </c>
-      <c r="M10" s="77">
-        <v>4</v>
-      </c>
-      <c r="N10" s="78">
-        <v>0</v>
-      </c>
-      <c r="O10" s="79">
-        <v>0</v>
-      </c>
-      <c r="P10" s="79">
+      <c r="J10" s="76">
+        <v>4</v>
+      </c>
+      <c r="K10" s="77">
+        <v>4</v>
+      </c>
+      <c r="L10" s="78">
+        <v>4</v>
+      </c>
+      <c r="M10" s="76">
+        <v>4</v>
+      </c>
+      <c r="N10" s="77">
+        <v>0</v>
+      </c>
+      <c r="O10" s="78">
+        <v>0</v>
+      </c>
+      <c r="P10" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="42">
         <v>4</v>
@@ -11137,45 +11144,45 @@
       <c r="C11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>188</v>
+      <c r="D11" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F11" s="42"/>
-      <c r="G11" s="80"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="42">
         <v>4</v>
       </c>
       <c r="I11" s="42">
         <v>4</v>
       </c>
-      <c r="J11" s="80">
-        <v>4</v>
-      </c>
-      <c r="K11" s="81">
-        <v>4</v>
-      </c>
-      <c r="L11" s="79">
-        <v>4</v>
-      </c>
-      <c r="M11" s="80">
-        <v>4</v>
-      </c>
-      <c r="N11" s="81">
-        <v>2</v>
-      </c>
-      <c r="O11" s="79">
-        <v>2</v>
-      </c>
-      <c r="P11" s="79">
+      <c r="J11" s="79">
+        <v>4</v>
+      </c>
+      <c r="K11" s="80">
+        <v>4</v>
+      </c>
+      <c r="L11" s="78">
+        <v>4</v>
+      </c>
+      <c r="M11" s="79">
+        <v>4</v>
+      </c>
+      <c r="N11" s="80">
+        <v>2</v>
+      </c>
+      <c r="O11" s="78">
+        <v>2</v>
+      </c>
+      <c r="P11" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="42">
         <v>1</v>
@@ -11184,44 +11191,44 @@
         <v>6</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F12" s="42"/>
-      <c r="G12" s="77"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="42">
         <v>1</v>
       </c>
       <c r="I12" s="42">
         <v>1</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="76">
         <v>1</v>
       </c>
-      <c r="K12" s="78">
+      <c r="K12" s="77">
         <v>1</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="78">
         <v>1</v>
       </c>
-      <c r="M12" s="77">
-        <v>0</v>
-      </c>
-      <c r="N12" s="78">
-        <v>0</v>
-      </c>
-      <c r="O12" s="79">
-        <v>0</v>
-      </c>
-      <c r="P12" s="79">
+      <c r="M12" s="76">
+        <v>0</v>
+      </c>
+      <c r="N12" s="77">
+        <v>0</v>
+      </c>
+      <c r="O12" s="78">
+        <v>0</v>
+      </c>
+      <c r="P12" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="42">
         <v>1</v>
@@ -11229,45 +11236,45 @@
       <c r="C13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>188</v>
+      <c r="D13" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F13" s="42"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="42">
         <v>1</v>
       </c>
       <c r="I13" s="42">
         <v>1</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="76">
         <v>1</v>
       </c>
-      <c r="K13" s="78">
+      <c r="K13" s="77">
         <v>1</v>
       </c>
-      <c r="L13" s="79">
-        <v>0</v>
-      </c>
-      <c r="M13" s="77">
-        <v>0</v>
-      </c>
-      <c r="N13" s="78">
-        <v>0</v>
-      </c>
-      <c r="O13" s="79">
-        <v>0</v>
-      </c>
-      <c r="P13" s="79">
+      <c r="L13" s="78">
+        <v>0</v>
+      </c>
+      <c r="M13" s="76">
+        <v>0</v>
+      </c>
+      <c r="N13" s="77">
+        <v>0</v>
+      </c>
+      <c r="O13" s="78">
+        <v>0</v>
+      </c>
+      <c r="P13" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="42">
         <v>1</v>
@@ -11275,91 +11282,91 @@
       <c r="C14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>188</v>
+      <c r="D14" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F14" s="42"/>
-      <c r="G14" s="77"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="42">
         <v>1</v>
       </c>
       <c r="I14" s="42">
         <v>1</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="76">
         <v>1</v>
       </c>
-      <c r="K14" s="78">
+      <c r="K14" s="77">
         <v>1</v>
       </c>
-      <c r="L14" s="79">
-        <v>0</v>
-      </c>
-      <c r="M14" s="77">
-        <v>0</v>
-      </c>
-      <c r="N14" s="78">
-        <v>0</v>
-      </c>
-      <c r="O14" s="79">
-        <v>0</v>
-      </c>
-      <c r="P14" s="79">
+      <c r="L14" s="78">
+        <v>0</v>
+      </c>
+      <c r="M14" s="76">
+        <v>0</v>
+      </c>
+      <c r="N14" s="77">
+        <v>0</v>
+      </c>
+      <c r="O14" s="78">
+        <v>0</v>
+      </c>
+      <c r="P14" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="42">
         <v>1</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>188</v>
+      <c r="D15" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="77"/>
+      <c r="G15" s="76"/>
       <c r="H15" s="42">
         <v>1</v>
       </c>
       <c r="I15" s="42">
         <v>1</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="76">
         <v>1</v>
       </c>
-      <c r="K15" s="78">
+      <c r="K15" s="77">
         <v>1</v>
       </c>
-      <c r="L15" s="79">
+      <c r="L15" s="78">
         <v>1</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="76">
         <v>1</v>
       </c>
-      <c r="N15" s="78">
+      <c r="N15" s="77">
         <v>1</v>
       </c>
-      <c r="O15" s="79">
+      <c r="O15" s="78">
         <v>1</v>
       </c>
-      <c r="P15" s="79">
+      <c r="P15" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="42">
         <v>1</v>
@@ -11367,45 +11374,45 @@
       <c r="C16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>188</v>
+      <c r="D16" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F16" s="42"/>
-      <c r="G16" s="77"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="42">
         <v>1</v>
       </c>
       <c r="I16" s="42">
         <v>1</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="76">
         <v>1</v>
       </c>
-      <c r="K16" s="78">
+      <c r="K16" s="77">
         <v>1</v>
       </c>
-      <c r="L16" s="79">
+      <c r="L16" s="78">
         <v>1</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="76">
         <v>1</v>
       </c>
-      <c r="N16" s="78">
+      <c r="N16" s="77">
         <v>1</v>
       </c>
-      <c r="O16" s="79">
+      <c r="O16" s="78">
         <v>1</v>
       </c>
-      <c r="P16" s="79">
+      <c r="P16" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="42">
         <v>1</v>
@@ -11413,45 +11420,45 @@
       <c r="C17" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>188</v>
+      <c r="D17" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F17" s="42"/>
-      <c r="G17" s="77"/>
+      <c r="G17" s="76"/>
       <c r="H17" s="42">
         <v>1</v>
       </c>
       <c r="I17" s="42">
         <v>0</v>
       </c>
-      <c r="J17" s="77">
-        <v>0</v>
-      </c>
-      <c r="K17" s="78">
-        <v>0</v>
-      </c>
-      <c r="L17" s="79">
-        <v>0</v>
-      </c>
-      <c r="M17" s="77">
-        <v>0</v>
-      </c>
-      <c r="N17" s="78">
-        <v>0</v>
-      </c>
-      <c r="O17" s="79">
-        <v>0</v>
-      </c>
-      <c r="P17" s="79">
+      <c r="J17" s="76">
+        <v>0</v>
+      </c>
+      <c r="K17" s="77">
+        <v>0</v>
+      </c>
+      <c r="L17" s="78">
+        <v>0</v>
+      </c>
+      <c r="M17" s="76">
+        <v>0</v>
+      </c>
+      <c r="N17" s="77">
+        <v>0</v>
+      </c>
+      <c r="O17" s="78">
+        <v>0</v>
+      </c>
+      <c r="P17" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="45">
         <v>4</v>
@@ -11460,45 +11467,45 @@
         <v>6</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>214</v>
+        <v>182</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>213</v>
       </c>
       <c r="F18" s="45"/>
-      <c r="G18" s="83"/>
+      <c r="G18" s="82"/>
       <c r="H18" s="45">
         <v>4</v>
       </c>
       <c r="I18" s="45">
         <v>4</v>
       </c>
-      <c r="J18" s="83">
-        <v>4</v>
-      </c>
-      <c r="K18" s="84">
-        <v>4</v>
-      </c>
-      <c r="L18" s="85">
-        <v>4</v>
-      </c>
-      <c r="M18" s="83">
-        <v>4</v>
-      </c>
-      <c r="N18" s="84">
-        <v>4</v>
-      </c>
-      <c r="O18" s="85">
-        <v>4</v>
-      </c>
-      <c r="P18" s="85">
+      <c r="J18" s="82">
+        <v>4</v>
+      </c>
+      <c r="K18" s="83">
+        <v>4</v>
+      </c>
+      <c r="L18" s="84">
+        <v>4</v>
+      </c>
+      <c r="M18" s="82">
+        <v>4</v>
+      </c>
+      <c r="N18" s="83">
+        <v>4</v>
+      </c>
+      <c r="O18" s="84">
+        <v>4</v>
+      </c>
+      <c r="P18" s="84">
         <v>4</v>
       </c>
       <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="41">
         <v>4</v>
@@ -11507,45 +11514,45 @@
         <v>8</v>
       </c>
       <c r="D19" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="50" t="s">
-        <v>188</v>
-      </c>
       <c r="F19" s="41"/>
-      <c r="G19" s="86"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="41">
         <v>4</v>
       </c>
       <c r="I19" s="41">
         <v>4</v>
       </c>
-      <c r="J19" s="86">
-        <v>4</v>
-      </c>
-      <c r="K19" s="87">
-        <v>2</v>
-      </c>
-      <c r="L19" s="67">
-        <v>2</v>
-      </c>
-      <c r="M19" s="88">
-        <v>0</v>
-      </c>
-      <c r="N19" s="89">
-        <v>0</v>
-      </c>
-      <c r="O19" s="67">
-        <v>0</v>
-      </c>
-      <c r="P19" s="67">
+      <c r="J19" s="85">
+        <v>4</v>
+      </c>
+      <c r="K19" s="86">
+        <v>2</v>
+      </c>
+      <c r="L19" s="66">
+        <v>2</v>
+      </c>
+      <c r="M19" s="87">
+        <v>0</v>
+      </c>
+      <c r="N19" s="88">
+        <v>0</v>
+      </c>
+      <c r="O19" s="66">
+        <v>0</v>
+      </c>
+      <c r="P19" s="66">
         <v>0</v>
       </c>
       <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="41">
         <v>8</v>
@@ -11554,45 +11561,45 @@
         <v>8</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F20" s="41"/>
-      <c r="G20" s="86"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="41">
         <v>8</v>
       </c>
       <c r="I20" s="41">
         <v>8</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="85">
         <v>8</v>
       </c>
-      <c r="K20" s="87">
-        <v>4</v>
-      </c>
-      <c r="L20" s="67">
-        <v>2</v>
-      </c>
-      <c r="M20" s="86">
-        <v>2</v>
-      </c>
-      <c r="N20" s="87">
-        <v>0</v>
-      </c>
-      <c r="O20" s="67">
-        <v>0</v>
-      </c>
-      <c r="P20" s="67">
+      <c r="K20" s="86">
+        <v>4</v>
+      </c>
+      <c r="L20" s="66">
+        <v>2</v>
+      </c>
+      <c r="M20" s="85">
+        <v>2</v>
+      </c>
+      <c r="N20" s="86">
+        <v>0</v>
+      </c>
+      <c r="O20" s="66">
+        <v>0</v>
+      </c>
+      <c r="P20" s="66">
         <v>0</v>
       </c>
       <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="41">
         <v>4</v>
@@ -11601,44 +11608,44 @@
         <v>6</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F21" s="41"/>
-      <c r="G21" s="86"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="41">
         <v>4</v>
       </c>
       <c r="I21" s="41">
         <v>2</v>
       </c>
-      <c r="J21" s="86">
-        <v>0</v>
-      </c>
-      <c r="K21" s="87">
-        <v>0</v>
-      </c>
-      <c r="L21" s="67">
-        <v>0</v>
-      </c>
-      <c r="M21" s="86">
-        <v>0</v>
-      </c>
-      <c r="N21" s="87">
-        <v>0</v>
-      </c>
-      <c r="O21" s="67">
-        <v>0</v>
-      </c>
-      <c r="P21" s="67">
+      <c r="J21" s="85">
+        <v>0</v>
+      </c>
+      <c r="K21" s="86">
+        <v>0</v>
+      </c>
+      <c r="L21" s="66">
+        <v>0</v>
+      </c>
+      <c r="M21" s="85">
+        <v>0</v>
+      </c>
+      <c r="N21" s="86">
+        <v>0</v>
+      </c>
+      <c r="O21" s="66">
+        <v>0</v>
+      </c>
+      <c r="P21" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="41">
         <v>4</v>
@@ -11646,45 +11653,45 @@
       <c r="C22" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>188</v>
+      <c r="D22" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F22" s="41"/>
-      <c r="G22" s="86"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="41">
         <v>4</v>
       </c>
       <c r="I22" s="41">
         <v>4</v>
       </c>
-      <c r="J22" s="86">
-        <v>4</v>
-      </c>
-      <c r="K22" s="87">
-        <v>4</v>
-      </c>
-      <c r="L22" s="67">
-        <v>0</v>
-      </c>
-      <c r="M22" s="88">
-        <v>0</v>
-      </c>
-      <c r="N22" s="89">
-        <v>0</v>
-      </c>
-      <c r="O22" s="67">
-        <v>0</v>
-      </c>
-      <c r="P22" s="67">
+      <c r="J22" s="85">
+        <v>4</v>
+      </c>
+      <c r="K22" s="86">
+        <v>4</v>
+      </c>
+      <c r="L22" s="66">
+        <v>0</v>
+      </c>
+      <c r="M22" s="87">
+        <v>0</v>
+      </c>
+      <c r="N22" s="88">
+        <v>0</v>
+      </c>
+      <c r="O22" s="66">
+        <v>0</v>
+      </c>
+      <c r="P22" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="41">
         <v>2</v>
@@ -11692,33 +11699,33 @@
       <c r="C23" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>188</v>
+      <c r="D23" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F23" s="41"/>
-      <c r="G23" s="86"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="41">
         <v>2</v>
       </c>
       <c r="I23" s="41">
         <v>2</v>
       </c>
-      <c r="J23" s="86">
-        <v>2</v>
-      </c>
-      <c r="K23" s="87">
+      <c r="J23" s="85">
+        <v>2</v>
+      </c>
+      <c r="K23" s="86">
         <v>2</v>
       </c>
       <c r="L23" s="41">
         <v>0</v>
       </c>
-      <c r="M23" s="86">
-        <v>0</v>
-      </c>
-      <c r="N23" s="87">
+      <c r="M23" s="85">
+        <v>0</v>
+      </c>
+      <c r="N23" s="86">
         <v>0</v>
       </c>
       <c r="O23" s="41">
@@ -11730,7 +11737,7 @@
     </row>
     <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="41">
         <v>2</v>
@@ -11738,33 +11745,33 @@
       <c r="C24" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>188</v>
+      <c r="D24" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F24" s="41"/>
-      <c r="G24" s="86"/>
+      <c r="G24" s="85"/>
       <c r="H24" s="41">
         <v>2</v>
       </c>
       <c r="I24" s="41">
         <v>2</v>
       </c>
-      <c r="J24" s="86">
-        <v>2</v>
-      </c>
-      <c r="K24" s="87">
+      <c r="J24" s="85">
+        <v>2</v>
+      </c>
+      <c r="K24" s="86">
         <v>2</v>
       </c>
       <c r="L24" s="41">
         <v>0</v>
       </c>
-      <c r="M24" s="86">
-        <v>0</v>
-      </c>
-      <c r="N24" s="87">
+      <c r="M24" s="85">
+        <v>0</v>
+      </c>
+      <c r="N24" s="86">
         <v>0</v>
       </c>
       <c r="O24" s="41">
@@ -11775,8 +11782,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
-        <v>219</v>
+      <c r="A25" s="65" t="s">
+        <v>218</v>
       </c>
       <c r="B25" s="41">
         <v>4</v>
@@ -11785,32 +11792,32 @@
         <v>9</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>214</v>
+        <v>184</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>213</v>
       </c>
       <c r="F25" s="41"/>
-      <c r="G25" s="86"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="41">
         <v>4</v>
       </c>
       <c r="I25" s="41">
         <v>4</v>
       </c>
-      <c r="J25" s="86">
-        <v>4</v>
-      </c>
-      <c r="K25" s="87">
+      <c r="J25" s="85">
+        <v>4</v>
+      </c>
+      <c r="K25" s="86">
         <v>4</v>
       </c>
       <c r="L25" s="41">
         <v>4</v>
       </c>
-      <c r="M25" s="86">
-        <v>2</v>
-      </c>
-      <c r="N25" s="87">
+      <c r="M25" s="85">
+        <v>2</v>
+      </c>
+      <c r="N25" s="86">
         <v>2</v>
       </c>
       <c r="O25" s="41">
@@ -11821,8 +11828,8 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
-        <v>177</v>
+      <c r="A26" s="65" t="s">
+        <v>176</v>
       </c>
       <c r="B26" s="41">
         <v>4</v>
@@ -11831,182 +11838,182 @@
         <v>9</v>
       </c>
       <c r="D26" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="41">
+        <v>4</v>
+      </c>
+      <c r="I26" s="41">
+        <v>4</v>
+      </c>
+      <c r="J26" s="85">
+        <v>4</v>
+      </c>
+      <c r="K26" s="86">
+        <v>4</v>
+      </c>
+      <c r="L26" s="41">
+        <v>2</v>
+      </c>
+      <c r="M26" s="85">
+        <v>0</v>
+      </c>
+      <c r="N26" s="86">
+        <v>0</v>
+      </c>
+      <c r="O26" s="41">
+        <v>0</v>
+      </c>
+      <c r="P26" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="50">
+        <v>16</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="50">
+        <v>16</v>
+      </c>
+      <c r="I27" s="50">
+        <v>8</v>
+      </c>
+      <c r="J27" s="90">
+        <v>8</v>
+      </c>
+      <c r="K27" s="91">
+        <v>4</v>
+      </c>
+      <c r="L27" s="50">
+        <v>4</v>
+      </c>
+      <c r="M27" s="90">
+        <v>4</v>
+      </c>
+      <c r="N27" s="91">
+        <v>4</v>
+      </c>
+      <c r="O27" s="50">
+        <v>0</v>
+      </c>
+      <c r="P27" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="50">
+        <v>2</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E28" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="50">
+        <v>2</v>
+      </c>
+      <c r="I28" s="50">
+        <v>2</v>
+      </c>
+      <c r="J28" s="90">
+        <v>2</v>
+      </c>
+      <c r="K28" s="91">
+        <v>2</v>
+      </c>
+      <c r="L28" s="50">
+        <v>2</v>
+      </c>
+      <c r="M28" s="90">
+        <v>2</v>
+      </c>
+      <c r="N28" s="91">
+        <v>2</v>
+      </c>
+      <c r="O28" s="50">
+        <v>2</v>
+      </c>
+      <c r="P28" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="41">
-        <v>4</v>
-      </c>
-      <c r="I26" s="41">
-        <v>4</v>
-      </c>
-      <c r="J26" s="86">
-        <v>4</v>
-      </c>
-      <c r="K26" s="87">
-        <v>4</v>
-      </c>
-      <c r="L26" s="41">
-        <v>2</v>
-      </c>
-      <c r="M26" s="86">
-        <v>0</v>
-      </c>
-      <c r="N26" s="87">
-        <v>0</v>
-      </c>
-      <c r="O26" s="41">
-        <v>0</v>
-      </c>
-      <c r="P26" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="51">
-        <v>16</v>
-      </c>
-      <c r="C27" s="51" t="s">
+      <c r="B29" s="50">
+        <v>1</v>
+      </c>
+      <c r="C29" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="51">
-        <v>16</v>
-      </c>
-      <c r="I27" s="51">
-        <v>8</v>
-      </c>
-      <c r="J27" s="91">
-        <v>8</v>
-      </c>
-      <c r="K27" s="92">
-        <v>4</v>
-      </c>
-      <c r="L27" s="51">
-        <v>4</v>
-      </c>
-      <c r="M27" s="91">
-        <v>4</v>
-      </c>
-      <c r="N27" s="92">
-        <v>4</v>
-      </c>
-      <c r="O27" s="51">
-        <v>0</v>
-      </c>
-      <c r="P27" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="51">
-        <v>2</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="51">
-        <v>2</v>
-      </c>
-      <c r="I28" s="51">
-        <v>2</v>
-      </c>
-      <c r="J28" s="91">
-        <v>2</v>
-      </c>
-      <c r="K28" s="92">
-        <v>2</v>
-      </c>
-      <c r="L28" s="51">
-        <v>2</v>
-      </c>
-      <c r="M28" s="91">
-        <v>2</v>
-      </c>
-      <c r="N28" s="92">
-        <v>2</v>
-      </c>
-      <c r="O28" s="51">
-        <v>2</v>
-      </c>
-      <c r="P28" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="51">
+      <c r="D29" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="50">
         <v>1</v>
       </c>
-      <c r="C29" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="51">
-        <v>1</v>
-      </c>
-      <c r="I29" s="51">
-        <v>0</v>
-      </c>
-      <c r="J29" s="91">
-        <v>0</v>
-      </c>
-      <c r="K29" s="92">
-        <v>0</v>
-      </c>
-      <c r="L29" s="51">
-        <v>0</v>
-      </c>
-      <c r="M29" s="91">
-        <v>0</v>
-      </c>
-      <c r="N29" s="92">
-        <v>0</v>
-      </c>
-      <c r="O29" s="51">
-        <v>0</v>
-      </c>
-      <c r="P29" s="51">
+      <c r="I29" s="50">
+        <v>0</v>
+      </c>
+      <c r="J29" s="90">
+        <v>0</v>
+      </c>
+      <c r="K29" s="91">
+        <v>0</v>
+      </c>
+      <c r="L29" s="50">
+        <v>0</v>
+      </c>
+      <c r="M29" s="90">
+        <v>0</v>
+      </c>
+      <c r="N29" s="91">
+        <v>0</v>
+      </c>
+      <c r="O29" s="50">
+        <v>0</v>
+      </c>
+      <c r="P29" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="93" t="s">
-        <v>204</v>
+      <c r="F30" s="92" t="s">
+        <v>203</v>
       </c>
       <c r="H30" s="18">
         <f>SUM(H3:H29)</f>
@@ -12018,12 +12025,12 @@
     <row r="33" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L35" s="94"/>
+      <c r="L35" s="93"/>
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
     </row>
     <row r="36" spans="12:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L36" s="94"/>
+      <c r="L36" s="93"/>
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
     </row>
@@ -12153,34 +12160,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="A1" s="139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>22</v>
@@ -12212,102 +12219,102 @@
     </row>
     <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="58">
+      <c r="B4" s="57">
         <v>41535</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="58">
         <v>41537</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="59">
         <v>41540</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="57">
         <v>41542</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="58">
         <v>41544</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="59">
         <v>41547</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="57">
         <v>41549</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="58">
         <v>41551</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="59">
         <v>41554</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23"/>
-      <c r="B5" s="102">
+      <c r="B5" s="101">
         <v>1</v>
       </c>
-      <c r="C5" s="103">
-        <v>2</v>
-      </c>
-      <c r="D5" s="103">
+      <c r="C5" s="102">
+        <v>2</v>
+      </c>
+      <c r="D5" s="102">
         <v>3</v>
       </c>
-      <c r="E5" s="103">
-        <v>4</v>
-      </c>
-      <c r="F5" s="103">
+      <c r="E5" s="102">
+        <v>4</v>
+      </c>
+      <c r="F5" s="102">
         <v>5</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="102">
         <v>6</v>
       </c>
-      <c r="H5" s="103">
+      <c r="H5" s="102">
         <v>7</v>
       </c>
-      <c r="I5" s="103">
+      <c r="I5" s="102">
         <v>8</v>
       </c>
-      <c r="J5" s="102">
+      <c r="J5" s="101">
         <v>9</v>
       </c>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="103">
+        <v>26</v>
+      </c>
+      <c r="B6" s="102">
         <f>SUM('Sprint 1'!H3:H29)</f>
         <v>95</v>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="102">
         <f>SUM('Sprint 1'!I3:I29)</f>
         <v>82</v>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="102">
         <f>SUM('Sprint 1'!J3:J29)</f>
         <v>71</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="102">
         <f>SUM('Sprint 1'!K3:K29)</f>
         <v>59</v>
       </c>
-      <c r="F6" s="103">
+      <c r="F6" s="102">
         <f>SUM('Sprint 1'!L3:L29)</f>
         <v>43</v>
       </c>
-      <c r="G6" s="103">
+      <c r="G6" s="102">
         <f>SUM('Sprint 1'!M3:M29)</f>
         <v>28</v>
       </c>
-      <c r="H6" s="103">
+      <c r="H6" s="102">
         <f>SUM('Sprint 1'!N3:N29)</f>
         <v>16</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="102">
         <f>SUM('Sprint 1'!O3:O29)</f>
         <v>12</v>
       </c>
-      <c r="J6" s="102">
+      <c r="J6" s="101">
         <f>SUM('Sprint 1'!P3:P29)</f>
         <v>6</v>
       </c>
@@ -12315,41 +12322,41 @@
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="100">
+        <v>27</v>
+      </c>
+      <c r="B7" s="99">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((B5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>95</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="99">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((C5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>83.125</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="99">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((D5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>71.25</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="99">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((E5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>59.375</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="99">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((F5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>47.5</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="99">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((G5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>35.625</v>
       </c>
-      <c r="H7" s="100">
+      <c r="H7" s="99">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((H5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>23.75</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="99">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((I5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>11.875</v>
       </c>
-      <c r="J7" s="101">
+      <c r="J7" s="100">
         <f>SUM('Sprint 1'!$B$3:$B$29)-(((J5-1)*SUM('Sprint 1'!$B$3:$B$29))/($J$5-1))</f>
         <v>0</v>
       </c>
@@ -12360,7 +12367,7 @@
     <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -12528,9 +12535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12556,32 +12563,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="75" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="136" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="137"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="132" t="s">
-        <v>224</v>
-      </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="132" t="s">
-        <v>230</v>
-      </c>
-      <c r="O1" s="133"/>
-      <c r="P1" s="134"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="137"/>
+      <c r="P1" s="138"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -12602,13 +12609,13 @@
       <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="48" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -12634,30 +12641,30 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>199</v>
+      <c r="A3" s="56" t="s">
+        <v>198</v>
       </c>
       <c r="B3" s="42">
         <v>2</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="97" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>25</v>
+      <c r="D3" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F3" s="42"/>
-      <c r="G3" s="77"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="39">
         <v>2</v>
       </c>
       <c r="I3" s="39">
         <v>2</v>
       </c>
-      <c r="J3" s="144">
+      <c r="J3" s="125">
         <v>2</v>
       </c>
       <c r="K3" s="44">
@@ -12666,7 +12673,7 @@
       <c r="L3" s="43">
         <v>0</v>
       </c>
-      <c r="M3" s="144">
+      <c r="M3" s="125">
         <v>0</v>
       </c>
       <c r="N3" s="44">
@@ -12680,34 +12687,34 @@
       </c>
       <c r="R3">
         <f>SUM(P3:P9)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>196</v>
+      <c r="A4" s="56" t="s">
+        <v>195</v>
       </c>
       <c r="B4" s="42">
         <v>8</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="105" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>25</v>
+      <c r="D4" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F4" s="42"/>
-      <c r="G4" s="77"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="39">
         <v>8</v>
       </c>
       <c r="I4" s="39">
         <v>8</v>
       </c>
-      <c r="J4" s="144">
+      <c r="J4" s="125">
         <v>4</v>
       </c>
       <c r="K4" s="44">
@@ -12716,44 +12723,44 @@
       <c r="L4" s="43">
         <v>2</v>
       </c>
-      <c r="M4" s="144">
+      <c r="M4" s="125">
         <v>2</v>
       </c>
       <c r="N4" s="44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
-        <v>232</v>
+      <c r="A5" s="105" t="s">
+        <v>231</v>
       </c>
       <c r="B5" s="42">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="105" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>188</v>
+      <c r="D5" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F5" s="42"/>
-      <c r="G5" s="77"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="39">
         <v>4</v>
       </c>
       <c r="I5" s="39">
         <v>4</v>
       </c>
-      <c r="J5" s="144">
+      <c r="J5" s="125">
         <v>4</v>
       </c>
       <c r="K5" s="44">
@@ -12762,7 +12769,7 @@
       <c r="L5" s="43">
         <v>2</v>
       </c>
-      <c r="M5" s="144">
+      <c r="M5" s="125">
         <v>0</v>
       </c>
       <c r="N5" s="44">
@@ -12776,30 +12783,30 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>202</v>
+      <c r="A6" s="56" t="s">
+        <v>201</v>
       </c>
       <c r="B6" s="42">
         <v>4</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="97" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>25</v>
+      <c r="D6" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="148" t="s">
+        <v>260</v>
       </c>
       <c r="F6" s="42"/>
-      <c r="G6" s="77"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="39">
         <v>4</v>
       </c>
       <c r="I6" s="39">
         <v>4</v>
       </c>
-      <c r="J6" s="144">
+      <c r="J6" s="125">
         <v>4</v>
       </c>
       <c r="K6" s="44">
@@ -12808,7 +12815,7 @@
       <c r="L6" s="43">
         <v>4</v>
       </c>
-      <c r="M6" s="144">
+      <c r="M6" s="125">
         <v>4</v>
       </c>
       <c r="N6" s="44">
@@ -12823,7 +12830,7 @@
     </row>
     <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="42">
         <v>1</v>
@@ -12831,21 +12838,21 @@
       <c r="C7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>188</v>
+      <c r="D7" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F7" s="42"/>
-      <c r="G7" s="77"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="39">
         <v>1</v>
       </c>
       <c r="I7" s="39">
         <v>0</v>
       </c>
-      <c r="J7" s="144">
+      <c r="J7" s="125">
         <v>0</v>
       </c>
       <c r="K7" s="44">
@@ -12854,7 +12861,7 @@
       <c r="L7" s="43">
         <v>0</v>
       </c>
-      <c r="M7" s="144">
+      <c r="M7" s="125">
         <v>0</v>
       </c>
       <c r="N7" s="44">
@@ -12868,8 +12875,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
-        <v>138</v>
+      <c r="A8" s="62" t="s">
+        <v>137</v>
       </c>
       <c r="B8" s="42">
         <v>2</v>
@@ -12877,21 +12884,21 @@
       <c r="C8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>188</v>
+      <c r="D8" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F8" s="42"/>
-      <c r="G8" s="77"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="39">
         <v>2</v>
       </c>
       <c r="I8" s="39">
         <v>1</v>
       </c>
-      <c r="J8" s="144">
+      <c r="J8" s="125">
         <v>0</v>
       </c>
       <c r="K8" s="44">
@@ -12900,7 +12907,7 @@
       <c r="L8" s="43">
         <v>0</v>
       </c>
-      <c r="M8" s="144">
+      <c r="M8" s="125">
         <v>0</v>
       </c>
       <c r="N8" s="44">
@@ -12914,8 +12921,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104" t="s">
-        <v>231</v>
+      <c r="A9" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="B9" s="42">
         <v>4</v>
@@ -12923,21 +12930,21 @@
       <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>25</v>
+      <c r="D9" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F9" s="42"/>
-      <c r="G9" s="77"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="39">
         <v>4</v>
       </c>
       <c r="I9" s="39">
         <v>4</v>
       </c>
-      <c r="J9" s="144">
+      <c r="J9" s="125">
         <v>4</v>
       </c>
       <c r="K9" s="44">
@@ -12946,348 +12953,348 @@
       <c r="L9" s="43">
         <v>3</v>
       </c>
-      <c r="M9" s="144">
+      <c r="M9" s="125">
         <v>2</v>
       </c>
       <c r="N9" s="44">
         <v>2</v>
       </c>
       <c r="O9" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="116" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="98">
-        <v>2</v>
-      </c>
-      <c r="C10" s="98" t="s">
+      <c r="A10" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="97">
+        <v>2</v>
+      </c>
+      <c r="C10" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>25</v>
+      <c r="D10" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F10" s="45"/>
-      <c r="G10" s="83"/>
+      <c r="G10" s="82"/>
       <c r="H10" s="36">
         <v>2</v>
       </c>
       <c r="I10" s="36">
         <v>2</v>
       </c>
-      <c r="J10" s="145">
-        <v>2</v>
-      </c>
-      <c r="K10" s="146">
-        <v>2</v>
-      </c>
-      <c r="L10" s="47">
-        <v>2</v>
-      </c>
-      <c r="M10" s="145">
-        <v>2</v>
-      </c>
-      <c r="N10" s="146">
-        <v>2</v>
-      </c>
-      <c r="O10" s="47">
-        <v>2</v>
-      </c>
-      <c r="P10" s="47">
+      <c r="J10" s="126">
+        <v>2</v>
+      </c>
+      <c r="K10" s="127">
+        <v>2</v>
+      </c>
+      <c r="L10" s="46">
+        <v>2</v>
+      </c>
+      <c r="M10" s="126">
+        <v>2</v>
+      </c>
+      <c r="N10" s="127">
+        <v>2</v>
+      </c>
+      <c r="O10" s="46">
+        <v>2</v>
+      </c>
+      <c r="P10" s="46">
         <v>0</v>
       </c>
       <c r="R10">
         <f>SUM(P10:P21)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="98">
+      <c r="A11" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="97">
         <v>16</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>25</v>
+      <c r="D11" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="148" t="s">
+        <v>260</v>
       </c>
       <c r="F11" s="45"/>
-      <c r="G11" s="83"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="36">
         <v>16</v>
       </c>
       <c r="I11" s="36">
         <v>16</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="126">
         <v>16</v>
       </c>
-      <c r="K11" s="146">
+      <c r="K11" s="127">
         <v>8</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="46">
         <v>8</v>
       </c>
-      <c r="M11" s="145">
+      <c r="M11" s="126">
         <v>8</v>
       </c>
-      <c r="N11" s="146">
+      <c r="N11" s="127">
         <v>8</v>
       </c>
-      <c r="O11" s="47">
+      <c r="O11" s="46">
         <v>8</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="115" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="97">
+        <v>4</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="36">
+        <v>4</v>
+      </c>
+      <c r="I12" s="36">
+        <v>4</v>
+      </c>
+      <c r="J12" s="126">
+        <v>4</v>
+      </c>
+      <c r="K12" s="127">
+        <v>4</v>
+      </c>
+      <c r="L12" s="46">
+        <v>2</v>
+      </c>
+      <c r="M12" s="126">
+        <v>2</v>
+      </c>
+      <c r="N12" s="127">
+        <v>2</v>
+      </c>
+      <c r="O12" s="46">
+        <v>2</v>
+      </c>
+      <c r="P12" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="98">
-        <v>4</v>
-      </c>
-      <c r="C12" s="98" t="s">
+      <c r="B13" s="97">
+        <v>4</v>
+      </c>
+      <c r="C13" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="36">
-        <v>4</v>
-      </c>
-      <c r="I12" s="36">
-        <v>4</v>
-      </c>
-      <c r="J12" s="145">
-        <v>4</v>
-      </c>
-      <c r="K12" s="146">
-        <v>4</v>
-      </c>
-      <c r="L12" s="47">
-        <v>2</v>
-      </c>
-      <c r="M12" s="145">
-        <v>2</v>
-      </c>
-      <c r="N12" s="146">
-        <v>2</v>
-      </c>
-      <c r="O12" s="47">
-        <v>2</v>
-      </c>
-      <c r="P12" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="98">
-        <v>4</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>25</v>
+      <c r="D13" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F13" s="45"/>
-      <c r="G13" s="83"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="36">
         <v>4</v>
       </c>
       <c r="I13" s="36">
         <v>4</v>
       </c>
-      <c r="J13" s="145">
-        <v>4</v>
-      </c>
-      <c r="K13" s="146">
-        <v>4</v>
-      </c>
-      <c r="L13" s="47">
-        <v>4</v>
-      </c>
-      <c r="M13" s="145">
-        <v>4</v>
-      </c>
-      <c r="N13" s="146">
-        <v>4</v>
-      </c>
-      <c r="O13" s="47">
-        <v>4</v>
-      </c>
-      <c r="P13" s="47">
-        <v>2</v>
+      <c r="J13" s="126">
+        <v>4</v>
+      </c>
+      <c r="K13" s="127">
+        <v>4</v>
+      </c>
+      <c r="L13" s="46">
+        <v>4</v>
+      </c>
+      <c r="M13" s="126">
+        <v>4</v>
+      </c>
+      <c r="N13" s="127">
+        <v>4</v>
+      </c>
+      <c r="O13" s="46">
+        <v>4</v>
+      </c>
+      <c r="P13" s="46">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
-        <v>233</v>
+      <c r="A14" s="106" t="s">
+        <v>232</v>
       </c>
       <c r="B14" s="45">
         <v>8</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>188</v>
+      <c r="D14" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="F14" s="45"/>
-      <c r="G14" s="83"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="36">
         <v>8</v>
       </c>
       <c r="I14" s="36">
         <v>8</v>
       </c>
-      <c r="J14" s="145">
+      <c r="J14" s="126">
         <v>8</v>
       </c>
-      <c r="K14" s="146">
+      <c r="K14" s="127">
         <v>8</v>
       </c>
-      <c r="L14" s="47">
-        <v>4</v>
-      </c>
-      <c r="M14" s="145">
-        <v>0</v>
-      </c>
-      <c r="N14" s="146">
-        <v>0</v>
-      </c>
-      <c r="O14" s="47">
-        <v>0</v>
-      </c>
-      <c r="P14" s="47">
+      <c r="L14" s="46">
+        <v>4</v>
+      </c>
+      <c r="M14" s="126">
+        <v>0</v>
+      </c>
+      <c r="N14" s="127">
+        <v>0</v>
+      </c>
+      <c r="O14" s="46">
+        <v>0</v>
+      </c>
+      <c r="P14" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>215</v>
+      <c r="A15" s="64" t="s">
+        <v>214</v>
       </c>
       <c r="B15" s="45">
         <v>8</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="98" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>25</v>
+      <c r="D15" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="148" t="s">
+        <v>260</v>
       </c>
       <c r="F15" s="45"/>
-      <c r="G15" s="83"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="36">
         <v>8</v>
       </c>
       <c r="I15" s="36">
         <v>7</v>
       </c>
-      <c r="J15" s="145">
+      <c r="J15" s="126">
         <v>7</v>
       </c>
-      <c r="K15" s="146">
+      <c r="K15" s="127">
         <v>6</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="46">
         <v>6</v>
       </c>
-      <c r="M15" s="145">
+      <c r="M15" s="126">
         <v>6</v>
       </c>
-      <c r="N15" s="146">
+      <c r="N15" s="127">
         <v>6</v>
       </c>
-      <c r="O15" s="47">
+      <c r="O15" s="46">
         <v>6</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="46">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>218</v>
+      <c r="A16" s="64" t="s">
+        <v>217</v>
       </c>
       <c r="B16" s="45">
         <v>4</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>25</v>
+      <c r="D16" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="148" t="s">
+        <v>260</v>
       </c>
       <c r="F16" s="45"/>
-      <c r="G16" s="83"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="36">
         <v>4</v>
       </c>
       <c r="I16" s="36">
         <v>4</v>
       </c>
-      <c r="J16" s="145">
-        <v>4</v>
-      </c>
-      <c r="K16" s="146">
-        <v>4</v>
-      </c>
-      <c r="L16" s="47">
-        <v>4</v>
-      </c>
-      <c r="M16" s="145">
-        <v>4</v>
-      </c>
-      <c r="N16" s="146">
-        <v>4</v>
-      </c>
-      <c r="O16" s="47">
-        <v>4</v>
-      </c>
-      <c r="P16" s="47">
+      <c r="J16" s="126">
+        <v>4</v>
+      </c>
+      <c r="K16" s="127">
+        <v>4</v>
+      </c>
+      <c r="L16" s="46">
+        <v>4</v>
+      </c>
+      <c r="M16" s="126">
+        <v>4</v>
+      </c>
+      <c r="N16" s="127">
+        <v>4</v>
+      </c>
+      <c r="O16" s="46">
+        <v>4</v>
+      </c>
+      <c r="P16" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="45">
         <v>2</v>
@@ -13295,45 +13302,45 @@
       <c r="C17" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>25</v>
+      <c r="D17" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="148" t="s">
+        <v>260</v>
       </c>
       <c r="F17" s="45"/>
-      <c r="G17" s="83"/>
+      <c r="G17" s="82"/>
       <c r="H17" s="36">
         <v>2</v>
       </c>
       <c r="I17" s="36">
         <v>2</v>
       </c>
-      <c r="J17" s="145">
-        <v>2</v>
-      </c>
-      <c r="K17" s="146">
-        <v>2</v>
-      </c>
-      <c r="L17" s="47">
-        <v>2</v>
-      </c>
-      <c r="M17" s="145">
-        <v>2</v>
-      </c>
-      <c r="N17" s="146">
-        <v>2</v>
-      </c>
-      <c r="O17" s="47">
-        <v>2</v>
-      </c>
-      <c r="P17" s="47">
+      <c r="J17" s="126">
+        <v>2</v>
+      </c>
+      <c r="K17" s="127">
+        <v>2</v>
+      </c>
+      <c r="L17" s="46">
+        <v>2</v>
+      </c>
+      <c r="M17" s="126">
+        <v>2</v>
+      </c>
+      <c r="N17" s="127">
+        <v>2</v>
+      </c>
+      <c r="O17" s="46">
+        <v>2</v>
+      </c>
+      <c r="P17" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="45">
         <v>1</v>
@@ -13341,39 +13348,39 @@
       <c r="C18" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>25</v>
+      <c r="D18" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="148" t="s">
+        <v>260</v>
       </c>
       <c r="F18" s="45"/>
-      <c r="G18" s="83"/>
+      <c r="G18" s="82"/>
       <c r="H18" s="36">
         <v>1</v>
       </c>
       <c r="I18" s="36">
         <v>1</v>
       </c>
-      <c r="J18" s="145">
+      <c r="J18" s="126">
         <v>1</v>
       </c>
-      <c r="K18" s="146">
+      <c r="K18" s="127">
         <v>1</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="46">
         <v>1</v>
       </c>
-      <c r="M18" s="145">
+      <c r="M18" s="126">
         <v>1</v>
       </c>
-      <c r="N18" s="146">
+      <c r="N18" s="127">
         <v>1</v>
       </c>
-      <c r="O18" s="47">
+      <c r="O18" s="46">
         <v>1</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>1</v>
       </c>
       <c r="R18">
@@ -13383,7 +13390,7 @@
     </row>
     <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="45">
         <v>2</v>
@@ -13391,45 +13398,45 @@
       <c r="C19" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="117" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="115" t="s">
-        <v>188</v>
+      <c r="D19" s="116" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="114" t="s">
+        <v>187</v>
       </c>
       <c r="F19" s="45"/>
-      <c r="G19" s="83"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="36">
         <v>2</v>
       </c>
       <c r="I19" s="36">
         <v>2</v>
       </c>
-      <c r="J19" s="145">
-        <v>2</v>
-      </c>
-      <c r="K19" s="146">
+      <c r="J19" s="126">
+        <v>2</v>
+      </c>
+      <c r="K19" s="127">
         <v>1</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="46">
         <v>1</v>
       </c>
-      <c r="M19" s="145">
+      <c r="M19" s="126">
         <v>1</v>
       </c>
-      <c r="N19" s="146">
-        <v>0</v>
-      </c>
-      <c r="O19" s="47">
-        <v>0</v>
-      </c>
-      <c r="P19" s="47">
+      <c r="N19" s="127">
+        <v>0</v>
+      </c>
+      <c r="O19" s="46">
+        <v>0</v>
+      </c>
+      <c r="P19" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="45">
         <v>2</v>
@@ -13438,44 +13445,44 @@
         <v>6</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>25</v>
+        <v>250</v>
+      </c>
+      <c r="E20" s="148" t="s">
+        <v>260</v>
       </c>
       <c r="F20" s="45"/>
-      <c r="G20" s="83"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="36">
         <v>2</v>
       </c>
       <c r="I20" s="36">
         <v>2</v>
       </c>
-      <c r="J20" s="145">
-        <v>2</v>
-      </c>
-      <c r="K20" s="146">
-        <v>2</v>
-      </c>
-      <c r="L20" s="47">
-        <v>2</v>
-      </c>
-      <c r="M20" s="145">
-        <v>2</v>
-      </c>
-      <c r="N20" s="146">
-        <v>2</v>
-      </c>
-      <c r="O20" s="47">
-        <v>2</v>
-      </c>
-      <c r="P20" s="47">
+      <c r="J20" s="126">
+        <v>2</v>
+      </c>
+      <c r="K20" s="127">
+        <v>2</v>
+      </c>
+      <c r="L20" s="46">
+        <v>2</v>
+      </c>
+      <c r="M20" s="126">
+        <v>2</v>
+      </c>
+      <c r="N20" s="127">
+        <v>2</v>
+      </c>
+      <c r="O20" s="46">
+        <v>2</v>
+      </c>
+      <c r="P20" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="45">
         <v>1</v>
@@ -13483,125 +13490,125 @@
       <c r="C21" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>25</v>
+      <c r="D21" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="148" t="s">
+        <v>260</v>
       </c>
       <c r="F21" s="45"/>
-      <c r="G21" s="83"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="36">
         <v>1</v>
       </c>
       <c r="I21" s="36">
         <v>1</v>
       </c>
-      <c r="J21" s="145">
+      <c r="J21" s="126">
         <v>1</v>
       </c>
-      <c r="K21" s="146">
+      <c r="K21" s="127">
         <v>1</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="46">
         <v>1</v>
       </c>
-      <c r="M21" s="145">
+      <c r="M21" s="126">
         <v>1</v>
       </c>
-      <c r="N21" s="146">
+      <c r="N21" s="127">
         <v>1</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O21" s="46">
         <v>1</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="41">
+        <v>4</v>
+      </c>
+      <c r="C22" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="41">
-        <v>4</v>
-      </c>
-      <c r="C22" s="114" t="s">
+      <c r="D22" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="E22" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="40">
+        <v>4</v>
+      </c>
+      <c r="I22" s="40">
+        <v>4</v>
+      </c>
+      <c r="J22" s="110">
+        <v>2</v>
+      </c>
+      <c r="K22" s="111">
+        <v>2</v>
+      </c>
+      <c r="L22" s="40">
+        <v>0</v>
+      </c>
+      <c r="M22" s="110">
+        <v>0</v>
+      </c>
+      <c r="N22" s="111">
+        <v>0</v>
+      </c>
+      <c r="O22" s="40">
+        <v>0</v>
+      </c>
+      <c r="P22" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="112" t="s">
         <v>236</v>
-      </c>
-      <c r="E22" s="115" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="40">
-        <v>4</v>
-      </c>
-      <c r="I22" s="40">
-        <v>4</v>
-      </c>
-      <c r="J22" s="111">
-        <v>2</v>
-      </c>
-      <c r="K22" s="112">
-        <v>2</v>
-      </c>
-      <c r="L22" s="40">
-        <v>0</v>
-      </c>
-      <c r="M22" s="111">
-        <v>0</v>
-      </c>
-      <c r="N22" s="112">
-        <v>0</v>
-      </c>
-      <c r="O22" s="40">
-        <v>0</v>
-      </c>
-      <c r="P22" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113" t="s">
-        <v>237</v>
       </c>
       <c r="B23" s="41">
         <v>1</v>
       </c>
-      <c r="C23" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="114" t="s">
+      <c r="C23" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="115" t="s">
-        <v>188</v>
-      </c>
       <c r="F23" s="41"/>
-      <c r="G23" s="110"/>
+      <c r="G23" s="109"/>
       <c r="H23" s="40">
         <v>1</v>
       </c>
       <c r="I23" s="40">
         <v>1</v>
       </c>
-      <c r="J23" s="111">
+      <c r="J23" s="110">
         <v>1</v>
       </c>
-      <c r="K23" s="112">
+      <c r="K23" s="111">
         <v>1</v>
       </c>
       <c r="L23" s="40">
         <v>1</v>
       </c>
-      <c r="M23" s="111">
+      <c r="M23" s="110">
         <v>1</v>
       </c>
-      <c r="N23" s="112">
+      <c r="N23" s="111">
         <v>0</v>
       </c>
       <c r="O23" s="40">
@@ -13612,42 +13619,42 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="113" t="s">
-        <v>238</v>
+      <c r="A24" s="112" t="s">
+        <v>237</v>
       </c>
       <c r="B24" s="41">
         <v>2</v>
       </c>
-      <c r="C24" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="D24" s="114" t="s">
+      <c r="C24" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="119" t="s">
-        <v>188</v>
-      </c>
       <c r="F24" s="41"/>
-      <c r="G24" s="110"/>
+      <c r="G24" s="109"/>
       <c r="H24" s="40">
         <v>2</v>
       </c>
       <c r="I24" s="40">
         <v>2</v>
       </c>
-      <c r="J24" s="111">
-        <v>2</v>
-      </c>
-      <c r="K24" s="112">
+      <c r="J24" s="110">
+        <v>2</v>
+      </c>
+      <c r="K24" s="111">
         <v>2</v>
       </c>
       <c r="L24" s="40">
         <v>2</v>
       </c>
-      <c r="M24" s="111">
-        <v>2</v>
-      </c>
-      <c r="N24" s="112">
+      <c r="M24" s="110">
+        <v>2</v>
+      </c>
+      <c r="N24" s="111">
         <v>0</v>
       </c>
       <c r="O24" s="40">
@@ -13658,42 +13665,42 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="113" t="s">
-        <v>241</v>
+      <c r="A25" s="112" t="s">
+        <v>240</v>
       </c>
       <c r="B25" s="41">
         <v>1</v>
       </c>
-      <c r="C25" s="114" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="E25" s="115" t="s">
-        <v>188</v>
+      <c r="C25" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="114" t="s">
+        <v>187</v>
       </c>
       <c r="F25" s="41"/>
-      <c r="G25" s="110"/>
+      <c r="G25" s="109"/>
       <c r="H25" s="40">
         <v>1</v>
       </c>
       <c r="I25" s="40">
         <v>1</v>
       </c>
-      <c r="J25" s="111">
+      <c r="J25" s="110">
         <v>1</v>
       </c>
-      <c r="K25" s="112">
+      <c r="K25" s="111">
         <v>1</v>
       </c>
       <c r="L25" s="40">
         <v>1</v>
       </c>
-      <c r="M25" s="111">
+      <c r="M25" s="110">
         <v>1</v>
       </c>
-      <c r="N25" s="112">
+      <c r="N25" s="111">
         <v>0</v>
       </c>
       <c r="O25" s="40">
@@ -13704,88 +13711,88 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="41">
+        <v>4</v>
+      </c>
+      <c r="C26" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="118" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="40">
+        <v>4</v>
+      </c>
+      <c r="I26" s="40">
+        <v>4</v>
+      </c>
+      <c r="J26" s="110">
+        <v>4</v>
+      </c>
+      <c r="K26" s="111">
+        <v>4</v>
+      </c>
+      <c r="L26" s="40">
+        <v>4</v>
+      </c>
+      <c r="M26" s="110">
+        <v>4</v>
+      </c>
+      <c r="N26" s="111">
+        <v>2</v>
+      </c>
+      <c r="O26" s="40">
+        <v>2</v>
+      </c>
+      <c r="P26" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="B26" s="41">
-        <v>4</v>
-      </c>
-      <c r="C26" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="114" t="s">
-        <v>236</v>
-      </c>
-      <c r="E26" s="119" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="40">
-        <v>4</v>
-      </c>
-      <c r="I26" s="40">
-        <v>4</v>
-      </c>
-      <c r="J26" s="111">
-        <v>4</v>
-      </c>
-      <c r="K26" s="112">
-        <v>4</v>
-      </c>
-      <c r="L26" s="40">
-        <v>4</v>
-      </c>
-      <c r="M26" s="111">
-        <v>4</v>
-      </c>
-      <c r="N26" s="112">
-        <v>2</v>
-      </c>
-      <c r="O26" s="40">
-        <v>2</v>
-      </c>
-      <c r="P26" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="113" t="s">
-        <v>240</v>
-      </c>
       <c r="B27" s="41">
         <v>4</v>
       </c>
-      <c r="C27" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="119" t="s">
-        <v>25</v>
+      <c r="C27" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="148" t="s">
+        <v>260</v>
       </c>
       <c r="F27" s="41"/>
-      <c r="G27" s="110"/>
+      <c r="G27" s="109"/>
       <c r="H27" s="40">
         <v>4</v>
       </c>
       <c r="I27" s="40">
         <v>4</v>
       </c>
-      <c r="J27" s="111">
-        <v>4</v>
-      </c>
-      <c r="K27" s="112">
+      <c r="J27" s="110">
+        <v>4</v>
+      </c>
+      <c r="K27" s="111">
         <v>4</v>
       </c>
       <c r="L27" s="40">
         <v>4</v>
       </c>
-      <c r="M27" s="111">
-        <v>4</v>
-      </c>
-      <c r="N27" s="112">
+      <c r="M27" s="110">
+        <v>4</v>
+      </c>
+      <c r="N27" s="111">
         <v>4</v>
       </c>
       <c r="O27" s="40">
@@ -13796,15 +13803,15 @@
       </c>
       <c r="R27">
         <f>SUM(R3)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="41">
         <v>8</v>
@@ -13812,33 +13819,33 @@
       <c r="C28" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="119" t="s">
-        <v>25</v>
+      <c r="D28" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="148" t="s">
+        <v>260</v>
       </c>
       <c r="F28" s="41"/>
-      <c r="G28" s="86"/>
+      <c r="G28" s="85"/>
       <c r="H28" s="40">
         <v>8</v>
       </c>
       <c r="I28" s="40">
         <v>8</v>
       </c>
-      <c r="J28" s="111">
+      <c r="J28" s="110">
         <v>8</v>
       </c>
-      <c r="K28" s="112">
+      <c r="K28" s="111">
         <v>8</v>
       </c>
       <c r="L28" s="40">
         <v>8</v>
       </c>
-      <c r="M28" s="111">
+      <c r="M28" s="110">
         <v>8</v>
       </c>
-      <c r="N28" s="112">
+      <c r="N28" s="111">
         <v>7</v>
       </c>
       <c r="O28" s="40">
@@ -13849,15 +13856,15 @@
       </c>
       <c r="R28">
         <f>SUM(R10)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="41">
         <v>2</v>
@@ -13865,33 +13872,33 @@
       <c r="C29" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="119" t="s">
-        <v>188</v>
+      <c r="D29" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>187</v>
       </c>
       <c r="F29" s="41"/>
-      <c r="G29" s="86"/>
+      <c r="G29" s="85"/>
       <c r="H29" s="40">
         <v>2</v>
       </c>
       <c r="I29" s="40">
         <v>2</v>
       </c>
-      <c r="J29" s="111">
-        <v>0</v>
-      </c>
-      <c r="K29" s="112">
+      <c r="J29" s="110">
+        <v>0</v>
+      </c>
+      <c r="K29" s="111">
         <v>0</v>
       </c>
       <c r="L29" s="40">
         <v>0</v>
       </c>
-      <c r="M29" s="111">
-        <v>0</v>
-      </c>
-      <c r="N29" s="112">
+      <c r="M29" s="110">
+        <v>0</v>
+      </c>
+      <c r="N29" s="111">
         <v>0</v>
       </c>
       <c r="O29" s="40">
@@ -13905,12 +13912,12 @@
         <v>3</v>
       </c>
       <c r="S29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B30" s="41">
         <v>2</v>
@@ -13918,33 +13925,33 @@
       <c r="C30" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="119" t="s">
-        <v>188</v>
+      <c r="D30" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>187</v>
       </c>
       <c r="F30" s="41"/>
-      <c r="G30" s="86"/>
+      <c r="G30" s="85"/>
       <c r="H30" s="40">
         <v>2</v>
       </c>
       <c r="I30" s="40">
         <v>2</v>
       </c>
-      <c r="J30" s="111">
-        <v>0</v>
-      </c>
-      <c r="K30" s="112">
+      <c r="J30" s="110">
+        <v>0</v>
+      </c>
+      <c r="K30" s="111">
         <v>0</v>
       </c>
       <c r="L30" s="40">
         <v>0</v>
       </c>
-      <c r="M30" s="111">
-        <v>0</v>
-      </c>
-      <c r="N30" s="112">
+      <c r="M30" s="110">
+        <v>0</v>
+      </c>
+      <c r="N30" s="111">
         <v>0</v>
       </c>
       <c r="O30" s="40">
@@ -13958,12 +13965,12 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" s="41">
         <v>2</v>
@@ -13971,33 +13978,33 @@
       <c r="C31" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="119" t="s">
-        <v>188</v>
+      <c r="D31" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>187</v>
       </c>
       <c r="F31" s="41"/>
-      <c r="G31" s="86"/>
+      <c r="G31" s="85"/>
       <c r="H31" s="40">
         <v>2</v>
       </c>
       <c r="I31" s="40">
         <v>0</v>
       </c>
-      <c r="J31" s="111">
-        <v>0</v>
-      </c>
-      <c r="K31" s="112">
+      <c r="J31" s="110">
+        <v>0</v>
+      </c>
+      <c r="K31" s="111">
         <v>0</v>
       </c>
       <c r="L31" s="40">
         <v>0</v>
       </c>
-      <c r="M31" s="111">
-        <v>0</v>
-      </c>
-      <c r="N31" s="112">
+      <c r="M31" s="110">
+        <v>0</v>
+      </c>
+      <c r="N31" s="111">
         <v>0</v>
       </c>
       <c r="O31" s="40">
@@ -14012,8 +14019,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
-        <v>176</v>
+      <c r="A32" s="65" t="s">
+        <v>175</v>
       </c>
       <c r="B32" s="41">
         <v>4</v>
@@ -14021,33 +14028,33 @@
       <c r="C32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="119" t="s">
-        <v>188</v>
+      <c r="D32" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>187</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="86"/>
+      <c r="G32" s="85"/>
       <c r="H32" s="40">
         <v>4</v>
       </c>
       <c r="I32" s="40">
         <v>4</v>
       </c>
-      <c r="J32" s="111">
-        <v>4</v>
-      </c>
-      <c r="K32" s="112">
+      <c r="J32" s="110">
+        <v>4</v>
+      </c>
+      <c r="K32" s="111">
         <v>4</v>
       </c>
       <c r="L32" s="40">
         <v>2</v>
       </c>
-      <c r="M32" s="111">
-        <v>2</v>
-      </c>
-      <c r="N32" s="112">
+      <c r="M32" s="110">
+        <v>2</v>
+      </c>
+      <c r="N32" s="111">
         <v>2</v>
       </c>
       <c r="O32" s="40">
@@ -14058,54 +14065,54 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="51">
-        <v>2</v>
-      </c>
-      <c r="C33" s="51" t="s">
+      <c r="A33" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="50">
+        <v>2</v>
+      </c>
+      <c r="C33" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="118" t="s">
-        <v>252</v>
-      </c>
-      <c r="E33" s="119" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="48">
-        <v>2</v>
-      </c>
-      <c r="I33" s="48">
-        <v>2</v>
-      </c>
-      <c r="J33" s="147">
-        <v>2</v>
-      </c>
-      <c r="K33" s="148">
-        <v>2</v>
-      </c>
-      <c r="L33" s="48">
-        <v>2</v>
-      </c>
-      <c r="M33" s="147">
-        <v>2</v>
-      </c>
-      <c r="N33" s="148">
-        <v>2</v>
-      </c>
-      <c r="O33" s="48">
-        <v>0</v>
-      </c>
-      <c r="P33" s="48">
+      <c r="D33" s="117" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="50"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="47">
+        <v>2</v>
+      </c>
+      <c r="I33" s="47">
+        <v>2</v>
+      </c>
+      <c r="J33" s="128">
+        <v>2</v>
+      </c>
+      <c r="K33" s="129">
+        <v>2</v>
+      </c>
+      <c r="L33" s="47">
+        <v>2</v>
+      </c>
+      <c r="M33" s="128">
+        <v>2</v>
+      </c>
+      <c r="N33" s="129">
+        <v>2</v>
+      </c>
+      <c r="O33" s="47">
+        <v>0</v>
+      </c>
+      <c r="P33" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F34" s="93" t="s">
-        <v>204</v>
+      <c r="F34" s="92" t="s">
+        <v>203</v>
       </c>
       <c r="H34">
         <f>SUM(H3:H33)</f>
@@ -14114,7 +14121,7 @@
     </row>
     <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H35">
         <f>SUM(H3:H9)</f>
@@ -14142,20 +14149,20 @@
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O35">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F36" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H36">
         <f>SUM(H10:H21)</f>
@@ -14191,12 +14198,12 @@
       </c>
       <c r="P36">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37">
         <f>SUM(H22:H32)</f>
@@ -14237,7 +14244,7 @@
     </row>
     <row r="38" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -14268,41 +14275,41 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="58">
+      <c r="H39" s="57">
         <v>41556</v>
       </c>
-      <c r="I39" s="59">
+      <c r="I39" s="58">
         <v>41558</v>
       </c>
-      <c r="J39" s="60">
+      <c r="J39" s="59">
         <v>41561</v>
       </c>
-      <c r="K39" s="58">
+      <c r="K39" s="57">
         <v>41563</v>
       </c>
-      <c r="L39" s="59">
+      <c r="L39" s="58">
         <v>41565</v>
       </c>
-      <c r="M39" s="60">
+      <c r="M39" s="59">
         <v>41568</v>
       </c>
-      <c r="N39" s="58">
+      <c r="N39" s="57">
         <v>41570</v>
       </c>
-      <c r="O39" s="59">
+      <c r="O39" s="58">
         <v>41572</v>
       </c>
-      <c r="P39" s="60">
+      <c r="P39" s="59">
         <v>41575</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D41" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H41">
         <f>SUM(H3,H6)</f>
@@ -14343,7 +14350,7 @@
     </row>
     <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H42">
         <f>SUM(H4:H5,H7:H9,H14,H19,H21)</f>
@@ -14371,20 +14378,20 @@
       </c>
       <c r="N42">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O42">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H43">
         <f>SUM(H50,H20)</f>
@@ -14420,12 +14427,12 @@
       </c>
       <c r="P43">
         <f t="shared" si="5"/>
-        <v>5.3333333333333339</v>
+        <v>4.3333333333333339</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H44">
         <f>SUM(H53,H50)</f>
@@ -14461,12 +14468,12 @@
       </c>
       <c r="P44">
         <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H45">
         <f>SUM(H50)</f>
@@ -14502,12 +14509,12 @@
       </c>
       <c r="P45">
         <f t="shared" si="7"/>
-        <v>3.3333333333333335</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H46">
         <f>SUM(H53,H15)</f>
@@ -14548,7 +14555,7 @@
     </row>
     <row r="47" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H47">
         <f>SUM(H51:H53,H26,H22)</f>
@@ -14589,7 +14596,7 @@
     </row>
     <row r="48" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H48">
         <f>SUM(H23,H24,H52)</f>
@@ -14630,7 +14637,7 @@
     </row>
     <row r="49" spans="6:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F49" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H49">
         <f>SUM(H51,H52)</f>
@@ -14671,7 +14678,7 @@
     </row>
     <row r="50" spans="6:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F50" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H50">
         <f>SUM(H16:H18,H10:H13)/3</f>
@@ -14707,12 +14714,12 @@
       </c>
       <c r="P50">
         <f t="shared" si="12"/>
-        <v>3.3333333333333335</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="51" spans="6:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F51" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H51">
         <f>SUM(H29:H32,H28)/2</f>
@@ -14753,7 +14760,7 @@
     </row>
     <row r="52" spans="6:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H52">
         <f>SUM(H27,H25)/2</f>
@@ -14794,7 +14801,7 @@
     </row>
     <row r="53" spans="6:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F53" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H53">
         <f>(H33)/3</f>
@@ -14844,7 +14851,7 @@
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E33">
+  <conditionalFormatting sqref="E29:E33">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
@@ -14986,8 +14993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4:J4"/>
     </sheetView>
   </sheetViews>
@@ -14997,34 +15004,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="A1" s="147" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>22</v>
@@ -15056,31 +15063,31 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="58">
+      <c r="B4" s="57">
         <v>41556</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="58">
         <v>41558</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="59">
         <v>41561</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="57">
         <v>41563</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="58">
         <v>41565</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="59">
         <v>41568</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="57">
         <v>41570</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="58">
         <v>41572</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="59">
         <v>41575</v>
       </c>
     </row>
@@ -15123,83 +15130,83 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="120">
+      <c r="A6" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="119">
         <f>SUM('Sprint 2'!H3:H33)</f>
         <v>115</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="119">
         <f>SUM('Sprint 2'!I3:I33)</f>
         <v>110</v>
       </c>
-      <c r="D6" s="121">
+      <c r="D6" s="120">
         <f>SUM('Sprint 2'!J3:J33)</f>
         <v>99</v>
       </c>
-      <c r="E6" s="120">
+      <c r="E6" s="119">
         <f>SUM('Sprint 2'!K3:K33)</f>
         <v>86</v>
       </c>
-      <c r="F6" s="120">
+      <c r="F6" s="119">
         <f>SUM('Sprint 2'!L3:L33)</f>
         <v>72</v>
       </c>
-      <c r="G6" s="121">
+      <c r="G6" s="120">
         <f>SUM('Sprint 2'!M3:M33)</f>
         <v>65</v>
       </c>
-      <c r="H6" s="120">
+      <c r="H6" s="119">
         <f>SUM('Sprint 2'!N3:N33)</f>
-        <v>57</v>
-      </c>
-      <c r="I6" s="120">
+        <v>55</v>
+      </c>
+      <c r="I6" s="119">
         <f>SUM('Sprint 2'!O3:O33)</f>
-        <v>45</v>
-      </c>
-      <c r="J6" s="121">
+        <v>41</v>
+      </c>
+      <c r="J6" s="120">
         <f>SUM('Sprint 2'!P3:P33)</f>
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="100">
+      <c r="A7" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="99">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((B5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>115</v>
       </c>
-      <c r="C7" s="124">
+      <c r="C7" s="123">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((C5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>100.625</v>
       </c>
-      <c r="D7" s="125">
+      <c r="D7" s="124">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((D5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>86.25</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="99">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((E5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>71.875</v>
       </c>
-      <c r="F7" s="124">
+      <c r="F7" s="123">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((F5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>57.5</v>
       </c>
-      <c r="G7" s="125">
+      <c r="G7" s="124">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((G5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>43.125</v>
       </c>
-      <c r="H7" s="100">
+      <c r="H7" s="99">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((H5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>28.75</v>
       </c>
-      <c r="I7" s="124">
+      <c r="I7" s="123">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((I5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>14.375</v>
       </c>
-      <c r="J7" s="125">
+      <c r="J7" s="124">
         <f>SUM('Sprint 2'!$B$3:$B$37)-(((J5-1)*SUM('Sprint 2'!$B$3:$B$37))/($J$5-1))</f>
         <v>0</v>
       </c>
@@ -15209,7 +15216,7 @@
     <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>

--- a/PayBack - CEN3031 Scrum.xlsx
+++ b/PayBack - CEN3031 Scrum.xlsx
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="286">
   <si>
     <t>User Stories</t>
   </si>
@@ -1071,9 +1071,6 @@
     <t>PHP Script for modifying account information</t>
   </si>
   <si>
-    <t>arnav</t>
-  </si>
-  <si>
     <t>Allow the user to track their payment history and income/outgoing money in statistics</t>
   </si>
   <si>
@@ -1102,17 +1099,45 @@
   </si>
   <si>
     <t>checksum</t>
+  </si>
+  <si>
+    <t>Create Dialog sequences for changing account information</t>
+  </si>
+  <si>
+    <t>Create method for sending transactions to server (Summary transaction page)</t>
+  </si>
+  <si>
+    <t>Modify Transaction Page 1 to ask for Name of transaction (add EditText for receiving information)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>10/30 - 11/4</t>
+  </si>
+  <si>
+    <t>11/6 - 11/11</t>
+  </si>
+  <si>
+    <t>11/13 - 11/18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1978,512 +2003,533 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="37" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="52" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="36" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="51" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="29" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2495,7 +2541,49 @@
     <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="136">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3682,11 +3770,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="165261696"/>
-        <c:axId val="165263616"/>
+        <c:axId val="58072448"/>
+        <c:axId val="58131968"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="165261696"/>
+        <c:axId val="58072448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,14 +3814,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="165263616"/>
+        <c:crossAx val="58131968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165263616"/>
+        <c:axId val="58131968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3777,7 +3865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165261696"/>
+        <c:crossAx val="58072448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3828,7 +3916,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3906,10 +3993,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>102</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>88</c:v>
@@ -4005,28 +4092,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>102</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.25</c:v>
+                  <c:v>96.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.5</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.75</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.25</c:v>
+                  <c:v>41.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.5</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.75</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4054,11 +4141,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="175184512"/>
-        <c:axId val="175190784"/>
+        <c:axId val="59632640"/>
+        <c:axId val="59638912"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="175184512"/>
+        <c:axId val="59632640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,21 +4179,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="175190784"/>
+        <c:crossAx val="59638912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175190784"/>
+        <c:axId val="59638912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,7 +4215,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4151,14 +4236,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175184512"/>
+        <c:crossAx val="59632640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4929,11 +5013,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167061376"/>
-        <c:axId val="167067648"/>
+        <c:axId val="59746176"/>
+        <c:axId val="60047360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="167061376"/>
+        <c:axId val="59746176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5011,14 +5095,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167067648"/>
+        <c:crossAx val="60047360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167067648"/>
+        <c:axId val="60047360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5108,7 +5192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167061376"/>
+        <c:crossAx val="59746176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6191,8 +6275,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173554304"/>
-        <c:axId val="173564288"/>
+        <c:axId val="86941696"/>
+        <c:axId val="86943616"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6620,7 +6704,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="173554304"/>
+        <c:axId val="86941696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6663,14 +6747,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173564288"/>
+        <c:crossAx val="86943616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="173564288"/>
+        <c:axId val="86943616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6721,7 +6805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173554304"/>
+        <c:crossAx val="86941696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7066,11 +7150,11 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:axId val="166756352"/>
-        <c:axId val="166758272"/>
+        <c:axId val="100841728"/>
+        <c:axId val="123393536"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="166756352"/>
+        <c:axId val="100841728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7110,14 +7194,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="166758272"/>
+        <c:crossAx val="123393536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166758272"/>
+        <c:axId val="123393536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7161,7 +7245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166756352"/>
+        <c:crossAx val="100841728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7367,7 +7451,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$45:$F$48</c:f>
+              <c:f>'Sprint 3'!$F$48:$F$51</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7387,15 +7471,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$P$45:$P$48</c:f>
+              <c:f>'Sprint 3'!$P$48:$P$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>27</c:v>
@@ -7515,7 +7599,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$45</c:f>
+              <c:f>'Sprint 3'!$F$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7538,7 +7622,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7574,36 +7658,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$45:$P$45</c:f>
+              <c:f>'Sprint 3'!$H$48:$P$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7615,7 +7699,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$46</c:f>
+              <c:f>'Sprint 3'!$F$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7638,7 +7722,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7674,36 +7758,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$46:$P$46</c:f>
+              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7715,7 +7799,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$47</c:f>
+              <c:f>'Sprint 3'!$F$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7738,7 +7822,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7774,7 +7858,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$47:$P$47</c:f>
+              <c:f>'Sprint 3'!$H$50:$P$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7815,7 +7899,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$48</c:f>
+              <c:f>'Sprint 3'!$F$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7838,7 +7922,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7874,7 +7958,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$48:$P$48</c:f>
+              <c:f>'Sprint 3'!$H$51:$P$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7921,11 +8005,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166947456"/>
-        <c:axId val="166957824"/>
+        <c:axId val="58187776"/>
+        <c:axId val="58189696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="166947456"/>
+        <c:axId val="58187776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8004,14 +8088,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166957824"/>
+        <c:crossAx val="58189696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166957824"/>
+        <c:axId val="58189696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8099,7 +8183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166947456"/>
+        <c:crossAx val="58187776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8263,7 +8347,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$51</c:f>
+              <c:f>'Sprint 3'!$F$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8283,7 +8367,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8319,36 +8403,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$51:$P$51</c:f>
+              <c:f>'Sprint 3'!$H$54:$P$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8360,7 +8444,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$52</c:f>
+              <c:f>'Sprint 3'!$F$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8380,7 +8464,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8416,36 +8500,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
+              <c:f>'Sprint 3'!$H$55:$P$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8457,7 +8541,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$53</c:f>
+              <c:f>'Sprint 3'!$F$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8477,7 +8561,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8513,36 +8597,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$53:$P$53</c:f>
+              <c:f>'Sprint 3'!$H$56:$P$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8554,7 +8638,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$54</c:f>
+              <c:f>'Sprint 3'!$F$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8574,7 +8658,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8610,36 +8694,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$54:$P$54</c:f>
+              <c:f>'Sprint 3'!$H$57:$P$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8651,7 +8735,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$55</c:f>
+              <c:f>'Sprint 3'!$F$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8671,7 +8755,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8707,36 +8791,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$55:$P$55</c:f>
+              <c:f>'Sprint 3'!$H$58:$P$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8748,7 +8832,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$56</c:f>
+              <c:f>'Sprint 3'!$F$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8768,7 +8852,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8804,7 +8888,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$56:$P$56</c:f>
+              <c:f>'Sprint 3'!$H$59:$P$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8845,7 +8929,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$57</c:f>
+              <c:f>'Sprint 3'!$F$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8867,7 +8951,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8903,7 +8987,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$57:$P$57</c:f>
+              <c:f>'Sprint 3'!$H$60:$P$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8944,7 +9028,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$58</c:f>
+              <c:f>'Sprint 3'!$F$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8966,7 +9050,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9002,7 +9086,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$58:$P$58</c:f>
+              <c:f>'Sprint 3'!$H$61:$P$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9043,7 +9127,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$59</c:f>
+              <c:f>'Sprint 3'!$F$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9065,7 +9149,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$49:$P$49</c:f>
+              <c:f>'Sprint 3'!$H$52:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9101,7 +9185,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$59:$P$59</c:f>
+              <c:f>'Sprint 3'!$H$62:$P$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9147,11 +9231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174018560"/>
-        <c:axId val="174020096"/>
+        <c:axId val="58414208"/>
+        <c:axId val="58415744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="174018560"/>
+        <c:axId val="58414208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9195,14 +9279,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174020096"/>
+        <c:crossAx val="58415744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174020096"/>
+        <c:axId val="58415744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9253,7 +9337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174018560"/>
+        <c:crossAx val="58414208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9523,7 +9607,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 3'!$F$51:$F$59</c:f>
+              <c:f>'Sprint 3'!$F$54:$F$62</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -9558,24 +9642,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$H$51:$H$59</c:f>
+              <c:f>'Sprint 3'!$H$54:$H$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16</c:v>
@@ -11690,7 +11774,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11716,13 +11800,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>2720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1034143</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11748,13 +11832,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>81644</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12115,13 +12199,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
+      <c r="A1" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -13084,10 +13168,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="160"/>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
     </row>
@@ -13614,7 +13698,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33" s="36">
         <v>4</v>
@@ -13631,7 +13715,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="137" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C34" s="36">
         <v>4</v>
@@ -13648,7 +13732,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C35" s="36">
         <v>4</v>
@@ -13941,7 +14025,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C54" s="39">
         <v>4</v>
@@ -14105,7 +14189,7 @@
         <v>48</v>
       </c>
       <c r="B64" s="124" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C64" s="39">
         <v>2</v>
@@ -14122,7 +14206,7 @@
         <v>48</v>
       </c>
       <c r="B65" s="124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C65" s="39">
         <v>1</v>
@@ -14139,7 +14223,7 @@
         <v>48</v>
       </c>
       <c r="B66" s="124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C66" s="39">
         <v>4</v>
@@ -14665,332 +14749,332 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="129" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="87" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="128" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="86" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="127" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="85" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="126" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="84" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="125" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="83" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="124" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="82" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="123" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="81" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="122" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="76" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="121" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="75" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="120" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="74" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="119" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="71" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="118" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="69" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="117" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="68" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="116" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="65" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="115" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="63" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="114" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="61" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="113" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="60" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="112" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="59" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="111" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="58" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="110" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="56" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="109" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="55" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="108" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="53" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="107" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="52" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="106" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="49" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="105" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="47" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="104" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="45" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="103" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="44" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="102" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="43" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="101" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="42" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="100" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="40" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="99" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="39" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="98" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="37" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="97" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="36" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="96" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="33" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="95" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="32" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="94" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="31" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="93" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="30" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="92" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="29" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="91" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="28" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="90" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="89" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="26" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="88" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="25" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="87" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="86" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="23" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="85" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="22" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="84" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="83" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="20" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="82" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="19" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="81" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="80" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="17" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="79" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="16" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="78" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="77" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="14" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="76" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="13" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="75" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="74" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="73" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="10" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="72" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="71" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="8" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="70" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="7" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15053,21 +15137,21 @@
       <c r="G1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="160" t="s">
+      <c r="H1" s="161" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="161"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="163" t="s">
+      <c r="I1" s="162"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="164" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="164"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="163" t="s">
+      <c r="L1" s="165"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="164" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="164"/>
-      <c r="P1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="166"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -16274,7 +16358,7 @@
     </row>
     <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" s="44">
         <v>2</v>
@@ -16513,18 +16597,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -16912,21 +16996,21 @@
       <c r="G1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="163" t="s">
+      <c r="H1" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="164"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="163" t="s">
+      <c r="I1" s="165"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="164" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="164"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="163" t="s">
+      <c r="L1" s="165"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="164"/>
-      <c r="P1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="166"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -19332,18 +19416,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="169" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -19695,11 +19779,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S84" sqref="S84"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19736,21 +19820,21 @@
       <c r="G1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="163" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1" s="164"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="163" t="s">
-        <v>220</v>
-      </c>
-      <c r="L1" s="164"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="O1" s="164"/>
-      <c r="P1" s="165"/>
+      <c r="H1" s="164" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="165"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="164" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="165"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="164" t="s">
+        <v>285</v>
+      </c>
+      <c r="O1" s="165"/>
+      <c r="P1" s="166"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -19803,23 +19887,23 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>198</v>
+      <c r="A3" s="170" t="s">
+        <v>201</v>
       </c>
       <c r="B3" s="36">
         <v>2</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="172" t="s">
         <v>258</v>
       </c>
       <c r="F3" s="36"/>
-      <c r="G3" s="69"/>
+      <c r="G3" s="173"/>
       <c r="H3" s="33">
         <v>2</v>
       </c>
@@ -19849,49 +19933,49 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>201</v>
+      <c r="A4" s="170" t="s">
+        <v>279</v>
       </c>
       <c r="B4" s="36">
-        <v>2</v>
-      </c>
-      <c r="C4" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="172" t="s">
         <v>258</v>
       </c>
       <c r="F4" s="36"/>
-      <c r="G4" s="69"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" s="114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P4" s="131">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20088,8 +20172,8 @@
       <c r="C9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="123" t="s">
-        <v>185</v>
+      <c r="D9" s="171" t="s">
+        <v>247</v>
       </c>
       <c r="E9" s="122" t="s">
         <v>258</v>
@@ -20134,8 +20218,8 @@
       <c r="C10" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="123" t="s">
-        <v>185</v>
+      <c r="D10" s="171" t="s">
+        <v>247</v>
       </c>
       <c r="E10" s="122" t="s">
         <v>258</v>
@@ -20218,7 +20302,7 @@
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="137" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="36">
         <v>4</v>
@@ -20229,8 +20313,8 @@
       <c r="D12" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="122" t="s">
-        <v>258</v>
+      <c r="E12" s="129" t="s">
+        <v>187</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="69"/>
@@ -20241,30 +20325,30 @@
         <v>2</v>
       </c>
       <c r="J12" s="114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" s="38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" s="131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B13" s="36">
         <v>4</v>
@@ -20287,25 +20371,25 @@
         <v>2</v>
       </c>
       <c r="J13" s="114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20410,8 +20494,8 @@
       <c r="C16" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="125" t="s">
-        <v>185</v>
+      <c r="D16" s="176" t="s">
+        <v>251</v>
       </c>
       <c r="E16" s="122" t="s">
         <v>258</v>
@@ -20548,8 +20632,8 @@
       <c r="C19" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>247</v>
+      <c r="D19" s="176" t="s">
+        <v>185</v>
       </c>
       <c r="E19" s="122" t="s">
         <v>258</v>
@@ -20563,25 +20647,25 @@
         <v>2</v>
       </c>
       <c r="J19" s="115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" s="132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20589,7 +20673,7 @@
         <v>146</v>
       </c>
       <c r="B20" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>9</v>
@@ -20597,37 +20681,37 @@
       <c r="D20" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="122" t="s">
-        <v>258</v>
+      <c r="E20" s="129" t="s">
+        <v>187</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="75"/>
       <c r="H20" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20770,7 +20854,7 @@
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="124" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B24" s="39">
         <v>2</v>
@@ -20816,7 +20900,7 @@
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B25" s="39">
         <v>1</v>
@@ -20862,7 +20946,7 @@
     </row>
     <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B26" s="39">
         <v>4</v>
@@ -20907,146 +20991,146 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="175" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" s="39">
+        <v>2</v>
+      </c>
+      <c r="C27" s="176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="176" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="172" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="30">
+        <v>2</v>
+      </c>
+      <c r="I27" s="30">
+        <v>2</v>
+      </c>
+      <c r="J27" s="115">
+        <v>2</v>
+      </c>
+      <c r="K27" s="116">
+        <v>2</v>
+      </c>
+      <c r="L27" s="40">
+        <v>2</v>
+      </c>
+      <c r="M27" s="115">
+        <v>2</v>
+      </c>
+      <c r="N27" s="116">
+        <v>2</v>
+      </c>
+      <c r="O27" s="40">
+        <v>2</v>
+      </c>
+      <c r="P27" s="132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="175" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="39">
+        <v>1</v>
+      </c>
+      <c r="C28" s="176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="176" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="172" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="30">
+        <v>1</v>
+      </c>
+      <c r="I28" s="30">
+        <v>1</v>
+      </c>
+      <c r="J28" s="115">
+        <v>1</v>
+      </c>
+      <c r="K28" s="116">
+        <v>1</v>
+      </c>
+      <c r="L28" s="40">
+        <v>1</v>
+      </c>
+      <c r="M28" s="115">
+        <v>1</v>
+      </c>
+      <c r="N28" s="116">
+        <v>1</v>
+      </c>
+      <c r="O28" s="40">
+        <v>1</v>
+      </c>
+      <c r="P28" s="132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B29" s="35">
         <v>1</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C29" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="D27" s="127" t="s">
+      <c r="D29" s="127" t="s">
         <v>232</v>
       </c>
-      <c r="E27" s="122" t="s">
+      <c r="E29" s="122" t="s">
         <v>258</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="34">
-        <v>1</v>
-      </c>
-      <c r="I27" s="34">
-        <v>1</v>
-      </c>
-      <c r="J27" s="100">
-        <v>1</v>
-      </c>
-      <c r="K27" s="101">
-        <v>1</v>
-      </c>
-      <c r="L27" s="34">
-        <v>1</v>
-      </c>
-      <c r="M27" s="100">
-        <v>1</v>
-      </c>
-      <c r="N27" s="101">
-        <v>1</v>
-      </c>
-      <c r="O27" s="34">
-        <v>1</v>
-      </c>
-      <c r="P27" s="133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="35">
-        <v>2</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="127" t="s">
-        <v>232</v>
-      </c>
-      <c r="E28" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="34">
-        <v>2</v>
-      </c>
-      <c r="I28" s="34">
-        <v>2</v>
-      </c>
-      <c r="J28" s="100">
-        <v>2</v>
-      </c>
-      <c r="K28" s="101">
-        <v>2</v>
-      </c>
-      <c r="L28" s="34">
-        <v>2</v>
-      </c>
-      <c r="M28" s="100">
-        <v>2</v>
-      </c>
-      <c r="N28" s="101">
-        <v>2</v>
-      </c>
-      <c r="O28" s="34">
-        <v>2</v>
-      </c>
-      <c r="P28" s="133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="35">
-        <v>2</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="127" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="129" t="s">
-        <v>187</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="99"/>
       <c r="H29" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="B30" s="35">
         <v>2</v>
@@ -21055,44 +21139,44 @@
         <v>8</v>
       </c>
       <c r="D30" s="127" t="s">
-        <v>252</v>
-      </c>
-      <c r="E30" s="129" t="s">
-        <v>187</v>
+        <v>232</v>
+      </c>
+      <c r="E30" s="122" t="s">
+        <v>258</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="99"/>
+      <c r="G30" s="78"/>
       <c r="H30" s="34">
         <v>2</v>
       </c>
       <c r="I30" s="34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" s="101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" s="34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30" s="100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" s="34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" s="133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="128" t="s">
-        <v>260</v>
+      <c r="A31" s="34" t="s">
+        <v>217</v>
       </c>
       <c r="B31" s="35">
         <v>2</v>
@@ -21103,8 +21187,8 @@
       <c r="D31" s="127" t="s">
         <v>252</v>
       </c>
-      <c r="E31" s="122" t="s">
-        <v>258</v>
+      <c r="E31" s="129" t="s">
+        <v>187</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="99"/>
@@ -21112,33 +21196,33 @@
         <v>2</v>
       </c>
       <c r="I31" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="128" t="s">
-        <v>267</v>
+      <c r="A32" s="34" t="s">
+        <v>218</v>
       </c>
       <c r="B32" s="35">
         <v>2</v>
@@ -21149,42 +21233,42 @@
       <c r="D32" s="127" t="s">
         <v>252</v>
       </c>
-      <c r="E32" s="122" t="s">
-        <v>258</v>
+      <c r="E32" s="129" t="s">
+        <v>187</v>
       </c>
       <c r="F32" s="35"/>
-      <c r="G32" s="78"/>
+      <c r="G32" s="99"/>
       <c r="H32" s="34">
         <v>2</v>
       </c>
       <c r="I32" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" s="100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P32" s="133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="128" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="35">
         <v>2</v>
@@ -21192,14 +21276,14 @@
       <c r="C33" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="169" t="s">
-        <v>186</v>
+      <c r="D33" s="127" t="s">
+        <v>252</v>
       </c>
       <c r="E33" s="122" t="s">
         <v>258</v>
       </c>
       <c r="F33" s="35"/>
-      <c r="G33" s="78"/>
+      <c r="G33" s="99"/>
       <c r="H33" s="34">
         <v>2</v>
       </c>
@@ -21230,7 +21314,7 @@
     </row>
     <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="128" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B34" s="35">
         <v>2</v>
@@ -21239,7 +21323,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="127" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="E34" s="122" t="s">
         <v>258</v>
@@ -21276,7 +21360,7 @@
     </row>
     <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="128" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B35" s="35">
         <v>2</v>
@@ -21284,7 +21368,7 @@
       <c r="C35" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="127" t="s">
+      <c r="D35" s="157" t="s">
         <v>186</v>
       </c>
       <c r="E35" s="122" t="s">
@@ -21322,7 +21406,7 @@
     </row>
     <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B36" s="35">
         <v>2</v>
@@ -21368,7 +21452,7 @@
     </row>
     <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="128" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B37" s="35">
         <v>2</v>
@@ -21377,7 +21461,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="127" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="E37" s="122" t="s">
         <v>258</v>
@@ -21414,7 +21498,7 @@
     </row>
     <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="128" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B38" s="35">
         <v>2</v>
@@ -21423,7 +21507,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="127" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="E38" s="122" t="s">
         <v>258</v>
@@ -21460,7 +21544,7 @@
     </row>
     <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="128" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B39" s="35">
         <v>2</v>
@@ -21505,14 +21589,14 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>172</v>
+      <c r="A40" s="128" t="s">
+        <v>265</v>
       </c>
       <c r="B40" s="35">
-        <v>4</v>
-      </c>
-      <c r="C40" s="127" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>8</v>
       </c>
       <c r="D40" s="127" t="s">
         <v>232</v>
@@ -21521,9 +21605,9 @@
         <v>258</v>
       </c>
       <c r="F40" s="35"/>
-      <c r="G40" s="99"/>
+      <c r="G40" s="78"/>
       <c r="H40" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40" s="34">
         <v>2</v>
@@ -21551,23 +21635,23 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>180</v>
+      <c r="A41" s="128" t="s">
+        <v>268</v>
       </c>
       <c r="B41" s="35">
         <v>2</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="127" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="E41" s="122" t="s">
         <v>258</v>
       </c>
       <c r="F41" s="35"/>
-      <c r="G41" s="99"/>
+      <c r="G41" s="78"/>
       <c r="H41" s="34">
         <v>2</v>
       </c>
@@ -21598,24 +21682,24 @@
     </row>
     <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B42" s="35">
-        <v>2</v>
-      </c>
-      <c r="C42" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="127" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="127" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="E42" s="122" t="s">
         <v>258</v>
       </c>
       <c r="F42" s="35"/>
-      <c r="G42" s="78"/>
+      <c r="G42" s="99"/>
       <c r="H42" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42" s="34">
         <v>2</v>
@@ -21643,729 +21727,784 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="120" t="s">
-        <v>211</v>
-      </c>
-      <c r="B43" s="44">
-        <v>2</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="121" t="s">
-        <v>185</v>
+      <c r="A43" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="35">
+        <v>2</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="127" t="s">
+        <v>186</v>
       </c>
       <c r="E43" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="41">
-        <v>2</v>
-      </c>
-      <c r="I43" s="41">
-        <v>2</v>
-      </c>
-      <c r="J43" s="117">
-        <v>2</v>
-      </c>
-      <c r="K43" s="118">
-        <v>2</v>
-      </c>
-      <c r="L43" s="41">
-        <v>2</v>
-      </c>
-      <c r="M43" s="117">
-        <v>2</v>
-      </c>
-      <c r="N43" s="118">
-        <v>2</v>
-      </c>
-      <c r="O43" s="41">
-        <v>2</v>
-      </c>
-      <c r="P43" s="134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F44" s="85" t="s">
+      <c r="F43" s="35"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="34">
+        <v>2</v>
+      </c>
+      <c r="I43" s="34">
+        <v>2</v>
+      </c>
+      <c r="J43" s="100">
+        <v>2</v>
+      </c>
+      <c r="K43" s="101">
+        <v>2</v>
+      </c>
+      <c r="L43" s="34">
+        <v>2</v>
+      </c>
+      <c r="M43" s="100">
+        <v>2</v>
+      </c>
+      <c r="N43" s="101">
+        <v>2</v>
+      </c>
+      <c r="O43" s="34">
+        <v>2</v>
+      </c>
+      <c r="P43" s="133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="35">
+        <v>2</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="122" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="34">
+        <v>2</v>
+      </c>
+      <c r="I44" s="34">
+        <v>2</v>
+      </c>
+      <c r="J44" s="100">
+        <v>2</v>
+      </c>
+      <c r="K44" s="101">
+        <v>2</v>
+      </c>
+      <c r="L44" s="34">
+        <v>2</v>
+      </c>
+      <c r="M44" s="100">
+        <v>2</v>
+      </c>
+      <c r="N44" s="101">
+        <v>2</v>
+      </c>
+      <c r="O44" s="34">
+        <v>2</v>
+      </c>
+      <c r="P44" s="133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="44">
+        <v>2</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="122" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="44"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="41">
+        <v>2</v>
+      </c>
+      <c r="I45" s="41">
+        <v>2</v>
+      </c>
+      <c r="J45" s="117">
+        <v>2</v>
+      </c>
+      <c r="K45" s="118">
+        <v>2</v>
+      </c>
+      <c r="L45" s="41">
+        <v>2</v>
+      </c>
+      <c r="M45" s="117">
+        <v>2</v>
+      </c>
+      <c r="N45" s="118">
+        <v>2</v>
+      </c>
+      <c r="O45" s="41">
+        <v>2</v>
+      </c>
+      <c r="P45" s="134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="H44">
-        <f>SUM(H3:H43)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="14" t="s">
+      <c r="H46">
+        <f>SUM(H3:H45)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="85"/>
+    </row>
+    <row r="48" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="H45">
+      <c r="H48">
         <f>SUM(H3:H13)</f>
-        <v>36</v>
-      </c>
-      <c r="I45">
-        <f t="shared" ref="I45:P45" si="0">SUM(I3:I13)</f>
-        <v>32</v>
-      </c>
-      <c r="J45">
+        <v>38</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48:P48" si="0">SUM(I3:I13)</f>
+        <v>34</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="K45">
+        <v>31</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L45">
+        <v>31</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="M45">
+        <v>31</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="N45">
+        <v>31</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="O45">
+        <v>31</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="P45">
+        <v>31</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="14">
-        <f>SUM(B3:B43)</f>
-        <v>102</v>
-      </c>
-      <c r="F46" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="14">
+        <f>SUM(B3:B45)</f>
+        <v>110</v>
+      </c>
+      <c r="F49" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="H46">
-        <f>SUM(H14:H26)</f>
+      <c r="H49">
+        <f>SUM(H14:H28)</f>
+        <v>37</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49:P49" si="1">SUM(I14:I28)</f>
         <v>31</v>
       </c>
-      <c r="I46">
-        <f t="shared" ref="I46:P46" si="1">SUM(I14:I26)</f>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50">
+        <f>SUM(H29:H44)</f>
+        <v>33</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ref="I50:P50" si="2">SUM(I29:I44)</f>
         <v>27</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47">
-        <f>SUM(H27:H42)</f>
-        <v>33</v>
-      </c>
-      <c r="I47">
-        <f t="shared" ref="I47:P47" si="2">SUM(I27:I42)</f>
-        <v>27</v>
-      </c>
-      <c r="J47">
+      <c r="J50">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K47">
+      <c r="K50">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="L47">
+      <c r="L50">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="M47">
+      <c r="M50">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="N47">
+      <c r="N50">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O47">
+      <c r="O50">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="P47">
+      <c r="P50">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="135" t="s">
-        <v>232</v>
-      </c>
-      <c r="B48" s="136">
-        <v>13</v>
-      </c>
-      <c r="F48" s="14" t="s">
+    <row r="51" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="135"/>
+      <c r="B51" s="136"/>
+      <c r="F51" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="H48">
-        <f>H43</f>
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <f t="shared" ref="I48:P48" si="3">I43</f>
-        <v>2</v>
-      </c>
-      <c r="J48">
+      <c r="H51">
+        <f>H45</f>
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ref="I51:P51" si="3">I45</f>
+        <v>2</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K48">
+      <c r="K51">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L48">
+      <c r="L51">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M48">
+      <c r="M51">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="N48">
+      <c r="N51">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O48">
+      <c r="O51">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P48">
+      <c r="P51">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="135" t="s">
+    <row r="52" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="135"/>
+      <c r="B52" s="136"/>
+      <c r="H52" s="51">
+        <v>41577</v>
+      </c>
+      <c r="I52" s="52">
+        <v>41579</v>
+      </c>
+      <c r="J52" s="53">
+        <v>41582</v>
+      </c>
+      <c r="K52" s="51">
+        <v>41584</v>
+      </c>
+      <c r="L52" s="52">
+        <v>41586</v>
+      </c>
+      <c r="M52" s="53">
+        <v>41589</v>
+      </c>
+      <c r="N52" s="51">
+        <v>41591</v>
+      </c>
+      <c r="O52" s="52">
+        <v>41593</v>
+      </c>
+      <c r="P52" s="53">
+        <v>41596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="135"/>
+      <c r="B53" s="136"/>
+    </row>
+    <row r="54" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="135"/>
+      <c r="B54" s="136"/>
+      <c r="D54" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H54">
+        <f>SUM(H3:H4)</f>
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54:P54" si="4">SUM(I3:I4)</f>
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L54">
+   